--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcanuto/Documents/Courses/STAT205/Project 1/STAT-205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3149F1BA-E099-844E-8C9B-45553F0DF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AB356-736B-5145-9D5D-A9221A1828EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,10 +83,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k/Desktop/UNIVERSITY/YEAR 2/STAT 205/STAT-205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3149F1BA-E099-844E-8C9B-45553F0DF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE242EC-4D56-8B47-9EE1-62CF8A4056BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>observation_date</t>
   </si>
@@ -33,13 +46,58 @@
   <si>
     <t>consumer_price_index</t>
   </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Sample SD</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Coefficient of Variation</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max </t>
+  </si>
+  <si>
+    <t>Upper Fence</t>
+  </si>
+  <si>
+    <t>Lower Fence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -58,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,15 +142,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D823"/>
+  <dimension ref="A1:D846"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+      <selection activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -460,9 +526,6 @@
       <c r="B2">
         <v>26.86</v>
       </c>
-      <c r="C2">
-        <v>3.7243947858467408E-2</v>
-      </c>
       <c r="D2">
         <v>0.8</v>
       </c>
@@ -475,7 +538,8 @@
         <v>26.85</v>
       </c>
       <c r="C3">
-        <v>0.14919806042521519</v>
+        <f>(B3/B2-1)*100</f>
+        <v>-3.7230081906169943E-2</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -489,7 +553,8 @@
         <v>26.81</v>
       </c>
       <c r="C4">
-        <v>0.33682634730538558</v>
+        <f t="shared" ref="C4:C67" si="0">(B4/B3-1)*100</f>
+        <v>-0.14897579143390294</v>
       </c>
       <c r="D4">
         <v>1.07</v>
@@ -503,7 +568,8 @@
         <v>26.72</v>
       </c>
       <c r="C5">
-        <v>-0.2240477968633359</v>
+        <f t="shared" si="0"/>
+        <v>-0.33569563595673424</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -517,7 +583,8 @@
         <v>26.78</v>
       </c>
       <c r="C6">
-        <v>3.735524841241844E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.22455089820359042</v>
       </c>
       <c r="D6">
         <v>0.83</v>
@@ -531,7 +598,8 @@
         <v>26.77</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-3.7341299477222645E-2</v>
       </c>
       <c r="D7">
         <v>1.28</v>
@@ -545,7 +613,8 @@
         <v>26.77</v>
       </c>
       <c r="C8">
-        <v>-0.18642803877703121</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1.39</v>
@@ -559,7 +628,8 @@
         <v>26.82</v>
       </c>
       <c r="C9">
-        <v>0.1119820828667351</v>
+        <f t="shared" si="0"/>
+        <v>0.18677624206200338</v>
       </c>
       <c r="D9">
         <v>1.29</v>
@@ -573,7 +643,8 @@
         <v>26.79</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.11185682326622093</v>
       </c>
       <c r="D10">
         <v>1.35</v>
@@ -587,7 +658,8 @@
         <v>26.79</v>
       </c>
       <c r="C11">
-        <v>7.4710496824792472E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1.43</v>
@@ -601,7 +673,8 @@
         <v>26.77</v>
       </c>
       <c r="C12">
-        <v>0.22463496817670681</v>
+        <f t="shared" si="0"/>
+        <v>-7.4654721911160404E-2</v>
       </c>
       <c r="D12">
         <v>1.43</v>
@@ -615,7 +688,8 @@
         <v>26.71</v>
       </c>
       <c r="C13">
-        <v>-0.1868460388639748</v>
+        <f t="shared" si="0"/>
+        <v>-0.22413149047441072</v>
       </c>
       <c r="D13">
         <v>1.64</v>
@@ -629,7 +703,8 @@
         <v>26.76</v>
       </c>
       <c r="C14">
-        <v>0.14970059880241579</v>
+        <f t="shared" si="0"/>
+        <v>0.18719580681392234</v>
       </c>
       <c r="D14">
         <v>1.68</v>
@@ -643,7 +718,8 @@
         <v>26.72</v>
       </c>
       <c r="C15">
-        <v>-0.48417132216015402</v>
+        <f t="shared" si="0"/>
+        <v>-0.1494768310911887</v>
       </c>
       <c r="D15">
         <v>1.96</v>
@@ -657,7 +733,8 @@
         <v>26.85</v>
       </c>
       <c r="C16">
-        <v>0.1118568232662209</v>
+        <f t="shared" si="0"/>
+        <v>0.48652694610780145</v>
       </c>
       <c r="D16">
         <v>2.1800000000000002</v>
@@ -671,7 +748,8 @@
         <v>26.82</v>
       </c>
       <c r="C17">
-        <v>-0.2232142857142794</v>
+        <f t="shared" si="0"/>
+        <v>-0.11173184357542443</v>
       </c>
       <c r="D17">
         <v>2.2400000000000002</v>
@@ -685,7 +763,8 @@
         <v>26.88</v>
       </c>
       <c r="C18">
-        <v>3.7216226274638942E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.22371364653244186</v>
       </c>
       <c r="D18">
         <v>2.35</v>
@@ -699,7 +778,8 @@
         <v>26.87</v>
       </c>
       <c r="C19">
-        <v>0.14908684308609921</v>
+        <f t="shared" si="0"/>
+        <v>-3.7202380952372494E-2</v>
       </c>
       <c r="D19">
         <v>2.48</v>
@@ -713,7 +793,8 @@
         <v>26.83</v>
       </c>
       <c r="C20">
-        <v>-0.11169024571854309</v>
+        <f t="shared" si="0"/>
+        <v>-0.14886490509863348</v>
       </c>
       <c r="D20">
         <v>2.4500000000000002</v>
@@ -727,7 +808,8 @@
         <v>26.86</v>
       </c>
       <c r="C21">
-        <v>-0.1115656377835617</v>
+        <f t="shared" si="0"/>
+        <v>0.11181513231457441</v>
       </c>
       <c r="D21">
         <v>2.5</v>
@@ -741,7 +823,8 @@
         <v>26.89</v>
       </c>
       <c r="C22">
-        <v>-0.14853323431117671</v>
+        <f t="shared" si="0"/>
+        <v>0.11169024571855424</v>
       </c>
       <c r="D22">
         <v>2.5</v>
@@ -755,7 +838,8 @@
         <v>26.93</v>
       </c>
       <c r="C23">
-        <v>-0.36995930447650821</v>
+        <f t="shared" si="0"/>
+        <v>0.14875418371140814</v>
       </c>
       <c r="D23">
         <v>2.62</v>
@@ -769,7 +853,8 @@
         <v>27.03</v>
       </c>
       <c r="C24">
-        <v>-0.44198895027622859</v>
+        <f t="shared" si="0"/>
+        <v>0.37133308577794732</v>
       </c>
       <c r="D24">
         <v>2.75</v>
@@ -783,7 +868,8 @@
         <v>27.15</v>
       </c>
       <c r="C25">
-        <v>-0.51300842799560931</v>
+        <f t="shared" si="0"/>
+        <v>0.44395116537179202</v>
       </c>
       <c r="D25">
         <v>2.71</v>
@@ -797,7 +883,8 @@
         <v>27.29</v>
       </c>
       <c r="C26">
-        <v>-7.3233247894544107E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.51565377532227785</v>
       </c>
       <c r="D26">
         <v>2.75</v>
@@ -811,7 +898,8 @@
         <v>27.31</v>
       </c>
       <c r="C27">
-        <v>-0.14625228519196121</v>
+        <f t="shared" si="0"/>
+        <v>7.3286918285075942E-2</v>
       </c>
       <c r="D27">
         <v>2.73</v>
@@ -825,7 +913,8 @@
         <v>27.35</v>
       </c>
       <c r="C28">
-        <v>-0.5816066884769211</v>
+        <f t="shared" si="0"/>
+        <v>0.14646649578908821</v>
       </c>
       <c r="D28">
         <v>2.95</v>
@@ -839,7 +928,8 @@
         <v>27.51</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.58500914076782262</v>
       </c>
       <c r="D29">
         <v>2.96</v>
@@ -853,7 +943,8 @@
         <v>27.51</v>
       </c>
       <c r="C30">
-        <v>-0.43431053203039077</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>2.88</v>
@@ -867,7 +958,8 @@
         <v>27.63</v>
       </c>
       <c r="C31">
-        <v>-0.14456089627756799</v>
+        <f t="shared" si="0"/>
+        <v>0.4362050163576825</v>
       </c>
       <c r="D31">
         <v>2.94</v>
@@ -881,7 +973,8 @@
         <v>27.67</v>
       </c>
       <c r="C32">
-        <v>-0.46762589928057707</v>
+        <f t="shared" si="0"/>
+        <v>0.14477017734346731</v>
       </c>
       <c r="D32">
         <v>2.84</v>
@@ -895,7 +988,8 @@
         <v>27.8</v>
       </c>
       <c r="C33">
-        <v>-0.21536252692031521</v>
+        <f t="shared" si="0"/>
+        <v>0.46982291290205147</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -909,7 +1003,8 @@
         <v>27.86</v>
       </c>
       <c r="C34">
-        <v>-0.25062656641604558</v>
+        <f t="shared" si="0"/>
+        <v>0.21582733812948174</v>
       </c>
       <c r="D34">
         <v>2.96</v>
@@ -923,7 +1018,8 @@
         <v>27.93</v>
       </c>
       <c r="C35">
-        <v>-0.25000000000000577</v>
+        <f t="shared" si="0"/>
+        <v>0.25125628140703071</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -937,7 +1033,8 @@
         <v>28</v>
       </c>
       <c r="C36">
-        <v>-0.3913198150124475</v>
+        <f t="shared" si="0"/>
+        <v>0.25062656641603454</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -951,7 +1048,8 @@
         <v>28.11</v>
       </c>
       <c r="C37">
-        <v>-0.28378857750975822</v>
+        <f t="shared" si="0"/>
+        <v>0.39285714285715034</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -965,7 +1063,8 @@
         <v>28.19</v>
       </c>
       <c r="C38">
-        <v>-0.31824611032531541</v>
+        <f t="shared" si="0"/>
+        <v>0.28459622909997595</v>
       </c>
       <c r="D38">
         <v>2.99</v>
@@ -979,7 +1078,8 @@
         <v>28.28</v>
       </c>
       <c r="C39">
-        <v>-0.1412429378531033</v>
+        <f t="shared" si="0"/>
+        <v>0.31926214969848488</v>
       </c>
       <c r="D39">
         <v>3.24</v>
@@ -993,7 +1093,8 @@
         <v>28.32</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14144271570013522</v>
       </c>
       <c r="D40">
         <v>3.47</v>
@@ -1007,7 +1108,8 @@
         <v>28.32</v>
       </c>
       <c r="C41">
-        <v>-0.31678986272438697</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>3.5</v>
@@ -1021,7 +1123,8 @@
         <v>28.41</v>
       </c>
       <c r="C42">
-        <v>-0.2107481559536328</v>
+        <f t="shared" si="0"/>
+        <v>0.31779661016948513</v>
       </c>
       <c r="D42">
         <v>3.28</v>
@@ -1035,7 +1138,8 @@
         <v>28.47</v>
       </c>
       <c r="C43">
-        <v>-0.59357541899441868</v>
+        <f t="shared" si="0"/>
+        <v>0.21119324181626542</v>
       </c>
       <c r="D43">
         <v>2.98</v>
@@ -1049,7 +1153,8 @@
         <v>28.64</v>
       </c>
       <c r="C44">
-        <v>-0.20905923344947119</v>
+        <f t="shared" si="0"/>
+        <v>0.59711977520198189</v>
       </c>
       <c r="D44">
         <v>2.72</v>
@@ -1063,7 +1168,8 @@
         <v>28.7</v>
       </c>
       <c r="C45">
-        <v>-0.58884655351576498</v>
+        <f t="shared" si="0"/>
+        <v>0.20949720670391248</v>
       </c>
       <c r="D45">
         <v>1.67</v>
@@ -1077,7 +1183,8 @@
         <v>28.87</v>
       </c>
       <c r="C46">
-        <v>-0.24187975120939509</v>
+        <f t="shared" si="0"/>
+        <v>0.59233449477351652</v>
       </c>
       <c r="D46">
         <v>1.2</v>
@@ -1091,7 +1198,8 @@
         <v>28.94</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.24246622791825878</v>
       </c>
       <c r="D47">
         <v>1.26</v>
@@ -1105,7 +1213,8 @@
         <v>28.94</v>
       </c>
       <c r="C48">
-        <v>0.1037703216880015</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0.63</v>
@@ -1119,7 +1228,8 @@
         <v>28.91</v>
       </c>
       <c r="C49">
-        <v>6.922810661127432E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.10366275051831852</v>
       </c>
       <c r="D49">
         <v>0.93</v>
@@ -1133,7 +1243,8 @@
         <v>28.89</v>
       </c>
       <c r="C50">
-        <v>-0.17277125086385681</v>
+        <f t="shared" si="0"/>
+        <v>-6.9180214458663958E-2</v>
       </c>
       <c r="D50">
         <v>0.68</v>
@@ -1147,7 +1258,8 @@
         <v>28.94</v>
       </c>
       <c r="C51">
-        <v>0.1037703216880015</v>
+        <f t="shared" si="0"/>
+        <v>0.17307026652821911</v>
       </c>
       <c r="D51">
         <v>1.53</v>
@@ -1161,7 +1273,8 @@
         <v>28.91</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.10366275051831852</v>
       </c>
       <c r="D52">
         <v>1.76</v>
@@ -1175,7 +1288,8 @@
         <v>28.91</v>
       </c>
       <c r="C53">
-        <v>-0.13816925734023711</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1.8</v>
@@ -1189,7 +1303,8 @@
         <v>28.95</v>
       </c>
       <c r="C54">
-        <v>-6.9036934760091651E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13836042891732792</v>
       </c>
       <c r="D54">
         <v>2.27</v>
@@ -1203,7 +1318,8 @@
         <v>28.97</v>
       </c>
       <c r="C55">
-        <v>-0.1378834884522617</v>
+        <f t="shared" si="0"/>
+        <v>6.9084628670124104E-2</v>
       </c>
       <c r="D55">
         <v>2.42</v>
@@ -1217,7 +1333,8 @@
         <v>29.01</v>
       </c>
       <c r="C56">
-        <v>3.4482758620701937E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13807386952020551</v>
       </c>
       <c r="D56">
         <v>2.48</v>
@@ -1231,7 +1348,8 @@
         <v>29</v>
       </c>
       <c r="C57">
-        <v>0.1035554021401541</v>
+        <f t="shared" si="0"/>
+        <v>-3.4470872113068207E-2</v>
       </c>
       <c r="D57">
         <v>2.4300000000000002</v>
@@ -1245,7 +1363,8 @@
         <v>28.97</v>
       </c>
       <c r="C58">
-        <v>-3.4506556245694757E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.1034482758620725</v>
       </c>
       <c r="D58">
         <v>2.8</v>
@@ -1259,7 +1378,8 @@
         <v>28.98</v>
       </c>
       <c r="C59">
-        <v>-0.20661157024792759</v>
+        <f t="shared" si="0"/>
+        <v>3.4518467380051376E-2</v>
       </c>
       <c r="D59">
         <v>2.96</v>
@@ -1273,7 +1393,8 @@
         <v>29.04</v>
       </c>
       <c r="C60">
-        <v>-0.24046719340432571</v>
+        <f t="shared" si="0"/>
+        <v>0.20703933747412417</v>
       </c>
       <c r="D60">
         <v>2.9</v>
@@ -1287,7 +1408,8 @@
         <v>29.11</v>
       </c>
       <c r="C61">
-        <v>-0.13722126929673889</v>
+        <f t="shared" si="0"/>
+        <v>0.24104683195591559</v>
       </c>
       <c r="D61">
         <v>3.39</v>
@@ -1301,7 +1423,8 @@
         <v>29.15</v>
       </c>
       <c r="C62">
-        <v>-0.10281014393420659</v>
+        <f t="shared" si="0"/>
+        <v>0.13740982480248132</v>
       </c>
       <c r="D62">
         <v>3.47</v>
@@ -1315,7 +1438,8 @@
         <v>29.18</v>
       </c>
       <c r="C63">
-        <v>-0.2393162393162451</v>
+        <f t="shared" si="0"/>
+        <v>0.10291595197255976</v>
       </c>
       <c r="D63">
         <v>3.5</v>
@@ -1329,7 +1453,8 @@
         <v>29.25</v>
       </c>
       <c r="C64">
-        <v>-0.34071550255536648</v>
+        <f t="shared" si="0"/>
+        <v>0.23989033584648212</v>
       </c>
       <c r="D64">
         <v>3.76</v>
@@ -1343,7 +1468,8 @@
         <v>29.35</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.34188034188034067</v>
       </c>
       <c r="D65">
         <v>3.98</v>
@@ -1357,7 +1483,8 @@
         <v>29.35</v>
       </c>
       <c r="C66">
-        <v>-0.20401224073444141</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1371,7 +1498,8 @@
         <v>29.41</v>
       </c>
       <c r="C67">
-        <v>0.13619339462036531</v>
+        <f t="shared" si="0"/>
+        <v>0.20442930153321548</v>
       </c>
       <c r="D67">
         <v>3.99</v>
@@ -1385,7 +1513,8 @@
         <v>29.37</v>
       </c>
       <c r="C68">
-        <v>-0.1360081604896313</v>
+        <f t="shared" ref="C68:C131" si="1">(B68/B67-1)*100</f>
+        <v>-0.13600816048963127</v>
       </c>
       <c r="D68">
         <v>3.99</v>
@@ -1399,7 +1528,8 @@
         <v>29.41</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13619339462036528</v>
       </c>
       <c r="D69">
         <v>3.97</v>
@@ -1413,7 +1543,8 @@
         <v>29.41</v>
       </c>
       <c r="C70">
-        <v>-0.44008124576844221</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>3.84</v>
@@ -1427,7 +1558,8 @@
         <v>29.54</v>
       </c>
       <c r="C71">
-        <v>-0.101454176530269</v>
+        <f t="shared" si="1"/>
+        <v>0.44202652159128775</v>
       </c>
       <c r="D71">
         <v>3.92</v>
@@ -1441,7 +1573,8 @@
         <v>29.57</v>
       </c>
       <c r="C72">
-        <v>-0.1350894967916183</v>
+        <f t="shared" si="1"/>
+        <v>0.10155721056195333</v>
       </c>
       <c r="D72">
         <v>3.85</v>
@@ -1455,7 +1588,8 @@
         <v>29.61</v>
       </c>
       <c r="C73">
-        <v>0.20304568527917949</v>
+        <f t="shared" si="1"/>
+        <v>0.1352722353736846</v>
       </c>
       <c r="D73">
         <v>3.32</v>
@@ -1469,7 +1603,8 @@
         <v>29.55</v>
       </c>
       <c r="C74">
-        <v>-0.20263424518742751</v>
+        <f t="shared" si="1"/>
+        <v>-0.20263424518742745</v>
       </c>
       <c r="D74">
         <v>3.23</v>
@@ -1483,7 +1618,8 @@
         <v>29.61</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.20304568527917954</v>
       </c>
       <c r="D75">
         <v>2.98</v>
@@ -1497,7 +1633,8 @@
         <v>29.61</v>
       </c>
       <c r="C76">
-        <v>-0.47058823529412258</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>2.6</v>
@@ -1511,7 +1648,8 @@
         <v>29.75</v>
       </c>
       <c r="C77">
-        <v>-0.1007387508394908</v>
+        <f t="shared" si="1"/>
+        <v>0.47281323877068626</v>
       </c>
       <c r="D77">
         <v>2.4700000000000002</v>
@@ -1525,7 +1663,8 @@
         <v>29.78</v>
       </c>
       <c r="C78">
-        <v>-0.1006373700100593</v>
+        <f t="shared" si="1"/>
+        <v>0.10084033613446675</v>
       </c>
       <c r="D78">
         <v>2.44</v>
@@ -1539,7 +1678,8 @@
         <v>29.81</v>
       </c>
       <c r="C79">
-        <v>-0.100536193029499</v>
+        <f t="shared" si="1"/>
+        <v>0.1007387508394908</v>
       </c>
       <c r="D79">
         <v>1.98</v>
@@ -1553,7 +1693,8 @@
         <v>29.84</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10063737001007045</v>
       </c>
       <c r="D80">
         <v>1.45</v>
@@ -1567,6 +1708,7 @@
         <v>29.84</v>
       </c>
       <c r="C81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D81">
@@ -1581,7 +1723,8 @@
         <v>29.84</v>
       </c>
       <c r="C82">
-        <v>0.10063737001007041</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>2.02</v>
@@ -1595,7 +1738,8 @@
         <v>29.81</v>
       </c>
       <c r="C83">
-        <v>-0.100536193029499</v>
+        <f t="shared" si="1"/>
+        <v>-0.10053619302949901</v>
       </c>
       <c r="D83">
         <v>1.49</v>
@@ -1609,7 +1753,8 @@
         <v>29.84</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10063737001007045</v>
       </c>
       <c r="D84">
         <v>1.98</v>
@@ -1623,7 +1768,8 @@
         <v>29.84</v>
       </c>
       <c r="C85">
-        <v>-0.2673796791443861</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1.73</v>
@@ -1637,7 +1783,8 @@
         <v>29.92</v>
       </c>
       <c r="C86">
-        <v>-6.6800267201072572E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.26809651474530849</v>
       </c>
       <c r="D86">
         <v>1.17</v>
@@ -1651,7 +1798,8 @@
         <v>29.94</v>
       </c>
       <c r="C87">
-        <v>-0.13342228152101179</v>
+        <f t="shared" si="1"/>
+        <v>6.6844919786102075E-2</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -1665,7 +1813,8 @@
         <v>29.98</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13360053440214514</v>
       </c>
       <c r="D88">
         <v>1.88</v>
@@ -1679,6 +1828,7 @@
         <v>29.98</v>
       </c>
       <c r="C89">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D89">
@@ -1693,7 +1843,8 @@
         <v>29.98</v>
       </c>
       <c r="C90">
-        <v>-9.9966677774077084E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>2.61</v>
@@ -1707,7 +1858,8 @@
         <v>30.01</v>
       </c>
       <c r="C91">
-        <v>-9.9866844207718852E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10006671114075605</v>
       </c>
       <c r="D91">
         <v>2.33</v>
@@ -1721,7 +1873,8 @@
         <v>30.04</v>
       </c>
       <c r="C92">
-        <v>-0.23248090335437069</v>
+        <f t="shared" si="1"/>
+        <v>9.9966677774077084E-2</v>
       </c>
       <c r="D92">
         <v>2.15</v>
@@ -1735,7 +1888,8 @@
         <v>30.11</v>
       </c>
       <c r="C93">
-        <v>-0.19887305270136491</v>
+        <f t="shared" si="1"/>
+        <v>0.23302263648468102</v>
       </c>
       <c r="D93">
         <v>2.37</v>
@@ -1749,7 +1903,8 @@
         <v>30.17</v>
       </c>
       <c r="C94">
-        <v>-0.1324064879179021</v>
+        <f t="shared" si="1"/>
+        <v>0.19926934573231136</v>
       </c>
       <c r="D94">
         <v>2.85</v>
@@ -1763,7 +1918,8 @@
         <v>30.21</v>
       </c>
       <c r="C95">
-        <v>-9.9206349206337752E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.13258203513424327</v>
       </c>
       <c r="D95">
         <v>2.78</v>
@@ -1777,6 +1933,7 @@
         <v>30.24</v>
       </c>
       <c r="C96">
+        <f t="shared" si="1"/>
         <v>9.930486593843213E-2</v>
       </c>
       <c r="D96">
@@ -1791,7 +1948,8 @@
         <v>30.21</v>
       </c>
       <c r="C97">
-        <v>-3.3090668431490222E-2</v>
+        <f t="shared" si="1"/>
+        <v>-9.9206349206337752E-2</v>
       </c>
       <c r="D97">
         <v>2.68</v>
@@ -1805,7 +1963,8 @@
         <v>30.22</v>
       </c>
       <c r="C98">
-        <v>-0.19815059445179581</v>
+        <f t="shared" si="1"/>
+        <v>3.3101621979469975E-2</v>
       </c>
       <c r="D98">
         <v>2.71</v>
@@ -1819,7 +1978,8 @@
         <v>30.28</v>
       </c>
       <c r="C99">
-        <v>-0.46022353714662012</v>
+        <f t="shared" si="1"/>
+        <v>0.19854401058903015</v>
       </c>
       <c r="D99">
         <v>2.93</v>
@@ -1833,7 +1993,8 @@
         <v>30.42</v>
       </c>
       <c r="C100">
-        <v>0.13166556945358729</v>
+        <f t="shared" si="1"/>
+        <v>0.46235138705417178</v>
       </c>
       <c r="D100">
         <v>2.9</v>
@@ -1847,7 +2008,8 @@
         <v>30.38</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.13149243918475495</v>
       </c>
       <c r="D101">
         <v>2.9</v>
@@ -1861,6 +2023,7 @@
         <v>30.38</v>
       </c>
       <c r="C102">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D102">
@@ -1875,7 +2038,8 @@
         <v>30.38</v>
       </c>
       <c r="C103">
-        <v>-0.19710906701708719</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2.93</v>
@@ -1889,7 +2053,8 @@
         <v>30.44</v>
       </c>
       <c r="C104">
-        <v>-0.1312335958005173</v>
+        <f t="shared" si="1"/>
+        <v>0.19749835418039208</v>
       </c>
       <c r="D104">
         <v>2.92</v>
@@ -1903,7 +2068,8 @@
         <v>30.48</v>
       </c>
       <c r="C105">
-        <v>-9.8328416912496497E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.13140604467805073</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -1917,6 +2083,7 @@
         <v>30.51</v>
       </c>
       <c r="C106">
+        <f t="shared" si="1"/>
         <v>9.8425196850393526E-2</v>
       </c>
       <c r="D106">
@@ -1931,6 +2098,7 @@
         <v>30.48</v>
       </c>
       <c r="C107">
+        <f t="shared" si="1"/>
         <v>-9.8328416912496497E-2</v>
       </c>
       <c r="D107">
@@ -1945,7 +2113,8 @@
         <v>30.51</v>
       </c>
       <c r="C108">
-        <v>-0.32669062397908682</v>
+        <f t="shared" si="1"/>
+        <v>9.8425196850393526E-2</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -1959,7 +2128,8 @@
         <v>30.61</v>
       </c>
       <c r="C109">
-        <v>-0.26067122841316742</v>
+        <f t="shared" si="1"/>
+        <v>0.32776138970829205</v>
       </c>
       <c r="D109">
         <v>2.99</v>
@@ -1973,7 +2143,8 @@
         <v>30.69</v>
       </c>
       <c r="C110">
-        <v>-0.1951219512195124</v>
+        <f t="shared" si="1"/>
+        <v>0.26135249918328718</v>
       </c>
       <c r="D110">
         <v>3.02</v>
@@ -1987,7 +2158,8 @@
         <v>30.75</v>
       </c>
       <c r="C111">
-        <v>9.765625E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.19550342130987275</v>
       </c>
       <c r="D111">
         <v>3.49</v>
@@ -2001,6 +2173,7 @@
         <v>30.72</v>
       </c>
       <c r="C112">
+        <f t="shared" si="1"/>
         <v>-9.7560975609756184E-2</v>
       </c>
       <c r="D112">
@@ -2015,7 +2188,8 @@
         <v>30.75</v>
       </c>
       <c r="C113">
-        <v>-9.746588693957392E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.765625E-2</v>
       </c>
       <c r="D113">
         <v>3.5</v>
@@ -2029,7 +2203,8 @@
         <v>30.78</v>
       </c>
       <c r="C114">
-        <v>-0.32383419689118181</v>
+        <f t="shared" si="1"/>
+        <v>9.7560975609756184E-2</v>
       </c>
       <c r="D114">
         <v>3.48</v>
@@ -2043,7 +2218,8 @@
         <v>30.88</v>
       </c>
       <c r="C115">
-        <v>-0.19392372333549851</v>
+        <f t="shared" si="1"/>
+        <v>0.32488628979856493</v>
       </c>
       <c r="D115">
         <v>3.38</v>
@@ -2057,7 +2233,8 @@
         <v>30.94</v>
       </c>
       <c r="C116">
-        <v>9.7055968942094673E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.19430051813471572</v>
       </c>
       <c r="D116">
         <v>3.48</v>
@@ -2071,6 +2248,7 @@
         <v>30.91</v>
       </c>
       <c r="C117">
+        <f t="shared" si="1"/>
         <v>-9.6961861667743676E-2</v>
       </c>
       <c r="D117">
@@ -2085,7 +2263,8 @@
         <v>30.94</v>
       </c>
       <c r="C118">
-        <v>-3.2310177705974219E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.7055968942094673E-2</v>
       </c>
       <c r="D118">
         <v>3.43</v>
@@ -2099,7 +2278,8 @@
         <v>30.95</v>
       </c>
       <c r="C119">
-        <v>-9.6836668818600646E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2320620555914559E-2</v>
       </c>
       <c r="D119">
         <v>3.47</v>
@@ -2113,7 +2293,8 @@
         <v>30.98</v>
       </c>
       <c r="C120">
-        <v>-9.6742986133513398E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6930533117944861E-2</v>
       </c>
       <c r="D120">
         <v>3.5</v>
@@ -2127,7 +2308,8 @@
         <v>31.01</v>
       </c>
       <c r="C121">
-        <v>-3.2237266279810939E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6836668818589544E-2</v>
       </c>
       <c r="D121">
         <v>3.5</v>
@@ -2141,7 +2323,8 @@
         <v>31.02</v>
       </c>
       <c r="C122">
-        <v>-9.6618357487920914E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2247662044504466E-2</v>
       </c>
       <c r="D122">
         <v>3.42</v>
@@ -2155,7 +2338,8 @@
         <v>31.05</v>
       </c>
       <c r="C123">
-        <v>-9.6525096525090781E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6711798839455021E-2</v>
       </c>
       <c r="D123">
         <v>3.5</v>
@@ -2169,7 +2353,8 @@
         <v>31.08</v>
       </c>
       <c r="C124">
-        <v>-0.1285347043701868</v>
+        <f t="shared" si="1"/>
+        <v>9.6618357487909812E-2</v>
       </c>
       <c r="D124">
         <v>3.45</v>
@@ -2183,7 +2368,8 @@
         <v>31.12</v>
       </c>
       <c r="C125">
-        <v>-0.2883691124639487</v>
+        <f t="shared" si="1"/>
+        <v>0.12870012870014325</v>
       </c>
       <c r="D125">
         <v>3.36</v>
@@ -2197,7 +2383,8 @@
         <v>31.21</v>
       </c>
       <c r="C126">
-        <v>-0.12799999999999481</v>
+        <f t="shared" si="1"/>
+        <v>0.28920308483291191</v>
       </c>
       <c r="D126">
         <v>3.52</v>
@@ -2211,7 +2398,8 @@
         <v>31.25</v>
       </c>
       <c r="C127">
-        <v>-9.5907928388749841E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.1281640499839698</v>
       </c>
       <c r="D127">
         <v>3.85</v>
@@ -2225,7 +2413,8 @@
         <v>31.28</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.6000000000007191E-2</v>
       </c>
       <c r="D128">
         <v>3.9</v>
@@ -2239,7 +2428,8 @@
         <v>31.28</v>
       </c>
       <c r="C129">
-        <v>-9.5816033216211682E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>3.98</v>
@@ -2253,7 +2443,8 @@
         <v>31.31</v>
       </c>
       <c r="C130">
-        <v>-0.2230720203951542</v>
+        <f t="shared" si="1"/>
+        <v>9.5907928388738739E-2</v>
       </c>
       <c r="D130">
         <v>4.05</v>
@@ -2267,7 +2458,8 @@
         <v>31.38</v>
       </c>
       <c r="C131">
-        <v>-0.31766200762389779</v>
+        <f t="shared" si="1"/>
+        <v>0.2235707441711865</v>
       </c>
       <c r="D131">
         <v>4.09</v>
@@ -2281,7 +2473,8 @@
         <v>31.48</v>
       </c>
       <c r="C132">
-        <v>-0.41126225877886607</v>
+        <f t="shared" ref="C132:C195" si="2">(B132/B131-1)*100</f>
+        <v>0.31867431485022024</v>
       </c>
       <c r="D132">
         <v>4.0999999999999996</v>
@@ -2295,7 +2488,8 @@
         <v>31.61</v>
       </c>
       <c r="C133">
-        <v>9.499683343889842E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.41296060991105055</v>
       </c>
       <c r="D133">
         <v>4.05</v>
@@ -2309,7 +2503,8 @@
         <v>31.58</v>
       </c>
       <c r="C134">
-        <v>9.5087163232965288E-2</v>
+        <f t="shared" si="2"/>
+        <v>-9.4906675102823801E-2</v>
       </c>
       <c r="D134">
         <v>4.09</v>
@@ -2323,7 +2518,8 @@
         <v>31.55</v>
       </c>
       <c r="C135">
-        <v>-0.22137887413029581</v>
+        <f t="shared" si="2"/>
+        <v>-9.4996833438876216E-2</v>
       </c>
       <c r="D135">
         <v>4.12</v>
@@ -2337,7 +2533,8 @@
         <v>31.62</v>
       </c>
       <c r="C136">
-        <v>-9.4786729857809782E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.22187004754359307</v>
       </c>
       <c r="D136">
         <v>4.0199999999999996</v>
@@ -2351,7 +2548,8 @@
         <v>31.65</v>
       </c>
       <c r="C137">
-        <v>-0.31496062992126822</v>
+        <f t="shared" si="2"/>
+        <v>9.4876660341558505E-2</v>
       </c>
       <c r="D137">
         <v>4.08</v>
@@ -2365,7 +2563,8 @@
         <v>31.75</v>
       </c>
       <c r="C138">
-        <v>-0.31397174254317323</v>
+        <f t="shared" si="2"/>
+        <v>0.31595576619274368</v>
       </c>
       <c r="D138">
         <v>4.0999999999999996</v>
@@ -2379,7 +2578,8 @@
         <v>31.85</v>
       </c>
       <c r="C139">
-        <v>-9.4102885821822913E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.31496062992126816</v>
       </c>
       <c r="D139">
         <v>4.32</v>
@@ -2393,7 +2593,8 @@
         <v>31.88</v>
       </c>
       <c r="C140">
-        <v>-0.62344139650872821</v>
+        <f t="shared" si="2"/>
+        <v>9.4191522762954172E-2</v>
       </c>
       <c r="D140">
         <v>4.42</v>
@@ -2407,7 +2608,8 @@
         <v>32.08</v>
       </c>
       <c r="C141">
-        <v>-0.31075201988813861</v>
+        <f t="shared" si="2"/>
+        <v>0.6273525721455453</v>
       </c>
       <c r="D141">
         <v>4.5999999999999996</v>
@@ -2421,7 +2623,8 @@
         <v>32.18</v>
       </c>
       <c r="C142">
-        <v>-0.30978934324659152</v>
+        <f t="shared" si="2"/>
+        <v>0.31172069825435855</v>
       </c>
       <c r="D142">
         <v>4.66</v>
@@ -2435,7 +2638,8 @@
         <v>32.28</v>
       </c>
       <c r="C143">
-        <v>-0.21638330757342009</v>
+        <f t="shared" si="2"/>
+        <v>0.31075201988812751</v>
       </c>
       <c r="D143">
         <v>4.67</v>
@@ -2449,7 +2653,8 @@
         <v>32.35</v>
       </c>
       <c r="C144">
-        <v>-9.2649783817178033E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.21685254027261625</v>
       </c>
       <c r="D144">
         <v>4.9000000000000004</v>
@@ -2463,7 +2668,8 @@
         <v>32.380000000000003</v>
       </c>
       <c r="C145">
-        <v>-0.21571648690292819</v>
+        <f t="shared" si="2"/>
+        <v>9.2735703245749868E-2</v>
       </c>
       <c r="D145">
         <v>5.17</v>
@@ -2477,7 +2683,8 @@
         <v>32.450000000000003</v>
       </c>
       <c r="C146">
-        <v>-0.61255742725879747</v>
+        <f t="shared" si="2"/>
+        <v>0.21618282890674134</v>
       </c>
       <c r="D146">
         <v>5.3</v>
@@ -2491,7 +2698,8 @@
         <v>32.65</v>
       </c>
       <c r="C147">
-        <v>-0.30534351145038441</v>
+        <f t="shared" si="2"/>
+        <v>0.61633281972264253</v>
       </c>
       <c r="D147">
         <v>5.53</v>
@@ -2505,7 +2713,8 @@
         <v>32.75</v>
       </c>
       <c r="C148">
-        <v>-0.30441400304414001</v>
+        <f t="shared" si="2"/>
+        <v>0.30627871362940429</v>
       </c>
       <c r="D148">
         <v>5.4</v>
@@ -2519,7 +2728,8 @@
         <v>32.85</v>
       </c>
       <c r="C149">
-        <v>-9.1240875912412811E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.30534351145039551</v>
       </c>
       <c r="D149">
         <v>5.53</v>
@@ -2533,7 +2743,8 @@
         <v>32.880000000000003</v>
       </c>
       <c r="C150">
-        <v>-0.12150668286755591</v>
+        <f t="shared" si="2"/>
+        <v>9.1324200913245335E-2</v>
       </c>
       <c r="D150">
         <v>5.76</v>
@@ -2547,7 +2758,8 @@
         <v>32.92</v>
       </c>
       <c r="C151">
-        <v>6.0790273556232677E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12165450121655041</v>
       </c>
       <c r="D151">
         <v>5.4</v>
@@ -2561,7 +2773,8 @@
         <v>32.9</v>
       </c>
       <c r="C152">
-        <v>-0.30303030303030498</v>
+        <f t="shared" si="2"/>
+        <v>-6.0753341433783525E-2</v>
       </c>
       <c r="D152">
         <v>4.9400000000000004</v>
@@ -2575,7 +2788,8 @@
         <v>33</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.30395136778116338</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -2589,7 +2803,8 @@
         <v>33</v>
       </c>
       <c r="C154">
-        <v>-0.30211480362538617</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>4.53</v>
@@ -2603,7 +2818,8 @@
         <v>33.1</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.30303030303031608</v>
       </c>
       <c r="D155">
         <v>4.05</v>
@@ -2617,7 +2833,8 @@
         <v>33.1</v>
       </c>
       <c r="C156">
-        <v>-0.60060060060058706</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>3.94</v>
@@ -2631,7 +2848,8 @@
         <v>33.299999999999997</v>
       </c>
       <c r="C157">
-        <v>-0.29940119760479827</v>
+        <f t="shared" si="2"/>
+        <v>0.60422960725075026</v>
       </c>
       <c r="D157">
         <v>3.98</v>
@@ -2645,7 +2863,8 @@
         <v>33.4</v>
       </c>
       <c r="C158">
-        <v>-0.29850746268657019</v>
+        <f t="shared" si="2"/>
+        <v>0.30030030030030463</v>
       </c>
       <c r="D158">
         <v>3.79</v>
@@ -2659,7 +2878,8 @@
         <v>33.5</v>
       </c>
       <c r="C159">
-        <v>-0.29761904761904662</v>
+        <f t="shared" si="2"/>
+        <v>0.29940119760478723</v>
       </c>
       <c r="D159">
         <v>3.9</v>
@@ -2673,7 +2893,8 @@
         <v>33.6</v>
       </c>
       <c r="C160">
-        <v>-0.29673590504450947</v>
+        <f t="shared" si="2"/>
+        <v>0.29850746268658135</v>
       </c>
       <c r="D160">
         <v>3.99</v>
@@ -2687,7 +2908,8 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C161">
-        <v>-0.58997050147491237</v>
+        <f t="shared" si="2"/>
+        <v>0.29761904761904656</v>
       </c>
       <c r="D161">
         <v>3.88</v>
@@ -2701,7 +2923,8 @@
         <v>33.9</v>
       </c>
       <c r="C162">
-        <v>-0.29411764705882248</v>
+        <f t="shared" si="2"/>
+        <v>0.59347181008901906</v>
       </c>
       <c r="D162">
         <v>4.13</v>
@@ -2715,7 +2938,8 @@
         <v>34</v>
       </c>
       <c r="C163">
-        <v>-0.29325513196480912</v>
+        <f t="shared" si="2"/>
+        <v>0.29498525073747839</v>
       </c>
       <c r="D163">
         <v>4.51</v>
@@ -2729,7 +2953,8 @@
         <v>34.1</v>
       </c>
       <c r="C164">
-        <v>-0.29239766081872182</v>
+        <f t="shared" si="2"/>
+        <v>0.29411764705882248</v>
       </c>
       <c r="D164">
         <v>4.6100000000000003</v>
@@ -2743,7 +2968,8 @@
         <v>34.200000000000003</v>
       </c>
       <c r="C165">
-        <v>-0.29154518950436081</v>
+        <f t="shared" si="2"/>
+        <v>0.29325513196480912</v>
       </c>
       <c r="D165">
         <v>4.71</v>
@@ -2757,7 +2983,8 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C166">
-        <v>-0.29069767441860522</v>
+        <f t="shared" si="2"/>
+        <v>0.29239766081869956</v>
       </c>
       <c r="D166">
         <v>5.05</v>
@@ -2771,7 +2998,8 @@
         <v>34.4</v>
       </c>
       <c r="C167">
-        <v>-0.28985507246377379</v>
+        <f t="shared" si="2"/>
+        <v>0.29154518950438302</v>
       </c>
       <c r="D167">
         <v>5.76</v>
@@ -2785,7 +3013,8 @@
         <v>34.5</v>
       </c>
       <c r="C168">
-        <v>-0.57636887608070175</v>
+        <f t="shared" si="2"/>
+        <v>0.29069767441860517</v>
       </c>
       <c r="D168">
         <v>6.12</v>
@@ -2799,7 +3028,8 @@
         <v>34.700000000000003</v>
       </c>
       <c r="C169">
-        <v>-0.57306590257878431</v>
+        <f t="shared" si="2"/>
+        <v>0.57971014492754769</v>
       </c>
       <c r="D169">
         <v>6.07</v>
@@ -2813,7 +3043,8 @@
         <v>34.9</v>
       </c>
       <c r="C170">
-        <v>-0.28571428571428908</v>
+        <f t="shared" si="2"/>
+        <v>0.57636887608067955</v>
       </c>
       <c r="D170">
         <v>6.03</v>
@@ -2827,7 +3058,8 @@
         <v>35</v>
       </c>
       <c r="C171">
-        <v>-0.28490028490029129</v>
+        <f t="shared" si="2"/>
+        <v>0.28653295128939771</v>
       </c>
       <c r="D171">
         <v>6.03</v>
@@ -2841,7 +3073,8 @@
         <v>35.1</v>
       </c>
       <c r="C172">
-        <v>-0.56657223796032774</v>
+        <f t="shared" si="2"/>
+        <v>0.28571428571428914</v>
       </c>
       <c r="D172">
         <v>5.78</v>
@@ -2855,7 +3088,8 @@
         <v>35.299999999999997</v>
       </c>
       <c r="C173">
-        <v>-0.28248587570621758</v>
+        <f t="shared" si="2"/>
+        <v>0.56980056980056037</v>
       </c>
       <c r="D173">
         <v>5.91</v>
@@ -2869,7 +3103,8 @@
         <v>35.4</v>
       </c>
       <c r="C174">
-        <v>-0.56179775280900124</v>
+        <f t="shared" si="2"/>
+        <v>0.28328611898016387</v>
       </c>
       <c r="D174">
         <v>5.82</v>
@@ -2883,7 +3118,8 @@
         <v>35.6</v>
       </c>
       <c r="C175">
-        <v>-0.28011204481792618</v>
+        <f t="shared" si="2"/>
+        <v>0.56497175141243527</v>
       </c>
       <c r="D175">
         <v>6.02</v>
@@ -2897,7 +3133,8 @@
         <v>35.700000000000003</v>
       </c>
       <c r="C176">
-        <v>-0.27932960893852782</v>
+        <f t="shared" si="2"/>
+        <v>0.28089887640450062</v>
       </c>
       <c r="D176">
         <v>6.3</v>
@@ -2911,7 +3148,8 @@
         <v>35.799999999999997</v>
       </c>
       <c r="C177">
-        <v>-0.83102493074793671</v>
+        <f t="shared" si="2"/>
+        <v>0.28011204481790397</v>
       </c>
       <c r="D177">
         <v>6.61</v>
@@ -2925,7 +3163,8 @@
         <v>36.1</v>
       </c>
       <c r="C178">
-        <v>-0.55096418732780705</v>
+        <f t="shared" si="2"/>
+        <v>0.8379888268156499</v>
       </c>
       <c r="D178">
         <v>6.79</v>
@@ -2939,7 +3178,8 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C179">
-        <v>-0.27472527472527369</v>
+        <f t="shared" si="2"/>
+        <v>0.55401662049860967</v>
       </c>
       <c r="D179">
         <v>7.41</v>
@@ -2953,7 +3193,8 @@
         <v>36.4</v>
       </c>
       <c r="C180">
-        <v>-0.5464480874317057</v>
+        <f t="shared" si="2"/>
+        <v>0.27548209366392573</v>
       </c>
       <c r="D180">
         <v>8.67</v>
@@ -2967,7 +3208,8 @@
         <v>36.6</v>
       </c>
       <c r="C181">
-        <v>-0.54347826086955653</v>
+        <f t="shared" si="2"/>
+        <v>0.5494505494505475</v>
       </c>
       <c r="D181">
         <v>8.9</v>
@@ -2981,7 +3223,8 @@
         <v>36.799999999999997</v>
       </c>
       <c r="C182">
-        <v>-0.27100271002710169</v>
+        <f t="shared" si="2"/>
+        <v>0.54644808743167239</v>
       </c>
       <c r="D182">
         <v>8.61</v>
@@ -2995,7 +3238,8 @@
         <v>36.9</v>
       </c>
       <c r="C183">
-        <v>-0.53908355795149188</v>
+        <f t="shared" si="2"/>
+        <v>0.27173913043478937</v>
       </c>
       <c r="D183">
         <v>9.19</v>
@@ -3009,7 +3253,8 @@
         <v>37.1</v>
       </c>
       <c r="C184">
-        <v>-0.53619302949060588</v>
+        <f t="shared" si="2"/>
+        <v>0.54200542005420349</v>
       </c>
       <c r="D184">
         <v>9.15</v>
@@ -3023,7 +3268,8 @@
         <v>37.299999999999997</v>
       </c>
       <c r="C185">
-        <v>-0.53333333333334121</v>
+        <f t="shared" si="2"/>
+        <v>0.53908355795146967</v>
       </c>
       <c r="D185">
         <v>9</v>
@@ -3037,7 +3283,8 @@
         <v>37.5</v>
       </c>
       <c r="C186">
-        <v>-0.53050397877985045</v>
+        <f t="shared" si="2"/>
+        <v>0.53619302949061698</v>
       </c>
       <c r="D186">
         <v>8.85</v>
@@ -3051,7 +3298,8 @@
         <v>37.700000000000003</v>
       </c>
       <c r="C187">
-        <v>-0.52770448548811189</v>
+        <f t="shared" si="2"/>
+        <v>0.53333333333334121</v>
       </c>
       <c r="D187">
         <v>8.9700000000000006</v>
@@ -3065,7 +3313,8 @@
         <v>37.9</v>
       </c>
       <c r="C188">
-        <v>-0.52493438320210251</v>
+        <f t="shared" si="2"/>
+        <v>0.53050397877982824</v>
       </c>
       <c r="D188">
         <v>8.98</v>
@@ -3079,7 +3328,8 @@
         <v>38.1</v>
       </c>
       <c r="C189">
-        <v>-0.52219321148824216</v>
+        <f t="shared" si="2"/>
+        <v>0.52770448548813409</v>
       </c>
       <c r="D189">
         <v>8.98</v>
@@ -3093,7 +3343,8 @@
         <v>38.299999999999997</v>
       </c>
       <c r="C190">
-        <v>-0.51948051948053076</v>
+        <f t="shared" si="2"/>
+        <v>0.5249343832020914</v>
       </c>
       <c r="D190">
         <v>7.76</v>
@@ -3107,7 +3358,8 @@
         <v>38.5</v>
       </c>
       <c r="C191">
-        <v>-0.25906735751295429</v>
+        <f t="shared" si="2"/>
+        <v>0.52219321148825326</v>
       </c>
       <c r="D191">
         <v>8.1</v>
@@ -3121,7 +3373,8 @@
         <v>38.6</v>
       </c>
       <c r="C192">
-        <v>-0.51546391752576026</v>
+        <f t="shared" si="2"/>
+        <v>0.25974025974027093</v>
       </c>
       <c r="D192">
         <v>7.95</v>
@@ -3135,7 +3388,8 @@
         <v>38.799999999999997</v>
       </c>
       <c r="C193">
-        <v>-0.25706940874036238</v>
+        <f t="shared" si="2"/>
+        <v>0.51813471502588637</v>
       </c>
       <c r="D193">
         <v>7.61</v>
@@ -3149,7 +3403,8 @@
         <v>38.9</v>
       </c>
       <c r="C194">
-        <v>-0.2564102564102555</v>
+        <f t="shared" si="2"/>
+        <v>0.25773195876288568</v>
       </c>
       <c r="D194">
         <v>7.21</v>
@@ -3163,7 +3418,8 @@
         <v>39</v>
       </c>
       <c r="C195">
-        <v>-0.51020408163265918</v>
+        <f t="shared" si="2"/>
+        <v>0.25706940874037354</v>
       </c>
       <c r="D195">
         <v>6.62</v>
@@ -3177,7 +3433,8 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C196">
-        <v>-0.50761421319795996</v>
+        <f t="shared" ref="C196:C259" si="3">(B196/B195-1)*100</f>
+        <v>0.512820512820511</v>
       </c>
       <c r="D196">
         <v>6.29</v>
@@ -3191,7 +3448,8 @@
         <v>39.4</v>
       </c>
       <c r="C197">
-        <v>-0.5050505050505083</v>
+        <f t="shared" si="3"/>
+        <v>0.51020408163264808</v>
       </c>
       <c r="D197">
         <v>6.2</v>
@@ -3205,7 +3463,8 @@
         <v>39.6</v>
       </c>
       <c r="C198">
-        <v>-0.50251256281406143</v>
+        <f t="shared" si="3"/>
+        <v>0.50761421319798217</v>
       </c>
       <c r="D198">
         <v>5.6</v>
@@ -3219,7 +3478,8 @@
         <v>39.799999999999997</v>
       </c>
       <c r="C199">
-        <v>-0.25062656641604558</v>
+        <f t="shared" si="3"/>
+        <v>0.5050505050504972</v>
       </c>
       <c r="D199">
         <v>4.9000000000000004</v>
@@ -3233,7 +3493,8 @@
         <v>39.9</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.25125628140703071</v>
       </c>
       <c r="D200">
         <v>4.1399999999999997</v>
@@ -3247,7 +3508,8 @@
         <v>39.9</v>
       </c>
       <c r="C201">
-        <v>-0.25000000000000577</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>3.72</v>
@@ -3261,7 +3523,8 @@
         <v>40</v>
       </c>
       <c r="C202">
-        <v>-0.24937655860349789</v>
+        <f t="shared" si="3"/>
+        <v>0.25062656641603454</v>
       </c>
       <c r="D202">
         <v>3.71</v>
@@ -3275,7 +3538,8 @@
         <v>40.1</v>
       </c>
       <c r="C203">
-        <v>-0.49627791563274792</v>
+        <f t="shared" si="3"/>
+        <v>0.24999999999999467</v>
       </c>
       <c r="D203">
         <v>4.16</v>
@@ -3289,7 +3553,8 @@
         <v>40.299999999999997</v>
       </c>
       <c r="C204">
-        <v>-0.49382716049383157</v>
+        <f t="shared" si="3"/>
+        <v>0.49875311720697368</v>
       </c>
       <c r="D204">
         <v>4.63</v>
@@ -3303,7 +3568,8 @@
         <v>40.5</v>
       </c>
       <c r="C205">
-        <v>-0.2463054187192171</v>
+        <f t="shared" si="3"/>
+        <v>0.49627791563275903</v>
       </c>
       <c r="D205">
         <v>4.91</v>
@@ -3317,7 +3583,8 @@
         <v>40.6</v>
       </c>
       <c r="C206">
-        <v>-0.24570024570025331</v>
+        <f t="shared" si="3"/>
+        <v>0.24691358024691024</v>
       </c>
       <c r="D206">
         <v>5.31</v>
@@ -3331,7 +3598,8 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C207">
-        <v>-0.2450980392156743</v>
+        <f t="shared" si="3"/>
+        <v>0.24630541871921707</v>
       </c>
       <c r="D207">
         <v>5.57</v>
@@ -3345,7 +3613,8 @@
         <v>40.799999999999997</v>
       </c>
       <c r="C208">
-        <v>-0.24449877750611909</v>
+        <f t="shared" si="3"/>
+        <v>0.24570024570023108</v>
       </c>
       <c r="D208">
         <v>5.55</v>
@@ -3359,7 +3628,8 @@
         <v>40.9</v>
       </c>
       <c r="C209">
-        <v>-0.24390243902439049</v>
+        <f t="shared" si="3"/>
+        <v>0.2450980392156854</v>
       </c>
       <c r="D209">
         <v>5.2</v>
@@ -3373,7 +3643,8 @@
         <v>41</v>
       </c>
       <c r="C210">
-        <v>-0.2433090024330897</v>
+        <f t="shared" si="3"/>
+        <v>0.24449877750611915</v>
       </c>
       <c r="D210">
         <v>4.91</v>
@@ -3387,7 +3658,8 @@
         <v>41.1</v>
       </c>
       <c r="C211">
-        <v>-0.24271844660194161</v>
+        <f t="shared" si="3"/>
+        <v>0.24390243902439046</v>
       </c>
       <c r="D211">
         <v>4.1399999999999997</v>
@@ -3401,7 +3673,8 @@
         <v>41.2</v>
       </c>
       <c r="C212">
-        <v>-0.48309178743960463</v>
+        <f t="shared" si="3"/>
+        <v>0.24330900243310083</v>
       </c>
       <c r="D212">
         <v>3.51</v>
@@ -3415,7 +3688,8 @@
         <v>41.4</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.48543689320388328</v>
       </c>
       <c r="D213">
         <v>3.3</v>
@@ -3429,7 +3703,8 @@
         <v>41.4</v>
       </c>
       <c r="C214">
-        <v>-0.24096385542169421</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>3.83</v>
@@ -3443,7 +3718,8 @@
         <v>41.5</v>
       </c>
       <c r="C215">
-        <v>-0.2403846153846145</v>
+        <f t="shared" si="3"/>
+        <v>0.24154589371980784</v>
       </c>
       <c r="D215">
         <v>4.17</v>
@@ -3457,7 +3733,8 @@
         <v>41.6</v>
       </c>
       <c r="C216">
-        <v>-0.23980815347721671</v>
+        <f t="shared" si="3"/>
+        <v>0.24096385542169418</v>
       </c>
       <c r="D216">
         <v>4.2699999999999996</v>
@@ -3471,7 +3748,8 @@
         <v>41.7</v>
       </c>
       <c r="C217">
-        <v>-0.23923444976075009</v>
+        <f t="shared" si="3"/>
+        <v>0.24038461538462563</v>
       </c>
       <c r="D217">
         <v>4.46</v>
@@ -3485,7 +3763,8 @@
         <v>41.8</v>
       </c>
       <c r="C218">
-        <v>-0.23866348448687849</v>
+        <f t="shared" si="3"/>
+        <v>0.23980815347719453</v>
       </c>
       <c r="D218">
         <v>4.55</v>
@@ -3499,7 +3778,8 @@
         <v>41.9</v>
       </c>
       <c r="C219">
-        <v>-0.47505938242280438</v>
+        <f t="shared" si="3"/>
+        <v>0.23923444976077235</v>
       </c>
       <c r="D219">
         <v>4.8099999999999996</v>
@@ -3513,7 +3793,8 @@
         <v>42.1</v>
       </c>
       <c r="C220">
-        <v>-0.23696682464455779</v>
+        <f t="shared" si="3"/>
+        <v>0.47732696897375693</v>
       </c>
       <c r="D220">
         <v>4.87</v>
@@ -3527,7 +3808,8 @@
         <v>42.2</v>
       </c>
       <c r="C221">
-        <v>-0.47169811320754151</v>
+        <f t="shared" si="3"/>
+        <v>0.23752969121140222</v>
       </c>
       <c r="D221">
         <v>5.05</v>
@@ -3541,7 +3823,8 @@
         <v>42.4</v>
       </c>
       <c r="C222">
-        <v>-0.2352941176470669</v>
+        <f t="shared" si="3"/>
+        <v>0.47393364928909332</v>
       </c>
       <c r="D222">
         <v>5.0599999999999996</v>
@@ -3555,7 +3838,8 @@
         <v>42.5</v>
       </c>
       <c r="C223">
-        <v>-0.46838407494146361</v>
+        <f t="shared" si="3"/>
+        <v>0.23584905660378741</v>
       </c>
       <c r="D223">
         <v>5.33</v>
@@ -3569,7 +3853,8 @@
         <v>42.7</v>
       </c>
       <c r="C224">
-        <v>-0.69767441860464352</v>
+        <f t="shared" si="3"/>
+        <v>0.47058823529413374</v>
       </c>
       <c r="D224">
         <v>5.94</v>
@@ -3583,7 +3868,8 @@
         <v>43</v>
       </c>
       <c r="C225">
-        <v>-0.92165898617511122</v>
+        <f t="shared" si="3"/>
+        <v>0.70257611241217877</v>
       </c>
       <c r="D225">
         <v>6.58</v>
@@ -3597,7 +3883,8 @@
         <v>43.4</v>
       </c>
       <c r="C226">
-        <v>-0.68649885583524917</v>
+        <f t="shared" si="3"/>
+        <v>0.9302325581395321</v>
       </c>
       <c r="D226">
         <v>7.09</v>
@@ -3611,7 +3898,8 @@
         <v>43.7</v>
       </c>
       <c r="C227">
-        <v>-0.45558086560363309</v>
+        <f t="shared" si="3"/>
+        <v>0.69124423963133896</v>
       </c>
       <c r="D227">
         <v>7.12</v>
@@ -3625,7 +3913,8 @@
         <v>43.9</v>
       </c>
       <c r="C228">
-        <v>-0.67873303167421684</v>
+        <f t="shared" si="3"/>
+        <v>0.45766590389015871</v>
       </c>
       <c r="D228">
         <v>7.84</v>
@@ -3639,7 +3928,8 @@
         <v>44.2</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.68337129840547739</v>
       </c>
       <c r="D229">
         <v>8.49</v>
@@ -3653,7 +3943,8 @@
         <v>44.2</v>
       </c>
       <c r="C230">
-        <v>-1.777777777777767</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>10.4</v>
@@ -3667,7 +3958,8 @@
         <v>45</v>
       </c>
       <c r="C231">
-        <v>-0.44247787610620648</v>
+        <f t="shared" si="3"/>
+        <v>1.8099547511312153</v>
       </c>
       <c r="D231">
         <v>10.5</v>
@@ -3681,7 +3973,8 @@
         <v>45.2</v>
       </c>
       <c r="C232">
-        <v>-0.87719298245613198</v>
+        <f t="shared" si="3"/>
+        <v>0.44444444444444731</v>
       </c>
       <c r="D232">
         <v>10.78</v>
@@ -3695,7 +3988,8 @@
         <v>45.6</v>
       </c>
       <c r="C233">
-        <v>-0.65359477124182774</v>
+        <f t="shared" si="3"/>
+        <v>0.88495575221239076</v>
       </c>
       <c r="D233">
         <v>10.01</v>
@@ -3709,7 +4003,8 @@
         <v>45.9</v>
       </c>
       <c r="C234">
-        <v>-0.86393088552915165</v>
+        <f t="shared" si="3"/>
+        <v>0.65789473684210176</v>
       </c>
       <c r="D234">
         <v>10.029999999999999</v>
@@ -3723,7 +4018,8 @@
         <v>46.3</v>
       </c>
       <c r="C235">
-        <v>-1.068376068376065</v>
+        <f t="shared" si="3"/>
+        <v>0.87145969498909626</v>
       </c>
       <c r="D235">
         <v>9.9499999999999993</v>
@@ -3737,7 +4033,8 @@
         <v>46.8</v>
       </c>
       <c r="C236">
-        <v>-1.057082452431291</v>
+        <f t="shared" si="3"/>
+        <v>1.0799136069114423</v>
       </c>
       <c r="D236">
         <v>9.65</v>
@@ -3751,7 +4048,8 @@
         <v>47.3</v>
       </c>
       <c r="C237">
-        <v>-1.04602510460251</v>
+        <f t="shared" si="3"/>
+        <v>1.0683760683760646</v>
       </c>
       <c r="D237">
         <v>8.9700000000000006</v>
@@ -3765,7 +4063,8 @@
         <v>47.8</v>
       </c>
       <c r="C238">
-        <v>-0.62370062370062929</v>
+        <f t="shared" si="3"/>
+        <v>1.0570824524312794</v>
       </c>
       <c r="D238">
         <v>9.35</v>
@@ -3779,7 +4078,8 @@
         <v>48.1</v>
       </c>
       <c r="C239">
-        <v>-1.028806584362141</v>
+        <f t="shared" si="3"/>
+        <v>0.62761506276152179</v>
       </c>
       <c r="D239">
         <v>10.51</v>
@@ -3793,7 +4093,8 @@
         <v>48.6</v>
       </c>
       <c r="C240">
-        <v>-0.81632653061224358</v>
+        <f t="shared" si="3"/>
+        <v>1.039501039501034</v>
       </c>
       <c r="D240">
         <v>11.31</v>
@@ -3807,7 +4108,8 @@
         <v>49</v>
       </c>
       <c r="C241">
-        <v>-0.60851926977687487</v>
+        <f t="shared" si="3"/>
+        <v>0.82304526748970819</v>
       </c>
       <c r="D241">
         <v>11.93</v>
@@ -3821,7 +4123,8 @@
         <v>49.3</v>
       </c>
       <c r="C242">
-        <v>-1.2024048096192399</v>
+        <f t="shared" si="3"/>
+        <v>0.61224489795916881</v>
       </c>
       <c r="D242">
         <v>12.92</v>
@@ -3835,7 +4138,8 @@
         <v>49.9</v>
       </c>
       <c r="C243">
-        <v>-1.3833992094861689</v>
+        <f t="shared" si="3"/>
+        <v>1.2170385395537497</v>
       </c>
       <c r="D243">
         <v>12.01</v>
@@ -3849,7 +4153,8 @@
         <v>50.6</v>
       </c>
       <c r="C244">
-        <v>-0.78431372549019329</v>
+        <f t="shared" si="3"/>
+        <v>1.4028056112224574</v>
       </c>
       <c r="D244">
         <v>11.34</v>
@@ -3863,7 +4168,8 @@
         <v>51</v>
       </c>
       <c r="C245">
-        <v>-0.97087378640776656</v>
+        <f t="shared" si="3"/>
+        <v>0.7905138339920903</v>
       </c>
       <c r="D245">
         <v>10.06</v>
@@ -3877,7 +4183,8 @@
         <v>51.5</v>
       </c>
       <c r="C246">
-        <v>-0.77071290944122905</v>
+        <f t="shared" si="3"/>
+        <v>0.98039215686274161</v>
       </c>
       <c r="D246">
         <v>9.4499999999999993</v>
@@ -3891,7 +4198,8 @@
         <v>51.9</v>
       </c>
       <c r="C247">
-        <v>-0.76481835564052858</v>
+        <f t="shared" si="3"/>
+        <v>0.77669902912620437</v>
       </c>
       <c r="D247">
         <v>8.5299999999999994</v>
@@ -3905,7 +4213,8 @@
         <v>52.3</v>
       </c>
       <c r="C248">
-        <v>-0.57034220532320434</v>
+        <f t="shared" si="3"/>
+        <v>0.77071290944124016</v>
       </c>
       <c r="D248">
         <v>7.13</v>
@@ -3919,7 +4228,8 @@
         <v>52.6</v>
       </c>
       <c r="C249">
-        <v>-0.37878787878786729</v>
+        <f t="shared" si="3"/>
+        <v>0.57361376673041864</v>
       </c>
       <c r="D249">
         <v>6.24</v>
@@ -3933,7 +4243,8 @@
         <v>52.8</v>
       </c>
       <c r="C250">
-        <v>-0.37735849056603771</v>
+        <f t="shared" si="3"/>
+        <v>0.38022813688212143</v>
       </c>
       <c r="D250">
         <v>5.54</v>
@@ -3947,7 +4258,8 @@
         <v>53</v>
       </c>
       <c r="C251">
-        <v>-0.1883239171374784</v>
+        <f t="shared" si="3"/>
+        <v>0.37878787878788955</v>
       </c>
       <c r="D251">
         <v>5.49</v>
@@ -3961,7 +4273,8 @@
         <v>53.1</v>
       </c>
       <c r="C252">
-        <v>-0.74766355140186702</v>
+        <f t="shared" si="3"/>
+        <v>0.18867924528302993</v>
       </c>
       <c r="D252">
         <v>5.22</v>
@@ -3975,7 +4288,8 @@
         <v>53.5</v>
       </c>
       <c r="C253">
-        <v>-0.92592592592593004</v>
+        <f t="shared" si="3"/>
+        <v>0.7532956685499137</v>
       </c>
       <c r="D253">
         <v>5.55</v>
@@ -3989,7 +4303,8 @@
         <v>54</v>
       </c>
       <c r="C254">
-        <v>-0.36900369003690647</v>
+        <f t="shared" si="3"/>
+        <v>0.93457943925232545</v>
       </c>
       <c r="D254">
         <v>6.1</v>
@@ -4003,7 +4318,8 @@
         <v>54.2</v>
       </c>
       <c r="C255">
-        <v>-0.73260073260073</v>
+        <f t="shared" si="3"/>
+        <v>0.37037037037037646</v>
       </c>
       <c r="D255">
         <v>6.14</v>
@@ -4017,7 +4333,8 @@
         <v>54.6</v>
       </c>
       <c r="C256">
-        <v>-0.54644808743168349</v>
+        <f t="shared" si="3"/>
+        <v>0.73800738007379074</v>
       </c>
       <c r="D256">
         <v>6.24</v>
@@ -4031,7 +4348,8 @@
         <v>54.9</v>
       </c>
       <c r="C257">
-        <v>-0.72332730560578096</v>
+        <f t="shared" si="3"/>
+        <v>0.5494505494505475</v>
       </c>
       <c r="D257">
         <v>5.82</v>
@@ -4045,7 +4363,8 @@
         <v>55.3</v>
       </c>
       <c r="C258">
-        <v>-0.53956834532374875</v>
+        <f t="shared" si="3"/>
+        <v>0.72859744990891873</v>
       </c>
       <c r="D258">
         <v>5.22</v>
@@ -4059,7 +4378,8 @@
         <v>55.6</v>
       </c>
       <c r="C259">
-        <v>-0.35842293906809258</v>
+        <f t="shared" si="3"/>
+        <v>0.54249547920435237</v>
       </c>
       <c r="D259">
         <v>5.2</v>
@@ -4073,7 +4393,8 @@
         <v>55.8</v>
       </c>
       <c r="C260">
-        <v>-0.17889087656529629</v>
+        <f t="shared" ref="C260:C323" si="4">(B260/B259-1)*100</f>
+        <v>0.3597122302158251</v>
       </c>
       <c r="D260">
         <v>4.87</v>
@@ -4087,7 +4408,8 @@
         <v>55.9</v>
       </c>
       <c r="C261">
-        <v>-0.17857142857142791</v>
+        <f t="shared" si="4"/>
+        <v>0.17921146953405742</v>
       </c>
       <c r="D261">
         <v>4.7699999999999996</v>
@@ -4101,7 +4423,8 @@
         <v>56</v>
       </c>
       <c r="C262">
-        <v>-0.1782531194295944</v>
+        <f t="shared" si="4"/>
+        <v>0.17889087656530744</v>
       </c>
       <c r="D262">
         <v>4.84</v>
@@ -4115,7 +4438,8 @@
         <v>56.1</v>
       </c>
       <c r="C263">
-        <v>-0.53191489361701372</v>
+        <f t="shared" si="4"/>
+        <v>0.17857142857142794</v>
       </c>
       <c r="D263">
         <v>4.82</v>
@@ -4129,7 +4453,8 @@
         <v>56.4</v>
       </c>
       <c r="C264">
-        <v>-0.52910052910053462</v>
+        <f t="shared" si="4"/>
+        <v>0.53475935828877219</v>
       </c>
       <c r="D264">
         <v>5.29</v>
@@ -4143,7 +4468,8 @@
         <v>56.7</v>
       </c>
       <c r="C265">
-        <v>-0.52631578947367474</v>
+        <f t="shared" si="4"/>
+        <v>0.53191489361703592</v>
       </c>
       <c r="D265">
         <v>5.48</v>
@@ -4157,7 +4483,8 @@
         <v>57</v>
       </c>
       <c r="C266">
-        <v>-0.52356020942407877</v>
+        <f t="shared" si="4"/>
+        <v>0.52910052910053462</v>
       </c>
       <c r="D266">
         <v>5.31</v>
@@ -4171,7 +4498,8 @@
         <v>57.3</v>
       </c>
       <c r="C267">
-        <v>-0.52083333333333703</v>
+        <f t="shared" si="4"/>
+        <v>0.52631578947368585</v>
       </c>
       <c r="D267">
         <v>5.29</v>
@@ -4185,7 +4513,8 @@
         <v>57.6</v>
       </c>
       <c r="C268">
-        <v>-0.51813471502589747</v>
+        <f t="shared" si="4"/>
+        <v>0.52356020942410098</v>
       </c>
       <c r="D268">
         <v>5.25</v>
@@ -4199,7 +4528,8 @@
         <v>57.9</v>
       </c>
       <c r="C269">
-        <v>-0.34423407917384408</v>
+        <f t="shared" si="4"/>
+        <v>0.52083333333332593</v>
       </c>
       <c r="D269">
         <v>5.0199999999999996</v>
@@ -4213,7 +4543,8 @@
         <v>58.1</v>
       </c>
       <c r="C270">
-        <v>-0.5136986301369828</v>
+        <f t="shared" si="4"/>
+        <v>0.34542314335059832</v>
       </c>
       <c r="D270">
         <v>4.95</v>
@@ -4227,7 +4558,8 @@
         <v>58.4</v>
       </c>
       <c r="C271">
-        <v>-0.5110732538330609</v>
+        <f t="shared" si="4"/>
+        <v>0.51635111876076056</v>
       </c>
       <c r="D271">
         <v>4.6500000000000004</v>
@@ -4241,7 +4573,8 @@
         <v>58.7</v>
       </c>
       <c r="C272">
-        <v>-1.011804384485659</v>
+        <f t="shared" si="4"/>
+        <v>0.51369863013699391</v>
       </c>
       <c r="D272">
         <v>4.6100000000000003</v>
@@ -4255,7 +4588,8 @@
         <v>59.3</v>
       </c>
       <c r="C273">
-        <v>-0.50335570469799418</v>
+        <f t="shared" si="4"/>
+        <v>1.0221465076660996</v>
       </c>
       <c r="D273">
         <v>4.68</v>
@@ -4269,7 +4603,8 @@
         <v>59.6</v>
       </c>
       <c r="C274">
-        <v>-0.66666666666665986</v>
+        <f t="shared" si="4"/>
+        <v>0.50590219224284638</v>
       </c>
       <c r="D274">
         <v>4.6900000000000004</v>
@@ -4283,7 +4618,8 @@
         <v>60</v>
       </c>
       <c r="C275">
-        <v>-0.33222591362126458</v>
+        <f t="shared" si="4"/>
+        <v>0.67114093959730337</v>
       </c>
       <c r="D275">
         <v>4.7300000000000004</v>
@@ -4297,7 +4633,8 @@
         <v>60.2</v>
       </c>
       <c r="C276">
-        <v>-0.49586776859503751</v>
+        <f t="shared" si="4"/>
+        <v>0.33333333333334103</v>
       </c>
       <c r="D276">
         <v>5.35</v>
@@ -4311,7 +4648,8 @@
         <v>60.5</v>
       </c>
       <c r="C277">
-        <v>-0.49342105263157082</v>
+        <f t="shared" si="4"/>
+        <v>0.4983388704318914</v>
       </c>
       <c r="D277">
         <v>5.39</v>
@@ -4325,7 +4663,8 @@
         <v>60.8</v>
       </c>
       <c r="C278">
-        <v>-0.49099836333879038</v>
+        <f t="shared" si="4"/>
+        <v>0.49586776859502635</v>
       </c>
       <c r="D278">
         <v>5.42</v>
@@ -4339,7 +4678,8 @@
         <v>61.1</v>
       </c>
       <c r="C279">
-        <v>-0.32626427406198261</v>
+        <f t="shared" si="4"/>
+        <v>0.49342105263159297</v>
       </c>
       <c r="D279">
         <v>5.9</v>
@@ -4353,7 +4693,8 @@
         <v>61.3</v>
       </c>
       <c r="C280">
-        <v>-0.48701298701299128</v>
+        <f t="shared" si="4"/>
+        <v>0.32733224222585289</v>
       </c>
       <c r="D280">
         <v>6.14</v>
@@ -4367,7 +4708,8 @@
         <v>61.6</v>
       </c>
       <c r="C281">
-        <v>-0.64516129032258229</v>
+        <f t="shared" si="4"/>
+        <v>0.48939641109300158</v>
       </c>
       <c r="D281">
         <v>6.47</v>
@@ -4381,7 +4723,8 @@
         <v>62</v>
       </c>
       <c r="C282">
-        <v>-0.48154093097912959</v>
+        <f t="shared" si="4"/>
+        <v>0.64935064935065512</v>
       </c>
       <c r="D282">
         <v>6.51</v>
@@ -4395,7 +4738,8 @@
         <v>62.3</v>
       </c>
       <c r="C283">
-        <v>-0.63795853269538183</v>
+        <f t="shared" si="4"/>
+        <v>0.48387096774193949</v>
       </c>
       <c r="D283">
         <v>6.56</v>
@@ -4409,7 +4753,8 @@
         <v>62.7</v>
       </c>
       <c r="C284">
-        <v>-0.4761904761904745</v>
+        <f t="shared" si="4"/>
+        <v>0.64205457463886173</v>
       </c>
       <c r="D284">
         <v>6.7</v>
@@ -4423,7 +4768,8 @@
         <v>63</v>
       </c>
       <c r="C285">
-        <v>-0.63091482649841879</v>
+        <f t="shared" si="4"/>
+        <v>0.47846889952152249</v>
       </c>
       <c r="D285">
         <v>6.78</v>
@@ -4437,7 +4783,8 @@
         <v>63.4</v>
       </c>
       <c r="C286">
-        <v>-0.78247261345852914</v>
+        <f t="shared" si="4"/>
+        <v>0.63492063492063266</v>
       </c>
       <c r="D286">
         <v>6.79</v>
@@ -4451,7 +4798,8 @@
         <v>63.9</v>
       </c>
       <c r="C287">
-        <v>-0.9302325581395321</v>
+        <f t="shared" si="4"/>
+        <v>0.78864353312302349</v>
       </c>
       <c r="D287">
         <v>6.89</v>
@@ -4465,7 +4813,8 @@
         <v>64.5</v>
       </c>
       <c r="C288">
-        <v>-0.7692307692307665</v>
+        <f t="shared" si="4"/>
+        <v>0.93896713615022609</v>
       </c>
       <c r="D288">
         <v>7.36</v>
@@ -4479,7 +4828,8 @@
         <v>65</v>
       </c>
       <c r="C289">
-        <v>-0.76335877862595547</v>
+        <f t="shared" si="4"/>
+        <v>0.77519379844961378</v>
       </c>
       <c r="D289">
         <v>7.6</v>
@@ -4493,7 +4843,8 @@
         <v>65.5</v>
       </c>
       <c r="C290">
-        <v>-0.60698027314113334</v>
+        <f t="shared" si="4"/>
+        <v>0.7692307692307665</v>
       </c>
       <c r="D290">
         <v>7.81</v>
@@ -4507,7 +4858,8 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C291">
-        <v>-0.90225563909773765</v>
+        <f t="shared" si="4"/>
+        <v>0.61068702290076882</v>
       </c>
       <c r="D291">
         <v>8.0399999999999991</v>
@@ -4521,7 +4873,8 @@
         <v>66.5</v>
       </c>
       <c r="C292">
-        <v>-0.894187779433675</v>
+        <f t="shared" si="4"/>
+        <v>0.91047040971168336</v>
       </c>
       <c r="D292">
         <v>8.4499999999999993</v>
@@ -4535,7 +4888,8 @@
         <v>67.099999999999994</v>
       </c>
       <c r="C293">
-        <v>-0.59259259259260011</v>
+        <f t="shared" si="4"/>
+        <v>0.90225563909773765</v>
       </c>
       <c r="D293">
         <v>8.9600000000000009</v>
@@ -4549,7 +4903,8 @@
         <v>67.5</v>
       </c>
       <c r="C294">
-        <v>-0.58910162002946409</v>
+        <f t="shared" si="4"/>
+        <v>0.59612518628913147</v>
       </c>
       <c r="D294">
         <v>9.76</v>
@@ -4563,7 +4918,8 @@
         <v>67.900000000000006</v>
       </c>
       <c r="C295">
-        <v>-0.87591240875911636</v>
+        <f t="shared" si="4"/>
+        <v>0.59259259259261121</v>
       </c>
       <c r="D295">
         <v>10.029999999999999</v>
@@ -4577,7 +4933,8 @@
         <v>68.5</v>
       </c>
       <c r="C296">
-        <v>-1.0115606936416219</v>
+        <f t="shared" si="4"/>
+        <v>0.88365243004417948</v>
       </c>
       <c r="D296">
         <v>10.07</v>
@@ -4591,7 +4948,8 @@
         <v>69.2</v>
       </c>
       <c r="C297">
-        <v>-1.001430615164522</v>
+        <f t="shared" si="4"/>
+        <v>1.0218978102189746</v>
       </c>
       <c r="D297">
         <v>10.06</v>
@@ -4605,7 +4963,8 @@
         <v>69.900000000000006</v>
       </c>
       <c r="C298">
-        <v>-0.99150141643057355</v>
+        <f t="shared" si="4"/>
+        <v>1.0115606936416333</v>
       </c>
       <c r="D298">
         <v>10.09</v>
@@ -4619,7 +4978,8 @@
         <v>70.599999999999994</v>
       </c>
       <c r="C299">
-        <v>-1.1204481792717269</v>
+        <f t="shared" si="4"/>
+        <v>1.0014306151645114</v>
       </c>
       <c r="D299">
         <v>10.01</v>
@@ -4633,7 +4993,8 @@
         <v>71.400000000000006</v>
       </c>
       <c r="C300">
-        <v>-1.10803324099723</v>
+        <f t="shared" si="4"/>
+        <v>1.1331444759206999</v>
       </c>
       <c r="D300">
         <v>10.24</v>
@@ -4647,7 +5008,8 @@
         <v>72.2</v>
       </c>
       <c r="C301">
-        <v>-1.0958904109589001</v>
+        <f t="shared" si="4"/>
+        <v>1.1204481792717047</v>
       </c>
       <c r="D301">
         <v>10.29</v>
@@ -4661,7 +5023,8 @@
         <v>73</v>
       </c>
       <c r="C302">
-        <v>-0.94979647218453866</v>
+        <f t="shared" si="4"/>
+        <v>1.1080332409972193</v>
       </c>
       <c r="D302">
         <v>10.47</v>
@@ -4675,7 +5038,8 @@
         <v>73.7</v>
       </c>
       <c r="C303">
-        <v>-0.94086021505376261</v>
+        <f t="shared" si="4"/>
+        <v>0.95890410958905381</v>
       </c>
       <c r="D303">
         <v>10.94</v>
@@ -4689,7 +5053,8 @@
         <v>74.400000000000006</v>
       </c>
       <c r="C304">
-        <v>-1.063829787234039</v>
+        <f t="shared" si="4"/>
+        <v>0.94979647218453866</v>
       </c>
       <c r="D304">
         <v>11.43</v>
@@ -4703,7 +5068,8 @@
         <v>75.2</v>
       </c>
       <c r="C305">
-        <v>-1.052631578947361</v>
+        <f t="shared" si="4"/>
+        <v>1.0752688172043001</v>
       </c>
       <c r="D305">
         <v>13.77</v>
@@ -4717,7 +5083,8 @@
         <v>76</v>
       </c>
       <c r="C306">
-        <v>-1.170351105331602</v>
+        <f t="shared" si="4"/>
+        <v>1.0638297872340496</v>
       </c>
       <c r="D306">
         <v>13.18</v>
@@ -4731,7 +5098,8 @@
         <v>76.900000000000006</v>
       </c>
       <c r="C307">
-        <v>-1.410256410256405</v>
+        <f t="shared" si="4"/>
+        <v>1.1842105263157876</v>
       </c>
       <c r="D307">
         <v>13.78</v>
@@ -4745,7 +5113,8 @@
         <v>78</v>
       </c>
       <c r="C308">
-        <v>-1.265822784810122</v>
+        <f t="shared" si="4"/>
+        <v>1.4304291287386084</v>
       </c>
       <c r="D308">
         <v>13.82</v>
@@ -4759,7 +5128,8 @@
         <v>79</v>
       </c>
       <c r="C309">
-        <v>-1.3732833957552979</v>
+        <f t="shared" si="4"/>
+        <v>1.2820512820512775</v>
       </c>
       <c r="D309">
         <v>14.13</v>
@@ -4773,7 +5143,8 @@
         <v>80.099999999999994</v>
       </c>
       <c r="C310">
-        <v>-0.98887515451175911</v>
+        <f t="shared" si="4"/>
+        <v>1.3924050632911245</v>
       </c>
       <c r="D310">
         <v>17.190000000000001</v>
@@ -4787,7 +5158,8 @@
         <v>80.900000000000006</v>
       </c>
       <c r="C311">
-        <v>-0.97919216646266127</v>
+        <f t="shared" si="4"/>
+        <v>0.998751560549338</v>
       </c>
       <c r="D311">
         <v>17.61</v>
@@ -4801,7 +5173,8 @@
         <v>81.7</v>
       </c>
       <c r="C312">
-        <v>-0.96969696969696484</v>
+        <f t="shared" si="4"/>
+        <v>0.98887515451173691</v>
       </c>
       <c r="D312">
         <v>10.98</v>
@@ -4815,7 +5188,8 @@
         <v>82.5</v>
       </c>
       <c r="C313">
-        <v>-0.1210653753026536</v>
+        <f t="shared" si="4"/>
+        <v>0.97919216646267238</v>
       </c>
       <c r="D313">
         <v>9.4700000000000006</v>
@@ -4829,7 +5203,8 @@
         <v>82.6</v>
       </c>
       <c r="C314">
-        <v>-0.72115384615385469</v>
+        <f t="shared" si="4"/>
+        <v>0.12121212121212199</v>
       </c>
       <c r="D314">
         <v>9.0299999999999994</v>
@@ -4843,7 +5218,8 @@
         <v>83.2</v>
       </c>
       <c r="C315">
-        <v>-0.83432657926102438</v>
+        <f t="shared" si="4"/>
+        <v>0.72639225181598821</v>
       </c>
       <c r="D315">
         <v>9.61</v>
@@ -4857,7 +5233,8 @@
         <v>83.9</v>
       </c>
       <c r="C316">
-        <v>-0.9445100354191216</v>
+        <f t="shared" si="4"/>
+        <v>0.84134615384616751</v>
       </c>
       <c r="D316">
         <v>10.87</v>
@@ -4871,7 +5248,8 @@
         <v>84.7</v>
       </c>
       <c r="C317">
-        <v>-1.0514018691588629</v>
+        <f t="shared" si="4"/>
+        <v>0.95351609058402786</v>
       </c>
       <c r="D317">
         <v>12.81</v>
@@ -4885,7 +5263,8 @@
         <v>85.6</v>
       </c>
       <c r="C318">
-        <v>-0.92592592592594114</v>
+        <f t="shared" si="4"/>
+        <v>1.0625737898465104</v>
       </c>
       <c r="D318">
         <v>15.85</v>
@@ -4899,7 +5278,8 @@
         <v>86.4</v>
       </c>
       <c r="C319">
-        <v>-0.91743119266054496</v>
+        <f t="shared" si="4"/>
+        <v>0.93457943925234765</v>
       </c>
       <c r="D319">
         <v>18.899999999999999</v>
@@ -4913,7 +5293,8 @@
         <v>87.2</v>
       </c>
       <c r="C320">
-        <v>-0.90909090909090384</v>
+        <f t="shared" si="4"/>
+        <v>0.92592592592593004</v>
       </c>
       <c r="D320">
         <v>19.079999999999998</v>
@@ -4927,7 +5308,8 @@
         <v>88</v>
       </c>
       <c r="C321">
-        <v>-0.67720090293452717</v>
+        <f t="shared" si="4"/>
+        <v>0.91743119266054496</v>
       </c>
       <c r="D321">
         <v>15.93</v>
@@ -4941,7 +5323,8 @@
         <v>88.6</v>
       </c>
       <c r="C322">
-        <v>-0.56116722783389195</v>
+        <f t="shared" si="4"/>
+        <v>0.68181818181818343</v>
       </c>
       <c r="D322">
         <v>14.7</v>
@@ -4955,7 +5338,8 @@
         <v>89.1</v>
       </c>
       <c r="C323">
-        <v>-0.66889632107024477</v>
+        <f t="shared" si="4"/>
+        <v>0.56433408577878375</v>
       </c>
       <c r="D323">
         <v>15.72</v>
@@ -4969,7 +5353,8 @@
         <v>89.7</v>
       </c>
       <c r="C324">
-        <v>-0.88397790055247949</v>
+        <f t="shared" ref="C324:C387" si="5">(B324/B323-1)*100</f>
+        <v>0.67340067340069254</v>
       </c>
       <c r="D324">
         <v>18.52</v>
@@ -4983,7 +5368,8 @@
         <v>90.5</v>
       </c>
       <c r="C325">
-        <v>-1.092896174863389</v>
+        <f t="shared" si="5"/>
+        <v>0.89186176142697082</v>
       </c>
       <c r="D325">
         <v>19.100000000000001</v>
@@ -4997,7 +5383,8 @@
         <v>91.5</v>
       </c>
       <c r="C326">
-        <v>-0.75921908893709089</v>
+        <f t="shared" si="5"/>
+        <v>1.1049723756906049</v>
       </c>
       <c r="D326">
         <v>19.04</v>
@@ -5011,7 +5398,8 @@
         <v>92.2</v>
       </c>
       <c r="C327">
-        <v>-0.96670247046185542</v>
+        <f t="shared" si="5"/>
+        <v>0.76502732240437687</v>
       </c>
       <c r="D327">
         <v>17.82</v>
@@ -5025,7 +5413,8 @@
         <v>93.1</v>
       </c>
       <c r="C328">
-        <v>-0.32119914346896428</v>
+        <f t="shared" si="5"/>
+        <v>0.9761388286333883</v>
       </c>
       <c r="D328">
         <v>15.87</v>
@@ -5039,7 +5428,8 @@
         <v>93.4</v>
       </c>
       <c r="C329">
-        <v>-0.42643923240937021</v>
+        <f t="shared" si="5"/>
+        <v>0.32223415682064438</v>
       </c>
       <c r="D329">
         <v>15.08</v>
@@ -5053,7 +5443,8 @@
         <v>93.8</v>
       </c>
       <c r="C330">
-        <v>-0.31880977683315098</v>
+        <f t="shared" si="5"/>
+        <v>0.42826552462524869</v>
       </c>
       <c r="D330">
         <v>13.31</v>
@@ -5067,7 +5458,8 @@
         <v>94.1</v>
       </c>
       <c r="C331">
-        <v>-0.31779661016950728</v>
+        <f t="shared" si="5"/>
+        <v>0.31982942430703876</v>
       </c>
       <c r="D331">
         <v>12.37</v>
@@ -5081,7 +5473,8 @@
         <v>94.4</v>
       </c>
       <c r="C332">
-        <v>-0.31678986272438697</v>
+        <f t="shared" si="5"/>
+        <v>0.31880977683316214</v>
       </c>
       <c r="D332">
         <v>13.22</v>
@@ -5095,7 +5488,8 @@
         <v>94.7</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.31779661016948513</v>
       </c>
       <c r="D333">
         <v>14.78</v>
@@ -5109,7 +5503,8 @@
         <v>94.7</v>
       </c>
       <c r="C334">
-        <v>-0.31578947368420263</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D334">
         <v>14.68</v>
@@ -5123,7 +5518,8 @@
         <v>95</v>
       </c>
       <c r="C335">
-        <v>-0.93847758081335719</v>
+        <f t="shared" si="5"/>
+        <v>0.31678986272438703</v>
       </c>
       <c r="D335">
         <v>14.94</v>
@@ -5137,7 +5533,8 @@
         <v>95.9</v>
       </c>
       <c r="C336">
-        <v>-1.134020618556697</v>
+        <f t="shared" si="5"/>
+        <v>0.94736842105263008</v>
       </c>
       <c r="D336">
         <v>14.45</v>
@@ -5151,7 +5548,8 @@
         <v>97</v>
       </c>
       <c r="C337">
-        <v>-0.512820512820511</v>
+        <f t="shared" si="5"/>
+        <v>1.1470281543274119</v>
       </c>
       <c r="D337">
         <v>14.15</v>
@@ -5165,7 +5563,8 @@
         <v>97.5</v>
       </c>
       <c r="C338">
-        <v>-0.20470829068577329</v>
+        <f t="shared" si="5"/>
+        <v>0.51546391752577136</v>
       </c>
       <c r="D338">
         <v>12.59</v>
@@ -5179,7 +5578,8 @@
         <v>97.7</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.20512820512821328</v>
       </c>
       <c r="D339">
         <v>10.119999999999999</v>
@@ -5193,7 +5593,8 @@
         <v>97.7</v>
       </c>
       <c r="C340">
-        <v>-0.40774719673801751</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D340">
         <v>10.31</v>
@@ -5207,7 +5608,8 @@
         <v>98.1</v>
       </c>
       <c r="C341">
-        <v>0.10204081632652071</v>
+        <f t="shared" si="5"/>
+        <v>0.40941658137154668</v>
       </c>
       <c r="D341">
         <v>9.7100000000000009</v>
@@ -5221,7 +5623,8 @@
         <v>98</v>
       </c>
       <c r="C342">
-        <v>0.30706243602864891</v>
+        <f t="shared" si="5"/>
+        <v>-0.10193679918449883</v>
       </c>
       <c r="D342">
         <v>9.1999999999999993</v>
@@ -5235,7 +5638,8 @@
         <v>97.7</v>
       </c>
       <c r="C343">
-        <v>-0.2042900919305479</v>
+        <f t="shared" si="5"/>
+        <v>-0.30612244897958441</v>
       </c>
       <c r="D343">
         <v>8.9499999999999993</v>
@@ -5249,7 +5653,8 @@
         <v>97.9</v>
       </c>
       <c r="C344">
-        <v>-0.10204081632652071</v>
+        <f t="shared" si="5"/>
+        <v>0.20470829068577334</v>
       </c>
       <c r="D344">
         <v>8.68</v>
@@ -5263,7 +5668,8 @@
         <v>98</v>
       </c>
       <c r="C345">
-        <v>-0.1019367991844988</v>
+        <f t="shared" si="5"/>
+        <v>0.10214504596526286</v>
       </c>
       <c r="D345">
         <v>8.51</v>
@@ -5277,7 +5683,8 @@
         <v>98.1</v>
       </c>
       <c r="C346">
-        <v>-0.70850202429150189</v>
+        <f t="shared" si="5"/>
+        <v>0.10204081632652073</v>
       </c>
       <c r="D346">
         <v>8.77</v>
@@ -5291,7 +5698,8 @@
         <v>98.8</v>
       </c>
       <c r="C347">
-        <v>-0.40322580645162359</v>
+        <f t="shared" si="5"/>
+        <v>0.7135575942915473</v>
       </c>
       <c r="D347">
         <v>8.8000000000000007</v>
@@ -5305,7 +5713,8 @@
         <v>99.2</v>
       </c>
       <c r="C348">
-        <v>-0.20120724346076591</v>
+        <f t="shared" si="5"/>
+        <v>0.40485829959515662</v>
       </c>
       <c r="D348">
         <v>8.6300000000000008</v>
@@ -5319,7 +5728,8 @@
         <v>99.4</v>
       </c>
       <c r="C349">
-        <v>-0.40080160320640212</v>
+        <f t="shared" si="5"/>
+        <v>0.20161290322580072</v>
       </c>
       <c r="D349">
         <v>8.98</v>
@@ -5333,7 +5743,8 @@
         <v>99.8</v>
       </c>
       <c r="C350">
-        <v>-0.29970029970030071</v>
+        <f t="shared" si="5"/>
+        <v>0.40241448692150961</v>
       </c>
       <c r="D350">
         <v>9.3699999999999992</v>
@@ -5347,7 +5758,8 @@
         <v>100.1</v>
       </c>
       <c r="C351">
-        <v>-0.29880478087650492</v>
+        <f t="shared" si="5"/>
+        <v>0.30060120240480437</v>
       </c>
       <c r="D351">
         <v>9.56</v>
@@ -5361,7 +5773,8 @@
         <v>100.4</v>
       </c>
       <c r="C352">
-        <v>-0.39682539682538431</v>
+        <f t="shared" si="5"/>
+        <v>0.29970029970030065</v>
       </c>
       <c r="D352">
         <v>9.4499999999999993</v>
@@ -5375,7 +5788,8 @@
         <v>100.8</v>
       </c>
       <c r="C353">
-        <v>-0.29673590504450947</v>
+        <f t="shared" si="5"/>
+        <v>0.39840637450199168</v>
       </c>
       <c r="D353">
         <v>9.48</v>
@@ -5389,7 +5803,8 @@
         <v>101.1</v>
       </c>
       <c r="C354">
-        <v>-0.29585798816569309</v>
+        <f t="shared" si="5"/>
+        <v>0.29761904761904656</v>
       </c>
       <c r="D354">
         <v>9.34</v>
@@ -5403,7 +5818,8 @@
         <v>101.4</v>
       </c>
       <c r="C355">
-        <v>-0.68560235063661601</v>
+        <f t="shared" si="5"/>
+        <v>0.29673590504453173</v>
       </c>
       <c r="D355">
         <v>9.4700000000000006</v>
@@ -5417,7 +5833,8 @@
         <v>102.1</v>
       </c>
       <c r="C356">
-        <v>-0.4873294346978585</v>
+        <f t="shared" si="5"/>
+        <v>0.69033530571991353</v>
       </c>
       <c r="D356">
         <v>9.56</v>
@@ -5431,7 +5848,8 @@
         <v>102.6</v>
       </c>
       <c r="C357">
-        <v>-0.29154518950438302</v>
+        <f t="shared" si="5"/>
+        <v>0.48971596474045587</v>
       </c>
       <c r="D357">
         <v>9.59</v>
@@ -5445,7 +5863,8 @@
         <v>102.9</v>
       </c>
       <c r="C358">
-        <v>-0.38722168441431842</v>
+        <f t="shared" si="5"/>
+        <v>0.29239766081872176</v>
       </c>
       <c r="D358">
         <v>9.91</v>
@@ -5459,7 +5878,8 @@
         <v>103.3</v>
       </c>
       <c r="C359">
-        <v>-0.1932367149758529</v>
+        <f t="shared" si="5"/>
+        <v>0.38872691933915515</v>
       </c>
       <c r="D359">
         <v>10.29</v>
@@ -5473,7 +5893,8 @@
         <v>103.5</v>
       </c>
       <c r="C360">
-        <v>-0.19286403085825299</v>
+        <f t="shared" si="5"/>
+        <v>0.19361084220717029</v>
       </c>
       <c r="D360">
         <v>10.32</v>
@@ -5487,7 +5908,8 @@
         <v>103.7</v>
       </c>
       <c r="C361">
-        <v>-0.384245917387116</v>
+        <f t="shared" si="5"/>
+        <v>0.19323671497584183</v>
       </c>
       <c r="D361">
         <v>11.06</v>
@@ -5501,7 +5923,8 @@
         <v>104.1</v>
       </c>
       <c r="C362">
-        <v>-0.28735632183909399</v>
+        <f t="shared" si="5"/>
+        <v>0.38572806171648377</v>
       </c>
       <c r="D362">
         <v>11.23</v>
@@ -5515,7 +5938,8 @@
         <v>104.4</v>
       </c>
       <c r="C363">
-        <v>-0.28653295128939771</v>
+        <f t="shared" si="5"/>
+        <v>0.28818443804035088</v>
       </c>
       <c r="D363">
         <v>11.64</v>
@@ -5529,7 +5953,8 @@
         <v>104.7</v>
       </c>
       <c r="C364">
-        <v>-0.38058991436725748</v>
+        <f t="shared" si="5"/>
+        <v>0.28735632183907178</v>
       </c>
       <c r="D364">
         <v>11.3</v>
@@ -5543,7 +5968,8 @@
         <v>105.1</v>
       </c>
       <c r="C365">
-        <v>-0.18993352326686089</v>
+        <f t="shared" si="5"/>
+        <v>0.38204393505252288</v>
       </c>
       <c r="D365">
         <v>9.99</v>
@@ -5557,7 +5983,8 @@
         <v>105.3</v>
       </c>
       <c r="C366">
-        <v>-0.1895734597156418</v>
+        <f t="shared" si="5"/>
+        <v>0.19029495718363432</v>
       </c>
       <c r="D366">
         <v>9.43</v>
@@ -5571,7 +5998,8 @@
         <v>105.5</v>
       </c>
       <c r="C367">
-        <v>-0.18921475875118829</v>
+        <f t="shared" si="5"/>
+        <v>0.18993352326686086</v>
       </c>
       <c r="D367">
         <v>8.3800000000000008</v>
@@ -5585,7 +6013,8 @@
         <v>105.7</v>
       </c>
       <c r="C368">
-        <v>-0.56444026340545239</v>
+        <f t="shared" si="5"/>
+        <v>0.18957345971564177</v>
       </c>
       <c r="D368">
         <v>8.35</v>
@@ -5599,7 +6028,8 @@
         <v>106.3</v>
       </c>
       <c r="C369">
-        <v>-0.46816479400748617</v>
+        <f t="shared" si="5"/>
+        <v>0.56764427625353164</v>
       </c>
       <c r="D369">
         <v>8.5</v>
@@ -5613,7 +6043,8 @@
         <v>106.8</v>
       </c>
       <c r="C370">
-        <v>-0.1869158878504695</v>
+        <f t="shared" si="5"/>
+        <v>0.47036688617121403</v>
       </c>
       <c r="D370">
         <v>8.58</v>
@@ -5627,7 +6058,8 @@
         <v>107</v>
       </c>
       <c r="C371">
-        <v>-0.18656716417910779</v>
+        <f t="shared" si="5"/>
+        <v>0.18726591760300781</v>
       </c>
       <c r="D371">
         <v>8.27</v>
@@ -5641,7 +6073,8 @@
         <v>107.2</v>
       </c>
       <c r="C372">
-        <v>-0.27906976744185302</v>
+        <f t="shared" si="5"/>
+        <v>0.18691588785046953</v>
       </c>
       <c r="D372">
         <v>7.97</v>
@@ -5655,7 +6088,8 @@
         <v>107.5</v>
       </c>
       <c r="C373">
-        <v>-0.18570102135562211</v>
+        <f t="shared" si="5"/>
+        <v>0.27985074626866169</v>
       </c>
       <c r="D373">
         <v>7.53</v>
@@ -5669,7 +6103,8 @@
         <v>107.7</v>
       </c>
       <c r="C374">
-        <v>-0.1853568118628357</v>
+        <f t="shared" si="5"/>
+        <v>0.18604651162790198</v>
       </c>
       <c r="D374">
         <v>7.88</v>
@@ -5683,7 +6118,8 @@
         <v>107.9</v>
       </c>
       <c r="C375">
-        <v>-0.18501387604069611</v>
+        <f t="shared" si="5"/>
+        <v>0.18570102135562205</v>
       </c>
       <c r="D375">
         <v>7.9</v>
@@ -5697,7 +6133,8 @@
         <v>108.1</v>
       </c>
       <c r="C376">
-        <v>-0.36866359447005342</v>
+        <f t="shared" si="5"/>
+        <v>0.1853568118628246</v>
       </c>
       <c r="D376">
         <v>7.92</v>
@@ -5711,7 +6148,8 @@
         <v>108.5</v>
       </c>
       <c r="C377">
-        <v>-0.45871559633027248</v>
+        <f t="shared" si="5"/>
+        <v>0.37002775208141436</v>
       </c>
       <c r="D377">
         <v>7.99</v>
@@ -5725,7 +6163,8 @@
         <v>109</v>
       </c>
       <c r="C378">
-        <v>-0.45662100456621563</v>
+        <f t="shared" si="5"/>
+        <v>0.46082949308756671</v>
       </c>
       <c r="D378">
         <v>8.0500000000000007</v>
@@ -5739,7 +6178,8 @@
         <v>109.5</v>
       </c>
       <c r="C379">
-        <v>-0.36396724294813781</v>
+        <f t="shared" si="5"/>
+        <v>0.45871559633028358</v>
       </c>
       <c r="D379">
         <v>8.27</v>
@@ -5753,7 +6193,8 @@
         <v>109.9</v>
       </c>
       <c r="C380">
-        <v>0.1823154056517895</v>
+        <f t="shared" si="5"/>
+        <v>0.36529680365298134</v>
       </c>
       <c r="D380">
         <v>8.14</v>
@@ -5767,7 +6208,8 @@
         <v>109.7</v>
       </c>
       <c r="C381">
-        <v>0.5499541704858002</v>
+        <f t="shared" si="5"/>
+        <v>-0.18198362147406888</v>
       </c>
       <c r="D381">
         <v>7.86</v>
@@ -5781,7 +6223,8 @@
         <v>109.1</v>
       </c>
       <c r="C382">
-        <v>0.36798528058876728</v>
+        <f t="shared" si="5"/>
+        <v>-0.54694621695533518</v>
       </c>
       <c r="D382">
         <v>7.48</v>
@@ -5795,7 +6238,8 @@
         <v>108.7</v>
       </c>
       <c r="C383">
-        <v>-0.27522935779816787</v>
+        <f t="shared" si="5"/>
+        <v>-0.36663611365719273</v>
       </c>
       <c r="D383">
         <v>6.99</v>
@@ -5809,7 +6253,8 @@
         <v>109</v>
       </c>
       <c r="C384">
-        <v>-0.36563071297989191</v>
+        <f t="shared" si="5"/>
+        <v>0.27598896044158661</v>
       </c>
       <c r="D384">
         <v>6.85</v>
@@ -5823,7 +6268,8 @@
         <v>109.4</v>
       </c>
       <c r="C385">
-        <v>-9.1324200913234233E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.36697247706423131</v>
       </c>
       <c r="D385">
         <v>6.92</v>
@@ -5837,7 +6283,8 @@
         <v>109.5</v>
       </c>
       <c r="C386">
-        <v>-9.1240875912401709E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.1407678244959101E-2</v>
       </c>
       <c r="D386">
         <v>6.56</v>
@@ -5851,7 +6298,8 @@
         <v>109.6</v>
       </c>
       <c r="C387">
-        <v>-0.36363636363636598</v>
+        <f t="shared" si="5"/>
+        <v>9.1324200913245335E-2</v>
       </c>
       <c r="D387">
         <v>6.17</v>
@@ -5865,7 +6313,8 @@
         <v>110</v>
       </c>
       <c r="C388">
-        <v>-0.18148820326678861</v>
+        <f t="shared" ref="C388:C451" si="6">(B388/B387-1)*100</f>
+        <v>0.36496350364965124</v>
       </c>
       <c r="D388">
         <v>5.89</v>
@@ -5879,7 +6328,8 @@
         <v>110.2</v>
       </c>
       <c r="C389">
-        <v>-0.1811594202898559</v>
+        <f t="shared" si="6"/>
+        <v>0.18181818181819409</v>
       </c>
       <c r="D389">
         <v>5.85</v>
@@ -5893,7 +6343,8 @@
         <v>110.4</v>
       </c>
       <c r="C390">
-        <v>-0.36101083032490378</v>
+        <f t="shared" si="6"/>
+        <v>0.18148820326679971</v>
       </c>
       <c r="D390">
         <v>6.04</v>
@@ -5907,7 +6358,8 @@
         <v>110.8</v>
       </c>
       <c r="C391">
-        <v>-0.53859964093357915</v>
+        <f t="shared" si="6"/>
+        <v>0.36231884057971175</v>
       </c>
       <c r="D391">
         <v>6.91</v>
@@ -5921,7 +6373,8 @@
         <v>111.4</v>
       </c>
       <c r="C392">
-        <v>-0.35778175313058158</v>
+        <f t="shared" si="6"/>
+        <v>0.54151624548737232</v>
       </c>
       <c r="D392">
         <v>6.43</v>
@@ -5935,7 +6388,8 @@
         <v>111.8</v>
       </c>
       <c r="C393">
-        <v>-0.35650623885918892</v>
+        <f t="shared" si="6"/>
+        <v>0.35906642728904536</v>
       </c>
       <c r="D393">
         <v>6.1</v>
@@ -5949,7 +6403,8 @@
         <v>112.2</v>
       </c>
       <c r="C394">
-        <v>-0.44365572315883117</v>
+        <f t="shared" si="6"/>
+        <v>0.35778175313059268</v>
       </c>
       <c r="D394">
         <v>6.13</v>
@@ -5963,7 +6418,8 @@
         <v>112.7</v>
       </c>
       <c r="C395">
-        <v>-0.26548672566371062</v>
+        <f t="shared" si="6"/>
+        <v>0.44563279857396942</v>
       </c>
       <c r="D395">
         <v>6.37</v>
@@ -5977,7 +6433,8 @@
         <v>113</v>
       </c>
       <c r="C396">
-        <v>-0.4405286343612369</v>
+        <f t="shared" si="6"/>
+        <v>0.26619343389528982</v>
       </c>
       <c r="D396">
         <v>6.85</v>
@@ -5991,7 +6448,8 @@
         <v>113.5</v>
       </c>
       <c r="C397">
-        <v>-0.26362038664322629</v>
+        <f t="shared" si="6"/>
+        <v>0.44247787610618428</v>
       </c>
       <c r="D397">
         <v>6.73</v>
@@ -6005,7 +6463,8 @@
         <v>113.8</v>
       </c>
       <c r="C398">
-        <v>-0.43744531933508363</v>
+        <f t="shared" si="6"/>
+        <v>0.26431718061674658</v>
       </c>
       <c r="D398">
         <v>6.58</v>
@@ -6019,7 +6478,8 @@
         <v>114.3</v>
       </c>
       <c r="C399">
-        <v>-0.34873583260680568</v>
+        <f t="shared" si="6"/>
+        <v>0.43936731107205862</v>
       </c>
       <c r="D399">
         <v>6.73</v>
@@ -6033,7 +6493,8 @@
         <v>114.7</v>
       </c>
       <c r="C400">
-        <v>-0.26086956521739202</v>
+        <f t="shared" si="6"/>
+        <v>0.34995625546807574</v>
       </c>
       <c r="D400">
         <v>7.22</v>
@@ -6047,7 +6508,8 @@
         <v>115</v>
       </c>
       <c r="C401">
-        <v>-0.34662045060659402</v>
+        <f t="shared" si="6"/>
+        <v>0.26155187445509043</v>
       </c>
       <c r="D401">
         <v>7.29</v>
@@ -6061,7 +6523,8 @@
         <v>115.4</v>
       </c>
       <c r="C402">
-        <v>-0.17301038062282889</v>
+        <f t="shared" si="6"/>
+        <v>0.34782608695653749</v>
       </c>
       <c r="D402">
         <v>6.69</v>
@@ -6075,7 +6538,8 @@
         <v>115.6</v>
       </c>
       <c r="C403">
-        <v>-0.34482758620689719</v>
+        <f t="shared" si="6"/>
+        <v>0.17331022530329143</v>
       </c>
       <c r="D403">
         <v>6.77</v>
@@ -6089,7 +6553,8 @@
         <v>116</v>
       </c>
       <c r="C404">
-        <v>-0.17211703958691649</v>
+        <f t="shared" si="6"/>
+        <v>0.34602076124568004</v>
       </c>
       <c r="D404">
         <v>6.83</v>
@@ -6103,7 +6568,8 @@
         <v>116.2</v>
       </c>
       <c r="C405">
-        <v>-0.25751072961373023</v>
+        <f t="shared" si="6"/>
+        <v>0.17241379310344307</v>
       </c>
       <c r="D405">
         <v>6.58</v>
@@ -6117,7 +6583,8 @@
         <v>116.5</v>
       </c>
       <c r="C406">
-        <v>-0.59726962457338217</v>
+        <f t="shared" si="6"/>
+        <v>0.25817555938036918</v>
       </c>
       <c r="D406">
         <v>6.58</v>
@@ -6131,7 +6598,8 @@
         <v>117.2</v>
       </c>
       <c r="C407">
-        <v>-0.2553191489361728</v>
+        <f t="shared" si="6"/>
+        <v>0.60085836909871126</v>
       </c>
       <c r="D407">
         <v>6.87</v>
@@ -6145,7 +6613,8 @@
         <v>117.5</v>
       </c>
       <c r="C408">
-        <v>-0.4237288135593209</v>
+        <f t="shared" si="6"/>
+        <v>0.25597269624573205</v>
       </c>
       <c r="D408">
         <v>7.09</v>
@@ -6159,7 +6628,8 @@
         <v>118</v>
       </c>
       <c r="C409">
-        <v>-0.42194092827003699</v>
+        <f t="shared" si="6"/>
+        <v>0.42553191489360653</v>
       </c>
       <c r="D409">
         <v>7.51</v>
@@ -6173,7 +6643,8 @@
         <v>118.5</v>
       </c>
       <c r="C410">
-        <v>-0.42016806722688932</v>
+        <f t="shared" si="6"/>
+        <v>0.4237288135593209</v>
       </c>
       <c r="D410">
         <v>7.75</v>
@@ -6187,7 +6658,8 @@
         <v>119</v>
       </c>
       <c r="C411">
-        <v>-0.41841004184099972</v>
+        <f t="shared" si="6"/>
+        <v>0.42194092827003704</v>
       </c>
       <c r="D411">
         <v>8.01</v>
@@ -6201,7 +6673,8 @@
         <v>119.5</v>
       </c>
       <c r="C412">
-        <v>-0.33361134278565568</v>
+        <f t="shared" si="6"/>
+        <v>0.42016806722688926</v>
       </c>
       <c r="D412">
         <v>8.19</v>
@@ -6215,7 +6688,8 @@
         <v>119.9</v>
       </c>
       <c r="C413">
-        <v>-0.33250207813798621</v>
+        <f t="shared" si="6"/>
+        <v>0.33472803347280866</v>
       </c>
       <c r="D413">
         <v>8.3000000000000007</v>
@@ -6229,7 +6703,8 @@
         <v>120.3</v>
       </c>
       <c r="C414">
-        <v>-0.3314001657000909</v>
+        <f t="shared" si="6"/>
+        <v>0.33361134278564464</v>
       </c>
       <c r="D414">
         <v>8.35</v>
@@ -6243,7 +6718,8 @@
         <v>120.7</v>
       </c>
       <c r="C415">
-        <v>-0.41254125412540921</v>
+        <f t="shared" si="6"/>
+        <v>0.33250207813799726</v>
       </c>
       <c r="D415">
         <v>8.76</v>
@@ -6257,7 +6733,8 @@
         <v>121.2</v>
       </c>
       <c r="C416">
-        <v>-0.32894736842105088</v>
+        <f t="shared" si="6"/>
+        <v>0.41425020712511085</v>
       </c>
       <c r="D416">
         <v>9.1199999999999992</v>
@@ -6271,7 +6748,8 @@
         <v>121.6</v>
       </c>
       <c r="C417">
-        <v>-0.49099836333879038</v>
+        <f t="shared" si="6"/>
+        <v>0.33003300330032292</v>
       </c>
       <c r="D417">
         <v>9.36</v>
@@ -6285,7 +6763,8 @@
         <v>122.2</v>
       </c>
       <c r="C418">
-        <v>-0.73111291632818043</v>
+        <f t="shared" si="6"/>
+        <v>0.49342105263159297</v>
       </c>
       <c r="D418">
         <v>9.85</v>
@@ -6299,7 +6778,8 @@
         <v>123.1</v>
       </c>
       <c r="C419">
-        <v>-0.48504446240905658</v>
+        <f t="shared" si="6"/>
+        <v>0.73649754500817455</v>
       </c>
       <c r="D419">
         <v>9.84</v>
@@ -6313,7 +6793,8 @@
         <v>123.7</v>
       </c>
       <c r="C420">
-        <v>-0.32232070910555022</v>
+        <f t="shared" si="6"/>
+        <v>0.48740861088547582</v>
       </c>
       <c r="D420">
         <v>9.81</v>
@@ -6327,7 +6808,8 @@
         <v>124.1</v>
       </c>
       <c r="C421">
-        <v>-0.32128514056225521</v>
+        <f t="shared" si="6"/>
+        <v>0.32336297493935628</v>
       </c>
       <c r="D421">
         <v>9.5299999999999994</v>
@@ -6341,7 +6823,8 @@
         <v>124.5</v>
       </c>
       <c r="C422">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.32232070910556132</v>
       </c>
       <c r="D422">
         <v>9.24</v>
@@ -6355,7 +6838,8 @@
         <v>124.5</v>
       </c>
       <c r="C423">
-        <v>-0.2403846153846145</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D423">
         <v>8.99</v>
@@ -6369,7 +6853,8 @@
         <v>124.8</v>
       </c>
       <c r="C424">
-        <v>-0.4784688995215336</v>
+        <f t="shared" si="6"/>
+        <v>0.24096385542169418</v>
       </c>
       <c r="D424">
         <v>9.02</v>
@@ -6383,7 +6868,8 @@
         <v>125.4</v>
       </c>
       <c r="C425">
-        <v>-0.39714058776807448</v>
+        <f t="shared" si="6"/>
+        <v>0.48076923076922906</v>
       </c>
       <c r="D425">
         <v>8.84</v>
@@ -6397,7 +6883,8 @@
         <v>125.9</v>
       </c>
       <c r="C426">
-        <v>-0.31670625494852889</v>
+        <f t="shared" si="6"/>
+        <v>0.39872408293459838</v>
       </c>
       <c r="D426">
         <v>8.5500000000000007</v>
@@ -6411,7 +6898,8 @@
         <v>126.3</v>
       </c>
       <c r="C427">
-        <v>-0.94117647058823417</v>
+        <f t="shared" si="6"/>
+        <v>0.31771247021445959</v>
       </c>
       <c r="D427">
         <v>8.4499999999999993</v>
@@ -6425,7 +6913,8 @@
         <v>127.5</v>
       </c>
       <c r="C428">
-        <v>-0.390625</v>
+        <f t="shared" si="6"/>
+        <v>0.95011876484560887</v>
       </c>
       <c r="D428">
         <v>8.23</v>
@@ -6439,7 +6928,8 @@
         <v>128</v>
       </c>
       <c r="C429">
-        <v>-0.46656298600310508</v>
+        <f t="shared" si="6"/>
+        <v>0.39215686274509665</v>
       </c>
       <c r="D429">
         <v>8.24</v>
@@ -6453,7 +6943,8 @@
         <v>128.6</v>
       </c>
       <c r="C430">
-        <v>-0.23273855702095059</v>
+        <f t="shared" si="6"/>
+        <v>0.46874999999999556</v>
       </c>
       <c r="D430">
         <v>8.2799999999999994</v>
@@ -6467,7 +6958,8 @@
         <v>128.9</v>
       </c>
       <c r="C431">
-        <v>-0.1549186676994441</v>
+        <f t="shared" si="6"/>
+        <v>0.2332814930015692</v>
       </c>
       <c r="D431">
         <v>8.26</v>
@@ -6481,7 +6973,8 @@
         <v>129.1</v>
       </c>
       <c r="C432">
-        <v>-0.61585835257891297</v>
+        <f t="shared" si="6"/>
+        <v>0.15515903801395226</v>
       </c>
       <c r="D432">
         <v>8.18</v>
@@ -6495,7 +6988,8 @@
         <v>129.9</v>
       </c>
       <c r="C433">
-        <v>-0.45977011494252601</v>
+        <f t="shared" si="6"/>
+        <v>0.61967467079784289</v>
       </c>
       <c r="D433">
         <v>8.2899999999999991</v>
@@ -6509,7 +7003,8 @@
         <v>130.5</v>
       </c>
       <c r="C434">
-        <v>-0.8358662613981771</v>
+        <f t="shared" si="6"/>
+        <v>0.46189376443417363</v>
       </c>
       <c r="D434">
         <v>8.15</v>
@@ -6523,7 +7018,8 @@
         <v>131.6</v>
       </c>
       <c r="C435">
-        <v>-0.67924528301886999</v>
+        <f t="shared" si="6"/>
+        <v>0.84291187739462536</v>
       </c>
       <c r="D435">
         <v>8.1300000000000008</v>
@@ -6537,7 +7033,8 @@
         <v>132.5</v>
       </c>
       <c r="C436">
-        <v>-0.67466266866567093</v>
+        <f t="shared" si="6"/>
+        <v>0.68389057750759541</v>
       </c>
       <c r="D436">
         <v>8.1999999999999993</v>
@@ -6551,7 +7048,8 @@
         <v>133.4</v>
       </c>
       <c r="C437">
-        <v>-0.2243829468960179</v>
+        <f t="shared" si="6"/>
+        <v>0.6792452830188811</v>
       </c>
       <c r="D437">
         <v>8.11</v>
@@ -6565,7 +7063,8 @@
         <v>133.69999999999999</v>
       </c>
       <c r="C438">
-        <v>-0.37257824143069879</v>
+        <f t="shared" si="6"/>
+        <v>0.22488755622187551</v>
       </c>
       <c r="D438">
         <v>7.81</v>
@@ -6579,7 +7078,8 @@
         <v>134.19999999999999</v>
       </c>
       <c r="C439">
-        <v>-0.37119524870081738</v>
+        <f t="shared" si="6"/>
+        <v>0.37397157816005944</v>
       </c>
       <c r="D439">
         <v>7.31</v>
@@ -6593,7 +7093,8 @@
         <v>134.69999999999999</v>
       </c>
       <c r="C440">
-        <v>-7.4183976261144036E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.37257824143070994</v>
       </c>
       <c r="D440">
         <v>6.91</v>
@@ -6607,7 +7108,8 @@
         <v>134.80000000000001</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7.423904974017681E-2</v>
       </c>
       <c r="D441">
         <v>6.25</v>
@@ -6621,7 +7123,8 @@
         <v>134.80000000000001</v>
       </c>
       <c r="C442">
-        <v>-0.22205773501109419</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D442">
         <v>6.12</v>
@@ -6635,7 +7138,8 @@
         <v>135.1</v>
       </c>
       <c r="C443">
-        <v>-0.36873156342183128</v>
+        <f t="shared" si="6"/>
+        <v>0.2225519287833766</v>
       </c>
       <c r="D443">
         <v>5.91</v>
@@ -6649,7 +7153,8 @@
         <v>135.6</v>
       </c>
       <c r="C444">
-        <v>-0.29411764705882248</v>
+        <f t="shared" si="6"/>
+        <v>0.37009622501851247</v>
       </c>
       <c r="D444">
         <v>5.78</v>
@@ -6663,7 +7168,8 @@
         <v>136</v>
       </c>
       <c r="C445">
-        <v>-0.1468428781204012</v>
+        <f t="shared" si="6"/>
+        <v>0.29498525073747839</v>
       </c>
       <c r="D445">
         <v>5.9</v>
@@ -6677,7 +7183,8 @@
         <v>136.19999999999999</v>
       </c>
       <c r="C446">
-        <v>-0.29282576866764831</v>
+        <f t="shared" si="6"/>
+        <v>0.14705882352941124</v>
       </c>
       <c r="D446">
         <v>5.82</v>
@@ -6691,7 +7198,8 @@
         <v>136.6</v>
       </c>
       <c r="C447">
-        <v>-0.29197080291971661</v>
+        <f t="shared" si="6"/>
+        <v>0.2936857562408246</v>
       </c>
       <c r="D447">
         <v>5.66</v>
@@ -6705,7 +7213,8 @@
         <v>137</v>
       </c>
       <c r="C448">
-        <v>-0.14577259475218041</v>
+        <f t="shared" si="6"/>
+        <v>0.29282576866764831</v>
       </c>
       <c r="D448">
         <v>5.45</v>
@@ -6719,7 +7228,8 @@
         <v>137.19999999999999</v>
       </c>
       <c r="C449">
-        <v>-0.43541364296082458</v>
+        <f t="shared" si="6"/>
+        <v>0.14598540145984717</v>
       </c>
       <c r="D449">
         <v>5.21</v>
@@ -6733,7 +7243,8 @@
         <v>137.80000000000001</v>
       </c>
       <c r="C450">
-        <v>-0.28943560057885792</v>
+        <f t="shared" si="6"/>
+        <v>0.43731778425657453</v>
       </c>
       <c r="D450">
         <v>4.8099999999999996</v>
@@ -6747,7 +7258,8 @@
         <v>138.19999999999999</v>
       </c>
       <c r="C451">
-        <v>-7.2306579898784307E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.29027576197386828</v>
       </c>
       <c r="D451">
         <v>4.43</v>
@@ -6761,7 +7273,8 @@
         <v>138.30000000000001</v>
       </c>
       <c r="C452">
-        <v>-0.2164502164502036</v>
+        <f t="shared" ref="C452:C515" si="7">(B452/B451-1)*100</f>
+        <v>7.2358900144742222E-2</v>
       </c>
       <c r="D452">
         <v>4.03</v>
@@ -6775,7 +7288,8 @@
         <v>138.6</v>
       </c>
       <c r="C453">
-        <v>-0.35945363048166529</v>
+        <f t="shared" si="7"/>
+        <v>0.21691973969630851</v>
       </c>
       <c r="D453">
         <v>4.0599999999999996</v>
@@ -6789,7 +7303,8 @@
         <v>139.1</v>
       </c>
       <c r="C454">
-        <v>-0.21520803443328959</v>
+        <f t="shared" si="7"/>
+        <v>0.36075036075036149</v>
       </c>
       <c r="D454">
         <v>3.98</v>
@@ -6803,7 +7318,8 @@
         <v>139.4</v>
       </c>
       <c r="C455">
-        <v>-0.2147458840372152</v>
+        <f t="shared" si="7"/>
+        <v>0.21567217828901697</v>
       </c>
       <c r="D455">
         <v>3.73</v>
@@ -6817,7 +7333,8 @@
         <v>139.69999999999999</v>
       </c>
       <c r="C456">
-        <v>-0.2855103497501843</v>
+        <f t="shared" si="7"/>
+        <v>0.21520803443326741</v>
       </c>
       <c r="D456">
         <v>3.82</v>
@@ -6831,7 +7348,8 @@
         <v>140.1</v>
       </c>
       <c r="C457">
-        <v>-0.2846975088968029</v>
+        <f t="shared" si="7"/>
+        <v>0.28632784538296097</v>
       </c>
       <c r="D457">
         <v>3.76</v>
@@ -6845,7 +7363,8 @@
         <v>140.5</v>
       </c>
       <c r="C458">
-        <v>-0.2130681818181879</v>
+        <f t="shared" si="7"/>
+        <v>0.2855103497501732</v>
       </c>
       <c r="D458">
         <v>3.25</v>
@@ -6859,7 +7378,8 @@
         <v>140.80000000000001</v>
       </c>
       <c r="C459">
-        <v>-0.21261516654853541</v>
+        <f t="shared" si="7"/>
+        <v>0.2135231316725994</v>
       </c>
       <c r="D459">
         <v>3.3</v>
@@ -6873,7 +7393,8 @@
         <v>141.1</v>
       </c>
       <c r="C460">
-        <v>-0.42342978122794639</v>
+        <f t="shared" si="7"/>
+        <v>0.21306818181816567</v>
       </c>
       <c r="D460">
         <v>3.22</v>
@@ -6887,7 +7408,8 @@
         <v>141.69999999999999</v>
       </c>
       <c r="C461">
-        <v>-0.28149190710767819</v>
+        <f t="shared" si="7"/>
+        <v>0.42523033309709302</v>
       </c>
       <c r="D461">
         <v>3.1</v>
@@ -6901,7 +7423,8 @@
         <v>142.1</v>
       </c>
       <c r="C462">
-        <v>-0.14054813773718419</v>
+        <f t="shared" si="7"/>
+        <v>0.28228652081863093</v>
       </c>
       <c r="D462">
         <v>3.09</v>
@@ -6915,7 +7438,8 @@
         <v>142.30000000000001</v>
       </c>
       <c r="C463">
-        <v>-0.35014005602240772</v>
+        <f t="shared" si="7"/>
+        <v>0.14074595355384467</v>
       </c>
       <c r="D463">
         <v>2.92</v>
@@ -6929,7 +7453,8 @@
         <v>142.80000000000001</v>
       </c>
       <c r="C464">
-        <v>-0.20964360587001349</v>
+        <f t="shared" si="7"/>
+        <v>0.35137034434293835</v>
       </c>
       <c r="D464">
         <v>3.02</v>
@@ -6943,7 +7468,8 @@
         <v>143.1</v>
       </c>
       <c r="C465">
-        <v>-0.13956734124216391</v>
+        <f t="shared" si="7"/>
+        <v>0.21008403361342243</v>
       </c>
       <c r="D465">
         <v>3.03</v>
@@ -6957,7 +7483,8 @@
         <v>143.30000000000001</v>
       </c>
       <c r="C466">
-        <v>-0.3477051460361591</v>
+        <f t="shared" si="7"/>
+        <v>0.13976240391335715</v>
       </c>
       <c r="D466">
         <v>3.07</v>
@@ -6971,7 +7498,8 @@
         <v>143.80000000000001</v>
       </c>
       <c r="C467">
-        <v>-0.27739251040220791</v>
+        <f t="shared" si="7"/>
+        <v>0.34891835310537633</v>
       </c>
       <c r="D467">
         <v>2.96</v>
@@ -6985,7 +7513,8 @@
         <v>144.19999999999999</v>
       </c>
       <c r="C468">
-        <v>-6.9300069300082257E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.27816411682890507</v>
       </c>
       <c r="D468">
         <v>3</v>
@@ -6999,7 +7528,8 @@
         <v>144.30000000000001</v>
       </c>
       <c r="C469">
-        <v>-0.13840830449826089</v>
+        <f t="shared" si="7"/>
+        <v>6.9348127600576959E-2</v>
       </c>
       <c r="D469">
         <v>3.04</v>
@@ -7013,7 +7543,8 @@
         <v>144.5</v>
       </c>
       <c r="C470">
-        <v>-0.20718232044200091</v>
+        <f t="shared" si="7"/>
+        <v>0.1386001386001201</v>
       </c>
       <c r="D470">
         <v>3.06</v>
@@ -7027,7 +7558,8 @@
         <v>144.80000000000001</v>
       </c>
       <c r="C471">
-        <v>-0.13793103448275221</v>
+        <f t="shared" si="7"/>
+        <v>0.20761245674740803</v>
       </c>
       <c r="D471">
         <v>3.03</v>
@@ -7041,7 +7573,8 @@
         <v>145</v>
       </c>
       <c r="C472">
-        <v>-0.41208791208791062</v>
+        <f t="shared" si="7"/>
+        <v>0.13812154696131174</v>
       </c>
       <c r="D472">
         <v>3.09</v>
@@ -7055,7 +7588,8 @@
         <v>145.6</v>
       </c>
       <c r="C473">
-        <v>-0.2739726027397249</v>
+        <f t="shared" si="7"/>
+        <v>0.41379310344826781</v>
       </c>
       <c r="D473">
         <v>2.99</v>
@@ -7069,7 +7603,8 @@
         <v>146</v>
       </c>
       <c r="C474">
-        <v>-0.20505809979495249</v>
+        <f t="shared" si="7"/>
+        <v>0.27472527472527375</v>
       </c>
       <c r="D474">
         <v>3.02</v>
@@ -7083,7 +7618,8 @@
         <v>146.30000000000001</v>
       </c>
       <c r="C475">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.205479452054802</v>
       </c>
       <c r="D475">
         <v>2.96</v>
@@ -7097,7 +7633,8 @@
         <v>146.30000000000001</v>
       </c>
       <c r="C476">
-        <v>-0.27266530334013611</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D476">
         <v>3.05</v>
@@ -7111,7 +7648,8 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C477">
-        <v>-0.27192386131883461</v>
+        <f t="shared" si="7"/>
+        <v>0.27341079972658111</v>
       </c>
       <c r="D477">
         <v>3.25</v>
@@ -7125,7 +7663,8 @@
         <v>147.1</v>
       </c>
       <c r="C478">
-        <v>-6.7934782608691791E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.27266530334015826</v>
       </c>
       <c r="D478">
         <v>3.34</v>
@@ -7139,7 +7678,8 @@
         <v>147.19999999999999</v>
       </c>
       <c r="C479">
-        <v>-0.2033898305084825</v>
+        <f t="shared" si="7"/>
+        <v>6.7980965329694776E-2</v>
       </c>
       <c r="D479">
         <v>3.56</v>
@@ -7153,7 +7693,8 @@
         <v>147.5</v>
       </c>
       <c r="C480">
-        <v>-0.27045300878972828</v>
+        <f t="shared" si="7"/>
+        <v>0.20380434782609758</v>
       </c>
       <c r="D480">
         <v>4.01</v>
@@ -7167,7 +7708,8 @@
         <v>147.9</v>
       </c>
       <c r="C481">
-        <v>-0.3369272237196741</v>
+        <f t="shared" si="7"/>
+        <v>0.27118644067796183</v>
       </c>
       <c r="D481">
         <v>4.25</v>
@@ -7181,7 +7723,8 @@
         <v>148.4</v>
       </c>
       <c r="C482">
-        <v>-0.40268456375838202</v>
+        <f t="shared" si="7"/>
+        <v>0.33806626098715764</v>
       </c>
       <c r="D482">
         <v>4.26</v>
@@ -7195,7 +7738,8 @@
         <v>149</v>
       </c>
       <c r="C483">
-        <v>-0.20093770931012281</v>
+        <f t="shared" si="7"/>
+        <v>0.40431266846361336</v>
       </c>
       <c r="D483">
         <v>4.47</v>
@@ -7209,7 +7753,8 @@
         <v>149.30000000000001</v>
       </c>
       <c r="C484">
-        <v>-6.6934404283802706E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.20134228187920211</v>
       </c>
       <c r="D484">
         <v>4.7300000000000004</v>
@@ -7223,7 +7768,8 @@
         <v>149.4</v>
       </c>
       <c r="C485">
-        <v>-0.26702269692924219</v>
+        <f t="shared" si="7"/>
+        <v>6.6979236436703893E-2</v>
       </c>
       <c r="D485">
         <v>4.76</v>
@@ -7237,7 +7783,8 @@
         <v>149.80000000000001</v>
       </c>
       <c r="C486">
-        <v>-0.19986675549632521</v>
+        <f t="shared" si="7"/>
+        <v>0.26773761713521083</v>
       </c>
       <c r="D486">
         <v>5.29</v>
@@ -7251,7 +7798,8 @@
         <v>150.1</v>
       </c>
       <c r="C487">
-        <v>-0.26578073089701387</v>
+        <f t="shared" si="7"/>
+        <v>0.20026702269690944</v>
       </c>
       <c r="D487">
         <v>5.45</v>
@@ -7265,7 +7813,8 @@
         <v>150.5</v>
       </c>
       <c r="C488">
-        <v>-0.26507620941020882</v>
+        <f t="shared" si="7"/>
+        <v>0.26648900732844094</v>
       </c>
       <c r="D488">
         <v>5.53</v>
@@ -7279,7 +7828,8 @@
         <v>150.9</v>
       </c>
       <c r="C489">
-        <v>-0.19841269841268661</v>
+        <f t="shared" si="7"/>
+        <v>0.26578073089700283</v>
       </c>
       <c r="D489">
         <v>5.92</v>
@@ -7293,7 +7843,8 @@
         <v>151.19999999999999</v>
       </c>
       <c r="C490">
-        <v>-0.39525691699606741</v>
+        <f t="shared" si="7"/>
+        <v>0.19880715705764551</v>
       </c>
       <c r="D490">
         <v>5.98</v>
@@ -7307,7 +7858,8 @@
         <v>151.80000000000001</v>
       </c>
       <c r="C491">
-        <v>-0.19723865877711019</v>
+        <f t="shared" si="7"/>
+        <v>0.39682539682541762</v>
       </c>
       <c r="D491">
         <v>6.05</v>
@@ -7321,7 +7873,8 @@
         <v>152.1</v>
       </c>
       <c r="C492">
-        <v>-0.19685039370079821</v>
+        <f t="shared" si="7"/>
+        <v>0.19762845849802257</v>
       </c>
       <c r="D492">
         <v>6.01</v>
@@ -7335,7 +7888,8 @@
         <v>152.4</v>
       </c>
       <c r="C493">
-        <v>-0.13106159895149849</v>
+        <f t="shared" si="7"/>
+        <v>0.19723865877712132</v>
       </c>
       <c r="D493">
         <v>6</v>
@@ -7349,7 +7903,8 @@
         <v>152.6</v>
       </c>
       <c r="C494">
-        <v>-0.19620667102682179</v>
+        <f t="shared" si="7"/>
+        <v>0.1312335958005173</v>
       </c>
       <c r="D494">
         <v>5.85</v>
@@ -7363,7 +7918,8 @@
         <v>152.9</v>
       </c>
       <c r="C495">
-        <v>-0.13063357282820931</v>
+        <f t="shared" si="7"/>
+        <v>0.19659239842726439</v>
       </c>
       <c r="D495">
         <v>5.74</v>
@@ -7377,7 +7933,8 @@
         <v>153.1</v>
       </c>
       <c r="C496">
-        <v>-0.26058631921824782</v>
+        <f t="shared" si="7"/>
+        <v>0.13080444735120711</v>
       </c>
       <c r="D496">
         <v>5.8</v>
@@ -7391,7 +7948,8 @@
         <v>153.5</v>
       </c>
       <c r="C497">
-        <v>-0.13012361743656159</v>
+        <f t="shared" si="7"/>
+        <v>0.26126714565644082</v>
       </c>
       <c r="D497">
         <v>5.76</v>
@@ -7405,7 +7963,8 @@
         <v>153.69999999999999</v>
       </c>
       <c r="C498">
-        <v>-0.1299545159194393</v>
+        <f t="shared" si="7"/>
+        <v>0.13029315960910726</v>
       </c>
       <c r="D498">
         <v>5.8</v>
@@ -7419,7 +7978,8 @@
         <v>153.9</v>
       </c>
       <c r="C499">
-        <v>-0.51712992889462184</v>
+        <f t="shared" si="7"/>
+        <v>0.13012361743658385</v>
       </c>
       <c r="D499">
         <v>5.6</v>
@@ -7433,7 +7993,8 @@
         <v>154.69999999999999</v>
       </c>
       <c r="C500">
-        <v>-0.1935483870967869</v>
+        <f t="shared" si="7"/>
+        <v>0.51981806367771277</v>
       </c>
       <c r="D500">
         <v>5.56</v>
@@ -7447,7 +8008,8 @@
         <v>155</v>
       </c>
       <c r="C501">
-        <v>-0.3215434083601254</v>
+        <f t="shared" si="7"/>
+        <v>0.19392372333548735</v>
       </c>
       <c r="D501">
         <v>5.22</v>
@@ -7461,7 +8023,8 @@
         <v>155.5</v>
       </c>
       <c r="C502">
-        <v>-0.38436899423446302</v>
+        <f t="shared" si="7"/>
+        <v>0.3225806451612856</v>
       </c>
       <c r="D502">
         <v>5.31</v>
@@ -7475,7 +8038,8 @@
         <v>156.1</v>
       </c>
       <c r="C503">
-        <v>-0.19181585677749971</v>
+        <f t="shared" si="7"/>
+        <v>0.38585209003214604</v>
       </c>
       <c r="D503">
         <v>5.22</v>
@@ -7489,7 +8053,8 @@
         <v>156.4</v>
       </c>
       <c r="C504">
-        <v>-0.1914486279514849</v>
+        <f t="shared" si="7"/>
+        <v>0.19218449711724261</v>
       </c>
       <c r="D504">
         <v>5.24</v>
@@ -7503,7 +8068,8 @@
         <v>156.69999999999999</v>
       </c>
       <c r="C505">
-        <v>-0.19108280254778179</v>
+        <f t="shared" si="7"/>
+        <v>0.19181585677747748</v>
       </c>
       <c r="D505">
         <v>5.27</v>
@@ -7517,7 +8083,8 @@
         <v>157</v>
       </c>
       <c r="C506">
-        <v>-0.12722646310431299</v>
+        <f t="shared" si="7"/>
+        <v>0.19144862795150708</v>
       </c>
       <c r="D506">
         <v>5.4</v>
@@ -7531,7 +8098,8 @@
         <v>157.19999999999999</v>
       </c>
       <c r="C507">
-        <v>-0.31705770450222159</v>
+        <f t="shared" si="7"/>
+        <v>0.12738853503184711</v>
       </c>
       <c r="D507">
         <v>5.22</v>
@@ -7545,7 +8113,8 @@
         <v>157.69999999999999</v>
       </c>
       <c r="C508">
-        <v>-0.3160556257901348</v>
+        <f t="shared" si="7"/>
+        <v>0.31806615776082126</v>
       </c>
       <c r="D508">
         <v>5.3</v>
@@ -7559,7 +8128,8 @@
         <v>158.19999999999999</v>
       </c>
       <c r="C509">
-        <v>-0.3150598613736566</v>
+        <f t="shared" si="7"/>
+        <v>0.31705770450221049</v>
       </c>
       <c r="D509">
         <v>5.24</v>
@@ -7573,7 +8143,8 @@
         <v>158.69999999999999</v>
       </c>
       <c r="C510">
-        <v>-0.25141420490257799</v>
+        <f t="shared" si="7"/>
+        <v>0.3160556257901348</v>
       </c>
       <c r="D510">
         <v>5.31</v>
@@ -7587,7 +8158,8 @@
         <v>159.1</v>
       </c>
       <c r="C511">
-        <v>-0.188205771643668</v>
+        <f t="shared" si="7"/>
+        <v>0.2520478890989386</v>
       </c>
       <c r="D511">
         <v>5.29</v>
@@ -7601,7 +8173,8 @@
         <v>159.4</v>
       </c>
       <c r="C512">
-        <v>-0.1878522229179613</v>
+        <f t="shared" si="7"/>
+        <v>0.18856065367693908</v>
       </c>
       <c r="D512">
         <v>5.25</v>
@@ -7615,7 +8188,8 @@
         <v>159.69999999999999</v>
       </c>
       <c r="C513">
-        <v>-6.257822277848657E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.18820577164364583</v>
       </c>
       <c r="D513">
         <v>5.19</v>
@@ -7629,7 +8203,8 @@
         <v>159.80000000000001</v>
       </c>
       <c r="C514">
-        <v>-6.2539086929325194E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.2617407639331546E-2</v>
       </c>
       <c r="D514">
         <v>5.39</v>
@@ -7643,7 +8218,8 @@
         <v>159.9</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.2578222778464365E-2</v>
       </c>
       <c r="D515">
         <v>5.51</v>
@@ -7657,7 +8233,8 @@
         <v>159.9</v>
       </c>
       <c r="C516">
-        <v>-0.18726591760298561</v>
+        <f t="shared" ref="C516:C579" si="8">(B516/B515-1)*100</f>
+        <v>0</v>
       </c>
       <c r="D516">
         <v>5.5</v>
@@ -7671,7 +8248,8 @@
         <v>160.19999999999999</v>
       </c>
       <c r="C517">
-        <v>-0.1246882793017545</v>
+        <f t="shared" si="8"/>
+        <v>0.18761726078797558</v>
       </c>
       <c r="D517">
         <v>5.56</v>
@@ -7685,7 +8263,8 @@
         <v>160.4</v>
       </c>
       <c r="C518">
-        <v>-0.24875621890547711</v>
+        <f t="shared" si="8"/>
+        <v>0.12484394506866447</v>
       </c>
       <c r="D518">
         <v>5.52</v>
@@ -7699,7 +8278,8 @@
         <v>160.80000000000001</v>
       </c>
       <c r="C519">
-        <v>-0.24813895781636841</v>
+        <f t="shared" si="8"/>
+        <v>0.24937655860348684</v>
       </c>
       <c r="D519">
         <v>5.54</v>
@@ -7713,7 +8293,8 @@
         <v>161.19999999999999</v>
       </c>
       <c r="C520">
-        <v>-0.1857585139318996</v>
+        <f t="shared" si="8"/>
+        <v>0.24875621890545485</v>
       </c>
       <c r="D520">
         <v>5.54</v>
@@ -7727,7 +8308,8 @@
         <v>161.5</v>
       </c>
       <c r="C521">
-        <v>-0.1236858379715433</v>
+        <f t="shared" si="8"/>
+        <v>0.18610421836229296</v>
       </c>
       <c r="D521">
         <v>5.5</v>
@@ -7741,7 +8323,8 @@
         <v>161.69999999999999</v>
       </c>
       <c r="C522">
-        <v>-6.1804697156997428E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12383900928791824</v>
       </c>
       <c r="D522">
         <v>5.52</v>
@@ -7755,7 +8338,8 @@
         <v>161.80000000000001</v>
       </c>
       <c r="C523">
-        <v>-0.1234567901234551</v>
+        <f t="shared" si="8"/>
+        <v>6.1842918985788309E-2</v>
       </c>
       <c r="D523">
         <v>5.5</v>
@@ -7769,7 +8353,8 @@
         <v>162</v>
       </c>
       <c r="C524">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.12360939431395046</v>
       </c>
       <c r="D524">
         <v>5.56</v>
@@ -7783,6 +8368,7 @@
         <v>162</v>
       </c>
       <c r="C525">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D525">
@@ -7797,7 +8383,8 @@
         <v>162</v>
       </c>
       <c r="C526">
-        <v>-0.1233045622688</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D526">
         <v>5.49</v>
@@ -7811,7 +8398,8 @@
         <v>162.19999999999999</v>
       </c>
       <c r="C527">
-        <v>-0.24600246002460799</v>
+        <f t="shared" si="8"/>
+        <v>0.12345679012344402</v>
       </c>
       <c r="D527">
         <v>5.45</v>
@@ -7825,7 +8413,8 @@
         <v>162.6</v>
       </c>
       <c r="C528">
-        <v>-0.1228501228501377</v>
+        <f t="shared" si="8"/>
+        <v>0.24660912453762229</v>
       </c>
       <c r="D528">
         <v>5.49</v>
@@ -7839,7 +8428,8 @@
         <v>162.80000000000001</v>
       </c>
       <c r="C529">
-        <v>-0.2450980392156743</v>
+        <f t="shared" si="8"/>
+        <v>0.12300123001232066</v>
       </c>
       <c r="D529">
         <v>5.56</v>
@@ -7853,7 +8443,8 @@
         <v>163.19999999999999</v>
       </c>
       <c r="C530">
-        <v>-0.1223990208078396</v>
+        <f t="shared" si="8"/>
+        <v>0.24570024570023108</v>
       </c>
       <c r="D530">
         <v>5.54</v>
@@ -7867,7 +8458,8 @@
         <v>163.4</v>
       </c>
       <c r="C531">
-        <v>-6.1162079510701517E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1225490196078427</v>
       </c>
       <c r="D531">
         <v>5.55</v>
@@ -7881,7 +8473,8 @@
         <v>163.5</v>
       </c>
       <c r="C532">
-        <v>-0.2440512507626669</v>
+        <f t="shared" si="8"/>
+        <v>6.1199510403908697E-2</v>
       </c>
       <c r="D532">
         <v>5.51</v>
@@ -7895,7 +8488,8 @@
         <v>163.9</v>
       </c>
       <c r="C533">
-        <v>-0.12187690432662319</v>
+        <f t="shared" si="8"/>
+        <v>0.24464831804280607</v>
       </c>
       <c r="D533">
         <v>5.07</v>
@@ -7909,7 +8503,8 @@
         <v>164.1</v>
       </c>
       <c r="C534">
-        <v>-0.18248175182482559</v>
+        <f t="shared" si="8"/>
+        <v>0.12202562538132788</v>
       </c>
       <c r="D534">
         <v>4.83</v>
@@ -7923,7 +8518,8 @@
         <v>164.4</v>
       </c>
       <c r="C535">
-        <v>-0.1821493624772241</v>
+        <f t="shared" si="8"/>
+        <v>0.18281535648996261</v>
       </c>
       <c r="D535">
         <v>4.68</v>
@@ -7937,7 +8533,8 @@
         <v>164.7</v>
       </c>
       <c r="C536">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.18248175182480342</v>
       </c>
       <c r="D536">
         <v>4.63</v>
@@ -7951,7 +8548,8 @@
         <v>164.7</v>
       </c>
       <c r="C537">
-        <v>-6.0679611650493737E-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D537">
         <v>4.76</v>
@@ -7965,7 +8563,8 @@
         <v>164.8</v>
       </c>
       <c r="C538">
-        <v>-0.66305003013863439</v>
+        <f t="shared" si="8"/>
+        <v>6.0716454159082112E-2</v>
       </c>
       <c r="D538">
         <v>4.8099999999999996</v>
@@ -7979,7 +8578,8 @@
         <v>165.9</v>
       </c>
       <c r="C539">
-        <v>-6.0240963855417988E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.66747572815533118</v>
       </c>
       <c r="D539">
         <v>4.74</v>
@@ -7993,7 +8593,8 @@
         <v>166</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6.027727546713546E-2</v>
       </c>
       <c r="D540">
         <v>4.74</v>
@@ -8007,7 +8608,8 @@
         <v>166</v>
       </c>
       <c r="C541">
-        <v>-0.41991601679662871</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D541">
         <v>4.76</v>
@@ -8021,7 +8623,8 @@
         <v>166.7</v>
       </c>
       <c r="C542">
-        <v>-0.23937761819270431</v>
+        <f t="shared" si="8"/>
+        <v>0.42168674698794817</v>
       </c>
       <c r="D542">
         <v>4.99</v>
@@ -8035,7 +8638,8 @@
         <v>167.1</v>
       </c>
       <c r="C543">
-        <v>-0.41716328963051769</v>
+        <f t="shared" si="8"/>
+        <v>0.23995200959807672</v>
       </c>
       <c r="D543">
         <v>5.07</v>
@@ -8049,7 +8653,8 @@
         <v>167.8</v>
       </c>
       <c r="C544">
-        <v>-0.17846519928612639</v>
+        <f t="shared" si="8"/>
+        <v>0.41891083183722699</v>
       </c>
       <c r="D544">
         <v>5.22</v>
@@ -8063,7 +8668,8 @@
         <v>168.1</v>
       </c>
       <c r="C545">
-        <v>-0.17814726840855721</v>
+        <f t="shared" si="8"/>
+        <v>0.17878426698449967</v>
       </c>
       <c r="D545">
         <v>5.2</v>
@@ -8077,7 +8683,8 @@
         <v>168.4</v>
       </c>
       <c r="C546">
-        <v>-0.23696682464455779</v>
+        <f t="shared" si="8"/>
+        <v>0.17846519928614857</v>
       </c>
       <c r="D546">
         <v>5.42</v>
@@ -8091,7 +8698,8 @@
         <v>168.8</v>
       </c>
       <c r="C547">
-        <v>-0.29533372711163519</v>
+        <f t="shared" si="8"/>
+        <v>0.23752969121140222</v>
       </c>
       <c r="D547">
         <v>5.3</v>
@@ -8105,7 +8713,8 @@
         <v>169.3</v>
       </c>
       <c r="C548">
-        <v>-0.41176470588234482</v>
+        <f t="shared" si="8"/>
+        <v>0.2962085308056972</v>
       </c>
       <c r="D548">
         <v>5.45</v>
@@ -8119,7 +8728,8 @@
         <v>170</v>
       </c>
       <c r="C549">
-        <v>-0.58479532163743242</v>
+        <f t="shared" si="8"/>
+        <v>0.41346721795627595</v>
       </c>
       <c r="D549">
         <v>5.73</v>
@@ -8133,7 +8743,8 @@
         <v>171</v>
       </c>
       <c r="C550">
-        <v>5.8513750731425951E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.58823529411764497</v>
       </c>
       <c r="D550">
         <v>5.85</v>
@@ -8147,7 +8758,8 @@
         <v>170.9</v>
       </c>
       <c r="C551">
-        <v>-0.17523364485980689</v>
+        <f t="shared" si="8"/>
+        <v>-5.847953216373547E-2</v>
       </c>
       <c r="D551">
         <v>6.02</v>
@@ -8161,7 +8773,8 @@
         <v>171.2</v>
       </c>
       <c r="C552">
-        <v>-0.5807200929152101</v>
+        <f t="shared" si="8"/>
+        <v>0.17554125219425565</v>
       </c>
       <c r="D552">
         <v>6.27</v>
@@ -8175,7 +8788,8 @@
         <v>172.2</v>
       </c>
       <c r="C553">
-        <v>-0.28951939779965352</v>
+        <f t="shared" si="8"/>
+        <v>0.58411214953271173</v>
       </c>
       <c r="D553">
         <v>6.53</v>
@@ -8189,7 +8803,8 @@
         <v>172.7</v>
       </c>
       <c r="C554">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.29036004645761615</v>
       </c>
       <c r="D554">
         <v>6.54</v>
@@ -8203,7 +8818,8 @@
         <v>172.7</v>
       </c>
       <c r="C555">
-        <v>-0.51843317972350977</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D555">
         <v>6.5</v>
@@ -8217,7 +8833,8 @@
         <v>173.6</v>
       </c>
       <c r="C556">
-        <v>-0.1725129384703927</v>
+        <f t="shared" si="8"/>
+        <v>0.52113491603937856</v>
       </c>
       <c r="D556">
         <v>6.52</v>
@@ -8231,7 +8848,8 @@
         <v>173.9</v>
       </c>
       <c r="C557">
-        <v>-0.17221584385762601</v>
+        <f t="shared" si="8"/>
+        <v>0.17281105990785139</v>
       </c>
       <c r="D557">
         <v>6.51</v>
@@ -8245,7 +8863,8 @@
         <v>174.2</v>
       </c>
       <c r="C558">
-        <v>-0.22909507445589841</v>
+        <f t="shared" si="8"/>
+        <v>0.17251293847038163</v>
       </c>
       <c r="D558">
         <v>6.51</v>
@@ -8259,7 +8878,8 @@
         <v>174.6</v>
       </c>
       <c r="C559">
-        <v>-0.56947608200456079</v>
+        <f t="shared" si="8"/>
+        <v>0.22962112514350874</v>
       </c>
       <c r="D559">
         <v>6.4</v>
@@ -8273,7 +8893,8 @@
         <v>175.6</v>
       </c>
       <c r="C560">
-        <v>-0.22727272727273151</v>
+        <f t="shared" si="8"/>
+        <v>0.57273768613974596</v>
       </c>
       <c r="D560">
         <v>5.98</v>
@@ -8287,7 +8908,8 @@
         <v>176</v>
       </c>
       <c r="C561">
-        <v>-5.6785917092561089E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.2277904328018332</v>
       </c>
       <c r="D561">
         <v>5.49</v>
@@ -8301,7 +8923,8 @@
         <v>176.1</v>
       </c>
       <c r="C562">
-        <v>-0.17006802721089009</v>
+        <f t="shared" si="8"/>
+        <v>5.6818181818174551E-2</v>
       </c>
       <c r="D562">
         <v>5.31</v>
@@ -8315,7 +8938,8 @@
         <v>176.4</v>
       </c>
       <c r="C563">
-        <v>-0.50761421319797106</v>
+        <f t="shared" si="8"/>
+        <v>0.17035775127769437</v>
       </c>
       <c r="D563">
         <v>4.8</v>
@@ -8329,7 +8953,8 @@
         <v>177.3</v>
       </c>
       <c r="C564">
-        <v>-0.2250984805852396</v>
+        <f t="shared" si="8"/>
+        <v>0.51020408163264808</v>
       </c>
       <c r="D564">
         <v>4.21</v>
@@ -8343,7 +8968,8 @@
         <v>177.7</v>
       </c>
       <c r="C565">
-        <v>0.16910935738443381</v>
+        <f t="shared" si="8"/>
+        <v>0.22560631697685629</v>
       </c>
       <c r="D565">
         <v>3.97</v>
@@ -8357,7 +8983,8 @@
         <v>177.4</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-0.16882386043892694</v>
       </c>
       <c r="D566">
         <v>3.77</v>
@@ -8371,7 +8998,8 @@
         <v>177.4</v>
       </c>
       <c r="C567">
-        <v>-0.39303761931498432</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D567">
         <v>3.65</v>
@@ -8385,7 +9013,8 @@
         <v>178.1</v>
       </c>
       <c r="C568">
-        <v>0.28153153153154248</v>
+        <f t="shared" si="8"/>
+        <v>0.39458850056368622</v>
       </c>
       <c r="D568">
         <v>3.07</v>
@@ -8399,7 +9028,8 @@
         <v>177.6</v>
       </c>
       <c r="C569">
-        <v>5.6338028169000687E-2</v>
+        <f t="shared" si="8"/>
+        <v>-0.28074115665356336</v>
       </c>
       <c r="D569">
         <v>2.4900000000000002</v>
@@ -8413,7 +9043,8 @@
         <v>177.5</v>
       </c>
       <c r="C570">
-        <v>5.6369785794818661E-2</v>
+        <f t="shared" si="8"/>
+        <v>-5.6306306306308507E-2</v>
       </c>
       <c r="D570">
         <v>2.09</v>
@@ -8427,7 +9058,8 @@
         <v>177.4</v>
       </c>
       <c r="C571">
-        <v>-0.16882386043892689</v>
+        <f t="shared" si="8"/>
+        <v>-5.6338028169011789E-2</v>
       </c>
       <c r="D571">
         <v>1.82</v>
@@ -8441,7 +9073,8 @@
         <v>177.7</v>
       </c>
       <c r="C572">
-        <v>-0.16853932584269821</v>
+        <f t="shared" si="8"/>
+        <v>0.16910935738443378</v>
       </c>
       <c r="D572">
         <v>1.73</v>
@@ -8455,7 +9088,8 @@
         <v>178</v>
       </c>
       <c r="C573">
-        <v>-0.28011204481792618</v>
+        <f t="shared" si="8"/>
+        <v>0.16882386043894915</v>
       </c>
       <c r="D573">
         <v>1.74</v>
@@ -8469,7 +9103,8 @@
         <v>178.5</v>
       </c>
       <c r="C574">
-        <v>-0.44617958728389029</v>
+        <f t="shared" si="8"/>
+        <v>0.28089887640450062</v>
       </c>
       <c r="D574">
         <v>1.73</v>
@@ -8483,7 +9118,8 @@
         <v>179.3</v>
       </c>
       <c r="C575">
-        <v>-0.1114206128133621</v>
+        <f t="shared" si="8"/>
+        <v>0.44817927170868188</v>
       </c>
       <c r="D575">
         <v>1.75</v>
@@ -8497,7 +9133,8 @@
         <v>179.5</v>
       </c>
       <c r="C576">
-        <v>-5.5679287305121512E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1115448968209698</v>
       </c>
       <c r="D576">
         <v>1.75</v>
@@ -8511,7 +9148,8 @@
         <v>179.6</v>
       </c>
       <c r="C577">
-        <v>-0.22222222222222371</v>
+        <f t="shared" si="8"/>
+        <v>5.5710306406675514E-2</v>
       </c>
       <c r="D577">
         <v>1.75</v>
@@ -8525,7 +9163,8 @@
         <v>180</v>
       </c>
       <c r="C578">
-        <v>-0.27700831024930478</v>
+        <f t="shared" si="8"/>
+        <v>0.22271714922048602</v>
       </c>
       <c r="D578">
         <v>1.73</v>
@@ -8539,7 +9178,8 @@
         <v>180.5</v>
       </c>
       <c r="C579">
-        <v>-0.1659292035398274</v>
+        <f t="shared" si="8"/>
+        <v>0.27777777777777679</v>
       </c>
       <c r="D579">
         <v>1.74</v>
@@ -8553,7 +9193,8 @@
         <v>180.8</v>
       </c>
       <c r="C580">
-        <v>-0.22075055187636969</v>
+        <f t="shared" ref="C580:C643" si="9">(B580/B579-1)*100</f>
+        <v>0.16620498614958734</v>
       </c>
       <c r="D580">
         <v>1.75</v>
@@ -8567,7 +9208,8 @@
         <v>181.2</v>
       </c>
       <c r="C581">
-        <v>-0.16528925619835319</v>
+        <f t="shared" si="9"/>
+        <v>0.22123893805308104</v>
       </c>
       <c r="D581">
         <v>1.75</v>
@@ -8581,7 +9223,8 @@
         <v>181.5</v>
       </c>
       <c r="C582">
-        <v>-0.16501650165017259</v>
+        <f t="shared" si="9"/>
+        <v>0.16556291390728006</v>
       </c>
       <c r="D582">
         <v>1.34</v>
@@ -8595,7 +9238,8 @@
         <v>181.8</v>
       </c>
       <c r="C583">
-        <v>-0.43811610076669449</v>
+        <f t="shared" si="9"/>
+        <v>0.16528925619836432</v>
       </c>
       <c r="D583">
         <v>1.24</v>
@@ -8609,7 +9253,8 @@
         <v>182.6</v>
       </c>
       <c r="C584">
-        <v>-0.54466230936819349</v>
+        <f t="shared" si="9"/>
+        <v>0.44004400440043057</v>
       </c>
       <c r="D584">
         <v>1.24</v>
@@ -8623,7 +9268,8 @@
         <v>183.6</v>
       </c>
       <c r="C585">
-        <v>-0.1631321370309968</v>
+        <f t="shared" si="9"/>
+        <v>0.54764512595837367</v>
       </c>
       <c r="D585">
         <v>1.26</v>
@@ -8637,7 +9283,8 @@
         <v>183.9</v>
       </c>
       <c r="C586">
-        <v>0.38209606986900901</v>
+        <f t="shared" si="9"/>
+        <v>0.16339869281045694</v>
       </c>
       <c r="D586">
         <v>1.25</v>
@@ -8651,7 +9298,8 @@
         <v>183.2</v>
       </c>
       <c r="C587">
-        <v>0.16402405686166691</v>
+        <f t="shared" si="9"/>
+        <v>-0.38064165307233333</v>
       </c>
       <c r="D587">
         <v>1.26</v>
@@ -8665,7 +9313,8 @@
         <v>182.9</v>
       </c>
       <c r="C588">
-        <v>-0.10922992900054269</v>
+        <f t="shared" si="9"/>
+        <v>-0.16375545851528006</v>
       </c>
       <c r="D588">
         <v>1.26</v>
@@ -8679,7 +9328,8 @@
         <v>183.1</v>
       </c>
       <c r="C589">
-        <v>-0.32661948829613152</v>
+        <f t="shared" si="9"/>
+        <v>0.10934937124111865</v>
       </c>
       <c r="D589">
         <v>1.22</v>
@@ -8693,7 +9343,8 @@
         <v>183.7</v>
       </c>
       <c r="C590">
-        <v>-0.43360433604336951</v>
+        <f t="shared" si="9"/>
+        <v>0.32768978700163931</v>
       </c>
       <c r="D590">
         <v>1.01</v>
@@ -8707,7 +9358,8 @@
         <v>184.5</v>
       </c>
       <c r="C591">
-        <v>-0.32414910858994389</v>
+        <f t="shared" si="9"/>
+        <v>0.4354926510615087</v>
       </c>
       <c r="D591">
         <v>1.03</v>
@@ -8721,7 +9373,8 @@
         <v>185.1</v>
       </c>
       <c r="C592">
-        <v>0.1081665765278572</v>
+        <f t="shared" si="9"/>
+        <v>0.32520325203251321</v>
       </c>
       <c r="D592">
         <v>1.01</v>
@@ -8735,7 +9388,8 @@
         <v>184.9</v>
       </c>
       <c r="C593">
-        <v>-5.4054054054053502E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.10804970286331095</v>
       </c>
       <c r="D593">
         <v>1.01</v>
@@ -8749,7 +9403,8 @@
         <v>185</v>
       </c>
       <c r="C594">
-        <v>-0.26954177897574588</v>
+        <f t="shared" si="9"/>
+        <v>5.4083288263928608E-2</v>
       </c>
       <c r="D594">
         <v>1</v>
@@ -8763,7 +9418,8 @@
         <v>185.5</v>
       </c>
       <c r="C595">
-        <v>-0.42941492216854732</v>
+        <f t="shared" si="9"/>
+        <v>0.27027027027026751</v>
       </c>
       <c r="D595">
         <v>0.98</v>
@@ -8777,7 +9433,8 @@
         <v>186.3</v>
       </c>
       <c r="C596">
-        <v>-0.21424745581144489</v>
+        <f t="shared" si="9"/>
+        <v>0.43126684636118906</v>
       </c>
       <c r="D596">
         <v>1</v>
@@ -8791,7 +9448,8 @@
         <v>186.7</v>
       </c>
       <c r="C597">
-        <v>-0.2137894174238375</v>
+        <f t="shared" si="9"/>
+        <v>0.21470746108425143</v>
       </c>
       <c r="D597">
         <v>1.01</v>
@@ -8805,7 +9463,8 @@
         <v>187.1</v>
       </c>
       <c r="C598">
-        <v>-0.16008537886873511</v>
+        <f t="shared" si="9"/>
+        <v>0.21424745581146709</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -8819,7 +9478,8 @@
         <v>187.4</v>
       </c>
       <c r="C599">
-        <v>-0.42507970244419768</v>
+        <f t="shared" si="9"/>
+        <v>0.16034206306787535</v>
       </c>
       <c r="D599">
         <v>1</v>
@@ -8833,7 +9493,8 @@
         <v>188.2</v>
       </c>
       <c r="C600">
-        <v>-0.37056643726840482</v>
+        <f t="shared" si="9"/>
+        <v>0.42689434364993062</v>
       </c>
       <c r="D600">
         <v>1</v>
@@ -8847,7 +9508,8 @@
         <v>188.9</v>
       </c>
       <c r="C601">
-        <v>-0.1057641459545122</v>
+        <f t="shared" si="9"/>
+        <v>0.37194473963868546</v>
       </c>
       <c r="D601">
         <v>1.03</v>
@@ -8861,7 +9523,8 @@
         <v>189.1</v>
       </c>
       <c r="C602">
-        <v>-5.2854122621559529E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.10587612493382359</v>
       </c>
       <c r="D602">
         <v>1.26</v>
@@ -8875,7 +9538,8 @@
         <v>189.2</v>
       </c>
       <c r="C603">
-        <v>-0.31612223393046041</v>
+        <f t="shared" si="9"/>
+        <v>5.2882072977267214E-2</v>
       </c>
       <c r="D603">
         <v>1.43</v>
@@ -8889,7 +9553,8 @@
         <v>189.8</v>
       </c>
       <c r="C604">
-        <v>-0.524109014675056</v>
+        <f t="shared" si="9"/>
+        <v>0.31712473572940159</v>
       </c>
       <c r="D604">
         <v>1.61</v>
@@ -8903,7 +9568,8 @@
         <v>190.8</v>
       </c>
       <c r="C605">
-        <v>-0.46948356807510189</v>
+        <f t="shared" si="9"/>
+        <v>0.52687038988408208</v>
       </c>
       <c r="D605">
         <v>1.76</v>
@@ -8917,7 +9583,8 @@
         <v>191.7</v>
       </c>
       <c r="C606">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.47169811320753041</v>
       </c>
       <c r="D606">
         <v>1.93</v>
@@ -8931,7 +9598,8 @@
         <v>191.7</v>
       </c>
       <c r="C607">
-        <v>5.2192066805845087E-2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D607">
         <v>2.16</v>
@@ -8945,7 +9613,8 @@
         <v>191.6</v>
       </c>
       <c r="C608">
-        <v>-0.41580041580042693</v>
+        <f t="shared" si="9"/>
+        <v>-5.2164840897228615E-2</v>
       </c>
       <c r="D608">
         <v>2.2799999999999998</v>
@@ -8959,7 +9628,8 @@
         <v>192.4</v>
       </c>
       <c r="C609">
-        <v>-0.36250647332987113</v>
+        <f t="shared" si="9"/>
+        <v>0.41753653444676075</v>
       </c>
       <c r="D609">
         <v>2.5</v>
@@ -8973,7 +9643,8 @@
         <v>193.1</v>
       </c>
       <c r="C610">
-        <v>-0.30975735673721688</v>
+        <f t="shared" si="9"/>
+        <v>0.36382536382535413</v>
       </c>
       <c r="D610">
         <v>2.63</v>
@@ -8987,7 +9658,8 @@
         <v>193.7</v>
       </c>
       <c r="C611">
-        <v>5.1652892561970809E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.31071983428274663</v>
       </c>
       <c r="D611">
         <v>2.79</v>
@@ -9001,6 +9673,7 @@
         <v>193.6</v>
       </c>
       <c r="C612">
+        <f t="shared" si="9"/>
         <v>-5.162622612286949E-2</v>
       </c>
       <c r="D612">
@@ -9015,7 +9688,8 @@
         <v>193.7</v>
       </c>
       <c r="C613">
-        <v>-0.61570035915855525</v>
+        <f t="shared" si="9"/>
+        <v>5.1652892561970809E-2</v>
       </c>
       <c r="D613">
         <v>3.04</v>
@@ -9029,7 +9703,8 @@
         <v>194.9</v>
       </c>
       <c r="C614">
-        <v>-0.61193268740438178</v>
+        <f t="shared" si="9"/>
+        <v>0.61951471347445608</v>
       </c>
       <c r="D614">
         <v>3.26</v>
@@ -9043,7 +9718,8 @@
         <v>196.1</v>
       </c>
       <c r="C615">
-        <v>-1.3581488933601671</v>
+        <f t="shared" si="9"/>
+        <v>0.61570035915854415</v>
       </c>
       <c r="D615">
         <v>3.5</v>
@@ -9057,7 +9733,8 @@
         <v>198.8</v>
       </c>
       <c r="C616">
-        <v>-0.15067805123052391</v>
+        <f t="shared" si="9"/>
+        <v>1.3768485466598701</v>
       </c>
       <c r="D616">
         <v>3.62</v>
@@ -9071,7 +9748,8 @@
         <v>199.1</v>
       </c>
       <c r="C617">
-        <v>0.50479555779909813</v>
+        <f t="shared" si="9"/>
+        <v>0.15090543259557165</v>
       </c>
       <c r="D617">
         <v>3.78</v>
@@ -9085,7 +9763,8 @@
         <v>198.1</v>
       </c>
       <c r="C618">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.50226017076845375</v>
       </c>
       <c r="D618">
         <v>4</v>
@@ -9099,7 +9778,8 @@
         <v>198.1</v>
       </c>
       <c r="C619">
-        <v>-0.60210737581536389</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D619">
         <v>4.16</v>
@@ -9113,7 +9793,8 @@
         <v>199.3</v>
       </c>
       <c r="C620">
-        <v>-5.015045135405849E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.60575466935892663</v>
       </c>
       <c r="D620">
         <v>4.29</v>
@@ -9127,7 +9808,8 @@
         <v>199.4</v>
       </c>
       <c r="C621">
-        <v>-0.15022533800700399</v>
+        <f t="shared" si="9"/>
+        <v>5.0175614651282174E-2</v>
       </c>
       <c r="D621">
         <v>4.49</v>
@@ -9141,7 +9823,8 @@
         <v>199.7</v>
       </c>
       <c r="C622">
-        <v>-0.49825610363727352</v>
+        <f t="shared" si="9"/>
+        <v>0.15045135406217547</v>
       </c>
       <c r="D622">
         <v>4.59</v>
@@ -9155,7 +9838,8 @@
         <v>200.7</v>
       </c>
       <c r="C623">
-        <v>-0.29806259314457678</v>
+        <f t="shared" si="9"/>
+        <v>0.50075112669003552</v>
       </c>
       <c r="D623">
         <v>4.79</v>
@@ -9169,7 +9853,8 @@
         <v>201.3</v>
       </c>
       <c r="C624">
-        <v>-0.2477700693756191</v>
+        <f t="shared" si="9"/>
+        <v>0.2989536621823774</v>
       </c>
       <c r="D624">
         <v>4.9400000000000004</v>
@@ -9183,7 +9868,8 @@
         <v>201.8</v>
       </c>
       <c r="C625">
-        <v>-0.54213898472152966</v>
+        <f t="shared" si="9"/>
+        <v>0.24838549428713996</v>
       </c>
       <c r="D625">
         <v>4.99</v>
@@ -9197,7 +9883,8 @@
         <v>202.9</v>
       </c>
       <c r="C626">
-        <v>-0.44160942100098799</v>
+        <f t="shared" si="9"/>
+        <v>0.54509415262635752</v>
       </c>
       <c r="D626">
         <v>5.24</v>
@@ -9211,7 +9898,8 @@
         <v>203.8</v>
       </c>
       <c r="C627">
-        <v>0.4930966469427922</v>
+        <f t="shared" si="9"/>
+        <v>0.44356826022671214</v>
       </c>
       <c r="D627">
         <v>5.25</v>
@@ -9225,7 +9913,8 @@
         <v>202.8</v>
       </c>
       <c r="C628">
-        <v>0.44576523031203408</v>
+        <f t="shared" si="9"/>
+        <v>-0.49067713444553851</v>
       </c>
       <c r="D628">
         <v>5.25</v>
@@ -9239,7 +9928,8 @@
         <v>201.9</v>
       </c>
       <c r="C629">
-        <v>-4.9504950495049549E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.44378698224852853</v>
       </c>
       <c r="D629">
         <v>5.25</v>
@@ -9253,7 +9943,8 @@
         <v>202</v>
       </c>
       <c r="C630">
-        <v>-0.54160512063022859</v>
+        <f t="shared" si="9"/>
+        <v>4.9529470034670453E-2</v>
       </c>
       <c r="D630">
         <v>5.25</v>
@@ -9267,7 +9958,8 @@
         <v>203.1</v>
       </c>
       <c r="C631">
-        <v>-0.16565324891736341</v>
+        <f t="shared" si="9"/>
+        <v>0.54455445544554504</v>
       </c>
       <c r="D631">
         <v>5.24</v>
@@ -9281,7 +9973,8 @@
         <v>203.43700000000001</v>
       </c>
       <c r="C632">
-        <v>-0.38633670541458048</v>
+        <f t="shared" si="9"/>
+        <v>0.1659281142294633</v>
       </c>
       <c r="D632">
         <v>5.25</v>
@@ -9295,7 +9988,8 @@
         <v>204.226</v>
       </c>
       <c r="C633">
-        <v>-0.51732200615720592</v>
+        <f t="shared" si="9"/>
+        <v>0.38783505458692691</v>
       </c>
       <c r="D633">
         <v>5.26</v>
@@ -9309,7 +10003,8 @@
         <v>205.28800000000001</v>
       </c>
       <c r="C634">
-        <v>-0.2991685445644543</v>
+        <f t="shared" si="9"/>
+        <v>0.52001214340975377</v>
       </c>
       <c r="D634">
         <v>5.26</v>
@@ -9323,7 +10018,8 @@
         <v>205.904</v>
       </c>
       <c r="C635">
-        <v>-0.41159826848201631</v>
+        <f t="shared" si="9"/>
+        <v>0.30006624839249429</v>
       </c>
       <c r="D635">
         <v>5.25</v>
@@ -9337,7 +10033,8 @@
         <v>206.755</v>
       </c>
       <c r="C636">
-        <v>-0.2311396778520991</v>
+        <f t="shared" si="9"/>
+        <v>0.41329940166290324</v>
       </c>
       <c r="D636">
         <v>5.25</v>
@@ -9351,7 +10048,8 @@
         <v>207.23400000000001</v>
       </c>
       <c r="C637">
-        <v>-0.1777430961980353</v>
+        <f t="shared" si="9"/>
+        <v>0.23167517109623503</v>
       </c>
       <c r="D637">
         <v>5.25</v>
@@ -9365,7 +10063,8 @@
         <v>207.60300000000001</v>
       </c>
       <c r="C638">
-        <v>-3.0818570114654609E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.17805958481715844</v>
       </c>
       <c r="D638">
         <v>5.26</v>
@@ -9379,7 +10078,8 @@
         <v>207.667</v>
       </c>
       <c r="C639">
-        <v>-0.42196723040849321</v>
+        <f t="shared" si="9"/>
+        <v>3.0828070885302594E-2</v>
       </c>
       <c r="D639">
         <v>5.0199999999999996</v>
@@ -9393,7 +10093,8 @@
         <v>208.547</v>
       </c>
       <c r="C640">
-        <v>-0.30737606960179459</v>
+        <f t="shared" si="9"/>
+        <v>0.42375533907650365</v>
       </c>
       <c r="D640">
         <v>4.9400000000000004</v>
@@ -9407,7 +10108,8 @@
         <v>209.19</v>
       </c>
       <c r="C641">
-        <v>-0.77976038020433069</v>
+        <f t="shared" si="9"/>
+        <v>0.30832378312801723</v>
       </c>
       <c r="D641">
         <v>4.76</v>
@@ -9421,7 +10123,8 @@
         <v>210.834</v>
       </c>
       <c r="C642">
-        <v>-0.28896403320012309</v>
+        <f t="shared" si="9"/>
+        <v>0.7858884267890387</v>
       </c>
       <c r="D642">
         <v>4.49</v>
@@ -9435,7 +10138,8 @@
         <v>211.44499999999999</v>
       </c>
       <c r="C643">
-        <v>-0.34358592475987049</v>
+        <f t="shared" si="9"/>
+        <v>0.28980145517325528</v>
       </c>
       <c r="D643">
         <v>4.24</v>
@@ -9449,7 +10153,8 @@
         <v>212.17400000000001</v>
       </c>
       <c r="C644">
-        <v>-0.24119950913784599</v>
+        <f t="shared" ref="C644:C707" si="10">(B644/B643-1)*100</f>
+        <v>0.34477050769703421</v>
       </c>
       <c r="D644">
         <v>3.94</v>
@@ -9463,7 +10168,8 @@
         <v>212.68700000000001</v>
       </c>
       <c r="C645">
-        <v>-0.35652711667478743</v>
+        <f t="shared" si="10"/>
+        <v>0.24178268779397882</v>
       </c>
       <c r="D645">
         <v>2.98</v>
@@ -9477,7 +10183,8 @@
         <v>213.44800000000001</v>
       </c>
       <c r="C646">
-        <v>-0.23090370287274231</v>
+        <f t="shared" si="10"/>
+        <v>0.3578027806118822</v>
       </c>
       <c r="D646">
         <v>2.61</v>
@@ -9491,7 +10198,8 @@
         <v>213.94200000000001</v>
       </c>
       <c r="C647">
-        <v>-0.58826809412289016</v>
+        <f t="shared" si="10"/>
+        <v>0.23143810202015391</v>
       </c>
       <c r="D647">
         <v>2.2799999999999998</v>
@@ -9505,7 +10213,8 @@
         <v>215.208</v>
       </c>
       <c r="C648">
-        <v>-1.03695801124789</v>
+        <f t="shared" si="10"/>
+        <v>0.59174916566171465</v>
       </c>
       <c r="D648">
         <v>1.98</v>
@@ -9519,7 +10228,8 @@
         <v>217.46299999999999</v>
       </c>
       <c r="C649">
-        <v>-0.70908061511487652</v>
+        <f t="shared" si="10"/>
+        <v>1.04782350098509</v>
       </c>
       <c r="D649">
         <v>2</v>
@@ -9533,7 +10243,8 @@
         <v>219.01599999999999</v>
       </c>
       <c r="C650">
-        <v>0.14906945905162061</v>
+        <f t="shared" si="10"/>
+        <v>0.71414447515210089</v>
       </c>
       <c r="D650">
         <v>2.0099999999999998</v>
@@ -9547,7 +10258,8 @@
         <v>218.69</v>
       </c>
       <c r="C651">
-        <v>-8.5436112519821084E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.14884757278006422</v>
       </c>
       <c r="D651">
         <v>2</v>
@@ -9561,7 +10273,8 @@
         <v>218.87700000000001</v>
       </c>
       <c r="C652">
-        <v>0.86730108988686272</v>
+        <f t="shared" si="10"/>
+        <v>8.550916822900323E-2</v>
       </c>
       <c r="D652">
         <v>1.81</v>
@@ -9575,7 +10288,8 @@
         <v>216.995</v>
       </c>
       <c r="C653">
-        <v>1.8024611429348969</v>
+        <f t="shared" si="10"/>
+        <v>-0.85984365648286154</v>
       </c>
       <c r="D653">
         <v>0.97</v>
@@ -9589,7 +10303,8 @@
         <v>213.15299999999999</v>
       </c>
       <c r="C654">
-        <v>0.83018760820821047</v>
+        <f t="shared" si="10"/>
+        <v>-1.7705477084725474</v>
       </c>
       <c r="D654">
         <v>0.39</v>
@@ -9603,7 +10318,8 @@
         <v>211.398</v>
       </c>
       <c r="C655">
-        <v>-0.25243827058550877</v>
+        <f t="shared" si="10"/>
+        <v>-0.82335223994032258</v>
       </c>
       <c r="D655">
         <v>0.16</v>
@@ -9617,7 +10333,8 @@
         <v>211.93299999999999</v>
       </c>
       <c r="C656">
-        <v>-0.36294398345126933</v>
+        <f t="shared" si="10"/>
+        <v>0.25307713412614508</v>
       </c>
       <c r="D656">
         <v>0.15</v>
@@ -9631,7 +10348,8 @@
         <v>212.70500000000001</v>
       </c>
       <c r="C657">
-        <v>9.882585472600347E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.36426606521873239</v>
       </c>
       <c r="D657">
         <v>0.22</v>
@@ -9645,7 +10363,8 @@
         <v>212.495</v>
       </c>
       <c r="C658">
-        <v>-0.10060693247582191</v>
+        <f t="shared" si="10"/>
+        <v>-9.8728285653848502E-2</v>
       </c>
       <c r="D658">
         <v>0.18</v>
@@ -9659,7 +10378,8 @@
         <v>212.709</v>
       </c>
       <c r="C659">
-        <v>-0.14693318061044239</v>
+        <f t="shared" si="10"/>
+        <v>0.10070825195886979</v>
       </c>
       <c r="D659">
         <v>0.15</v>
@@ -9673,7 +10393,8 @@
         <v>213.02199999999999</v>
       </c>
       <c r="C660">
-        <v>-0.82312956841565921</v>
+        <f t="shared" si="10"/>
+        <v>0.14714939189219844</v>
       </c>
       <c r="D660">
         <v>0.18</v>
@@ -9687,7 +10408,8 @@
         <v>214.79</v>
       </c>
       <c r="C661">
-        <v>2.9805426450457691E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.82996122466223454</v>
       </c>
       <c r="D661">
         <v>0.21</v>
@@ -9701,7 +10423,8 @@
         <v>214.726</v>
       </c>
       <c r="C662">
-        <v>-0.33372786558053541</v>
+        <f t="shared" si="10"/>
+        <v>-2.9796545463012247E-2</v>
       </c>
       <c r="D662">
         <v>0.16</v>
@@ -9715,7 +10438,8 @@
         <v>215.44499999999999</v>
       </c>
       <c r="C663">
-        <v>-0.1927166092995036</v>
+        <f t="shared" si="10"/>
+        <v>0.33484533777929926</v>
       </c>
       <c r="D663">
         <v>0.16</v>
@@ -9729,7 +10453,8 @@
         <v>215.86099999999999</v>
       </c>
       <c r="C664">
-        <v>-0.29929471754061021</v>
+        <f t="shared" si="10"/>
+        <v>0.19308872334005134</v>
       </c>
       <c r="D664">
         <v>0.15</v>
@@ -9743,7 +10468,8 @@
         <v>216.50899999999999</v>
       </c>
       <c r="C665">
-        <v>-0.33374149534604047</v>
+        <f t="shared" si="10"/>
+        <v>0.3001931798703783</v>
       </c>
       <c r="D665">
         <v>0.12</v>
@@ -9757,7 +10483,8 @@
         <v>217.23400000000001</v>
       </c>
       <c r="C666">
-        <v>-5.1990595683404361E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.33485905897676638</v>
       </c>
       <c r="D666">
         <v>0.12</v>
@@ -9771,7 +10498,8 @@
         <v>217.34700000000001</v>
       </c>
       <c r="C667">
-        <v>-6.4831163098644229E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.2017639964274665E-2</v>
       </c>
       <c r="D667">
         <v>0.12</v>
@@ -9785,7 +10513,8 @@
         <v>217.488</v>
       </c>
       <c r="C668">
-        <v>9.526833915527444E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.4873221162464745E-2</v>
       </c>
       <c r="D668">
         <v>0.11</v>
@@ -9799,7 +10528,8 @@
         <v>217.28100000000001</v>
       </c>
       <c r="C669">
-        <v>-3.3125836772440742E-2</v>
+        <f t="shared" si="10"/>
+        <v>-9.5177664974621656E-2</v>
       </c>
       <c r="D669">
         <v>0.13</v>
@@ -9813,7 +10543,8 @@
         <v>217.35300000000001</v>
       </c>
       <c r="C670">
-        <v>-2.2998762666559539E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.3136813619227823E-2</v>
       </c>
       <c r="D670">
         <v>0.16</v>
@@ -9827,7 +10558,8 @@
         <v>217.40299999999999</v>
       </c>
       <c r="C671">
-        <v>5.2004233973024228E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.3004053314190642E-2</v>
       </c>
       <c r="D671">
         <v>0.2</v>
@@ -9841,7 +10573,8 @@
         <v>217.29</v>
       </c>
       <c r="C672">
-        <v>4.1897062141171837E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.1977203626440982E-2</v>
       </c>
       <c r="D672">
         <v>0.2</v>
@@ -9855,7 +10588,8 @@
         <v>217.19900000000001</v>
       </c>
       <c r="C673">
-        <v>-0.18657659520689979</v>
+        <f t="shared" si="10"/>
+        <v>-4.1879515854381655E-2</v>
       </c>
       <c r="D673">
         <v>0.18</v>
@@ -9869,7 +10603,8 @@
         <v>217.60499999999999</v>
       </c>
       <c r="C674">
-        <v>-0.14592310127889971</v>
+        <f t="shared" si="10"/>
+        <v>0.18692535416828804</v>
       </c>
       <c r="D674">
         <v>0.18</v>
@@ -9883,7 +10618,8 @@
         <v>217.923</v>
       </c>
       <c r="C675">
-        <v>-0.1612644599702229</v>
+        <f t="shared" si="10"/>
+        <v>0.14613634796996067</v>
       </c>
       <c r="D675">
         <v>0.19</v>
@@ -9897,7 +10633,8 @@
         <v>218.27500000000001</v>
       </c>
       <c r="C676">
-        <v>-0.34697651060332507</v>
+        <f t="shared" si="10"/>
+        <v>0.16152494229613179</v>
       </c>
       <c r="D676">
         <v>0.19</v>
@@ -9911,7 +10648,8 @@
         <v>219.035</v>
       </c>
       <c r="C677">
-        <v>-0.25274374971537839</v>
+        <f t="shared" si="10"/>
+        <v>0.34818462948116302</v>
       </c>
       <c r="D677">
         <v>0.19</v>
@@ -9925,7 +10663,8 @@
         <v>219.59</v>
       </c>
       <c r="C678">
-        <v>-0.40005080010160338</v>
+        <f t="shared" si="10"/>
+        <v>0.25338416234848005</v>
       </c>
       <c r="D678">
         <v>0.19</v>
@@ -9939,7 +10678,8 @@
         <v>220.47200000000001</v>
       </c>
       <c r="C679">
-        <v>-0.32325588755216522</v>
+        <f t="shared" si="10"/>
+        <v>0.40165763468282822</v>
       </c>
       <c r="D679">
         <v>0.18</v>
@@ -9953,7 +10693,8 @@
         <v>221.18700000000001</v>
       </c>
       <c r="C680">
-        <v>-0.32041748911660889</v>
+        <f t="shared" si="10"/>
+        <v>0.32430422003701942</v>
       </c>
       <c r="D680">
         <v>0.17</v>
@@ -9967,7 +10708,8 @@
         <v>221.898</v>
       </c>
       <c r="C681">
-        <v>-0.51469203662024565</v>
+        <f t="shared" si="10"/>
+        <v>0.32144746300641902</v>
       </c>
       <c r="D681">
         <v>0.16</v>
@@ -9981,7 +10723,8 @@
         <v>223.04599999999999</v>
       </c>
       <c r="C682">
-        <v>-0.46721673590874868</v>
+        <f t="shared" si="10"/>
+        <v>0.51735482068338001</v>
       </c>
       <c r="D682">
         <v>0.14000000000000001</v>
@@ -9995,7 +10738,8 @@
         <v>224.09299999999999</v>
       </c>
       <c r="C683">
-        <v>-0.31716235331797898</v>
+        <f t="shared" si="10"/>
+        <v>0.46940989750992035</v>
       </c>
       <c r="D683">
         <v>0.1</v>
@@ -10009,7 +10753,8 @@
         <v>224.80600000000001</v>
       </c>
       <c r="C684">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.31817147345076791</v>
       </c>
       <c r="D684">
         <v>0.09</v>
@@ -10023,7 +10768,8 @@
         <v>224.80600000000001</v>
       </c>
       <c r="C685">
-        <v>-0.26131901772443727</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="D685">
         <v>0.09</v>
@@ -10037,7 +10783,8 @@
         <v>225.39500000000001</v>
       </c>
       <c r="C686">
-        <v>-0.31445428250466151</v>
+        <f t="shared" si="10"/>
+        <v>0.26200368317570444</v>
       </c>
       <c r="D686">
         <v>7.0000000000000007E-2</v>
@@ -10051,7 +10798,8 @@
         <v>226.10599999999999</v>
       </c>
       <c r="C687">
-        <v>-0.21668424559901919</v>
+        <f t="shared" si="10"/>
+        <v>0.31544621664187922</v>
       </c>
       <c r="D687">
         <v>0.1</v>
@@ -10065,7 +10813,8 @@
         <v>226.59700000000001</v>
       </c>
       <c r="C688">
-        <v>-6.7475192943766693E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.21715478580843772</v>
       </c>
       <c r="D688">
         <v>0.08</v>
@@ -10079,7 +10828,8 @@
         <v>226.75</v>
       </c>
       <c r="C689">
-        <v>-0.18444418032390611</v>
+        <f t="shared" si="10"/>
+        <v>6.7520752701932807E-2</v>
       </c>
       <c r="D689">
         <v>7.0000000000000007E-2</v>
@@ -10093,7 +10843,8 @@
         <v>227.16900000000001</v>
       </c>
       <c r="C690">
-        <v>-2.3765199825720451E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.18478500551268873</v>
       </c>
       <c r="D690">
         <v>0.08</v>
@@ -10107,7 +10858,8 @@
         <v>227.22300000000001</v>
       </c>
       <c r="C691">
-        <v>-0.27167949719542062</v>
+        <f t="shared" si="10"/>
+        <v>2.3770849015480877E-2</v>
       </c>
       <c r="D691">
         <v>7.0000000000000007E-2</v>
@@ -10121,7 +10873,8 @@
         <v>227.84200000000001</v>
       </c>
       <c r="C692">
-        <v>-0.21328871934795929</v>
+        <f t="shared" si="10"/>
+        <v>0.27241960540966836</v>
       </c>
       <c r="D692">
         <v>0.08</v>
@@ -10135,7 +10888,8 @@
         <v>228.32900000000001</v>
       </c>
       <c r="C693">
-        <v>-0.20890969244821139</v>
+        <f t="shared" si="10"/>
+        <v>0.21374461249461518</v>
       </c>
       <c r="D693">
         <v>0.1</v>
@@ -10149,7 +10903,8 @@
         <v>228.80699999999999</v>
       </c>
       <c r="C694">
-        <v>-0.16580347052844721</v>
+        <f t="shared" si="10"/>
+        <v>0.20934703870292282</v>
       </c>
       <c r="D694">
         <v>0.13</v>
@@ -10163,7 +10918,8 @@
         <v>229.18700000000001</v>
       </c>
       <c r="C695">
-        <v>0.20724663661444431</v>
+        <f t="shared" si="10"/>
+        <v>0.16607883500068255</v>
       </c>
       <c r="D695">
         <v>0.14000000000000001</v>
@@ -10177,7 +10933,8 @@
         <v>228.71299999999999</v>
       </c>
       <c r="C696">
-        <v>8.2704661217203324E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.20681801323810811</v>
       </c>
       <c r="D696">
         <v>0.16</v>
@@ -10191,7 +10948,8 @@
         <v>228.524</v>
       </c>
       <c r="C697">
-        <v>-2.8872654096856461E-2</v>
+        <f t="shared" si="10"/>
+        <v>-8.2636317131068449E-2</v>
       </c>
       <c r="D697">
         <v>0.16</v>
@@ -10205,7 +10963,8 @@
         <v>228.59</v>
       </c>
       <c r="C698">
-        <v>-0.57759723031689525</v>
+        <f t="shared" si="10"/>
+        <v>2.8880992806001871E-2</v>
       </c>
       <c r="D698">
         <v>0.16</v>
@@ -10219,7 +10978,8 @@
         <v>229.91800000000001</v>
       </c>
       <c r="C699">
-        <v>-0.47486093976580879</v>
+        <f t="shared" si="10"/>
+        <v>0.58095279758518803</v>
       </c>
       <c r="D699">
         <v>0.13</v>
@@ -10233,7 +10993,8 @@
         <v>231.01499999999999</v>
       </c>
       <c r="C700">
-        <v>-0.26895414396602702</v>
+        <f t="shared" si="10"/>
+        <v>0.47712662775423187</v>
       </c>
       <c r="D700">
         <v>0.14000000000000001</v>
@@ -10247,7 +11008,8 @@
         <v>231.63800000000001</v>
       </c>
       <c r="C701">
-        <v>0.16821694364084211</v>
+        <f t="shared" si="10"/>
+        <v>0.26967945804385884</v>
       </c>
       <c r="D701">
         <v>0.16</v>
@@ -10261,7 +11023,8 @@
         <v>231.249</v>
       </c>
       <c r="C702">
-        <v>1.210962672075766E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.16793444944266378</v>
       </c>
       <c r="D702">
         <v>0.16</v>
@@ -10275,7 +11038,8 @@
         <v>231.221</v>
       </c>
       <c r="C703">
-        <v>-0.19768731736583561</v>
+        <f t="shared" si="10"/>
+        <v>-1.2108160467716456E-2</v>
       </c>
       <c r="D703">
         <v>0.16</v>
@@ -10289,7 +11053,8 @@
         <v>231.679</v>
       </c>
       <c r="C704">
-        <v>-0.54006018794782173</v>
+        <f t="shared" si="10"/>
+        <v>0.19807889421807889</v>
       </c>
       <c r="D704">
         <v>0.14000000000000001</v>
@@ -10303,7 +11068,8 @@
         <v>232.93700000000001</v>
       </c>
       <c r="C705">
-        <v>0.28198482878569742</v>
+        <f t="shared" si="10"/>
+        <v>0.54299267521009664</v>
       </c>
       <c r="D705">
         <v>0.15</v>
@@ -10317,7 +11083,8 @@
         <v>232.28200000000001</v>
       </c>
       <c r="C706">
-        <v>0.20923480459196231</v>
+        <f t="shared" si="10"/>
+        <v>-0.28119191025899326</v>
       </c>
       <c r="D706">
         <v>0.14000000000000001</v>
@@ -10331,7 +11098,8 @@
         <v>231.797</v>
       </c>
       <c r="C707">
-        <v>-4.1398403574066663E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.20879792665812191</v>
       </c>
       <c r="D707">
         <v>0.15</v>
@@ -10345,7 +11113,8 @@
         <v>231.893</v>
       </c>
       <c r="C708">
-        <v>-0.2374755318462429</v>
+        <f t="shared" ref="C708:C771" si="11">(B708/B707-1)*100</f>
+        <v>4.1415548950163306E-2</v>
       </c>
       <c r="D708">
         <v>0.11</v>
@@ -10359,7 +11128,8 @@
         <v>232.44499999999999</v>
       </c>
       <c r="C709">
-        <v>-0.19536281665951671</v>
+        <f t="shared" si="11"/>
+        <v>0.23804082055085551</v>
       </c>
       <c r="D709">
         <v>0.09</v>
@@ -10373,7 +11143,8 @@
         <v>232.9</v>
       </c>
       <c r="C710">
-        <v>-0.23816050990336229</v>
+        <f t="shared" si="11"/>
+        <v>0.19574523005443378</v>
       </c>
       <c r="D710">
         <v>0.09</v>
@@ -10387,7 +11158,8 @@
         <v>233.45599999999999</v>
       </c>
       <c r="C711">
-        <v>-3.7680265817152669E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.23872906826962748</v>
       </c>
       <c r="D711">
         <v>0.08</v>
@@ -10401,7 +11173,8 @@
         <v>233.54400000000001</v>
       </c>
       <c r="C712">
-        <v>-5.3494472951054473E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.7694469193350066E-2</v>
       </c>
       <c r="D712">
         <v>0.08</v>
@@ -10415,7 +11188,8 @@
         <v>233.66900000000001</v>
       </c>
       <c r="C713">
-        <v>-0.18410935497650269</v>
+        <f t="shared" si="11"/>
+        <v>5.3523104853914205E-2</v>
       </c>
       <c r="D713">
         <v>0.09</v>
@@ -10429,7 +11203,8 @@
         <v>234.1</v>
       </c>
       <c r="C714">
-        <v>-0.26371959662404582</v>
+        <f t="shared" si="11"/>
+        <v>0.18444894273523804</v>
       </c>
       <c r="D714">
         <v>0.08</v>
@@ -10443,7 +11218,8 @@
         <v>234.71899999999999</v>
       </c>
       <c r="C715">
-        <v>-0.24183128761348091</v>
+        <f t="shared" si="11"/>
+        <v>0.26441691584793148</v>
       </c>
       <c r="D715">
         <v>0.09</v>
@@ -10457,7 +11233,8 @@
         <v>235.28800000000001</v>
       </c>
       <c r="C716">
-        <v>-0.10995682390350089</v>
+        <f t="shared" si="11"/>
+        <v>0.24241752904536895</v>
       </c>
       <c r="D716">
         <v>7.0000000000000007E-2</v>
@@ -10471,7 +11248,8 @@
         <v>235.547</v>
       </c>
       <c r="C717">
-        <v>-0.20378938092090459</v>
+        <f t="shared" si="11"/>
+        <v>0.11007786202441583</v>
       </c>
       <c r="D717">
         <v>7.0000000000000007E-2</v>
@@ -10485,7 +11263,8 @@
         <v>236.02799999999999</v>
       </c>
       <c r="C718">
-        <v>-0.18607168834683391</v>
+        <f t="shared" si="11"/>
+        <v>0.20420553010651599</v>
       </c>
       <c r="D718">
         <v>0.08</v>
@@ -10499,7 +11278,8 @@
         <v>236.46799999999999</v>
       </c>
       <c r="C719">
-        <v>-0.1899391350593915</v>
+        <f t="shared" si="11"/>
+        <v>0.18641856050976013</v>
       </c>
       <c r="D719">
         <v>0.09</v>
@@ -10513,7 +11293,8 @@
         <v>236.91800000000001</v>
       </c>
       <c r="C720">
-        <v>-0.13193891186227269</v>
+        <f t="shared" si="11"/>
+        <v>0.19030059035471947</v>
       </c>
       <c r="D720">
         <v>0.09</v>
@@ -10527,7 +11308,8 @@
         <v>237.23099999999999</v>
       </c>
       <c r="C721">
-        <v>-0.1124219993431486</v>
+        <f t="shared" si="11"/>
+        <v>0.1321132206079767</v>
       </c>
       <c r="D721">
         <v>0.1</v>
@@ -10541,7 +11323,8 @@
         <v>237.49799999999999</v>
       </c>
       <c r="C722">
-        <v>1.6002695190753261E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11254852864928111</v>
       </c>
       <c r="D722">
         <v>0.09</v>
@@ -10555,7 +11338,8 @@
         <v>237.46</v>
       </c>
       <c r="C723">
-        <v>-7.1585879895752491E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.6000134737970129E-2</v>
       </c>
       <c r="D723">
         <v>0.09</v>
@@ -10569,7 +11353,8 @@
         <v>237.477</v>
       </c>
       <c r="C724">
-        <v>1.9795308090797551E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.1591004800808378E-3</v>
       </c>
       <c r="D724">
         <v>0.09</v>
@@ -10583,7 +11368,8 @@
         <v>237.43</v>
       </c>
       <c r="C725">
-        <v>0.1886211247220215</v>
+        <f t="shared" si="11"/>
+        <v>-1.9791390324119806E-2</v>
       </c>
       <c r="D725">
         <v>0.09</v>
@@ -10597,7 +11383,8 @@
         <v>236.983</v>
       </c>
       <c r="C726">
-        <v>0.30941537002862057</v>
+        <f t="shared" si="11"/>
+        <v>-0.18826601524659647</v>
       </c>
       <c r="D726">
         <v>0.09</v>
@@ -10611,7 +11398,8 @@
         <v>236.25200000000001</v>
       </c>
       <c r="C727">
-        <v>0.64111575440792823</v>
+        <f t="shared" si="11"/>
+        <v>-0.30846094445592387</v>
       </c>
       <c r="D727">
         <v>0.12</v>
@@ -10625,7 +11413,8 @@
         <v>234.74700000000001</v>
       </c>
       <c r="C728">
-        <v>-0.25282355040748827</v>
+        <f t="shared" si="11"/>
+        <v>-0.63703164417655556</v>
       </c>
       <c r="D728">
         <v>0.11</v>
@@ -10639,7 +11428,8 @@
         <v>235.34200000000001</v>
       </c>
       <c r="C729">
-        <v>-0.26867139031087062</v>
+        <f t="shared" si="11"/>
+        <v>0.25346436802173855</v>
       </c>
       <c r="D729">
         <v>0.11</v>
@@ -10653,7 +11443,8 @@
         <v>235.976</v>
       </c>
       <c r="C730">
-        <v>-0.10413932656568869</v>
+        <f t="shared" si="11"/>
+        <v>0.26939517808124425</v>
       </c>
       <c r="D730">
         <v>0.11</v>
@@ -10667,7 +11458,8 @@
         <v>236.22200000000001</v>
       </c>
       <c r="C731">
-        <v>-0.32869059624220931</v>
+        <f t="shared" si="11"/>
+        <v>0.10424788961589382</v>
       </c>
       <c r="D731">
         <v>0.12</v>
@@ -10681,7 +11473,8 @@
         <v>237.001</v>
       </c>
       <c r="C732">
-        <v>-0.2760280572421614</v>
+        <f t="shared" si="11"/>
+        <v>0.32977453412468272</v>
       </c>
       <c r="D732">
         <v>0.12</v>
@@ -10695,7 +11488,8 @@
         <v>237.65700000000001</v>
       </c>
       <c r="C733">
-        <v>-0.15838073552516541</v>
+        <f t="shared" si="11"/>
+        <v>0.27679208104607333</v>
       </c>
       <c r="D733">
         <v>0.13</v>
@@ -10709,7 +11503,8 @@
         <v>238.03399999999999</v>
       </c>
       <c r="C734">
-        <v>4.2010981671225522E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.15863197801873063</v>
       </c>
       <c r="D734">
         <v>0.13</v>
@@ -10723,7 +11518,8 @@
         <v>238.03299999999999</v>
       </c>
       <c r="C735">
-        <v>0.2252650548636215</v>
+        <f t="shared" si="11"/>
+        <v>-4.2010805179071298E-4</v>
       </c>
       <c r="D735">
         <v>0.14000000000000001</v>
@@ -10737,7 +11533,8 @@
         <v>237.49799999999999</v>
       </c>
       <c r="C736">
-        <v>-9.8850390984850378E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.22475875193775918</v>
       </c>
       <c r="D736">
         <v>0.14000000000000001</v>
@@ -10751,7 +11548,8 @@
         <v>237.733</v>
       </c>
       <c r="C737">
-        <v>-0.1193192082918459</v>
+        <f t="shared" si="11"/>
+        <v>9.8948201669069036E-2</v>
       </c>
       <c r="D737">
         <v>0.12</v>
@@ -10765,7 +11563,8 @@
         <v>238.017</v>
       </c>
       <c r="C738">
-        <v>0.1076711487586257</v>
+        <f t="shared" si="11"/>
+        <v>0.11946174910508756</v>
       </c>
       <c r="D738">
         <v>0.12</v>
@@ -10779,7 +11578,8 @@
         <v>237.761</v>
       </c>
       <c r="C739">
-        <v>4.5865382997001269E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.10755534268560574</v>
       </c>
       <c r="D739">
         <v>0.24</v>
@@ -10793,7 +11593,8 @@
         <v>237.65199999999999</v>
       </c>
       <c r="C740">
-        <v>0.13314457140929381</v>
+        <f t="shared" si="11"/>
+        <v>-4.5844356307389589E-2</v>
       </c>
       <c r="D740">
         <v>0.34</v>
@@ -10807,7 +11608,8 @@
         <v>237.33600000000001</v>
       </c>
       <c r="C741">
-        <v>-0.31250000000000439</v>
+        <f t="shared" si="11"/>
+        <v>-0.13296753235823022</v>
       </c>
       <c r="D741">
         <v>0.38</v>
@@ -10821,7 +11623,8 @@
         <v>238.08</v>
       </c>
       <c r="C742">
-        <v>-0.38160273147217483</v>
+        <f t="shared" si="11"/>
+        <v>0.31347962382444194</v>
       </c>
       <c r="D742">
         <v>0.36</v>
@@ -10835,7 +11638,8 @@
         <v>238.99199999999999</v>
       </c>
       <c r="C743">
-        <v>-0.23585201016876889</v>
+        <f t="shared" si="11"/>
+        <v>0.38306451612901693</v>
       </c>
       <c r="D743">
         <v>0.37</v>
@@ -10849,7 +11653,8 @@
         <v>239.55699999999999</v>
       </c>
       <c r="C744">
-        <v>-0.27682726811033559</v>
+        <f t="shared" si="11"/>
+        <v>0.23640958693178504</v>
       </c>
       <c r="D744">
         <v>0.37</v>
@@ -10863,7 +11668,8 @@
         <v>240.22200000000001</v>
       </c>
       <c r="C745">
-        <v>5.0395458577856538E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.27759572878272021</v>
       </c>
       <c r="D745">
         <v>0.38</v>
@@ -10877,7 +11683,8 @@
         <v>240.101</v>
       </c>
       <c r="C746">
-        <v>-0.18458084765843319</v>
+        <f t="shared" si="11"/>
+        <v>-5.0370074347894089E-2</v>
       </c>
       <c r="D746">
         <v>0.39</v>
@@ -10891,7 +11698,8 @@
         <v>240.54499999999999</v>
       </c>
       <c r="C747">
-        <v>-0.26163465684810872</v>
+        <f t="shared" si="11"/>
+        <v>0.18492217858316895</v>
       </c>
       <c r="D747">
         <v>0.4</v>
@@ -10905,7 +11713,8 @@
         <v>241.17599999999999</v>
       </c>
       <c r="C748">
-        <v>-0.23372121402659429</v>
+        <f t="shared" si="11"/>
+        <v>0.26232097944252075</v>
       </c>
       <c r="D748">
         <v>0.4</v>
@@ -10919,7 +11728,8 @@
         <v>241.74100000000001</v>
       </c>
       <c r="C749">
-        <v>-0.1177559435763031</v>
+        <f t="shared" si="11"/>
+        <v>0.23426874979268764</v>
       </c>
       <c r="D749">
         <v>0.4</v>
@@ -10933,7 +11743,8 @@
         <v>242.02600000000001</v>
       </c>
       <c r="C750">
-        <v>-0.25181649954458818</v>
+        <f t="shared" si="11"/>
+        <v>0.11789477167711837</v>
       </c>
       <c r="D750">
         <v>0.41</v>
@@ -10947,7 +11758,8 @@
         <v>242.637</v>
       </c>
       <c r="C751">
-        <v>-0.40267960495529159</v>
+        <f t="shared" si="11"/>
+        <v>0.25245221587761879</v>
       </c>
       <c r="D751">
         <v>0.54</v>
@@ -10961,7 +11773,8 @@
         <v>243.61799999999999</v>
       </c>
       <c r="C752">
-        <v>-0.15901248329959211</v>
+        <f t="shared" si="11"/>
+        <v>0.40430766948156283</v>
       </c>
       <c r="D752">
         <v>0.65</v>
@@ -10975,7 +11788,8 @@
         <v>244.006</v>
       </c>
       <c r="C753">
-        <v>4.6742000557631343E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.15926573570097524</v>
       </c>
       <c r="D753">
         <v>0.66</v>
@@ -10989,7 +11803,8 @@
         <v>243.892</v>
       </c>
       <c r="C754">
-        <v>-0.1232631566015496</v>
+        <f t="shared" si="11"/>
+        <v>-4.6720162618951733E-2</v>
       </c>
       <c r="D754">
         <v>0.79</v>
@@ -11003,7 +11818,8 @@
         <v>244.19300000000001</v>
       </c>
       <c r="C755">
-        <v>7.7457746594333798E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.12341528217407749</v>
       </c>
       <c r="D755">
         <v>0.9</v>
@@ -11017,7 +11833,8 @@
         <v>244.00399999999999</v>
       </c>
       <c r="C756">
-        <v>-6.5120431842669024E-2</v>
+        <f t="shared" si="11"/>
+        <v>-7.7397796005629349E-2</v>
       </c>
       <c r="D756">
         <v>0.91</v>
@@ -11031,7 +11848,8 @@
         <v>244.16300000000001</v>
       </c>
       <c r="C757">
-        <v>-3.2754265219470113E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.5162866182522095E-2</v>
       </c>
       <c r="D757">
         <v>1.04</v>
@@ -11045,7 +11863,8 @@
         <v>244.24299999999999</v>
       </c>
       <c r="C758">
-        <v>-0.38338710269472109</v>
+        <f t="shared" si="11"/>
+        <v>3.2764997153544861E-2</v>
       </c>
       <c r="D758">
         <v>1.1499999999999999</v>
@@ -11059,7 +11878,8 @@
         <v>245.18299999999999</v>
       </c>
       <c r="C759">
-        <v>-0.5080447176740388</v>
+        <f t="shared" si="11"/>
+        <v>0.38486261632881824</v>
       </c>
       <c r="D759">
         <v>1.1599999999999999</v>
@@ -11073,7 +11893,8 @@
         <v>246.435</v>
       </c>
       <c r="C760">
-        <v>-7.7445200424930416E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.5106389920997767</v>
       </c>
       <c r="D760">
         <v>1.1499999999999999</v>
@@ -11087,7 +11908,8 @@
         <v>246.626</v>
       </c>
       <c r="C761">
-        <v>-0.26609081056598871</v>
+        <f t="shared" si="11"/>
+        <v>7.7505224501384085E-2</v>
       </c>
       <c r="D761">
         <v>1.1499999999999999</v>
@@ -11101,7 +11923,8 @@
         <v>247.28399999999999</v>
       </c>
       <c r="C762">
-        <v>-0.21024595952463529</v>
+        <f t="shared" si="11"/>
+        <v>0.26680074282516841</v>
       </c>
       <c r="D762">
         <v>1.1599999999999999</v>
@@ -11115,7 +11938,8 @@
         <v>247.80500000000001</v>
       </c>
       <c r="C763">
-        <v>-0.37709603888350651</v>
+        <f t="shared" si="11"/>
+        <v>0.21068892447551058</v>
       </c>
       <c r="D763">
         <v>1.3</v>
@@ -11129,7 +11953,8 @@
         <v>248.74299999999999</v>
       </c>
       <c r="C764">
-        <v>-0.27902613464614312</v>
+        <f t="shared" si="11"/>
+        <v>0.37852343576603165</v>
       </c>
       <c r="D764">
         <v>1.41</v>
@@ -11143,7 +11968,8 @@
         <v>249.43899999999999</v>
       </c>
       <c r="C765">
-        <v>-5.6895356617692183E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.27980686893700479</v>
       </c>
       <c r="D765">
         <v>1.42</v>
@@ -11157,7 +11983,8 @@
         <v>249.58099999999999</v>
       </c>
       <c r="C766">
-        <v>-0.2258680930336654</v>
+        <f t="shared" si="11"/>
+        <v>5.692774586170124E-2</v>
       </c>
       <c r="D766">
         <v>1.51</v>
@@ -11171,7 +11998,8 @@
         <v>250.14599999999999</v>
       </c>
       <c r="C767">
-        <v>-0.25241347959757959</v>
+        <f t="shared" si="11"/>
+        <v>0.22637941189433963</v>
       </c>
       <c r="D767">
         <v>1.69</v>
@@ -11185,7 +12013,8 @@
         <v>250.779</v>
       </c>
       <c r="C768">
-        <v>-0.1349962965617735</v>
+        <f t="shared" si="11"/>
+        <v>0.25305221750497875</v>
       </c>
       <c r="D768">
         <v>1.7</v>
@@ -11199,7 +12028,8 @@
         <v>251.11799999999999</v>
       </c>
       <c r="C769">
-        <v>-8.1568340342907941E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.13517878291244845</v>
       </c>
       <c r="D769">
         <v>1.82</v>
@@ -11213,7 +12043,8 @@
         <v>251.32300000000001</v>
       </c>
       <c r="C770">
-        <v>-0.1692161637186218</v>
+        <f t="shared" si="11"/>
+        <v>8.1634928599316758E-2</v>
       </c>
       <c r="D770">
         <v>1.91</v>
@@ -11227,7 +12058,8 @@
         <v>251.749</v>
       </c>
       <c r="C771">
-        <v>-0.194260205598662</v>
+        <f t="shared" si="11"/>
+        <v>0.1695029901759737</v>
       </c>
       <c r="D771">
         <v>1.91</v>
@@ -11241,7 +12073,8 @@
         <v>252.239</v>
       </c>
       <c r="C772">
-        <v>-0.24637944807839321</v>
+        <f t="shared" ref="C772:C822" si="12">(B772/B771-1)*100</f>
+        <v>0.19463831038057933</v>
       </c>
       <c r="D772">
         <v>1.95</v>
@@ -11255,7 +12088,8 @@
         <v>252.86199999999999</v>
       </c>
       <c r="C773">
-        <v>8.113766885540219E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.24698797568971642</v>
       </c>
       <c r="D773">
         <v>2.19</v>
@@ -11269,7 +12103,8 @@
         <v>252.65700000000001</v>
       </c>
       <c r="C774">
-        <v>4.1971720563371839E-2</v>
+        <f t="shared" si="12"/>
+        <v>-8.1071889014550091E-2</v>
       </c>
       <c r="D774">
         <v>2.2000000000000002</v>
@@ -11283,7 +12118,8 @@
         <v>252.55099999999999</v>
       </c>
       <c r="C775">
-        <v>3.2083019764717058E-2</v>
+        <f t="shared" si="12"/>
+        <v>-4.1954111700848173E-2</v>
       </c>
       <c r="D775">
         <v>2.27</v>
@@ -11297,7 +12133,8 @@
         <v>252.47</v>
       </c>
       <c r="C776">
-        <v>-0.26270567088707558</v>
+        <f t="shared" si="12"/>
+        <v>-3.2072729864462968E-2</v>
       </c>
       <c r="D776">
         <v>2.4</v>
@@ -11311,7 +12148,8 @@
         <v>253.13499999999999</v>
       </c>
       <c r="C777">
-        <v>-0.44755046741101762</v>
+        <f t="shared" si="12"/>
+        <v>0.26339763140175165</v>
       </c>
       <c r="D777">
         <v>2.4</v>
@@ -11325,7 +12163,8 @@
         <v>254.273</v>
       </c>
       <c r="C778">
-        <v>-0.34879665155215228</v>
+        <f t="shared" si="12"/>
+        <v>0.44956248642029628</v>
       </c>
       <c r="D778">
         <v>2.41</v>
@@ -11339,7 +12178,8 @@
         <v>255.16300000000001</v>
       </c>
       <c r="C779">
-        <v>-6.3448545970812287E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.35001750087504391</v>
       </c>
       <c r="D779">
         <v>2.42</v>
@@ -11353,7 +12193,8 @@
         <v>255.32499999999999</v>
       </c>
       <c r="C780">
-        <v>-1.4097689153791389E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.348882870947925E-2</v>
       </c>
       <c r="D780">
         <v>2.39</v>
@@ -11367,7 +12208,8 @@
         <v>255.36099999999999</v>
       </c>
       <c r="C781">
-        <v>-0.2106291520125092</v>
+        <f t="shared" si="12"/>
+        <v>1.4099676882395329E-2</v>
       </c>
       <c r="D781">
         <v>2.38</v>
@@ -11381,7 +12223,8 @@
         <v>255.9</v>
       </c>
       <c r="C782">
-        <v>-0.1089082243275086</v>
+        <f t="shared" si="12"/>
+        <v>0.21107373483031378</v>
       </c>
       <c r="D782">
         <v>2.4</v>
@@ -11395,7 +12238,8 @@
         <v>256.17899999999997</v>
       </c>
       <c r="C783">
-        <v>-0.16251227610719621</v>
+        <f t="shared" si="12"/>
+        <v>0.10902696365766573</v>
       </c>
       <c r="D783">
         <v>2.13</v>
@@ -11409,7 +12253,8 @@
         <v>256.596</v>
       </c>
       <c r="C784">
-        <v>-0.27554847360137252</v>
+        <f t="shared" si="12"/>
+        <v>0.16277680840350861</v>
       </c>
       <c r="D784">
         <v>2.04</v>
@@ -11423,7 +12268,8 @@
         <v>257.30500000000001</v>
       </c>
       <c r="C785">
-        <v>-0.18736325973280901</v>
+        <f t="shared" si="12"/>
+        <v>0.27630984115107893</v>
       </c>
       <c r="D785">
         <v>1.83</v>
@@ -11437,7 +12283,8 @@
         <v>257.78800000000001</v>
       </c>
       <c r="C786">
-        <v>-0.18392104172876289</v>
+        <f t="shared" si="12"/>
+        <v>0.18771496861700321</v>
       </c>
       <c r="D786">
         <v>1.55</v>
@@ -11451,7 +12298,8 @@
         <v>258.26299999999998</v>
       </c>
       <c r="C787">
-        <v>-0.16197493447555061</v>
+        <f t="shared" si="12"/>
+        <v>0.18425993451982592</v>
       </c>
       <c r="D787">
         <v>1.55</v>
@@ -11465,7 +12313,8 @@
         <v>258.68200000000002</v>
       </c>
       <c r="C788">
-        <v>-0.1254792341519706</v>
+        <f t="shared" si="12"/>
+        <v>0.16223771891445971</v>
       </c>
       <c r="D788">
         <v>1.55</v>
@@ -11479,7 +12328,8 @@
         <v>259.00700000000001</v>
       </c>
       <c r="C789">
-        <v>0.3261480061201194</v>
+        <f t="shared" si="12"/>
+        <v>0.12563688234974446</v>
       </c>
       <c r="D789">
         <v>1.58</v>
@@ -11493,7 +12343,8 @@
         <v>258.16500000000002</v>
       </c>
       <c r="C790">
-        <v>0.80868743508244467</v>
+        <f t="shared" si="12"/>
+        <v>-0.32508773894140974</v>
       </c>
       <c r="D790">
         <v>0.65</v>
@@ -11507,7 +12358,8 @@
         <v>256.09399999999999</v>
       </c>
       <c r="C791">
-        <v>5.8606570187236251E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.80220014331920941</v>
       </c>
       <c r="D791">
         <v>0.05</v>
@@ -11521,7 +12373,8 @@
         <v>255.94399999999999</v>
       </c>
       <c r="C792">
-        <v>-0.49491285568216142</v>
+        <f t="shared" si="12"/>
+        <v>-5.857224300452879E-2</v>
       </c>
       <c r="D792">
         <v>0.05</v>
@@ -11535,7 +12388,8 @@
         <v>257.21699999999998</v>
       </c>
       <c r="C793">
-        <v>-0.51287406736985064</v>
+        <f t="shared" si="12"/>
+        <v>0.49737442565560563</v>
       </c>
       <c r="D793">
         <v>0.08</v>
@@ -11549,7 +12403,8 @@
         <v>258.54300000000001</v>
       </c>
       <c r="C794">
-        <v>-0.39949148624700559</v>
+        <f t="shared" si="12"/>
+        <v>0.51551802563594151</v>
       </c>
       <c r="D794">
         <v>0.09</v>
@@ -11563,7 +12418,8 @@
         <v>259.58</v>
       </c>
       <c r="C795">
-        <v>-0.23444406010992849</v>
+        <f t="shared" si="12"/>
+        <v>0.40109382191741982</v>
       </c>
       <c r="D795">
         <v>0.1</v>
@@ -11577,7 +12433,8 @@
         <v>260.19</v>
       </c>
       <c r="C796">
-        <v>-6.2223451327425572E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.23499499191002027</v>
       </c>
       <c r="D796">
         <v>0.09</v>
@@ -11591,7 +12448,8 @@
         <v>260.35199999999998</v>
       </c>
       <c r="C797">
-        <v>-0.1415306016776641</v>
+        <f t="shared" si="12"/>
+        <v>6.2262193012796452E-2</v>
       </c>
       <c r="D797">
         <v>0.09</v>
@@ -11605,7 +12463,8 @@
         <v>260.721</v>
       </c>
       <c r="C798">
-        <v>-0.32229205854017451</v>
+        <f t="shared" si="12"/>
+        <v>0.14173119469027551</v>
       </c>
       <c r="D798">
         <v>0.09</v>
@@ -11619,7 +12478,8 @@
         <v>261.56400000000002</v>
       </c>
       <c r="C799">
-        <v>-0.24256292906177371</v>
+        <f t="shared" si="12"/>
+        <v>0.32333413879204187</v>
       </c>
       <c r="D799">
         <v>0.09</v>
@@ -11633,7 +12493,8 @@
         <v>262.2</v>
       </c>
       <c r="C800">
-        <v>-0.43516894124080441</v>
+        <f t="shared" si="12"/>
+        <v>0.24315272743953287</v>
       </c>
       <c r="D800">
         <v>0.09</v>
@@ -11647,7 +12508,8 @@
         <v>263.346</v>
       </c>
       <c r="C801">
-        <v>-0.63464992378164942</v>
+        <f t="shared" si="12"/>
+        <v>0.43707093821510057</v>
       </c>
       <c r="D801">
         <v>0.08</v>
@@ -11661,7 +12523,8 @@
         <v>265.02800000000002</v>
       </c>
       <c r="C802">
-        <v>-0.63698088307518885</v>
+        <f t="shared" si="12"/>
+        <v>0.63870345477052837</v>
       </c>
       <c r="D802">
         <v>7.0000000000000007E-2</v>
@@ -11675,7 +12538,8 @@
         <v>266.72699999999998</v>
       </c>
       <c r="C803">
-        <v>-0.69694972803324706</v>
+        <f t="shared" si="12"/>
+        <v>0.64106434037156657</v>
       </c>
       <c r="D803">
         <v>7.0000000000000007E-2</v>
@@ -11689,7 +12553,8 @@
         <v>268.59899999999999</v>
       </c>
       <c r="C804">
-        <v>-0.86951707848166304</v>
+        <f t="shared" si="12"/>
+        <v>0.70184120842660125</v>
       </c>
       <c r="D804">
         <v>0.06</v>
@@ -11703,7 +12568,8 @@
         <v>270.95499999999998</v>
       </c>
       <c r="C805">
-        <v>-0.45153278664434859</v>
+        <f t="shared" si="12"/>
+        <v>0.87714399532388132</v>
       </c>
       <c r="D805">
         <v>0.08</v>
@@ -11717,7 +12583,8 @@
         <v>272.18400000000003</v>
       </c>
       <c r="C806">
-        <v>-0.33248868513173768</v>
+        <f t="shared" si="12"/>
+        <v>0.45358085290916339</v>
       </c>
       <c r="D806">
         <v>0.1</v>
@@ -11731,7 +12598,8 @@
         <v>273.09199999999998</v>
       </c>
       <c r="C807">
-        <v>-0.40916948077049931</v>
+        <f t="shared" si="12"/>
+        <v>0.33359786027098437</v>
       </c>
       <c r="D807">
         <v>0.09</v>
@@ -11745,7 +12613,8 @@
         <v>274.214</v>
       </c>
       <c r="C808">
-        <v>-0.85903322607469024</v>
+        <f t="shared" si="12"/>
+        <v>0.41085055585663444</v>
       </c>
       <c r="D808">
         <v>0.08</v>
@@ -11759,7 +12628,8 @@
         <v>276.58999999999997</v>
       </c>
       <c r="C809">
-        <v>-0.6943746319886368</v>
+        <f t="shared" si="12"/>
+        <v>0.86647654751397241</v>
       </c>
       <c r="D809">
         <v>0.08</v>
@@ -11773,7 +12643,8 @@
         <v>278.524</v>
       </c>
       <c r="C810">
-        <v>-0.5718855086639496</v>
+        <f t="shared" si="12"/>
+        <v>0.69922990708268795</v>
       </c>
       <c r="D810">
         <v>0.08</v>
@@ -11787,7 +12658,8 @@
         <v>280.12599999999998</v>
       </c>
       <c r="C811">
-        <v>-0.64093242011400431</v>
+        <f t="shared" si="12"/>
+        <v>0.57517485028220072</v>
       </c>
       <c r="D811">
         <v>0.08</v>
@@ -11801,7 +12673,8 @@
         <v>281.93299999999999</v>
       </c>
       <c r="C812">
-        <v>-0.79139424734854247</v>
+        <f t="shared" si="12"/>
+        <v>0.64506686276890601</v>
       </c>
       <c r="D812">
         <v>0.08</v>
@@ -11815,7 +12688,8 @@
         <v>284.18200000000002</v>
       </c>
       <c r="C813">
-        <v>-1.2255481251824849</v>
+        <f t="shared" si="12"/>
+        <v>0.79770725668866227</v>
       </c>
       <c r="D813">
         <v>0.08</v>
@@ -11829,7 +12703,8 @@
         <v>287.70800000000003</v>
       </c>
       <c r="C814">
-        <v>-0.33083561107588588</v>
+        <f t="shared" si="12"/>
+        <v>1.2407541645846676</v>
       </c>
       <c r="D814">
         <v>0.2</v>
@@ -11843,7 +12718,8 @@
         <v>288.66300000000001</v>
       </c>
       <c r="C815">
-        <v>-0.96440848926490075</v>
+        <f t="shared" si="12"/>
+        <v>0.33193376617959292</v>
       </c>
       <c r="D815">
         <v>0.33</v>
@@ -11857,7 +12733,8 @@
         <v>291.47399999999999</v>
       </c>
       <c r="C816">
-        <v>-1.3049897063603819</v>
+        <f t="shared" si="12"/>
+        <v>0.97379989815111756</v>
       </c>
       <c r="D816">
         <v>0.77</v>
@@ -11871,7 +12748,8 @@
         <v>295.32799999999997</v>
       </c>
       <c r="C817">
-        <v>1.9304300117495291E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.3222448657513208</v>
       </c>
       <c r="D817">
         <v>1.21</v>
@@ -11885,7 +12763,8 @@
         <v>295.27100000000002</v>
       </c>
       <c r="C818">
-        <v>-0.1180569650226615</v>
+        <f t="shared" si="12"/>
+        <v>-1.9300574276726046E-2</v>
       </c>
       <c r="D818">
         <v>1.68</v>
@@ -11899,7 +12778,8 @@
         <v>295.62</v>
       </c>
       <c r="C819">
-        <v>-0.38448448414718511</v>
+        <f t="shared" si="12"/>
+        <v>0.1181965042283073</v>
       </c>
       <c r="D819">
         <v>2.33</v>
@@ -11913,7 +12793,8 @@
         <v>296.76100000000002</v>
       </c>
       <c r="C820">
-        <v>-0.43648636860786899</v>
+        <f t="shared" si="12"/>
+        <v>0.3859684730397106</v>
       </c>
       <c r="D820">
         <v>2.56</v>
@@ -11927,7 +12808,8 @@
         <v>298.06200000000001</v>
       </c>
       <c r="C821">
-        <v>-9.6196065681464216E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.4383999245183734</v>
       </c>
       <c r="D821">
         <v>3.08</v>
@@ -11941,7 +12823,8 @@
         <v>298.34899999999999</v>
       </c>
       <c r="C822">
-        <v>7.95003220266155E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.6288691614487831E-2</v>
       </c>
       <c r="D822">
         <v>3.78</v>
@@ -11954,8 +12837,270 @@
       <c r="B823">
         <v>298.11200000000002</v>
       </c>
+      <c r="C823">
+        <f>(B823/B822-1)*100</f>
+        <v>-7.943716922127475E-2</v>
+      </c>
       <c r="D823">
         <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A829" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B829">
+        <f>AVERAGE(B2:B823)</f>
+        <v>126.6145510948905</v>
+      </c>
+      <c r="C829">
+        <f>AVERAGE(C2:C823)</f>
+        <v>0.29408185893915939</v>
+      </c>
+      <c r="D829">
+        <f>AVERAGE(D2:D823)</f>
+        <v>4.5954987834549881</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B830">
+        <f>MEDIAN(B2:B823)</f>
+        <v>119.7</v>
+      </c>
+      <c r="C830">
+        <f>MEDIAN(C2:C823)</f>
+        <v>0.25125628140703071</v>
+      </c>
+      <c r="D830">
+        <f>MEDIAN(D2:D823)</f>
+        <v>4.1099999999999994</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B831">
+        <f>MODE(B2:B823)</f>
+        <v>29.84</v>
+      </c>
+      <c r="C831">
+        <f>MODE(C2:C823)</f>
+        <v>0</v>
+      </c>
+      <c r="D831">
+        <f>MODE(D2:D823)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A833" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B833">
+        <f>B843-B839</f>
+        <v>271.63900000000001</v>
+      </c>
+      <c r="C833">
+        <f t="shared" ref="C833:D833" si="13">C843-C839</f>
+        <v>3.5805024596037627</v>
+      </c>
+      <c r="D833">
+        <f t="shared" si="13"/>
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B834">
+        <f>_xlfn.STDEV.S(B2:B823)</f>
+        <v>80.98958912374377</v>
+      </c>
+      <c r="C834">
+        <f t="shared" ref="C834:D834" si="14">_xlfn.STDEV.S(C2:C823)</f>
+        <v>0.31485190730328677</v>
+      </c>
+      <c r="D834">
+        <f>_xlfn.STDEV.S(D2:D823)</f>
+        <v>3.6180045350258219</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B835">
+        <f>_xlfn.VAR.S(B2:B823)</f>
+        <v>6559.3135464328352</v>
+      </c>
+      <c r="C835">
+        <f t="shared" ref="C835:D835" si="15">_xlfn.VAR.S(C2:C823)</f>
+        <v>9.9131723532517479E-2</v>
+      </c>
+      <c r="D835">
+        <f t="shared" si="15"/>
+        <v>13.089956815467414</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A836" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B836">
+        <f>B834/B829*100</f>
+        <v>63.965467178449828</v>
+      </c>
+      <c r="C836">
+        <f t="shared" ref="C836:D836" si="16">C834/C829*100</f>
+        <v>107.06267582742134</v>
+      </c>
+      <c r="D836">
+        <f t="shared" si="16"/>
+        <v>78.729311126174068</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A837" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B837">
+        <f>B842-B840</f>
+        <v>157.9</v>
+      </c>
+      <c r="C837">
+        <f t="shared" ref="C837:D837" si="17">C842-C840</f>
+        <v>0.32117080684375132</v>
+      </c>
+      <c r="D837">
+        <f t="shared" si="17"/>
+        <v>4.5325000000000006</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A838"/>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A839" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B839">
+        <f>MIN(B2:B823)</f>
+        <v>26.71</v>
+      </c>
+      <c r="C839">
+        <f>MIN(C2:C823)</f>
+        <v>-1.7705477084725474</v>
+      </c>
+      <c r="D839">
+        <f>MIN(D2:D823)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A840" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B840">
+        <f>QUARTILE(B2:B823,1)</f>
+        <v>40.725000000000001</v>
+      </c>
+      <c r="C840">
+        <f t="shared" ref="C840:D840" si="18">QUARTILE(C2:C823,1)</f>
+        <v>0.1181965042283073</v>
+      </c>
+      <c r="D840">
+        <f t="shared" si="18"/>
+        <v>1.7524999999999999</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A841" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B841">
+        <f>QUARTILE(B2:B823,2)</f>
+        <v>119.7</v>
+      </c>
+      <c r="C841">
+        <f t="shared" ref="C841:D841" si="19">QUARTILE(C2:C823,2)</f>
+        <v>0.25125628140703071</v>
+      </c>
+      <c r="D841">
+        <f t="shared" si="19"/>
+        <v>4.1099999999999994</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A842" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B842">
+        <f>QUARTILE(B2:B823,3)</f>
+        <v>198.625</v>
+      </c>
+      <c r="C842">
+        <f t="shared" ref="C842:D842" si="20">QUARTILE(C2:C823,3)</f>
+        <v>0.43936731107205862</v>
+      </c>
+      <c r="D842">
+        <f t="shared" si="20"/>
+        <v>6.2850000000000001</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A843" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B843">
+        <f>MAX(B2:B823)</f>
+        <v>298.34899999999999</v>
+      </c>
+      <c r="C843">
+        <f>MAX(C2:C823)</f>
+        <v>1.8099547511312153</v>
+      </c>
+      <c r="D843">
+        <f>MAX(D2:D823)</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A845" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B845">
+        <f>B842+1.5*B837</f>
+        <v>435.47500000000002</v>
+      </c>
+      <c r="C845">
+        <f t="shared" ref="C845:D845" si="21">C842+1.5*C837</f>
+        <v>0.9211235213376856</v>
+      </c>
+      <c r="D845">
+        <f t="shared" si="21"/>
+        <v>13.083750000000002</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A846" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B846">
+        <f>B840-1.5*B837</f>
+        <v>-196.12500000000003</v>
+      </c>
+      <c r="C846">
+        <f t="shared" ref="C846:D846" si="22">C840-1.5*C837</f>
+        <v>-0.36355970603731969</v>
+      </c>
+      <c r="D846">
+        <f t="shared" si="22"/>
+        <v>-5.0462500000000006</v>
       </c>
     </row>
   </sheetData>

--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcanuto/Documents/Courses/STAT205/Project 1/STAT-205/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k/Desktop/UNIVERSITY/YEAR 2/STAT 205/STAT-205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AB356-736B-5145-9D5D-A9221A1828EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE242EC-4D56-8B47-9EE1-62CF8A4056BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>observation_date</t>
   </si>
@@ -32,6 +45,51 @@
   </si>
   <si>
     <t>consumer_price_index</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Sample SD</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Coefficient of Variation</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max </t>
+  </si>
+  <si>
+    <t>Upper Fence</t>
+  </si>
+  <si>
+    <t>Lower Fence</t>
   </si>
 </sst>
 </file>
@@ -58,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -87,6 +151,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D823"/>
+  <dimension ref="A1:D846"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+      <selection activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -460,9 +526,6 @@
       <c r="B2">
         <v>26.86</v>
       </c>
-      <c r="C2">
-        <v>3.7243947858467408E-2</v>
-      </c>
       <c r="D2">
         <v>0.8</v>
       </c>
@@ -475,7 +538,8 @@
         <v>26.85</v>
       </c>
       <c r="C3">
-        <v>0.14919806042521519</v>
+        <f>(B3/B2-1)*100</f>
+        <v>-3.7230081906169943E-2</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -489,7 +553,8 @@
         <v>26.81</v>
       </c>
       <c r="C4">
-        <v>0.33682634730538558</v>
+        <f t="shared" ref="C4:C67" si="0">(B4/B3-1)*100</f>
+        <v>-0.14897579143390294</v>
       </c>
       <c r="D4">
         <v>1.07</v>
@@ -503,7 +568,8 @@
         <v>26.72</v>
       </c>
       <c r="C5">
-        <v>-0.2240477968633359</v>
+        <f t="shared" si="0"/>
+        <v>-0.33569563595673424</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -517,7 +583,8 @@
         <v>26.78</v>
       </c>
       <c r="C6">
-        <v>3.735524841241844E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.22455089820359042</v>
       </c>
       <c r="D6">
         <v>0.83</v>
@@ -531,7 +598,8 @@
         <v>26.77</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-3.7341299477222645E-2</v>
       </c>
       <c r="D7">
         <v>1.28</v>
@@ -545,7 +613,8 @@
         <v>26.77</v>
       </c>
       <c r="C8">
-        <v>-0.18642803877703121</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1.39</v>
@@ -559,7 +628,8 @@
         <v>26.82</v>
       </c>
       <c r="C9">
-        <v>0.1119820828667351</v>
+        <f t="shared" si="0"/>
+        <v>0.18677624206200338</v>
       </c>
       <c r="D9">
         <v>1.29</v>
@@ -573,7 +643,8 @@
         <v>26.79</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.11185682326622093</v>
       </c>
       <c r="D10">
         <v>1.35</v>
@@ -587,7 +658,8 @@
         <v>26.79</v>
       </c>
       <c r="C11">
-        <v>7.4710496824792472E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1.43</v>
@@ -601,7 +673,8 @@
         <v>26.77</v>
       </c>
       <c r="C12">
-        <v>0.22463496817670681</v>
+        <f t="shared" si="0"/>
+        <v>-7.4654721911160404E-2</v>
       </c>
       <c r="D12">
         <v>1.43</v>
@@ -615,7 +688,8 @@
         <v>26.71</v>
       </c>
       <c r="C13">
-        <v>-0.1868460388639748</v>
+        <f t="shared" si="0"/>
+        <v>-0.22413149047441072</v>
       </c>
       <c r="D13">
         <v>1.64</v>
@@ -629,7 +703,8 @@
         <v>26.76</v>
       </c>
       <c r="C14">
-        <v>0.14970059880241579</v>
+        <f t="shared" si="0"/>
+        <v>0.18719580681392234</v>
       </c>
       <c r="D14">
         <v>1.68</v>
@@ -643,7 +718,8 @@
         <v>26.72</v>
       </c>
       <c r="C15">
-        <v>-0.48417132216015402</v>
+        <f t="shared" si="0"/>
+        <v>-0.1494768310911887</v>
       </c>
       <c r="D15">
         <v>1.96</v>
@@ -657,7 +733,8 @@
         <v>26.85</v>
       </c>
       <c r="C16">
-        <v>0.1118568232662209</v>
+        <f t="shared" si="0"/>
+        <v>0.48652694610780145</v>
       </c>
       <c r="D16">
         <v>2.1800000000000002</v>
@@ -671,7 +748,8 @@
         <v>26.82</v>
       </c>
       <c r="C17">
-        <v>-0.2232142857142794</v>
+        <f t="shared" si="0"/>
+        <v>-0.11173184357542443</v>
       </c>
       <c r="D17">
         <v>2.2400000000000002</v>
@@ -685,7 +763,8 @@
         <v>26.88</v>
       </c>
       <c r="C18">
-        <v>3.7216226274638942E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.22371364653244186</v>
       </c>
       <c r="D18">
         <v>2.35</v>
@@ -699,7 +778,8 @@
         <v>26.87</v>
       </c>
       <c r="C19">
-        <v>0.14908684308609921</v>
+        <f t="shared" si="0"/>
+        <v>-3.7202380952372494E-2</v>
       </c>
       <c r="D19">
         <v>2.48</v>
@@ -713,7 +793,8 @@
         <v>26.83</v>
       </c>
       <c r="C20">
-        <v>-0.11169024571854309</v>
+        <f t="shared" si="0"/>
+        <v>-0.14886490509863348</v>
       </c>
       <c r="D20">
         <v>2.4500000000000002</v>
@@ -727,7 +808,8 @@
         <v>26.86</v>
       </c>
       <c r="C21">
-        <v>-0.1115656377835617</v>
+        <f t="shared" si="0"/>
+        <v>0.11181513231457441</v>
       </c>
       <c r="D21">
         <v>2.5</v>
@@ -741,7 +823,8 @@
         <v>26.89</v>
       </c>
       <c r="C22">
-        <v>-0.14853323431117671</v>
+        <f t="shared" si="0"/>
+        <v>0.11169024571855424</v>
       </c>
       <c r="D22">
         <v>2.5</v>
@@ -755,7 +838,8 @@
         <v>26.93</v>
       </c>
       <c r="C23">
-        <v>-0.36995930447650821</v>
+        <f t="shared" si="0"/>
+        <v>0.14875418371140814</v>
       </c>
       <c r="D23">
         <v>2.62</v>
@@ -769,7 +853,8 @@
         <v>27.03</v>
       </c>
       <c r="C24">
-        <v>-0.44198895027622859</v>
+        <f t="shared" si="0"/>
+        <v>0.37133308577794732</v>
       </c>
       <c r="D24">
         <v>2.75</v>
@@ -783,7 +868,8 @@
         <v>27.15</v>
       </c>
       <c r="C25">
-        <v>-0.51300842799560931</v>
+        <f t="shared" si="0"/>
+        <v>0.44395116537179202</v>
       </c>
       <c r="D25">
         <v>2.71</v>
@@ -797,7 +883,8 @@
         <v>27.29</v>
       </c>
       <c r="C26">
-        <v>-7.3233247894544107E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.51565377532227785</v>
       </c>
       <c r="D26">
         <v>2.75</v>
@@ -811,7 +898,8 @@
         <v>27.31</v>
       </c>
       <c r="C27">
-        <v>-0.14625228519196121</v>
+        <f t="shared" si="0"/>
+        <v>7.3286918285075942E-2</v>
       </c>
       <c r="D27">
         <v>2.73</v>
@@ -825,7 +913,8 @@
         <v>27.35</v>
       </c>
       <c r="C28">
-        <v>-0.5816066884769211</v>
+        <f t="shared" si="0"/>
+        <v>0.14646649578908821</v>
       </c>
       <c r="D28">
         <v>2.95</v>
@@ -839,7 +928,8 @@
         <v>27.51</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.58500914076782262</v>
       </c>
       <c r="D29">
         <v>2.96</v>
@@ -853,7 +943,8 @@
         <v>27.51</v>
       </c>
       <c r="C30">
-        <v>-0.43431053203039077</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>2.88</v>
@@ -867,7 +958,8 @@
         <v>27.63</v>
       </c>
       <c r="C31">
-        <v>-0.14456089627756799</v>
+        <f t="shared" si="0"/>
+        <v>0.4362050163576825</v>
       </c>
       <c r="D31">
         <v>2.94</v>
@@ -881,7 +973,8 @@
         <v>27.67</v>
       </c>
       <c r="C32">
-        <v>-0.46762589928057707</v>
+        <f t="shared" si="0"/>
+        <v>0.14477017734346731</v>
       </c>
       <c r="D32">
         <v>2.84</v>
@@ -895,7 +988,8 @@
         <v>27.8</v>
       </c>
       <c r="C33">
-        <v>-0.21536252692031521</v>
+        <f t="shared" si="0"/>
+        <v>0.46982291290205147</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -909,7 +1003,8 @@
         <v>27.86</v>
       </c>
       <c r="C34">
-        <v>-0.25062656641604558</v>
+        <f t="shared" si="0"/>
+        <v>0.21582733812948174</v>
       </c>
       <c r="D34">
         <v>2.96</v>
@@ -923,7 +1018,8 @@
         <v>27.93</v>
       </c>
       <c r="C35">
-        <v>-0.25000000000000577</v>
+        <f t="shared" si="0"/>
+        <v>0.25125628140703071</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -937,7 +1033,8 @@
         <v>28</v>
       </c>
       <c r="C36">
-        <v>-0.3913198150124475</v>
+        <f t="shared" si="0"/>
+        <v>0.25062656641603454</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -951,7 +1048,8 @@
         <v>28.11</v>
       </c>
       <c r="C37">
-        <v>-0.28378857750975822</v>
+        <f t="shared" si="0"/>
+        <v>0.39285714285715034</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -965,7 +1063,8 @@
         <v>28.19</v>
       </c>
       <c r="C38">
-        <v>-0.31824611032531541</v>
+        <f t="shared" si="0"/>
+        <v>0.28459622909997595</v>
       </c>
       <c r="D38">
         <v>2.99</v>
@@ -979,7 +1078,8 @@
         <v>28.28</v>
       </c>
       <c r="C39">
-        <v>-0.1412429378531033</v>
+        <f t="shared" si="0"/>
+        <v>0.31926214969848488</v>
       </c>
       <c r="D39">
         <v>3.24</v>
@@ -993,7 +1093,8 @@
         <v>28.32</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14144271570013522</v>
       </c>
       <c r="D40">
         <v>3.47</v>
@@ -1007,7 +1108,8 @@
         <v>28.32</v>
       </c>
       <c r="C41">
-        <v>-0.31678986272438697</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>3.5</v>
@@ -1021,7 +1123,8 @@
         <v>28.41</v>
       </c>
       <c r="C42">
-        <v>-0.2107481559536328</v>
+        <f t="shared" si="0"/>
+        <v>0.31779661016948513</v>
       </c>
       <c r="D42">
         <v>3.28</v>
@@ -1035,7 +1138,8 @@
         <v>28.47</v>
       </c>
       <c r="C43">
-        <v>-0.59357541899441868</v>
+        <f t="shared" si="0"/>
+        <v>0.21119324181626542</v>
       </c>
       <c r="D43">
         <v>2.98</v>
@@ -1049,7 +1153,8 @@
         <v>28.64</v>
       </c>
       <c r="C44">
-        <v>-0.20905923344947119</v>
+        <f t="shared" si="0"/>
+        <v>0.59711977520198189</v>
       </c>
       <c r="D44">
         <v>2.72</v>
@@ -1063,7 +1168,8 @@
         <v>28.7</v>
       </c>
       <c r="C45">
-        <v>-0.58884655351576498</v>
+        <f t="shared" si="0"/>
+        <v>0.20949720670391248</v>
       </c>
       <c r="D45">
         <v>1.67</v>
@@ -1077,7 +1183,8 @@
         <v>28.87</v>
       </c>
       <c r="C46">
-        <v>-0.24187975120939509</v>
+        <f t="shared" si="0"/>
+        <v>0.59233449477351652</v>
       </c>
       <c r="D46">
         <v>1.2</v>
@@ -1091,7 +1198,8 @@
         <v>28.94</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.24246622791825878</v>
       </c>
       <c r="D47">
         <v>1.26</v>
@@ -1105,7 +1213,8 @@
         <v>28.94</v>
       </c>
       <c r="C48">
-        <v>0.1037703216880015</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0.63</v>
@@ -1119,7 +1228,8 @@
         <v>28.91</v>
       </c>
       <c r="C49">
-        <v>6.922810661127432E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.10366275051831852</v>
       </c>
       <c r="D49">
         <v>0.93</v>
@@ -1133,7 +1243,8 @@
         <v>28.89</v>
       </c>
       <c r="C50">
-        <v>-0.17277125086385681</v>
+        <f t="shared" si="0"/>
+        <v>-6.9180214458663958E-2</v>
       </c>
       <c r="D50">
         <v>0.68</v>
@@ -1147,7 +1258,8 @@
         <v>28.94</v>
       </c>
       <c r="C51">
-        <v>0.1037703216880015</v>
+        <f t="shared" si="0"/>
+        <v>0.17307026652821911</v>
       </c>
       <c r="D51">
         <v>1.53</v>
@@ -1161,7 +1273,8 @@
         <v>28.91</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.10366275051831852</v>
       </c>
       <c r="D52">
         <v>1.76</v>
@@ -1175,7 +1288,8 @@
         <v>28.91</v>
       </c>
       <c r="C53">
-        <v>-0.13816925734023711</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1.8</v>
@@ -1189,7 +1303,8 @@
         <v>28.95</v>
       </c>
       <c r="C54">
-        <v>-6.9036934760091651E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13836042891732792</v>
       </c>
       <c r="D54">
         <v>2.27</v>
@@ -1203,7 +1318,8 @@
         <v>28.97</v>
       </c>
       <c r="C55">
-        <v>-0.1378834884522617</v>
+        <f t="shared" si="0"/>
+        <v>6.9084628670124104E-2</v>
       </c>
       <c r="D55">
         <v>2.42</v>
@@ -1217,7 +1333,8 @@
         <v>29.01</v>
       </c>
       <c r="C56">
-        <v>3.4482758620701937E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13807386952020551</v>
       </c>
       <c r="D56">
         <v>2.48</v>
@@ -1231,7 +1348,8 @@
         <v>29</v>
       </c>
       <c r="C57">
-        <v>0.1035554021401541</v>
+        <f t="shared" si="0"/>
+        <v>-3.4470872113068207E-2</v>
       </c>
       <c r="D57">
         <v>2.4300000000000002</v>
@@ -1245,7 +1363,8 @@
         <v>28.97</v>
       </c>
       <c r="C58">
-        <v>-3.4506556245694757E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.1034482758620725</v>
       </c>
       <c r="D58">
         <v>2.8</v>
@@ -1259,7 +1378,8 @@
         <v>28.98</v>
       </c>
       <c r="C59">
-        <v>-0.20661157024792759</v>
+        <f t="shared" si="0"/>
+        <v>3.4518467380051376E-2</v>
       </c>
       <c r="D59">
         <v>2.96</v>
@@ -1273,7 +1393,8 @@
         <v>29.04</v>
       </c>
       <c r="C60">
-        <v>-0.24046719340432571</v>
+        <f t="shared" si="0"/>
+        <v>0.20703933747412417</v>
       </c>
       <c r="D60">
         <v>2.9</v>
@@ -1287,7 +1408,8 @@
         <v>29.11</v>
       </c>
       <c r="C61">
-        <v>-0.13722126929673889</v>
+        <f t="shared" si="0"/>
+        <v>0.24104683195591559</v>
       </c>
       <c r="D61">
         <v>3.39</v>
@@ -1301,7 +1423,8 @@
         <v>29.15</v>
       </c>
       <c r="C62">
-        <v>-0.10281014393420659</v>
+        <f t="shared" si="0"/>
+        <v>0.13740982480248132</v>
       </c>
       <c r="D62">
         <v>3.47</v>
@@ -1315,7 +1438,8 @@
         <v>29.18</v>
       </c>
       <c r="C63">
-        <v>-0.2393162393162451</v>
+        <f t="shared" si="0"/>
+        <v>0.10291595197255976</v>
       </c>
       <c r="D63">
         <v>3.5</v>
@@ -1329,7 +1453,8 @@
         <v>29.25</v>
       </c>
       <c r="C64">
-        <v>-0.34071550255536648</v>
+        <f t="shared" si="0"/>
+        <v>0.23989033584648212</v>
       </c>
       <c r="D64">
         <v>3.76</v>
@@ -1343,7 +1468,8 @@
         <v>29.35</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.34188034188034067</v>
       </c>
       <c r="D65">
         <v>3.98</v>
@@ -1357,7 +1483,8 @@
         <v>29.35</v>
       </c>
       <c r="C66">
-        <v>-0.20401224073444141</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1371,7 +1498,8 @@
         <v>29.41</v>
       </c>
       <c r="C67">
-        <v>0.13619339462036531</v>
+        <f t="shared" si="0"/>
+        <v>0.20442930153321548</v>
       </c>
       <c r="D67">
         <v>3.99</v>
@@ -1385,7 +1513,8 @@
         <v>29.37</v>
       </c>
       <c r="C68">
-        <v>-0.1360081604896313</v>
+        <f t="shared" ref="C68:C131" si="1">(B68/B67-1)*100</f>
+        <v>-0.13600816048963127</v>
       </c>
       <c r="D68">
         <v>3.99</v>
@@ -1399,7 +1528,8 @@
         <v>29.41</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13619339462036528</v>
       </c>
       <c r="D69">
         <v>3.97</v>
@@ -1413,7 +1543,8 @@
         <v>29.41</v>
       </c>
       <c r="C70">
-        <v>-0.44008124576844221</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>3.84</v>
@@ -1427,7 +1558,8 @@
         <v>29.54</v>
       </c>
       <c r="C71">
-        <v>-0.101454176530269</v>
+        <f t="shared" si="1"/>
+        <v>0.44202652159128775</v>
       </c>
       <c r="D71">
         <v>3.92</v>
@@ -1441,7 +1573,8 @@
         <v>29.57</v>
       </c>
       <c r="C72">
-        <v>-0.1350894967916183</v>
+        <f t="shared" si="1"/>
+        <v>0.10155721056195333</v>
       </c>
       <c r="D72">
         <v>3.85</v>
@@ -1455,7 +1588,8 @@
         <v>29.61</v>
       </c>
       <c r="C73">
-        <v>0.20304568527917949</v>
+        <f t="shared" si="1"/>
+        <v>0.1352722353736846</v>
       </c>
       <c r="D73">
         <v>3.32</v>
@@ -1469,7 +1603,8 @@
         <v>29.55</v>
       </c>
       <c r="C74">
-        <v>-0.20263424518742751</v>
+        <f t="shared" si="1"/>
+        <v>-0.20263424518742745</v>
       </c>
       <c r="D74">
         <v>3.23</v>
@@ -1483,7 +1618,8 @@
         <v>29.61</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.20304568527917954</v>
       </c>
       <c r="D75">
         <v>2.98</v>
@@ -1497,7 +1633,8 @@
         <v>29.61</v>
       </c>
       <c r="C76">
-        <v>-0.47058823529412258</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>2.6</v>
@@ -1511,7 +1648,8 @@
         <v>29.75</v>
       </c>
       <c r="C77">
-        <v>-0.1007387508394908</v>
+        <f t="shared" si="1"/>
+        <v>0.47281323877068626</v>
       </c>
       <c r="D77">
         <v>2.4700000000000002</v>
@@ -1525,7 +1663,8 @@
         <v>29.78</v>
       </c>
       <c r="C78">
-        <v>-0.1006373700100593</v>
+        <f t="shared" si="1"/>
+        <v>0.10084033613446675</v>
       </c>
       <c r="D78">
         <v>2.44</v>
@@ -1539,7 +1678,8 @@
         <v>29.81</v>
       </c>
       <c r="C79">
-        <v>-0.100536193029499</v>
+        <f t="shared" si="1"/>
+        <v>0.1007387508394908</v>
       </c>
       <c r="D79">
         <v>1.98</v>
@@ -1553,7 +1693,8 @@
         <v>29.84</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10063737001007045</v>
       </c>
       <c r="D80">
         <v>1.45</v>
@@ -1567,6 +1708,7 @@
         <v>29.84</v>
       </c>
       <c r="C81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D81">
@@ -1581,7 +1723,8 @@
         <v>29.84</v>
       </c>
       <c r="C82">
-        <v>0.10063737001007041</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>2.02</v>
@@ -1595,7 +1738,8 @@
         <v>29.81</v>
       </c>
       <c r="C83">
-        <v>-0.100536193029499</v>
+        <f t="shared" si="1"/>
+        <v>-0.10053619302949901</v>
       </c>
       <c r="D83">
         <v>1.49</v>
@@ -1609,7 +1753,8 @@
         <v>29.84</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10063737001007045</v>
       </c>
       <c r="D84">
         <v>1.98</v>
@@ -1623,7 +1768,8 @@
         <v>29.84</v>
       </c>
       <c r="C85">
-        <v>-0.2673796791443861</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1.73</v>
@@ -1637,7 +1783,8 @@
         <v>29.92</v>
       </c>
       <c r="C86">
-        <v>-6.6800267201072572E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.26809651474530849</v>
       </c>
       <c r="D86">
         <v>1.17</v>
@@ -1651,7 +1798,8 @@
         <v>29.94</v>
       </c>
       <c r="C87">
-        <v>-0.13342228152101179</v>
+        <f t="shared" si="1"/>
+        <v>6.6844919786102075E-2</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -1665,7 +1813,8 @@
         <v>29.98</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13360053440214514</v>
       </c>
       <c r="D88">
         <v>1.88</v>
@@ -1679,6 +1828,7 @@
         <v>29.98</v>
       </c>
       <c r="C89">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D89">
@@ -1693,7 +1843,8 @@
         <v>29.98</v>
       </c>
       <c r="C90">
-        <v>-9.9966677774077084E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>2.61</v>
@@ -1707,7 +1858,8 @@
         <v>30.01</v>
       </c>
       <c r="C91">
-        <v>-9.9866844207718852E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10006671114075605</v>
       </c>
       <c r="D91">
         <v>2.33</v>
@@ -1721,7 +1873,8 @@
         <v>30.04</v>
       </c>
       <c r="C92">
-        <v>-0.23248090335437069</v>
+        <f t="shared" si="1"/>
+        <v>9.9966677774077084E-2</v>
       </c>
       <c r="D92">
         <v>2.15</v>
@@ -1735,7 +1888,8 @@
         <v>30.11</v>
       </c>
       <c r="C93">
-        <v>-0.19887305270136491</v>
+        <f t="shared" si="1"/>
+        <v>0.23302263648468102</v>
       </c>
       <c r="D93">
         <v>2.37</v>
@@ -1749,7 +1903,8 @@
         <v>30.17</v>
       </c>
       <c r="C94">
-        <v>-0.1324064879179021</v>
+        <f t="shared" si="1"/>
+        <v>0.19926934573231136</v>
       </c>
       <c r="D94">
         <v>2.85</v>
@@ -1763,7 +1918,8 @@
         <v>30.21</v>
       </c>
       <c r="C95">
-        <v>-9.9206349206337752E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.13258203513424327</v>
       </c>
       <c r="D95">
         <v>2.78</v>
@@ -1777,6 +1933,7 @@
         <v>30.24</v>
       </c>
       <c r="C96">
+        <f t="shared" si="1"/>
         <v>9.930486593843213E-2</v>
       </c>
       <c r="D96">
@@ -1791,7 +1948,8 @@
         <v>30.21</v>
       </c>
       <c r="C97">
-        <v>-3.3090668431490222E-2</v>
+        <f t="shared" si="1"/>
+        <v>-9.9206349206337752E-2</v>
       </c>
       <c r="D97">
         <v>2.68</v>
@@ -1805,7 +1963,8 @@
         <v>30.22</v>
       </c>
       <c r="C98">
-        <v>-0.19815059445179581</v>
+        <f t="shared" si="1"/>
+        <v>3.3101621979469975E-2</v>
       </c>
       <c r="D98">
         <v>2.71</v>
@@ -1819,7 +1978,8 @@
         <v>30.28</v>
       </c>
       <c r="C99">
-        <v>-0.46022353714662012</v>
+        <f t="shared" si="1"/>
+        <v>0.19854401058903015</v>
       </c>
       <c r="D99">
         <v>2.93</v>
@@ -1833,7 +1993,8 @@
         <v>30.42</v>
       </c>
       <c r="C100">
-        <v>0.13166556945358729</v>
+        <f t="shared" si="1"/>
+        <v>0.46235138705417178</v>
       </c>
       <c r="D100">
         <v>2.9</v>
@@ -1847,7 +2008,8 @@
         <v>30.38</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.13149243918475495</v>
       </c>
       <c r="D101">
         <v>2.9</v>
@@ -1861,6 +2023,7 @@
         <v>30.38</v>
       </c>
       <c r="C102">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D102">
@@ -1875,7 +2038,8 @@
         <v>30.38</v>
       </c>
       <c r="C103">
-        <v>-0.19710906701708719</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2.93</v>
@@ -1889,7 +2053,8 @@
         <v>30.44</v>
       </c>
       <c r="C104">
-        <v>-0.1312335958005173</v>
+        <f t="shared" si="1"/>
+        <v>0.19749835418039208</v>
       </c>
       <c r="D104">
         <v>2.92</v>
@@ -1903,7 +2068,8 @@
         <v>30.48</v>
       </c>
       <c r="C105">
-        <v>-9.8328416912496497E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.13140604467805073</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -1917,6 +2083,7 @@
         <v>30.51</v>
       </c>
       <c r="C106">
+        <f t="shared" si="1"/>
         <v>9.8425196850393526E-2</v>
       </c>
       <c r="D106">
@@ -1931,6 +2098,7 @@
         <v>30.48</v>
       </c>
       <c r="C107">
+        <f t="shared" si="1"/>
         <v>-9.8328416912496497E-2</v>
       </c>
       <c r="D107">
@@ -1945,7 +2113,8 @@
         <v>30.51</v>
       </c>
       <c r="C108">
-        <v>-0.32669062397908682</v>
+        <f t="shared" si="1"/>
+        <v>9.8425196850393526E-2</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -1959,7 +2128,8 @@
         <v>30.61</v>
       </c>
       <c r="C109">
-        <v>-0.26067122841316742</v>
+        <f t="shared" si="1"/>
+        <v>0.32776138970829205</v>
       </c>
       <c r="D109">
         <v>2.99</v>
@@ -1973,7 +2143,8 @@
         <v>30.69</v>
       </c>
       <c r="C110">
-        <v>-0.1951219512195124</v>
+        <f t="shared" si="1"/>
+        <v>0.26135249918328718</v>
       </c>
       <c r="D110">
         <v>3.02</v>
@@ -1987,7 +2158,8 @@
         <v>30.75</v>
       </c>
       <c r="C111">
-        <v>9.765625E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.19550342130987275</v>
       </c>
       <c r="D111">
         <v>3.49</v>
@@ -2001,6 +2173,7 @@
         <v>30.72</v>
       </c>
       <c r="C112">
+        <f t="shared" si="1"/>
         <v>-9.7560975609756184E-2</v>
       </c>
       <c r="D112">
@@ -2015,7 +2188,8 @@
         <v>30.75</v>
       </c>
       <c r="C113">
-        <v>-9.746588693957392E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.765625E-2</v>
       </c>
       <c r="D113">
         <v>3.5</v>
@@ -2029,7 +2203,8 @@
         <v>30.78</v>
       </c>
       <c r="C114">
-        <v>-0.32383419689118181</v>
+        <f t="shared" si="1"/>
+        <v>9.7560975609756184E-2</v>
       </c>
       <c r="D114">
         <v>3.48</v>
@@ -2043,7 +2218,8 @@
         <v>30.88</v>
       </c>
       <c r="C115">
-        <v>-0.19392372333549851</v>
+        <f t="shared" si="1"/>
+        <v>0.32488628979856493</v>
       </c>
       <c r="D115">
         <v>3.38</v>
@@ -2057,7 +2233,8 @@
         <v>30.94</v>
       </c>
       <c r="C116">
-        <v>9.7055968942094673E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.19430051813471572</v>
       </c>
       <c r="D116">
         <v>3.48</v>
@@ -2071,6 +2248,7 @@
         <v>30.91</v>
       </c>
       <c r="C117">
+        <f t="shared" si="1"/>
         <v>-9.6961861667743676E-2</v>
       </c>
       <c r="D117">
@@ -2085,7 +2263,8 @@
         <v>30.94</v>
       </c>
       <c r="C118">
-        <v>-3.2310177705974219E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.7055968942094673E-2</v>
       </c>
       <c r="D118">
         <v>3.43</v>
@@ -2099,7 +2278,8 @@
         <v>30.95</v>
       </c>
       <c r="C119">
-        <v>-9.6836668818600646E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2320620555914559E-2</v>
       </c>
       <c r="D119">
         <v>3.47</v>
@@ -2113,7 +2293,8 @@
         <v>30.98</v>
       </c>
       <c r="C120">
-        <v>-9.6742986133513398E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6930533117944861E-2</v>
       </c>
       <c r="D120">
         <v>3.5</v>
@@ -2127,7 +2308,8 @@
         <v>31.01</v>
       </c>
       <c r="C121">
-        <v>-3.2237266279810939E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6836668818589544E-2</v>
       </c>
       <c r="D121">
         <v>3.5</v>
@@ -2141,7 +2323,8 @@
         <v>31.02</v>
       </c>
       <c r="C122">
-        <v>-9.6618357487920914E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2247662044504466E-2</v>
       </c>
       <c r="D122">
         <v>3.42</v>
@@ -2155,7 +2338,8 @@
         <v>31.05</v>
       </c>
       <c r="C123">
-        <v>-9.6525096525090781E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6711798839455021E-2</v>
       </c>
       <c r="D123">
         <v>3.5</v>
@@ -2169,7 +2353,8 @@
         <v>31.08</v>
       </c>
       <c r="C124">
-        <v>-0.1285347043701868</v>
+        <f t="shared" si="1"/>
+        <v>9.6618357487909812E-2</v>
       </c>
       <c r="D124">
         <v>3.45</v>
@@ -2183,7 +2368,8 @@
         <v>31.12</v>
       </c>
       <c r="C125">
-        <v>-0.2883691124639487</v>
+        <f t="shared" si="1"/>
+        <v>0.12870012870014325</v>
       </c>
       <c r="D125">
         <v>3.36</v>
@@ -2197,7 +2383,8 @@
         <v>31.21</v>
       </c>
       <c r="C126">
-        <v>-0.12799999999999481</v>
+        <f t="shared" si="1"/>
+        <v>0.28920308483291191</v>
       </c>
       <c r="D126">
         <v>3.52</v>
@@ -2211,7 +2398,8 @@
         <v>31.25</v>
       </c>
       <c r="C127">
-        <v>-9.5907928388749841E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.1281640499839698</v>
       </c>
       <c r="D127">
         <v>3.85</v>
@@ -2225,7 +2413,8 @@
         <v>31.28</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.6000000000007191E-2</v>
       </c>
       <c r="D128">
         <v>3.9</v>
@@ -2239,7 +2428,8 @@
         <v>31.28</v>
       </c>
       <c r="C129">
-        <v>-9.5816033216211682E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>3.98</v>
@@ -2253,7 +2443,8 @@
         <v>31.31</v>
       </c>
       <c r="C130">
-        <v>-0.2230720203951542</v>
+        <f t="shared" si="1"/>
+        <v>9.5907928388738739E-2</v>
       </c>
       <c r="D130">
         <v>4.05</v>
@@ -2267,7 +2458,8 @@
         <v>31.38</v>
       </c>
       <c r="C131">
-        <v>-0.31766200762389779</v>
+        <f t="shared" si="1"/>
+        <v>0.2235707441711865</v>
       </c>
       <c r="D131">
         <v>4.09</v>
@@ -2281,7 +2473,8 @@
         <v>31.48</v>
       </c>
       <c r="C132">
-        <v>-0.41126225877886607</v>
+        <f t="shared" ref="C132:C195" si="2">(B132/B131-1)*100</f>
+        <v>0.31867431485022024</v>
       </c>
       <c r="D132">
         <v>4.0999999999999996</v>
@@ -2295,7 +2488,8 @@
         <v>31.61</v>
       </c>
       <c r="C133">
-        <v>9.499683343889842E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.41296060991105055</v>
       </c>
       <c r="D133">
         <v>4.05</v>
@@ -2309,7 +2503,8 @@
         <v>31.58</v>
       </c>
       <c r="C134">
-        <v>9.5087163232965288E-2</v>
+        <f t="shared" si="2"/>
+        <v>-9.4906675102823801E-2</v>
       </c>
       <c r="D134">
         <v>4.09</v>
@@ -2323,7 +2518,8 @@
         <v>31.55</v>
       </c>
       <c r="C135">
-        <v>-0.22137887413029581</v>
+        <f t="shared" si="2"/>
+        <v>-9.4996833438876216E-2</v>
       </c>
       <c r="D135">
         <v>4.12</v>
@@ -2337,7 +2533,8 @@
         <v>31.62</v>
       </c>
       <c r="C136">
-        <v>-9.4786729857809782E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.22187004754359307</v>
       </c>
       <c r="D136">
         <v>4.0199999999999996</v>
@@ -2351,7 +2548,8 @@
         <v>31.65</v>
       </c>
       <c r="C137">
-        <v>-0.31496062992126822</v>
+        <f t="shared" si="2"/>
+        <v>9.4876660341558505E-2</v>
       </c>
       <c r="D137">
         <v>4.08</v>
@@ -2365,7 +2563,8 @@
         <v>31.75</v>
       </c>
       <c r="C138">
-        <v>-0.31397174254317323</v>
+        <f t="shared" si="2"/>
+        <v>0.31595576619274368</v>
       </c>
       <c r="D138">
         <v>4.0999999999999996</v>
@@ -2379,7 +2578,8 @@
         <v>31.85</v>
       </c>
       <c r="C139">
-        <v>-9.4102885821822913E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.31496062992126816</v>
       </c>
       <c r="D139">
         <v>4.32</v>
@@ -2393,7 +2593,8 @@
         <v>31.88</v>
       </c>
       <c r="C140">
-        <v>-0.62344139650872821</v>
+        <f t="shared" si="2"/>
+        <v>9.4191522762954172E-2</v>
       </c>
       <c r="D140">
         <v>4.42</v>
@@ -2407,7 +2608,8 @@
         <v>32.08</v>
       </c>
       <c r="C141">
-        <v>-0.31075201988813861</v>
+        <f t="shared" si="2"/>
+        <v>0.6273525721455453</v>
       </c>
       <c r="D141">
         <v>4.5999999999999996</v>
@@ -2421,7 +2623,8 @@
         <v>32.18</v>
       </c>
       <c r="C142">
-        <v>-0.30978934324659152</v>
+        <f t="shared" si="2"/>
+        <v>0.31172069825435855</v>
       </c>
       <c r="D142">
         <v>4.66</v>
@@ -2435,7 +2638,8 @@
         <v>32.28</v>
       </c>
       <c r="C143">
-        <v>-0.21638330757342009</v>
+        <f t="shared" si="2"/>
+        <v>0.31075201988812751</v>
       </c>
       <c r="D143">
         <v>4.67</v>
@@ -2449,7 +2653,8 @@
         <v>32.35</v>
       </c>
       <c r="C144">
-        <v>-9.2649783817178033E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.21685254027261625</v>
       </c>
       <c r="D144">
         <v>4.9000000000000004</v>
@@ -2463,7 +2668,8 @@
         <v>32.380000000000003</v>
       </c>
       <c r="C145">
-        <v>-0.21571648690292819</v>
+        <f t="shared" si="2"/>
+        <v>9.2735703245749868E-2</v>
       </c>
       <c r="D145">
         <v>5.17</v>
@@ -2477,7 +2683,8 @@
         <v>32.450000000000003</v>
       </c>
       <c r="C146">
-        <v>-0.61255742725879747</v>
+        <f t="shared" si="2"/>
+        <v>0.21618282890674134</v>
       </c>
       <c r="D146">
         <v>5.3</v>
@@ -2491,7 +2698,8 @@
         <v>32.65</v>
       </c>
       <c r="C147">
-        <v>-0.30534351145038441</v>
+        <f t="shared" si="2"/>
+        <v>0.61633281972264253</v>
       </c>
       <c r="D147">
         <v>5.53</v>
@@ -2505,7 +2713,8 @@
         <v>32.75</v>
       </c>
       <c r="C148">
-        <v>-0.30441400304414001</v>
+        <f t="shared" si="2"/>
+        <v>0.30627871362940429</v>
       </c>
       <c r="D148">
         <v>5.4</v>
@@ -2519,7 +2728,8 @@
         <v>32.85</v>
       </c>
       <c r="C149">
-        <v>-9.1240875912412811E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.30534351145039551</v>
       </c>
       <c r="D149">
         <v>5.53</v>
@@ -2533,7 +2743,8 @@
         <v>32.880000000000003</v>
       </c>
       <c r="C150">
-        <v>-0.12150668286755591</v>
+        <f t="shared" si="2"/>
+        <v>9.1324200913245335E-2</v>
       </c>
       <c r="D150">
         <v>5.76</v>
@@ -2547,7 +2758,8 @@
         <v>32.92</v>
       </c>
       <c r="C151">
-        <v>6.0790273556232677E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12165450121655041</v>
       </c>
       <c r="D151">
         <v>5.4</v>
@@ -2561,7 +2773,8 @@
         <v>32.9</v>
       </c>
       <c r="C152">
-        <v>-0.30303030303030498</v>
+        <f t="shared" si="2"/>
+        <v>-6.0753341433783525E-2</v>
       </c>
       <c r="D152">
         <v>4.9400000000000004</v>
@@ -2575,7 +2788,8 @@
         <v>33</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.30395136778116338</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -2589,7 +2803,8 @@
         <v>33</v>
       </c>
       <c r="C154">
-        <v>-0.30211480362538617</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>4.53</v>
@@ -2603,7 +2818,8 @@
         <v>33.1</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.30303030303031608</v>
       </c>
       <c r="D155">
         <v>4.05</v>
@@ -2617,7 +2833,8 @@
         <v>33.1</v>
       </c>
       <c r="C156">
-        <v>-0.60060060060058706</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>3.94</v>
@@ -2631,7 +2848,8 @@
         <v>33.299999999999997</v>
       </c>
       <c r="C157">
-        <v>-0.29940119760479827</v>
+        <f t="shared" si="2"/>
+        <v>0.60422960725075026</v>
       </c>
       <c r="D157">
         <v>3.98</v>
@@ -2645,7 +2863,8 @@
         <v>33.4</v>
       </c>
       <c r="C158">
-        <v>-0.29850746268657019</v>
+        <f t="shared" si="2"/>
+        <v>0.30030030030030463</v>
       </c>
       <c r="D158">
         <v>3.79</v>
@@ -2659,7 +2878,8 @@
         <v>33.5</v>
       </c>
       <c r="C159">
-        <v>-0.29761904761904662</v>
+        <f t="shared" si="2"/>
+        <v>0.29940119760478723</v>
       </c>
       <c r="D159">
         <v>3.9</v>
@@ -2673,7 +2893,8 @@
         <v>33.6</v>
       </c>
       <c r="C160">
-        <v>-0.29673590504450947</v>
+        <f t="shared" si="2"/>
+        <v>0.29850746268658135</v>
       </c>
       <c r="D160">
         <v>3.99</v>
@@ -2687,7 +2908,8 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C161">
-        <v>-0.58997050147491237</v>
+        <f t="shared" si="2"/>
+        <v>0.29761904761904656</v>
       </c>
       <c r="D161">
         <v>3.88</v>
@@ -2701,7 +2923,8 @@
         <v>33.9</v>
       </c>
       <c r="C162">
-        <v>-0.29411764705882248</v>
+        <f t="shared" si="2"/>
+        <v>0.59347181008901906</v>
       </c>
       <c r="D162">
         <v>4.13</v>
@@ -2715,7 +2938,8 @@
         <v>34</v>
       </c>
       <c r="C163">
-        <v>-0.29325513196480912</v>
+        <f t="shared" si="2"/>
+        <v>0.29498525073747839</v>
       </c>
       <c r="D163">
         <v>4.51</v>
@@ -2729,7 +2953,8 @@
         <v>34.1</v>
       </c>
       <c r="C164">
-        <v>-0.29239766081872182</v>
+        <f t="shared" si="2"/>
+        <v>0.29411764705882248</v>
       </c>
       <c r="D164">
         <v>4.6100000000000003</v>
@@ -2743,7 +2968,8 @@
         <v>34.200000000000003</v>
       </c>
       <c r="C165">
-        <v>-0.29154518950436081</v>
+        <f t="shared" si="2"/>
+        <v>0.29325513196480912</v>
       </c>
       <c r="D165">
         <v>4.71</v>
@@ -2757,7 +2983,8 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C166">
-        <v>-0.29069767441860522</v>
+        <f t="shared" si="2"/>
+        <v>0.29239766081869956</v>
       </c>
       <c r="D166">
         <v>5.05</v>
@@ -2771,7 +2998,8 @@
         <v>34.4</v>
       </c>
       <c r="C167">
-        <v>-0.28985507246377379</v>
+        <f t="shared" si="2"/>
+        <v>0.29154518950438302</v>
       </c>
       <c r="D167">
         <v>5.76</v>
@@ -2785,7 +3013,8 @@
         <v>34.5</v>
       </c>
       <c r="C168">
-        <v>-0.57636887608070175</v>
+        <f t="shared" si="2"/>
+        <v>0.29069767441860517</v>
       </c>
       <c r="D168">
         <v>6.12</v>
@@ -2799,7 +3028,8 @@
         <v>34.700000000000003</v>
       </c>
       <c r="C169">
-        <v>-0.57306590257878431</v>
+        <f t="shared" si="2"/>
+        <v>0.57971014492754769</v>
       </c>
       <c r="D169">
         <v>6.07</v>
@@ -2813,7 +3043,8 @@
         <v>34.9</v>
       </c>
       <c r="C170">
-        <v>-0.28571428571428908</v>
+        <f t="shared" si="2"/>
+        <v>0.57636887608067955</v>
       </c>
       <c r="D170">
         <v>6.03</v>
@@ -2827,7 +3058,8 @@
         <v>35</v>
       </c>
       <c r="C171">
-        <v>-0.28490028490029129</v>
+        <f t="shared" si="2"/>
+        <v>0.28653295128939771</v>
       </c>
       <c r="D171">
         <v>6.03</v>
@@ -2841,7 +3073,8 @@
         <v>35.1</v>
       </c>
       <c r="C172">
-        <v>-0.56657223796032774</v>
+        <f t="shared" si="2"/>
+        <v>0.28571428571428914</v>
       </c>
       <c r="D172">
         <v>5.78</v>
@@ -2855,7 +3088,8 @@
         <v>35.299999999999997</v>
       </c>
       <c r="C173">
-        <v>-0.28248587570621758</v>
+        <f t="shared" si="2"/>
+        <v>0.56980056980056037</v>
       </c>
       <c r="D173">
         <v>5.91</v>
@@ -2869,7 +3103,8 @@
         <v>35.4</v>
       </c>
       <c r="C174">
-        <v>-0.56179775280900124</v>
+        <f t="shared" si="2"/>
+        <v>0.28328611898016387</v>
       </c>
       <c r="D174">
         <v>5.82</v>
@@ -2883,7 +3118,8 @@
         <v>35.6</v>
       </c>
       <c r="C175">
-        <v>-0.28011204481792618</v>
+        <f t="shared" si="2"/>
+        <v>0.56497175141243527</v>
       </c>
       <c r="D175">
         <v>6.02</v>
@@ -2897,7 +3133,8 @@
         <v>35.700000000000003</v>
       </c>
       <c r="C176">
-        <v>-0.27932960893852782</v>
+        <f t="shared" si="2"/>
+        <v>0.28089887640450062</v>
       </c>
       <c r="D176">
         <v>6.3</v>
@@ -2911,7 +3148,8 @@
         <v>35.799999999999997</v>
       </c>
       <c r="C177">
-        <v>-0.83102493074793671</v>
+        <f t="shared" si="2"/>
+        <v>0.28011204481790397</v>
       </c>
       <c r="D177">
         <v>6.61</v>
@@ -2925,7 +3163,8 @@
         <v>36.1</v>
       </c>
       <c r="C178">
-        <v>-0.55096418732780705</v>
+        <f t="shared" si="2"/>
+        <v>0.8379888268156499</v>
       </c>
       <c r="D178">
         <v>6.79</v>
@@ -2939,7 +3178,8 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C179">
-        <v>-0.27472527472527369</v>
+        <f t="shared" si="2"/>
+        <v>0.55401662049860967</v>
       </c>
       <c r="D179">
         <v>7.41</v>
@@ -2953,7 +3193,8 @@
         <v>36.4</v>
       </c>
       <c r="C180">
-        <v>-0.5464480874317057</v>
+        <f t="shared" si="2"/>
+        <v>0.27548209366392573</v>
       </c>
       <c r="D180">
         <v>8.67</v>
@@ -2967,7 +3208,8 @@
         <v>36.6</v>
       </c>
       <c r="C181">
-        <v>-0.54347826086955653</v>
+        <f t="shared" si="2"/>
+        <v>0.5494505494505475</v>
       </c>
       <c r="D181">
         <v>8.9</v>
@@ -2981,7 +3223,8 @@
         <v>36.799999999999997</v>
       </c>
       <c r="C182">
-        <v>-0.27100271002710169</v>
+        <f t="shared" si="2"/>
+        <v>0.54644808743167239</v>
       </c>
       <c r="D182">
         <v>8.61</v>
@@ -2995,7 +3238,8 @@
         <v>36.9</v>
       </c>
       <c r="C183">
-        <v>-0.53908355795149188</v>
+        <f t="shared" si="2"/>
+        <v>0.27173913043478937</v>
       </c>
       <c r="D183">
         <v>9.19</v>
@@ -3009,7 +3253,8 @@
         <v>37.1</v>
       </c>
       <c r="C184">
-        <v>-0.53619302949060588</v>
+        <f t="shared" si="2"/>
+        <v>0.54200542005420349</v>
       </c>
       <c r="D184">
         <v>9.15</v>
@@ -3023,7 +3268,8 @@
         <v>37.299999999999997</v>
       </c>
       <c r="C185">
-        <v>-0.53333333333334121</v>
+        <f t="shared" si="2"/>
+        <v>0.53908355795146967</v>
       </c>
       <c r="D185">
         <v>9</v>
@@ -3037,7 +3283,8 @@
         <v>37.5</v>
       </c>
       <c r="C186">
-        <v>-0.53050397877985045</v>
+        <f t="shared" si="2"/>
+        <v>0.53619302949061698</v>
       </c>
       <c r="D186">
         <v>8.85</v>
@@ -3051,7 +3298,8 @@
         <v>37.700000000000003</v>
       </c>
       <c r="C187">
-        <v>-0.52770448548811189</v>
+        <f t="shared" si="2"/>
+        <v>0.53333333333334121</v>
       </c>
       <c r="D187">
         <v>8.9700000000000006</v>
@@ -3065,7 +3313,8 @@
         <v>37.9</v>
       </c>
       <c r="C188">
-        <v>-0.52493438320210251</v>
+        <f t="shared" si="2"/>
+        <v>0.53050397877982824</v>
       </c>
       <c r="D188">
         <v>8.98</v>
@@ -3079,7 +3328,8 @@
         <v>38.1</v>
       </c>
       <c r="C189">
-        <v>-0.52219321148824216</v>
+        <f t="shared" si="2"/>
+        <v>0.52770448548813409</v>
       </c>
       <c r="D189">
         <v>8.98</v>
@@ -3093,7 +3343,8 @@
         <v>38.299999999999997</v>
       </c>
       <c r="C190">
-        <v>-0.51948051948053076</v>
+        <f t="shared" si="2"/>
+        <v>0.5249343832020914</v>
       </c>
       <c r="D190">
         <v>7.76</v>
@@ -3107,7 +3358,8 @@
         <v>38.5</v>
       </c>
       <c r="C191">
-        <v>-0.25906735751295429</v>
+        <f t="shared" si="2"/>
+        <v>0.52219321148825326</v>
       </c>
       <c r="D191">
         <v>8.1</v>
@@ -3121,7 +3373,8 @@
         <v>38.6</v>
       </c>
       <c r="C192">
-        <v>-0.51546391752576026</v>
+        <f t="shared" si="2"/>
+        <v>0.25974025974027093</v>
       </c>
       <c r="D192">
         <v>7.95</v>
@@ -3135,7 +3388,8 @@
         <v>38.799999999999997</v>
       </c>
       <c r="C193">
-        <v>-0.25706940874036238</v>
+        <f t="shared" si="2"/>
+        <v>0.51813471502588637</v>
       </c>
       <c r="D193">
         <v>7.61</v>
@@ -3149,7 +3403,8 @@
         <v>38.9</v>
       </c>
       <c r="C194">
-        <v>-0.2564102564102555</v>
+        <f t="shared" si="2"/>
+        <v>0.25773195876288568</v>
       </c>
       <c r="D194">
         <v>7.21</v>
@@ -3163,7 +3418,8 @@
         <v>39</v>
       </c>
       <c r="C195">
-        <v>-0.51020408163265918</v>
+        <f t="shared" si="2"/>
+        <v>0.25706940874037354</v>
       </c>
       <c r="D195">
         <v>6.62</v>
@@ -3177,7 +3433,8 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C196">
-        <v>-0.50761421319795996</v>
+        <f t="shared" ref="C196:C259" si="3">(B196/B195-1)*100</f>
+        <v>0.512820512820511</v>
       </c>
       <c r="D196">
         <v>6.29</v>
@@ -3191,7 +3448,8 @@
         <v>39.4</v>
       </c>
       <c r="C197">
-        <v>-0.5050505050505083</v>
+        <f t="shared" si="3"/>
+        <v>0.51020408163264808</v>
       </c>
       <c r="D197">
         <v>6.2</v>
@@ -3205,7 +3463,8 @@
         <v>39.6</v>
       </c>
       <c r="C198">
-        <v>-0.50251256281406143</v>
+        <f t="shared" si="3"/>
+        <v>0.50761421319798217</v>
       </c>
       <c r="D198">
         <v>5.6</v>
@@ -3219,7 +3478,8 @@
         <v>39.799999999999997</v>
       </c>
       <c r="C199">
-        <v>-0.25062656641604558</v>
+        <f t="shared" si="3"/>
+        <v>0.5050505050504972</v>
       </c>
       <c r="D199">
         <v>4.9000000000000004</v>
@@ -3233,7 +3493,8 @@
         <v>39.9</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.25125628140703071</v>
       </c>
       <c r="D200">
         <v>4.1399999999999997</v>
@@ -3247,7 +3508,8 @@
         <v>39.9</v>
       </c>
       <c r="C201">
-        <v>-0.25000000000000577</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>3.72</v>
@@ -3261,7 +3523,8 @@
         <v>40</v>
       </c>
       <c r="C202">
-        <v>-0.24937655860349789</v>
+        <f t="shared" si="3"/>
+        <v>0.25062656641603454</v>
       </c>
       <c r="D202">
         <v>3.71</v>
@@ -3275,7 +3538,8 @@
         <v>40.1</v>
       </c>
       <c r="C203">
-        <v>-0.49627791563274792</v>
+        <f t="shared" si="3"/>
+        <v>0.24999999999999467</v>
       </c>
       <c r="D203">
         <v>4.16</v>
@@ -3289,7 +3553,8 @@
         <v>40.299999999999997</v>
       </c>
       <c r="C204">
-        <v>-0.49382716049383157</v>
+        <f t="shared" si="3"/>
+        <v>0.49875311720697368</v>
       </c>
       <c r="D204">
         <v>4.63</v>
@@ -3303,7 +3568,8 @@
         <v>40.5</v>
       </c>
       <c r="C205">
-        <v>-0.2463054187192171</v>
+        <f t="shared" si="3"/>
+        <v>0.49627791563275903</v>
       </c>
       <c r="D205">
         <v>4.91</v>
@@ -3317,7 +3583,8 @@
         <v>40.6</v>
       </c>
       <c r="C206">
-        <v>-0.24570024570025331</v>
+        <f t="shared" si="3"/>
+        <v>0.24691358024691024</v>
       </c>
       <c r="D206">
         <v>5.31</v>
@@ -3331,7 +3598,8 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C207">
-        <v>-0.2450980392156743</v>
+        <f t="shared" si="3"/>
+        <v>0.24630541871921707</v>
       </c>
       <c r="D207">
         <v>5.57</v>
@@ -3345,7 +3613,8 @@
         <v>40.799999999999997</v>
       </c>
       <c r="C208">
-        <v>-0.24449877750611909</v>
+        <f t="shared" si="3"/>
+        <v>0.24570024570023108</v>
       </c>
       <c r="D208">
         <v>5.55</v>
@@ -3359,7 +3628,8 @@
         <v>40.9</v>
       </c>
       <c r="C209">
-        <v>-0.24390243902439049</v>
+        <f t="shared" si="3"/>
+        <v>0.2450980392156854</v>
       </c>
       <c r="D209">
         <v>5.2</v>
@@ -3373,7 +3643,8 @@
         <v>41</v>
       </c>
       <c r="C210">
-        <v>-0.2433090024330897</v>
+        <f t="shared" si="3"/>
+        <v>0.24449877750611915</v>
       </c>
       <c r="D210">
         <v>4.91</v>
@@ -3387,7 +3658,8 @@
         <v>41.1</v>
       </c>
       <c r="C211">
-        <v>-0.24271844660194161</v>
+        <f t="shared" si="3"/>
+        <v>0.24390243902439046</v>
       </c>
       <c r="D211">
         <v>4.1399999999999997</v>
@@ -3401,7 +3673,8 @@
         <v>41.2</v>
       </c>
       <c r="C212">
-        <v>-0.48309178743960463</v>
+        <f t="shared" si="3"/>
+        <v>0.24330900243310083</v>
       </c>
       <c r="D212">
         <v>3.51</v>
@@ -3415,7 +3688,8 @@
         <v>41.4</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.48543689320388328</v>
       </c>
       <c r="D213">
         <v>3.3</v>
@@ -3429,7 +3703,8 @@
         <v>41.4</v>
       </c>
       <c r="C214">
-        <v>-0.24096385542169421</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>3.83</v>
@@ -3443,7 +3718,8 @@
         <v>41.5</v>
       </c>
       <c r="C215">
-        <v>-0.2403846153846145</v>
+        <f t="shared" si="3"/>
+        <v>0.24154589371980784</v>
       </c>
       <c r="D215">
         <v>4.17</v>
@@ -3457,7 +3733,8 @@
         <v>41.6</v>
       </c>
       <c r="C216">
-        <v>-0.23980815347721671</v>
+        <f t="shared" si="3"/>
+        <v>0.24096385542169418</v>
       </c>
       <c r="D216">
         <v>4.2699999999999996</v>
@@ -3471,7 +3748,8 @@
         <v>41.7</v>
       </c>
       <c r="C217">
-        <v>-0.23923444976075009</v>
+        <f t="shared" si="3"/>
+        <v>0.24038461538462563</v>
       </c>
       <c r="D217">
         <v>4.46</v>
@@ -3485,7 +3763,8 @@
         <v>41.8</v>
       </c>
       <c r="C218">
-        <v>-0.23866348448687849</v>
+        <f t="shared" si="3"/>
+        <v>0.23980815347719453</v>
       </c>
       <c r="D218">
         <v>4.55</v>
@@ -3499,7 +3778,8 @@
         <v>41.9</v>
       </c>
       <c r="C219">
-        <v>-0.47505938242280438</v>
+        <f t="shared" si="3"/>
+        <v>0.23923444976077235</v>
       </c>
       <c r="D219">
         <v>4.8099999999999996</v>
@@ -3513,7 +3793,8 @@
         <v>42.1</v>
       </c>
       <c r="C220">
-        <v>-0.23696682464455779</v>
+        <f t="shared" si="3"/>
+        <v>0.47732696897375693</v>
       </c>
       <c r="D220">
         <v>4.87</v>
@@ -3527,7 +3808,8 @@
         <v>42.2</v>
       </c>
       <c r="C221">
-        <v>-0.47169811320754151</v>
+        <f t="shared" si="3"/>
+        <v>0.23752969121140222</v>
       </c>
       <c r="D221">
         <v>5.05</v>
@@ -3541,7 +3823,8 @@
         <v>42.4</v>
       </c>
       <c r="C222">
-        <v>-0.2352941176470669</v>
+        <f t="shared" si="3"/>
+        <v>0.47393364928909332</v>
       </c>
       <c r="D222">
         <v>5.0599999999999996</v>
@@ -3555,7 +3838,8 @@
         <v>42.5</v>
       </c>
       <c r="C223">
-        <v>-0.46838407494146361</v>
+        <f t="shared" si="3"/>
+        <v>0.23584905660378741</v>
       </c>
       <c r="D223">
         <v>5.33</v>
@@ -3569,7 +3853,8 @@
         <v>42.7</v>
       </c>
       <c r="C224">
-        <v>-0.69767441860464352</v>
+        <f t="shared" si="3"/>
+        <v>0.47058823529413374</v>
       </c>
       <c r="D224">
         <v>5.94</v>
@@ -3583,7 +3868,8 @@
         <v>43</v>
       </c>
       <c r="C225">
-        <v>-0.92165898617511122</v>
+        <f t="shared" si="3"/>
+        <v>0.70257611241217877</v>
       </c>
       <c r="D225">
         <v>6.58</v>
@@ -3597,7 +3883,8 @@
         <v>43.4</v>
       </c>
       <c r="C226">
-        <v>-0.68649885583524917</v>
+        <f t="shared" si="3"/>
+        <v>0.9302325581395321</v>
       </c>
       <c r="D226">
         <v>7.09</v>
@@ -3611,7 +3898,8 @@
         <v>43.7</v>
       </c>
       <c r="C227">
-        <v>-0.45558086560363309</v>
+        <f t="shared" si="3"/>
+        <v>0.69124423963133896</v>
       </c>
       <c r="D227">
         <v>7.12</v>
@@ -3625,7 +3913,8 @@
         <v>43.9</v>
       </c>
       <c r="C228">
-        <v>-0.67873303167421684</v>
+        <f t="shared" si="3"/>
+        <v>0.45766590389015871</v>
       </c>
       <c r="D228">
         <v>7.84</v>
@@ -3639,7 +3928,8 @@
         <v>44.2</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.68337129840547739</v>
       </c>
       <c r="D229">
         <v>8.49</v>
@@ -3653,7 +3943,8 @@
         <v>44.2</v>
       </c>
       <c r="C230">
-        <v>-1.777777777777767</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>10.4</v>
@@ -3667,7 +3958,8 @@
         <v>45</v>
       </c>
       <c r="C231">
-        <v>-0.44247787610620648</v>
+        <f t="shared" si="3"/>
+        <v>1.8099547511312153</v>
       </c>
       <c r="D231">
         <v>10.5</v>
@@ -3681,7 +3973,8 @@
         <v>45.2</v>
       </c>
       <c r="C232">
-        <v>-0.87719298245613198</v>
+        <f t="shared" si="3"/>
+        <v>0.44444444444444731</v>
       </c>
       <c r="D232">
         <v>10.78</v>
@@ -3695,7 +3988,8 @@
         <v>45.6</v>
       </c>
       <c r="C233">
-        <v>-0.65359477124182774</v>
+        <f t="shared" si="3"/>
+        <v>0.88495575221239076</v>
       </c>
       <c r="D233">
         <v>10.01</v>
@@ -3709,7 +4003,8 @@
         <v>45.9</v>
       </c>
       <c r="C234">
-        <v>-0.86393088552915165</v>
+        <f t="shared" si="3"/>
+        <v>0.65789473684210176</v>
       </c>
       <c r="D234">
         <v>10.029999999999999</v>
@@ -3723,7 +4018,8 @@
         <v>46.3</v>
       </c>
       <c r="C235">
-        <v>-1.068376068376065</v>
+        <f t="shared" si="3"/>
+        <v>0.87145969498909626</v>
       </c>
       <c r="D235">
         <v>9.9499999999999993</v>
@@ -3737,7 +4033,8 @@
         <v>46.8</v>
       </c>
       <c r="C236">
-        <v>-1.057082452431291</v>
+        <f t="shared" si="3"/>
+        <v>1.0799136069114423</v>
       </c>
       <c r="D236">
         <v>9.65</v>
@@ -3751,7 +4048,8 @@
         <v>47.3</v>
       </c>
       <c r="C237">
-        <v>-1.04602510460251</v>
+        <f t="shared" si="3"/>
+        <v>1.0683760683760646</v>
       </c>
       <c r="D237">
         <v>8.9700000000000006</v>
@@ -3765,7 +4063,8 @@
         <v>47.8</v>
       </c>
       <c r="C238">
-        <v>-0.62370062370062929</v>
+        <f t="shared" si="3"/>
+        <v>1.0570824524312794</v>
       </c>
       <c r="D238">
         <v>9.35</v>
@@ -3779,7 +4078,8 @@
         <v>48.1</v>
       </c>
       <c r="C239">
-        <v>-1.028806584362141</v>
+        <f t="shared" si="3"/>
+        <v>0.62761506276152179</v>
       </c>
       <c r="D239">
         <v>10.51</v>
@@ -3793,7 +4093,8 @@
         <v>48.6</v>
       </c>
       <c r="C240">
-        <v>-0.81632653061224358</v>
+        <f t="shared" si="3"/>
+        <v>1.039501039501034</v>
       </c>
       <c r="D240">
         <v>11.31</v>
@@ -3807,7 +4108,8 @@
         <v>49</v>
       </c>
       <c r="C241">
-        <v>-0.60851926977687487</v>
+        <f t="shared" si="3"/>
+        <v>0.82304526748970819</v>
       </c>
       <c r="D241">
         <v>11.93</v>
@@ -3821,7 +4123,8 @@
         <v>49.3</v>
       </c>
       <c r="C242">
-        <v>-1.2024048096192399</v>
+        <f t="shared" si="3"/>
+        <v>0.61224489795916881</v>
       </c>
       <c r="D242">
         <v>12.92</v>
@@ -3835,7 +4138,8 @@
         <v>49.9</v>
       </c>
       <c r="C243">
-        <v>-1.3833992094861689</v>
+        <f t="shared" si="3"/>
+        <v>1.2170385395537497</v>
       </c>
       <c r="D243">
         <v>12.01</v>
@@ -3849,7 +4153,8 @@
         <v>50.6</v>
       </c>
       <c r="C244">
-        <v>-0.78431372549019329</v>
+        <f t="shared" si="3"/>
+        <v>1.4028056112224574</v>
       </c>
       <c r="D244">
         <v>11.34</v>
@@ -3863,7 +4168,8 @@
         <v>51</v>
       </c>
       <c r="C245">
-        <v>-0.97087378640776656</v>
+        <f t="shared" si="3"/>
+        <v>0.7905138339920903</v>
       </c>
       <c r="D245">
         <v>10.06</v>
@@ -3877,7 +4183,8 @@
         <v>51.5</v>
       </c>
       <c r="C246">
-        <v>-0.77071290944122905</v>
+        <f t="shared" si="3"/>
+        <v>0.98039215686274161</v>
       </c>
       <c r="D246">
         <v>9.4499999999999993</v>
@@ -3891,7 +4198,8 @@
         <v>51.9</v>
       </c>
       <c r="C247">
-        <v>-0.76481835564052858</v>
+        <f t="shared" si="3"/>
+        <v>0.77669902912620437</v>
       </c>
       <c r="D247">
         <v>8.5299999999999994</v>
@@ -3905,7 +4213,8 @@
         <v>52.3</v>
       </c>
       <c r="C248">
-        <v>-0.57034220532320434</v>
+        <f t="shared" si="3"/>
+        <v>0.77071290944124016</v>
       </c>
       <c r="D248">
         <v>7.13</v>
@@ -3919,7 +4228,8 @@
         <v>52.6</v>
       </c>
       <c r="C249">
-        <v>-0.37878787878786729</v>
+        <f t="shared" si="3"/>
+        <v>0.57361376673041864</v>
       </c>
       <c r="D249">
         <v>6.24</v>
@@ -3933,7 +4243,8 @@
         <v>52.8</v>
       </c>
       <c r="C250">
-        <v>-0.37735849056603771</v>
+        <f t="shared" si="3"/>
+        <v>0.38022813688212143</v>
       </c>
       <c r="D250">
         <v>5.54</v>
@@ -3947,7 +4258,8 @@
         <v>53</v>
       </c>
       <c r="C251">
-        <v>-0.1883239171374784</v>
+        <f t="shared" si="3"/>
+        <v>0.37878787878788955</v>
       </c>
       <c r="D251">
         <v>5.49</v>
@@ -3961,7 +4273,8 @@
         <v>53.1</v>
       </c>
       <c r="C252">
-        <v>-0.74766355140186702</v>
+        <f t="shared" si="3"/>
+        <v>0.18867924528302993</v>
       </c>
       <c r="D252">
         <v>5.22</v>
@@ -3975,7 +4288,8 @@
         <v>53.5</v>
       </c>
       <c r="C253">
-        <v>-0.92592592592593004</v>
+        <f t="shared" si="3"/>
+        <v>0.7532956685499137</v>
       </c>
       <c r="D253">
         <v>5.55</v>
@@ -3989,7 +4303,8 @@
         <v>54</v>
       </c>
       <c r="C254">
-        <v>-0.36900369003690647</v>
+        <f t="shared" si="3"/>
+        <v>0.93457943925232545</v>
       </c>
       <c r="D254">
         <v>6.1</v>
@@ -4003,7 +4318,8 @@
         <v>54.2</v>
       </c>
       <c r="C255">
-        <v>-0.73260073260073</v>
+        <f t="shared" si="3"/>
+        <v>0.37037037037037646</v>
       </c>
       <c r="D255">
         <v>6.14</v>
@@ -4017,7 +4333,8 @@
         <v>54.6</v>
       </c>
       <c r="C256">
-        <v>-0.54644808743168349</v>
+        <f t="shared" si="3"/>
+        <v>0.73800738007379074</v>
       </c>
       <c r="D256">
         <v>6.24</v>
@@ -4031,7 +4348,8 @@
         <v>54.9</v>
       </c>
       <c r="C257">
-        <v>-0.72332730560578096</v>
+        <f t="shared" si="3"/>
+        <v>0.5494505494505475</v>
       </c>
       <c r="D257">
         <v>5.82</v>
@@ -4045,7 +4363,8 @@
         <v>55.3</v>
       </c>
       <c r="C258">
-        <v>-0.53956834532374875</v>
+        <f t="shared" si="3"/>
+        <v>0.72859744990891873</v>
       </c>
       <c r="D258">
         <v>5.22</v>
@@ -4059,7 +4378,8 @@
         <v>55.6</v>
       </c>
       <c r="C259">
-        <v>-0.35842293906809258</v>
+        <f t="shared" si="3"/>
+        <v>0.54249547920435237</v>
       </c>
       <c r="D259">
         <v>5.2</v>
@@ -4073,7 +4393,8 @@
         <v>55.8</v>
       </c>
       <c r="C260">
-        <v>-0.17889087656529629</v>
+        <f t="shared" ref="C260:C323" si="4">(B260/B259-1)*100</f>
+        <v>0.3597122302158251</v>
       </c>
       <c r="D260">
         <v>4.87</v>
@@ -4087,7 +4408,8 @@
         <v>55.9</v>
       </c>
       <c r="C261">
-        <v>-0.17857142857142791</v>
+        <f t="shared" si="4"/>
+        <v>0.17921146953405742</v>
       </c>
       <c r="D261">
         <v>4.7699999999999996</v>
@@ -4101,7 +4423,8 @@
         <v>56</v>
       </c>
       <c r="C262">
-        <v>-0.1782531194295944</v>
+        <f t="shared" si="4"/>
+        <v>0.17889087656530744</v>
       </c>
       <c r="D262">
         <v>4.84</v>
@@ -4115,7 +4438,8 @@
         <v>56.1</v>
       </c>
       <c r="C263">
-        <v>-0.53191489361701372</v>
+        <f t="shared" si="4"/>
+        <v>0.17857142857142794</v>
       </c>
       <c r="D263">
         <v>4.82</v>
@@ -4129,7 +4453,8 @@
         <v>56.4</v>
       </c>
       <c r="C264">
-        <v>-0.52910052910053462</v>
+        <f t="shared" si="4"/>
+        <v>0.53475935828877219</v>
       </c>
       <c r="D264">
         <v>5.29</v>
@@ -4143,7 +4468,8 @@
         <v>56.7</v>
       </c>
       <c r="C265">
-        <v>-0.52631578947367474</v>
+        <f t="shared" si="4"/>
+        <v>0.53191489361703592</v>
       </c>
       <c r="D265">
         <v>5.48</v>
@@ -4157,7 +4483,8 @@
         <v>57</v>
       </c>
       <c r="C266">
-        <v>-0.52356020942407877</v>
+        <f t="shared" si="4"/>
+        <v>0.52910052910053462</v>
       </c>
       <c r="D266">
         <v>5.31</v>
@@ -4171,7 +4498,8 @@
         <v>57.3</v>
       </c>
       <c r="C267">
-        <v>-0.52083333333333703</v>
+        <f t="shared" si="4"/>
+        <v>0.52631578947368585</v>
       </c>
       <c r="D267">
         <v>5.29</v>
@@ -4185,7 +4513,8 @@
         <v>57.6</v>
       </c>
       <c r="C268">
-        <v>-0.51813471502589747</v>
+        <f t="shared" si="4"/>
+        <v>0.52356020942410098</v>
       </c>
       <c r="D268">
         <v>5.25</v>
@@ -4199,7 +4528,8 @@
         <v>57.9</v>
       </c>
       <c r="C269">
-        <v>-0.34423407917384408</v>
+        <f t="shared" si="4"/>
+        <v>0.52083333333332593</v>
       </c>
       <c r="D269">
         <v>5.0199999999999996</v>
@@ -4213,7 +4543,8 @@
         <v>58.1</v>
       </c>
       <c r="C270">
-        <v>-0.5136986301369828</v>
+        <f t="shared" si="4"/>
+        <v>0.34542314335059832</v>
       </c>
       <c r="D270">
         <v>4.95</v>
@@ -4227,7 +4558,8 @@
         <v>58.4</v>
       </c>
       <c r="C271">
-        <v>-0.5110732538330609</v>
+        <f t="shared" si="4"/>
+        <v>0.51635111876076056</v>
       </c>
       <c r="D271">
         <v>4.6500000000000004</v>
@@ -4241,7 +4573,8 @@
         <v>58.7</v>
       </c>
       <c r="C272">
-        <v>-1.011804384485659</v>
+        <f t="shared" si="4"/>
+        <v>0.51369863013699391</v>
       </c>
       <c r="D272">
         <v>4.6100000000000003</v>
@@ -4255,7 +4588,8 @@
         <v>59.3</v>
       </c>
       <c r="C273">
-        <v>-0.50335570469799418</v>
+        <f t="shared" si="4"/>
+        <v>1.0221465076660996</v>
       </c>
       <c r="D273">
         <v>4.68</v>
@@ -4269,7 +4603,8 @@
         <v>59.6</v>
       </c>
       <c r="C274">
-        <v>-0.66666666666665986</v>
+        <f t="shared" si="4"/>
+        <v>0.50590219224284638</v>
       </c>
       <c r="D274">
         <v>4.6900000000000004</v>
@@ -4283,7 +4618,8 @@
         <v>60</v>
       </c>
       <c r="C275">
-        <v>-0.33222591362126458</v>
+        <f t="shared" si="4"/>
+        <v>0.67114093959730337</v>
       </c>
       <c r="D275">
         <v>4.7300000000000004</v>
@@ -4297,7 +4633,8 @@
         <v>60.2</v>
       </c>
       <c r="C276">
-        <v>-0.49586776859503751</v>
+        <f t="shared" si="4"/>
+        <v>0.33333333333334103</v>
       </c>
       <c r="D276">
         <v>5.35</v>
@@ -4311,7 +4648,8 @@
         <v>60.5</v>
       </c>
       <c r="C277">
-        <v>-0.49342105263157082</v>
+        <f t="shared" si="4"/>
+        <v>0.4983388704318914</v>
       </c>
       <c r="D277">
         <v>5.39</v>
@@ -4325,7 +4663,8 @@
         <v>60.8</v>
       </c>
       <c r="C278">
-        <v>-0.49099836333879038</v>
+        <f t="shared" si="4"/>
+        <v>0.49586776859502635</v>
       </c>
       <c r="D278">
         <v>5.42</v>
@@ -4339,7 +4678,8 @@
         <v>61.1</v>
       </c>
       <c r="C279">
-        <v>-0.32626427406198261</v>
+        <f t="shared" si="4"/>
+        <v>0.49342105263159297</v>
       </c>
       <c r="D279">
         <v>5.9</v>
@@ -4353,7 +4693,8 @@
         <v>61.3</v>
       </c>
       <c r="C280">
-        <v>-0.48701298701299128</v>
+        <f t="shared" si="4"/>
+        <v>0.32733224222585289</v>
       </c>
       <c r="D280">
         <v>6.14</v>
@@ -4367,7 +4708,8 @@
         <v>61.6</v>
       </c>
       <c r="C281">
-        <v>-0.64516129032258229</v>
+        <f t="shared" si="4"/>
+        <v>0.48939641109300158</v>
       </c>
       <c r="D281">
         <v>6.47</v>
@@ -4381,7 +4723,8 @@
         <v>62</v>
       </c>
       <c r="C282">
-        <v>-0.48154093097912959</v>
+        <f t="shared" si="4"/>
+        <v>0.64935064935065512</v>
       </c>
       <c r="D282">
         <v>6.51</v>
@@ -4395,7 +4738,8 @@
         <v>62.3</v>
       </c>
       <c r="C283">
-        <v>-0.63795853269538183</v>
+        <f t="shared" si="4"/>
+        <v>0.48387096774193949</v>
       </c>
       <c r="D283">
         <v>6.56</v>
@@ -4409,7 +4753,8 @@
         <v>62.7</v>
       </c>
       <c r="C284">
-        <v>-0.4761904761904745</v>
+        <f t="shared" si="4"/>
+        <v>0.64205457463886173</v>
       </c>
       <c r="D284">
         <v>6.7</v>
@@ -4423,7 +4768,8 @@
         <v>63</v>
       </c>
       <c r="C285">
-        <v>-0.63091482649841879</v>
+        <f t="shared" si="4"/>
+        <v>0.47846889952152249</v>
       </c>
       <c r="D285">
         <v>6.78</v>
@@ -4437,7 +4783,8 @@
         <v>63.4</v>
       </c>
       <c r="C286">
-        <v>-0.78247261345852914</v>
+        <f t="shared" si="4"/>
+        <v>0.63492063492063266</v>
       </c>
       <c r="D286">
         <v>6.79</v>
@@ -4451,7 +4798,8 @@
         <v>63.9</v>
       </c>
       <c r="C287">
-        <v>-0.9302325581395321</v>
+        <f t="shared" si="4"/>
+        <v>0.78864353312302349</v>
       </c>
       <c r="D287">
         <v>6.89</v>
@@ -4465,7 +4813,8 @@
         <v>64.5</v>
       </c>
       <c r="C288">
-        <v>-0.7692307692307665</v>
+        <f t="shared" si="4"/>
+        <v>0.93896713615022609</v>
       </c>
       <c r="D288">
         <v>7.36</v>
@@ -4479,7 +4828,8 @@
         <v>65</v>
       </c>
       <c r="C289">
-        <v>-0.76335877862595547</v>
+        <f t="shared" si="4"/>
+        <v>0.77519379844961378</v>
       </c>
       <c r="D289">
         <v>7.6</v>
@@ -4493,7 +4843,8 @@
         <v>65.5</v>
       </c>
       <c r="C290">
-        <v>-0.60698027314113334</v>
+        <f t="shared" si="4"/>
+        <v>0.7692307692307665</v>
       </c>
       <c r="D290">
         <v>7.81</v>
@@ -4507,7 +4858,8 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C291">
-        <v>-0.90225563909773765</v>
+        <f t="shared" si="4"/>
+        <v>0.61068702290076882</v>
       </c>
       <c r="D291">
         <v>8.0399999999999991</v>
@@ -4521,7 +4873,8 @@
         <v>66.5</v>
       </c>
       <c r="C292">
-        <v>-0.894187779433675</v>
+        <f t="shared" si="4"/>
+        <v>0.91047040971168336</v>
       </c>
       <c r="D292">
         <v>8.4499999999999993</v>
@@ -4535,7 +4888,8 @@
         <v>67.099999999999994</v>
       </c>
       <c r="C293">
-        <v>-0.59259259259260011</v>
+        <f t="shared" si="4"/>
+        <v>0.90225563909773765</v>
       </c>
       <c r="D293">
         <v>8.9600000000000009</v>
@@ -4549,7 +4903,8 @@
         <v>67.5</v>
       </c>
       <c r="C294">
-        <v>-0.58910162002946409</v>
+        <f t="shared" si="4"/>
+        <v>0.59612518628913147</v>
       </c>
       <c r="D294">
         <v>9.76</v>
@@ -4563,7 +4918,8 @@
         <v>67.900000000000006</v>
       </c>
       <c r="C295">
-        <v>-0.87591240875911636</v>
+        <f t="shared" si="4"/>
+        <v>0.59259259259261121</v>
       </c>
       <c r="D295">
         <v>10.029999999999999</v>
@@ -4577,7 +4933,8 @@
         <v>68.5</v>
       </c>
       <c r="C296">
-        <v>-1.0115606936416219</v>
+        <f t="shared" si="4"/>
+        <v>0.88365243004417948</v>
       </c>
       <c r="D296">
         <v>10.07</v>
@@ -4591,7 +4948,8 @@
         <v>69.2</v>
       </c>
       <c r="C297">
-        <v>-1.001430615164522</v>
+        <f t="shared" si="4"/>
+        <v>1.0218978102189746</v>
       </c>
       <c r="D297">
         <v>10.06</v>
@@ -4605,7 +4963,8 @@
         <v>69.900000000000006</v>
       </c>
       <c r="C298">
-        <v>-0.99150141643057355</v>
+        <f t="shared" si="4"/>
+        <v>1.0115606936416333</v>
       </c>
       <c r="D298">
         <v>10.09</v>
@@ -4619,7 +4978,8 @@
         <v>70.599999999999994</v>
       </c>
       <c r="C299">
-        <v>-1.1204481792717269</v>
+        <f t="shared" si="4"/>
+        <v>1.0014306151645114</v>
       </c>
       <c r="D299">
         <v>10.01</v>
@@ -4633,7 +4993,8 @@
         <v>71.400000000000006</v>
       </c>
       <c r="C300">
-        <v>-1.10803324099723</v>
+        <f t="shared" si="4"/>
+        <v>1.1331444759206999</v>
       </c>
       <c r="D300">
         <v>10.24</v>
@@ -4647,7 +5008,8 @@
         <v>72.2</v>
       </c>
       <c r="C301">
-        <v>-1.0958904109589001</v>
+        <f t="shared" si="4"/>
+        <v>1.1204481792717047</v>
       </c>
       <c r="D301">
         <v>10.29</v>
@@ -4661,7 +5023,8 @@
         <v>73</v>
       </c>
       <c r="C302">
-        <v>-0.94979647218453866</v>
+        <f t="shared" si="4"/>
+        <v>1.1080332409972193</v>
       </c>
       <c r="D302">
         <v>10.47</v>
@@ -4675,7 +5038,8 @@
         <v>73.7</v>
       </c>
       <c r="C303">
-        <v>-0.94086021505376261</v>
+        <f t="shared" si="4"/>
+        <v>0.95890410958905381</v>
       </c>
       <c r="D303">
         <v>10.94</v>
@@ -4689,7 +5053,8 @@
         <v>74.400000000000006</v>
       </c>
       <c r="C304">
-        <v>-1.063829787234039</v>
+        <f t="shared" si="4"/>
+        <v>0.94979647218453866</v>
       </c>
       <c r="D304">
         <v>11.43</v>
@@ -4703,7 +5068,8 @@
         <v>75.2</v>
       </c>
       <c r="C305">
-        <v>-1.052631578947361</v>
+        <f t="shared" si="4"/>
+        <v>1.0752688172043001</v>
       </c>
       <c r="D305">
         <v>13.77</v>
@@ -4717,7 +5083,8 @@
         <v>76</v>
       </c>
       <c r="C306">
-        <v>-1.170351105331602</v>
+        <f t="shared" si="4"/>
+        <v>1.0638297872340496</v>
       </c>
       <c r="D306">
         <v>13.18</v>
@@ -4731,7 +5098,8 @@
         <v>76.900000000000006</v>
       </c>
       <c r="C307">
-        <v>-1.410256410256405</v>
+        <f t="shared" si="4"/>
+        <v>1.1842105263157876</v>
       </c>
       <c r="D307">
         <v>13.78</v>
@@ -4745,7 +5113,8 @@
         <v>78</v>
       </c>
       <c r="C308">
-        <v>-1.265822784810122</v>
+        <f t="shared" si="4"/>
+        <v>1.4304291287386084</v>
       </c>
       <c r="D308">
         <v>13.82</v>
@@ -4759,7 +5128,8 @@
         <v>79</v>
       </c>
       <c r="C309">
-        <v>-1.3732833957552979</v>
+        <f t="shared" si="4"/>
+        <v>1.2820512820512775</v>
       </c>
       <c r="D309">
         <v>14.13</v>
@@ -4773,7 +5143,8 @@
         <v>80.099999999999994</v>
       </c>
       <c r="C310">
-        <v>-0.98887515451175911</v>
+        <f t="shared" si="4"/>
+        <v>1.3924050632911245</v>
       </c>
       <c r="D310">
         <v>17.190000000000001</v>
@@ -4787,7 +5158,8 @@
         <v>80.900000000000006</v>
       </c>
       <c r="C311">
-        <v>-0.97919216646266127</v>
+        <f t="shared" si="4"/>
+        <v>0.998751560549338</v>
       </c>
       <c r="D311">
         <v>17.61</v>
@@ -4801,7 +5173,8 @@
         <v>81.7</v>
       </c>
       <c r="C312">
-        <v>-0.96969696969696484</v>
+        <f t="shared" si="4"/>
+        <v>0.98887515451173691</v>
       </c>
       <c r="D312">
         <v>10.98</v>
@@ -4815,7 +5188,8 @@
         <v>82.5</v>
       </c>
       <c r="C313">
-        <v>-0.1210653753026536</v>
+        <f t="shared" si="4"/>
+        <v>0.97919216646267238</v>
       </c>
       <c r="D313">
         <v>9.4700000000000006</v>
@@ -4829,7 +5203,8 @@
         <v>82.6</v>
       </c>
       <c r="C314">
-        <v>-0.72115384615385469</v>
+        <f t="shared" si="4"/>
+        <v>0.12121212121212199</v>
       </c>
       <c r="D314">
         <v>9.0299999999999994</v>
@@ -4843,7 +5218,8 @@
         <v>83.2</v>
       </c>
       <c r="C315">
-        <v>-0.83432657926102438</v>
+        <f t="shared" si="4"/>
+        <v>0.72639225181598821</v>
       </c>
       <c r="D315">
         <v>9.61</v>
@@ -4857,7 +5233,8 @@
         <v>83.9</v>
       </c>
       <c r="C316">
-        <v>-0.9445100354191216</v>
+        <f t="shared" si="4"/>
+        <v>0.84134615384616751</v>
       </c>
       <c r="D316">
         <v>10.87</v>
@@ -4871,7 +5248,8 @@
         <v>84.7</v>
       </c>
       <c r="C317">
-        <v>-1.0514018691588629</v>
+        <f t="shared" si="4"/>
+        <v>0.95351609058402786</v>
       </c>
       <c r="D317">
         <v>12.81</v>
@@ -4885,7 +5263,8 @@
         <v>85.6</v>
       </c>
       <c r="C318">
-        <v>-0.92592592592594114</v>
+        <f t="shared" si="4"/>
+        <v>1.0625737898465104</v>
       </c>
       <c r="D318">
         <v>15.85</v>
@@ -4899,7 +5278,8 @@
         <v>86.4</v>
       </c>
       <c r="C319">
-        <v>-0.91743119266054496</v>
+        <f t="shared" si="4"/>
+        <v>0.93457943925234765</v>
       </c>
       <c r="D319">
         <v>18.899999999999999</v>
@@ -4913,7 +5293,8 @@
         <v>87.2</v>
       </c>
       <c r="C320">
-        <v>-0.90909090909090384</v>
+        <f t="shared" si="4"/>
+        <v>0.92592592592593004</v>
       </c>
       <c r="D320">
         <v>19.079999999999998</v>
@@ -4927,7 +5308,8 @@
         <v>88</v>
       </c>
       <c r="C321">
-        <v>-0.67720090293452717</v>
+        <f t="shared" si="4"/>
+        <v>0.91743119266054496</v>
       </c>
       <c r="D321">
         <v>15.93</v>
@@ -4941,7 +5323,8 @@
         <v>88.6</v>
       </c>
       <c r="C322">
-        <v>-0.56116722783389195</v>
+        <f t="shared" si="4"/>
+        <v>0.68181818181818343</v>
       </c>
       <c r="D322">
         <v>14.7</v>
@@ -4955,7 +5338,8 @@
         <v>89.1</v>
       </c>
       <c r="C323">
-        <v>-0.66889632107024477</v>
+        <f t="shared" si="4"/>
+        <v>0.56433408577878375</v>
       </c>
       <c r="D323">
         <v>15.72</v>
@@ -4969,7 +5353,8 @@
         <v>89.7</v>
       </c>
       <c r="C324">
-        <v>-0.88397790055247949</v>
+        <f t="shared" ref="C324:C387" si="5">(B324/B323-1)*100</f>
+        <v>0.67340067340069254</v>
       </c>
       <c r="D324">
         <v>18.52</v>
@@ -4983,7 +5368,8 @@
         <v>90.5</v>
       </c>
       <c r="C325">
-        <v>-1.092896174863389</v>
+        <f t="shared" si="5"/>
+        <v>0.89186176142697082</v>
       </c>
       <c r="D325">
         <v>19.100000000000001</v>
@@ -4997,7 +5383,8 @@
         <v>91.5</v>
       </c>
       <c r="C326">
-        <v>-0.75921908893709089</v>
+        <f t="shared" si="5"/>
+        <v>1.1049723756906049</v>
       </c>
       <c r="D326">
         <v>19.04</v>
@@ -5011,7 +5398,8 @@
         <v>92.2</v>
       </c>
       <c r="C327">
-        <v>-0.96670247046185542</v>
+        <f t="shared" si="5"/>
+        <v>0.76502732240437687</v>
       </c>
       <c r="D327">
         <v>17.82</v>
@@ -5025,7 +5413,8 @@
         <v>93.1</v>
       </c>
       <c r="C328">
-        <v>-0.32119914346896428</v>
+        <f t="shared" si="5"/>
+        <v>0.9761388286333883</v>
       </c>
       <c r="D328">
         <v>15.87</v>
@@ -5039,7 +5428,8 @@
         <v>93.4</v>
       </c>
       <c r="C329">
-        <v>-0.42643923240937021</v>
+        <f t="shared" si="5"/>
+        <v>0.32223415682064438</v>
       </c>
       <c r="D329">
         <v>15.08</v>
@@ -5053,7 +5443,8 @@
         <v>93.8</v>
       </c>
       <c r="C330">
-        <v>-0.31880977683315098</v>
+        <f t="shared" si="5"/>
+        <v>0.42826552462524869</v>
       </c>
       <c r="D330">
         <v>13.31</v>
@@ -5067,7 +5458,8 @@
         <v>94.1</v>
       </c>
       <c r="C331">
-        <v>-0.31779661016950728</v>
+        <f t="shared" si="5"/>
+        <v>0.31982942430703876</v>
       </c>
       <c r="D331">
         <v>12.37</v>
@@ -5081,7 +5473,8 @@
         <v>94.4</v>
       </c>
       <c r="C332">
-        <v>-0.31678986272438697</v>
+        <f t="shared" si="5"/>
+        <v>0.31880977683316214</v>
       </c>
       <c r="D332">
         <v>13.22</v>
@@ -5095,7 +5488,8 @@
         <v>94.7</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.31779661016948513</v>
       </c>
       <c r="D333">
         <v>14.78</v>
@@ -5109,7 +5503,8 @@
         <v>94.7</v>
       </c>
       <c r="C334">
-        <v>-0.31578947368420263</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D334">
         <v>14.68</v>
@@ -5123,7 +5518,8 @@
         <v>95</v>
       </c>
       <c r="C335">
-        <v>-0.93847758081335719</v>
+        <f t="shared" si="5"/>
+        <v>0.31678986272438703</v>
       </c>
       <c r="D335">
         <v>14.94</v>
@@ -5137,7 +5533,8 @@
         <v>95.9</v>
       </c>
       <c r="C336">
-        <v>-1.134020618556697</v>
+        <f t="shared" si="5"/>
+        <v>0.94736842105263008</v>
       </c>
       <c r="D336">
         <v>14.45</v>
@@ -5151,7 +5548,8 @@
         <v>97</v>
       </c>
       <c r="C337">
-        <v>-0.512820512820511</v>
+        <f t="shared" si="5"/>
+        <v>1.1470281543274119</v>
       </c>
       <c r="D337">
         <v>14.15</v>
@@ -5165,7 +5563,8 @@
         <v>97.5</v>
       </c>
       <c r="C338">
-        <v>-0.20470829068577329</v>
+        <f t="shared" si="5"/>
+        <v>0.51546391752577136</v>
       </c>
       <c r="D338">
         <v>12.59</v>
@@ -5179,7 +5578,8 @@
         <v>97.7</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.20512820512821328</v>
       </c>
       <c r="D339">
         <v>10.119999999999999</v>
@@ -5193,7 +5593,8 @@
         <v>97.7</v>
       </c>
       <c r="C340">
-        <v>-0.40774719673801751</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D340">
         <v>10.31</v>
@@ -5207,7 +5608,8 @@
         <v>98.1</v>
       </c>
       <c r="C341">
-        <v>0.10204081632652071</v>
+        <f t="shared" si="5"/>
+        <v>0.40941658137154668</v>
       </c>
       <c r="D341">
         <v>9.7100000000000009</v>
@@ -5221,7 +5623,8 @@
         <v>98</v>
       </c>
       <c r="C342">
-        <v>0.30706243602864891</v>
+        <f t="shared" si="5"/>
+        <v>-0.10193679918449883</v>
       </c>
       <c r="D342">
         <v>9.1999999999999993</v>
@@ -5235,7 +5638,8 @@
         <v>97.7</v>
       </c>
       <c r="C343">
-        <v>-0.2042900919305479</v>
+        <f t="shared" si="5"/>
+        <v>-0.30612244897958441</v>
       </c>
       <c r="D343">
         <v>8.9499999999999993</v>
@@ -5249,7 +5653,8 @@
         <v>97.9</v>
       </c>
       <c r="C344">
-        <v>-0.10204081632652071</v>
+        <f t="shared" si="5"/>
+        <v>0.20470829068577334</v>
       </c>
       <c r="D344">
         <v>8.68</v>
@@ -5263,7 +5668,8 @@
         <v>98</v>
       </c>
       <c r="C345">
-        <v>-0.1019367991844988</v>
+        <f t="shared" si="5"/>
+        <v>0.10214504596526286</v>
       </c>
       <c r="D345">
         <v>8.51</v>
@@ -5277,7 +5683,8 @@
         <v>98.1</v>
       </c>
       <c r="C346">
-        <v>-0.70850202429150189</v>
+        <f t="shared" si="5"/>
+        <v>0.10204081632652073</v>
       </c>
       <c r="D346">
         <v>8.77</v>
@@ -5291,7 +5698,8 @@
         <v>98.8</v>
       </c>
       <c r="C347">
-        <v>-0.40322580645162359</v>
+        <f t="shared" si="5"/>
+        <v>0.7135575942915473</v>
       </c>
       <c r="D347">
         <v>8.8000000000000007</v>
@@ -5305,7 +5713,8 @@
         <v>99.2</v>
       </c>
       <c r="C348">
-        <v>-0.20120724346076591</v>
+        <f t="shared" si="5"/>
+        <v>0.40485829959515662</v>
       </c>
       <c r="D348">
         <v>8.6300000000000008</v>
@@ -5319,7 +5728,8 @@
         <v>99.4</v>
       </c>
       <c r="C349">
-        <v>-0.40080160320640212</v>
+        <f t="shared" si="5"/>
+        <v>0.20161290322580072</v>
       </c>
       <c r="D349">
         <v>8.98</v>
@@ -5333,7 +5743,8 @@
         <v>99.8</v>
       </c>
       <c r="C350">
-        <v>-0.29970029970030071</v>
+        <f t="shared" si="5"/>
+        <v>0.40241448692150961</v>
       </c>
       <c r="D350">
         <v>9.3699999999999992</v>
@@ -5347,7 +5758,8 @@
         <v>100.1</v>
       </c>
       <c r="C351">
-        <v>-0.29880478087650492</v>
+        <f t="shared" si="5"/>
+        <v>0.30060120240480437</v>
       </c>
       <c r="D351">
         <v>9.56</v>
@@ -5361,7 +5773,8 @@
         <v>100.4</v>
       </c>
       <c r="C352">
-        <v>-0.39682539682538431</v>
+        <f t="shared" si="5"/>
+        <v>0.29970029970030065</v>
       </c>
       <c r="D352">
         <v>9.4499999999999993</v>
@@ -5375,7 +5788,8 @@
         <v>100.8</v>
       </c>
       <c r="C353">
-        <v>-0.29673590504450947</v>
+        <f t="shared" si="5"/>
+        <v>0.39840637450199168</v>
       </c>
       <c r="D353">
         <v>9.48</v>
@@ -5389,7 +5803,8 @@
         <v>101.1</v>
       </c>
       <c r="C354">
-        <v>-0.29585798816569309</v>
+        <f t="shared" si="5"/>
+        <v>0.29761904761904656</v>
       </c>
       <c r="D354">
         <v>9.34</v>
@@ -5403,7 +5818,8 @@
         <v>101.4</v>
       </c>
       <c r="C355">
-        <v>-0.68560235063661601</v>
+        <f t="shared" si="5"/>
+        <v>0.29673590504453173</v>
       </c>
       <c r="D355">
         <v>9.4700000000000006</v>
@@ -5417,7 +5833,8 @@
         <v>102.1</v>
       </c>
       <c r="C356">
-        <v>-0.4873294346978585</v>
+        <f t="shared" si="5"/>
+        <v>0.69033530571991353</v>
       </c>
       <c r="D356">
         <v>9.56</v>
@@ -5431,7 +5848,8 @@
         <v>102.6</v>
       </c>
       <c r="C357">
-        <v>-0.29154518950438302</v>
+        <f t="shared" si="5"/>
+        <v>0.48971596474045587</v>
       </c>
       <c r="D357">
         <v>9.59</v>
@@ -5445,7 +5863,8 @@
         <v>102.9</v>
       </c>
       <c r="C358">
-        <v>-0.38722168441431842</v>
+        <f t="shared" si="5"/>
+        <v>0.29239766081872176</v>
       </c>
       <c r="D358">
         <v>9.91</v>
@@ -5459,7 +5878,8 @@
         <v>103.3</v>
       </c>
       <c r="C359">
-        <v>-0.1932367149758529</v>
+        <f t="shared" si="5"/>
+        <v>0.38872691933915515</v>
       </c>
       <c r="D359">
         <v>10.29</v>
@@ -5473,7 +5893,8 @@
         <v>103.5</v>
       </c>
       <c r="C360">
-        <v>-0.19286403085825299</v>
+        <f t="shared" si="5"/>
+        <v>0.19361084220717029</v>
       </c>
       <c r="D360">
         <v>10.32</v>
@@ -5487,7 +5908,8 @@
         <v>103.7</v>
       </c>
       <c r="C361">
-        <v>-0.384245917387116</v>
+        <f t="shared" si="5"/>
+        <v>0.19323671497584183</v>
       </c>
       <c r="D361">
         <v>11.06</v>
@@ -5501,7 +5923,8 @@
         <v>104.1</v>
       </c>
       <c r="C362">
-        <v>-0.28735632183909399</v>
+        <f t="shared" si="5"/>
+        <v>0.38572806171648377</v>
       </c>
       <c r="D362">
         <v>11.23</v>
@@ -5515,7 +5938,8 @@
         <v>104.4</v>
       </c>
       <c r="C363">
-        <v>-0.28653295128939771</v>
+        <f t="shared" si="5"/>
+        <v>0.28818443804035088</v>
       </c>
       <c r="D363">
         <v>11.64</v>
@@ -5529,7 +5953,8 @@
         <v>104.7</v>
       </c>
       <c r="C364">
-        <v>-0.38058991436725748</v>
+        <f t="shared" si="5"/>
+        <v>0.28735632183907178</v>
       </c>
       <c r="D364">
         <v>11.3</v>
@@ -5543,7 +5968,8 @@
         <v>105.1</v>
       </c>
       <c r="C365">
-        <v>-0.18993352326686089</v>
+        <f t="shared" si="5"/>
+        <v>0.38204393505252288</v>
       </c>
       <c r="D365">
         <v>9.99</v>
@@ -5557,7 +5983,8 @@
         <v>105.3</v>
       </c>
       <c r="C366">
-        <v>-0.1895734597156418</v>
+        <f t="shared" si="5"/>
+        <v>0.19029495718363432</v>
       </c>
       <c r="D366">
         <v>9.43</v>
@@ -5571,7 +5998,8 @@
         <v>105.5</v>
       </c>
       <c r="C367">
-        <v>-0.18921475875118829</v>
+        <f t="shared" si="5"/>
+        <v>0.18993352326686086</v>
       </c>
       <c r="D367">
         <v>8.3800000000000008</v>
@@ -5585,7 +6013,8 @@
         <v>105.7</v>
       </c>
       <c r="C368">
-        <v>-0.56444026340545239</v>
+        <f t="shared" si="5"/>
+        <v>0.18957345971564177</v>
       </c>
       <c r="D368">
         <v>8.35</v>
@@ -5599,7 +6028,8 @@
         <v>106.3</v>
       </c>
       <c r="C369">
-        <v>-0.46816479400748617</v>
+        <f t="shared" si="5"/>
+        <v>0.56764427625353164</v>
       </c>
       <c r="D369">
         <v>8.5</v>
@@ -5613,7 +6043,8 @@
         <v>106.8</v>
       </c>
       <c r="C370">
-        <v>-0.1869158878504695</v>
+        <f t="shared" si="5"/>
+        <v>0.47036688617121403</v>
       </c>
       <c r="D370">
         <v>8.58</v>
@@ -5627,7 +6058,8 @@
         <v>107</v>
       </c>
       <c r="C371">
-        <v>-0.18656716417910779</v>
+        <f t="shared" si="5"/>
+        <v>0.18726591760300781</v>
       </c>
       <c r="D371">
         <v>8.27</v>
@@ -5641,7 +6073,8 @@
         <v>107.2</v>
       </c>
       <c r="C372">
-        <v>-0.27906976744185302</v>
+        <f t="shared" si="5"/>
+        <v>0.18691588785046953</v>
       </c>
       <c r="D372">
         <v>7.97</v>
@@ -5655,7 +6088,8 @@
         <v>107.5</v>
       </c>
       <c r="C373">
-        <v>-0.18570102135562211</v>
+        <f t="shared" si="5"/>
+        <v>0.27985074626866169</v>
       </c>
       <c r="D373">
         <v>7.53</v>
@@ -5669,7 +6103,8 @@
         <v>107.7</v>
       </c>
       <c r="C374">
-        <v>-0.1853568118628357</v>
+        <f t="shared" si="5"/>
+        <v>0.18604651162790198</v>
       </c>
       <c r="D374">
         <v>7.88</v>
@@ -5683,7 +6118,8 @@
         <v>107.9</v>
       </c>
       <c r="C375">
-        <v>-0.18501387604069611</v>
+        <f t="shared" si="5"/>
+        <v>0.18570102135562205</v>
       </c>
       <c r="D375">
         <v>7.9</v>
@@ -5697,7 +6133,8 @@
         <v>108.1</v>
       </c>
       <c r="C376">
-        <v>-0.36866359447005342</v>
+        <f t="shared" si="5"/>
+        <v>0.1853568118628246</v>
       </c>
       <c r="D376">
         <v>7.92</v>
@@ -5711,7 +6148,8 @@
         <v>108.5</v>
       </c>
       <c r="C377">
-        <v>-0.45871559633027248</v>
+        <f t="shared" si="5"/>
+        <v>0.37002775208141436</v>
       </c>
       <c r="D377">
         <v>7.99</v>
@@ -5725,7 +6163,8 @@
         <v>109</v>
       </c>
       <c r="C378">
-        <v>-0.45662100456621563</v>
+        <f t="shared" si="5"/>
+        <v>0.46082949308756671</v>
       </c>
       <c r="D378">
         <v>8.0500000000000007</v>
@@ -5739,7 +6178,8 @@
         <v>109.5</v>
       </c>
       <c r="C379">
-        <v>-0.36396724294813781</v>
+        <f t="shared" si="5"/>
+        <v>0.45871559633028358</v>
       </c>
       <c r="D379">
         <v>8.27</v>
@@ -5753,7 +6193,8 @@
         <v>109.9</v>
       </c>
       <c r="C380">
-        <v>0.1823154056517895</v>
+        <f t="shared" si="5"/>
+        <v>0.36529680365298134</v>
       </c>
       <c r="D380">
         <v>8.14</v>
@@ -5767,7 +6208,8 @@
         <v>109.7</v>
       </c>
       <c r="C381">
-        <v>0.5499541704858002</v>
+        <f t="shared" si="5"/>
+        <v>-0.18198362147406888</v>
       </c>
       <c r="D381">
         <v>7.86</v>
@@ -5781,7 +6223,8 @@
         <v>109.1</v>
       </c>
       <c r="C382">
-        <v>0.36798528058876728</v>
+        <f t="shared" si="5"/>
+        <v>-0.54694621695533518</v>
       </c>
       <c r="D382">
         <v>7.48</v>
@@ -5795,7 +6238,8 @@
         <v>108.7</v>
       </c>
       <c r="C383">
-        <v>-0.27522935779816787</v>
+        <f t="shared" si="5"/>
+        <v>-0.36663611365719273</v>
       </c>
       <c r="D383">
         <v>6.99</v>
@@ -5809,7 +6253,8 @@
         <v>109</v>
       </c>
       <c r="C384">
-        <v>-0.36563071297989191</v>
+        <f t="shared" si="5"/>
+        <v>0.27598896044158661</v>
       </c>
       <c r="D384">
         <v>6.85</v>
@@ -5823,7 +6268,8 @@
         <v>109.4</v>
       </c>
       <c r="C385">
-        <v>-9.1324200913234233E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.36697247706423131</v>
       </c>
       <c r="D385">
         <v>6.92</v>
@@ -5837,7 +6283,8 @@
         <v>109.5</v>
       </c>
       <c r="C386">
-        <v>-9.1240875912401709E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.1407678244959101E-2</v>
       </c>
       <c r="D386">
         <v>6.56</v>
@@ -5851,7 +6298,8 @@
         <v>109.6</v>
       </c>
       <c r="C387">
-        <v>-0.36363636363636598</v>
+        <f t="shared" si="5"/>
+        <v>9.1324200913245335E-2</v>
       </c>
       <c r="D387">
         <v>6.17</v>
@@ -5865,7 +6313,8 @@
         <v>110</v>
       </c>
       <c r="C388">
-        <v>-0.18148820326678861</v>
+        <f t="shared" ref="C388:C451" si="6">(B388/B387-1)*100</f>
+        <v>0.36496350364965124</v>
       </c>
       <c r="D388">
         <v>5.89</v>
@@ -5879,7 +6328,8 @@
         <v>110.2</v>
       </c>
       <c r="C389">
-        <v>-0.1811594202898559</v>
+        <f t="shared" si="6"/>
+        <v>0.18181818181819409</v>
       </c>
       <c r="D389">
         <v>5.85</v>
@@ -5893,7 +6343,8 @@
         <v>110.4</v>
       </c>
       <c r="C390">
-        <v>-0.36101083032490378</v>
+        <f t="shared" si="6"/>
+        <v>0.18148820326679971</v>
       </c>
       <c r="D390">
         <v>6.04</v>
@@ -5907,7 +6358,8 @@
         <v>110.8</v>
       </c>
       <c r="C391">
-        <v>-0.53859964093357915</v>
+        <f t="shared" si="6"/>
+        <v>0.36231884057971175</v>
       </c>
       <c r="D391">
         <v>6.91</v>
@@ -5921,7 +6373,8 @@
         <v>111.4</v>
       </c>
       <c r="C392">
-        <v>-0.35778175313058158</v>
+        <f t="shared" si="6"/>
+        <v>0.54151624548737232</v>
       </c>
       <c r="D392">
         <v>6.43</v>
@@ -5935,7 +6388,8 @@
         <v>111.8</v>
       </c>
       <c r="C393">
-        <v>-0.35650623885918892</v>
+        <f t="shared" si="6"/>
+        <v>0.35906642728904536</v>
       </c>
       <c r="D393">
         <v>6.1</v>
@@ -5949,7 +6403,8 @@
         <v>112.2</v>
       </c>
       <c r="C394">
-        <v>-0.44365572315883117</v>
+        <f t="shared" si="6"/>
+        <v>0.35778175313059268</v>
       </c>
       <c r="D394">
         <v>6.13</v>
@@ -5963,7 +6418,8 @@
         <v>112.7</v>
       </c>
       <c r="C395">
-        <v>-0.26548672566371062</v>
+        <f t="shared" si="6"/>
+        <v>0.44563279857396942</v>
       </c>
       <c r="D395">
         <v>6.37</v>
@@ -5977,7 +6433,8 @@
         <v>113</v>
       </c>
       <c r="C396">
-        <v>-0.4405286343612369</v>
+        <f t="shared" si="6"/>
+        <v>0.26619343389528982</v>
       </c>
       <c r="D396">
         <v>6.85</v>
@@ -5991,7 +6448,8 @@
         <v>113.5</v>
       </c>
       <c r="C397">
-        <v>-0.26362038664322629</v>
+        <f t="shared" si="6"/>
+        <v>0.44247787610618428</v>
       </c>
       <c r="D397">
         <v>6.73</v>
@@ -6005,7 +6463,8 @@
         <v>113.8</v>
       </c>
       <c r="C398">
-        <v>-0.43744531933508363</v>
+        <f t="shared" si="6"/>
+        <v>0.26431718061674658</v>
       </c>
       <c r="D398">
         <v>6.58</v>
@@ -6019,7 +6478,8 @@
         <v>114.3</v>
       </c>
       <c r="C399">
-        <v>-0.34873583260680568</v>
+        <f t="shared" si="6"/>
+        <v>0.43936731107205862</v>
       </c>
       <c r="D399">
         <v>6.73</v>
@@ -6033,7 +6493,8 @@
         <v>114.7</v>
       </c>
       <c r="C400">
-        <v>-0.26086956521739202</v>
+        <f t="shared" si="6"/>
+        <v>0.34995625546807574</v>
       </c>
       <c r="D400">
         <v>7.22</v>
@@ -6047,7 +6508,8 @@
         <v>115</v>
       </c>
       <c r="C401">
-        <v>-0.34662045060659402</v>
+        <f t="shared" si="6"/>
+        <v>0.26155187445509043</v>
       </c>
       <c r="D401">
         <v>7.29</v>
@@ -6061,7 +6523,8 @@
         <v>115.4</v>
       </c>
       <c r="C402">
-        <v>-0.17301038062282889</v>
+        <f t="shared" si="6"/>
+        <v>0.34782608695653749</v>
       </c>
       <c r="D402">
         <v>6.69</v>
@@ -6075,7 +6538,8 @@
         <v>115.6</v>
       </c>
       <c r="C403">
-        <v>-0.34482758620689719</v>
+        <f t="shared" si="6"/>
+        <v>0.17331022530329143</v>
       </c>
       <c r="D403">
         <v>6.77</v>
@@ -6089,7 +6553,8 @@
         <v>116</v>
       </c>
       <c r="C404">
-        <v>-0.17211703958691649</v>
+        <f t="shared" si="6"/>
+        <v>0.34602076124568004</v>
       </c>
       <c r="D404">
         <v>6.83</v>
@@ -6103,7 +6568,8 @@
         <v>116.2</v>
       </c>
       <c r="C405">
-        <v>-0.25751072961373023</v>
+        <f t="shared" si="6"/>
+        <v>0.17241379310344307</v>
       </c>
       <c r="D405">
         <v>6.58</v>
@@ -6117,7 +6583,8 @@
         <v>116.5</v>
       </c>
       <c r="C406">
-        <v>-0.59726962457338217</v>
+        <f t="shared" si="6"/>
+        <v>0.25817555938036918</v>
       </c>
       <c r="D406">
         <v>6.58</v>
@@ -6131,7 +6598,8 @@
         <v>117.2</v>
       </c>
       <c r="C407">
-        <v>-0.2553191489361728</v>
+        <f t="shared" si="6"/>
+        <v>0.60085836909871126</v>
       </c>
       <c r="D407">
         <v>6.87</v>
@@ -6145,7 +6613,8 @@
         <v>117.5</v>
       </c>
       <c r="C408">
-        <v>-0.4237288135593209</v>
+        <f t="shared" si="6"/>
+        <v>0.25597269624573205</v>
       </c>
       <c r="D408">
         <v>7.09</v>
@@ -6159,7 +6628,8 @@
         <v>118</v>
       </c>
       <c r="C409">
-        <v>-0.42194092827003699</v>
+        <f t="shared" si="6"/>
+        <v>0.42553191489360653</v>
       </c>
       <c r="D409">
         <v>7.51</v>
@@ -6173,7 +6643,8 @@
         <v>118.5</v>
       </c>
       <c r="C410">
-        <v>-0.42016806722688932</v>
+        <f t="shared" si="6"/>
+        <v>0.4237288135593209</v>
       </c>
       <c r="D410">
         <v>7.75</v>
@@ -6187,7 +6658,8 @@
         <v>119</v>
       </c>
       <c r="C411">
-        <v>-0.41841004184099972</v>
+        <f t="shared" si="6"/>
+        <v>0.42194092827003704</v>
       </c>
       <c r="D411">
         <v>8.01</v>
@@ -6201,7 +6673,8 @@
         <v>119.5</v>
       </c>
       <c r="C412">
-        <v>-0.33361134278565568</v>
+        <f t="shared" si="6"/>
+        <v>0.42016806722688926</v>
       </c>
       <c r="D412">
         <v>8.19</v>
@@ -6215,7 +6688,8 @@
         <v>119.9</v>
       </c>
       <c r="C413">
-        <v>-0.33250207813798621</v>
+        <f t="shared" si="6"/>
+        <v>0.33472803347280866</v>
       </c>
       <c r="D413">
         <v>8.3000000000000007</v>
@@ -6229,7 +6703,8 @@
         <v>120.3</v>
       </c>
       <c r="C414">
-        <v>-0.3314001657000909</v>
+        <f t="shared" si="6"/>
+        <v>0.33361134278564464</v>
       </c>
       <c r="D414">
         <v>8.35</v>
@@ -6243,7 +6718,8 @@
         <v>120.7</v>
       </c>
       <c r="C415">
-        <v>-0.41254125412540921</v>
+        <f t="shared" si="6"/>
+        <v>0.33250207813799726</v>
       </c>
       <c r="D415">
         <v>8.76</v>
@@ -6257,7 +6733,8 @@
         <v>121.2</v>
       </c>
       <c r="C416">
-        <v>-0.32894736842105088</v>
+        <f t="shared" si="6"/>
+        <v>0.41425020712511085</v>
       </c>
       <c r="D416">
         <v>9.1199999999999992</v>
@@ -6271,7 +6748,8 @@
         <v>121.6</v>
       </c>
       <c r="C417">
-        <v>-0.49099836333879038</v>
+        <f t="shared" si="6"/>
+        <v>0.33003300330032292</v>
       </c>
       <c r="D417">
         <v>9.36</v>
@@ -6285,7 +6763,8 @@
         <v>122.2</v>
       </c>
       <c r="C418">
-        <v>-0.73111291632818043</v>
+        <f t="shared" si="6"/>
+        <v>0.49342105263159297</v>
       </c>
       <c r="D418">
         <v>9.85</v>
@@ -6299,7 +6778,8 @@
         <v>123.1</v>
       </c>
       <c r="C419">
-        <v>-0.48504446240905658</v>
+        <f t="shared" si="6"/>
+        <v>0.73649754500817455</v>
       </c>
       <c r="D419">
         <v>9.84</v>
@@ -6313,7 +6793,8 @@
         <v>123.7</v>
       </c>
       <c r="C420">
-        <v>-0.32232070910555022</v>
+        <f t="shared" si="6"/>
+        <v>0.48740861088547582</v>
       </c>
       <c r="D420">
         <v>9.81</v>
@@ -6327,7 +6808,8 @@
         <v>124.1</v>
       </c>
       <c r="C421">
-        <v>-0.32128514056225521</v>
+        <f t="shared" si="6"/>
+        <v>0.32336297493935628</v>
       </c>
       <c r="D421">
         <v>9.5299999999999994</v>
@@ -6341,7 +6823,8 @@
         <v>124.5</v>
       </c>
       <c r="C422">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.32232070910556132</v>
       </c>
       <c r="D422">
         <v>9.24</v>
@@ -6355,7 +6838,8 @@
         <v>124.5</v>
       </c>
       <c r="C423">
-        <v>-0.2403846153846145</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D423">
         <v>8.99</v>
@@ -6369,7 +6853,8 @@
         <v>124.8</v>
       </c>
       <c r="C424">
-        <v>-0.4784688995215336</v>
+        <f t="shared" si="6"/>
+        <v>0.24096385542169418</v>
       </c>
       <c r="D424">
         <v>9.02</v>
@@ -6383,7 +6868,8 @@
         <v>125.4</v>
       </c>
       <c r="C425">
-        <v>-0.39714058776807448</v>
+        <f t="shared" si="6"/>
+        <v>0.48076923076922906</v>
       </c>
       <c r="D425">
         <v>8.84</v>
@@ -6397,7 +6883,8 @@
         <v>125.9</v>
       </c>
       <c r="C426">
-        <v>-0.31670625494852889</v>
+        <f t="shared" si="6"/>
+        <v>0.39872408293459838</v>
       </c>
       <c r="D426">
         <v>8.5500000000000007</v>
@@ -6411,7 +6898,8 @@
         <v>126.3</v>
       </c>
       <c r="C427">
-        <v>-0.94117647058823417</v>
+        <f t="shared" si="6"/>
+        <v>0.31771247021445959</v>
       </c>
       <c r="D427">
         <v>8.4499999999999993</v>
@@ -6425,7 +6913,8 @@
         <v>127.5</v>
       </c>
       <c r="C428">
-        <v>-0.390625</v>
+        <f t="shared" si="6"/>
+        <v>0.95011876484560887</v>
       </c>
       <c r="D428">
         <v>8.23</v>
@@ -6439,7 +6928,8 @@
         <v>128</v>
       </c>
       <c r="C429">
-        <v>-0.46656298600310508</v>
+        <f t="shared" si="6"/>
+        <v>0.39215686274509665</v>
       </c>
       <c r="D429">
         <v>8.24</v>
@@ -6453,7 +6943,8 @@
         <v>128.6</v>
       </c>
       <c r="C430">
-        <v>-0.23273855702095059</v>
+        <f t="shared" si="6"/>
+        <v>0.46874999999999556</v>
       </c>
       <c r="D430">
         <v>8.2799999999999994</v>
@@ -6467,7 +6958,8 @@
         <v>128.9</v>
       </c>
       <c r="C431">
-        <v>-0.1549186676994441</v>
+        <f t="shared" si="6"/>
+        <v>0.2332814930015692</v>
       </c>
       <c r="D431">
         <v>8.26</v>
@@ -6481,7 +6973,8 @@
         <v>129.1</v>
       </c>
       <c r="C432">
-        <v>-0.61585835257891297</v>
+        <f t="shared" si="6"/>
+        <v>0.15515903801395226</v>
       </c>
       <c r="D432">
         <v>8.18</v>
@@ -6495,7 +6988,8 @@
         <v>129.9</v>
       </c>
       <c r="C433">
-        <v>-0.45977011494252601</v>
+        <f t="shared" si="6"/>
+        <v>0.61967467079784289</v>
       </c>
       <c r="D433">
         <v>8.2899999999999991</v>
@@ -6509,7 +7003,8 @@
         <v>130.5</v>
       </c>
       <c r="C434">
-        <v>-0.8358662613981771</v>
+        <f t="shared" si="6"/>
+        <v>0.46189376443417363</v>
       </c>
       <c r="D434">
         <v>8.15</v>
@@ -6523,7 +7018,8 @@
         <v>131.6</v>
       </c>
       <c r="C435">
-        <v>-0.67924528301886999</v>
+        <f t="shared" si="6"/>
+        <v>0.84291187739462536</v>
       </c>
       <c r="D435">
         <v>8.1300000000000008</v>
@@ -6537,7 +7033,8 @@
         <v>132.5</v>
       </c>
       <c r="C436">
-        <v>-0.67466266866567093</v>
+        <f t="shared" si="6"/>
+        <v>0.68389057750759541</v>
       </c>
       <c r="D436">
         <v>8.1999999999999993</v>
@@ -6551,7 +7048,8 @@
         <v>133.4</v>
       </c>
       <c r="C437">
-        <v>-0.2243829468960179</v>
+        <f t="shared" si="6"/>
+        <v>0.6792452830188811</v>
       </c>
       <c r="D437">
         <v>8.11</v>
@@ -6565,7 +7063,8 @@
         <v>133.69999999999999</v>
       </c>
       <c r="C438">
-        <v>-0.37257824143069879</v>
+        <f t="shared" si="6"/>
+        <v>0.22488755622187551</v>
       </c>
       <c r="D438">
         <v>7.81</v>
@@ -6579,7 +7078,8 @@
         <v>134.19999999999999</v>
       </c>
       <c r="C439">
-        <v>-0.37119524870081738</v>
+        <f t="shared" si="6"/>
+        <v>0.37397157816005944</v>
       </c>
       <c r="D439">
         <v>7.31</v>
@@ -6593,7 +7093,8 @@
         <v>134.69999999999999</v>
       </c>
       <c r="C440">
-        <v>-7.4183976261144036E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.37257824143070994</v>
       </c>
       <c r="D440">
         <v>6.91</v>
@@ -6607,7 +7108,8 @@
         <v>134.80000000000001</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7.423904974017681E-2</v>
       </c>
       <c r="D441">
         <v>6.25</v>
@@ -6621,7 +7123,8 @@
         <v>134.80000000000001</v>
       </c>
       <c r="C442">
-        <v>-0.22205773501109419</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D442">
         <v>6.12</v>
@@ -6635,7 +7138,8 @@
         <v>135.1</v>
       </c>
       <c r="C443">
-        <v>-0.36873156342183128</v>
+        <f t="shared" si="6"/>
+        <v>0.2225519287833766</v>
       </c>
       <c r="D443">
         <v>5.91</v>
@@ -6649,7 +7153,8 @@
         <v>135.6</v>
       </c>
       <c r="C444">
-        <v>-0.29411764705882248</v>
+        <f t="shared" si="6"/>
+        <v>0.37009622501851247</v>
       </c>
       <c r="D444">
         <v>5.78</v>
@@ -6663,7 +7168,8 @@
         <v>136</v>
       </c>
       <c r="C445">
-        <v>-0.1468428781204012</v>
+        <f t="shared" si="6"/>
+        <v>0.29498525073747839</v>
       </c>
       <c r="D445">
         <v>5.9</v>
@@ -6677,7 +7183,8 @@
         <v>136.19999999999999</v>
       </c>
       <c r="C446">
-        <v>-0.29282576866764831</v>
+        <f t="shared" si="6"/>
+        <v>0.14705882352941124</v>
       </c>
       <c r="D446">
         <v>5.82</v>
@@ -6691,7 +7198,8 @@
         <v>136.6</v>
       </c>
       <c r="C447">
-        <v>-0.29197080291971661</v>
+        <f t="shared" si="6"/>
+        <v>0.2936857562408246</v>
       </c>
       <c r="D447">
         <v>5.66</v>
@@ -6705,7 +7213,8 @@
         <v>137</v>
       </c>
       <c r="C448">
-        <v>-0.14577259475218041</v>
+        <f t="shared" si="6"/>
+        <v>0.29282576866764831</v>
       </c>
       <c r="D448">
         <v>5.45</v>
@@ -6719,7 +7228,8 @@
         <v>137.19999999999999</v>
       </c>
       <c r="C449">
-        <v>-0.43541364296082458</v>
+        <f t="shared" si="6"/>
+        <v>0.14598540145984717</v>
       </c>
       <c r="D449">
         <v>5.21</v>
@@ -6733,7 +7243,8 @@
         <v>137.80000000000001</v>
       </c>
       <c r="C450">
-        <v>-0.28943560057885792</v>
+        <f t="shared" si="6"/>
+        <v>0.43731778425657453</v>
       </c>
       <c r="D450">
         <v>4.8099999999999996</v>
@@ -6747,7 +7258,8 @@
         <v>138.19999999999999</v>
       </c>
       <c r="C451">
-        <v>-7.2306579898784307E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.29027576197386828</v>
       </c>
       <c r="D451">
         <v>4.43</v>
@@ -6761,7 +7273,8 @@
         <v>138.30000000000001</v>
       </c>
       <c r="C452">
-        <v>-0.2164502164502036</v>
+        <f t="shared" ref="C452:C515" si="7">(B452/B451-1)*100</f>
+        <v>7.2358900144742222E-2</v>
       </c>
       <c r="D452">
         <v>4.03</v>
@@ -6775,7 +7288,8 @@
         <v>138.6</v>
       </c>
       <c r="C453">
-        <v>-0.35945363048166529</v>
+        <f t="shared" si="7"/>
+        <v>0.21691973969630851</v>
       </c>
       <c r="D453">
         <v>4.0599999999999996</v>
@@ -6789,7 +7303,8 @@
         <v>139.1</v>
       </c>
       <c r="C454">
-        <v>-0.21520803443328959</v>
+        <f t="shared" si="7"/>
+        <v>0.36075036075036149</v>
       </c>
       <c r="D454">
         <v>3.98</v>
@@ -6803,7 +7318,8 @@
         <v>139.4</v>
       </c>
       <c r="C455">
-        <v>-0.2147458840372152</v>
+        <f t="shared" si="7"/>
+        <v>0.21567217828901697</v>
       </c>
       <c r="D455">
         <v>3.73</v>
@@ -6817,7 +7333,8 @@
         <v>139.69999999999999</v>
       </c>
       <c r="C456">
-        <v>-0.2855103497501843</v>
+        <f t="shared" si="7"/>
+        <v>0.21520803443326741</v>
       </c>
       <c r="D456">
         <v>3.82</v>
@@ -6831,7 +7348,8 @@
         <v>140.1</v>
       </c>
       <c r="C457">
-        <v>-0.2846975088968029</v>
+        <f t="shared" si="7"/>
+        <v>0.28632784538296097</v>
       </c>
       <c r="D457">
         <v>3.76</v>
@@ -6845,7 +7363,8 @@
         <v>140.5</v>
       </c>
       <c r="C458">
-        <v>-0.2130681818181879</v>
+        <f t="shared" si="7"/>
+        <v>0.2855103497501732</v>
       </c>
       <c r="D458">
         <v>3.25</v>
@@ -6859,7 +7378,8 @@
         <v>140.80000000000001</v>
       </c>
       <c r="C459">
-        <v>-0.21261516654853541</v>
+        <f t="shared" si="7"/>
+        <v>0.2135231316725994</v>
       </c>
       <c r="D459">
         <v>3.3</v>
@@ -6873,7 +7393,8 @@
         <v>141.1</v>
       </c>
       <c r="C460">
-        <v>-0.42342978122794639</v>
+        <f t="shared" si="7"/>
+        <v>0.21306818181816567</v>
       </c>
       <c r="D460">
         <v>3.22</v>
@@ -6887,7 +7408,8 @@
         <v>141.69999999999999</v>
       </c>
       <c r="C461">
-        <v>-0.28149190710767819</v>
+        <f t="shared" si="7"/>
+        <v>0.42523033309709302</v>
       </c>
       <c r="D461">
         <v>3.1</v>
@@ -6901,7 +7423,8 @@
         <v>142.1</v>
       </c>
       <c r="C462">
-        <v>-0.14054813773718419</v>
+        <f t="shared" si="7"/>
+        <v>0.28228652081863093</v>
       </c>
       <c r="D462">
         <v>3.09</v>
@@ -6915,7 +7438,8 @@
         <v>142.30000000000001</v>
       </c>
       <c r="C463">
-        <v>-0.35014005602240772</v>
+        <f t="shared" si="7"/>
+        <v>0.14074595355384467</v>
       </c>
       <c r="D463">
         <v>2.92</v>
@@ -6929,7 +7453,8 @@
         <v>142.80000000000001</v>
       </c>
       <c r="C464">
-        <v>-0.20964360587001349</v>
+        <f t="shared" si="7"/>
+        <v>0.35137034434293835</v>
       </c>
       <c r="D464">
         <v>3.02</v>
@@ -6943,7 +7468,8 @@
         <v>143.1</v>
       </c>
       <c r="C465">
-        <v>-0.13956734124216391</v>
+        <f t="shared" si="7"/>
+        <v>0.21008403361342243</v>
       </c>
       <c r="D465">
         <v>3.03</v>
@@ -6957,7 +7483,8 @@
         <v>143.30000000000001</v>
       </c>
       <c r="C466">
-        <v>-0.3477051460361591</v>
+        <f t="shared" si="7"/>
+        <v>0.13976240391335715</v>
       </c>
       <c r="D466">
         <v>3.07</v>
@@ -6971,7 +7498,8 @@
         <v>143.80000000000001</v>
       </c>
       <c r="C467">
-        <v>-0.27739251040220791</v>
+        <f t="shared" si="7"/>
+        <v>0.34891835310537633</v>
       </c>
       <c r="D467">
         <v>2.96</v>
@@ -6985,7 +7513,8 @@
         <v>144.19999999999999</v>
       </c>
       <c r="C468">
-        <v>-6.9300069300082257E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.27816411682890507</v>
       </c>
       <c r="D468">
         <v>3</v>
@@ -6999,7 +7528,8 @@
         <v>144.30000000000001</v>
       </c>
       <c r="C469">
-        <v>-0.13840830449826089</v>
+        <f t="shared" si="7"/>
+        <v>6.9348127600576959E-2</v>
       </c>
       <c r="D469">
         <v>3.04</v>
@@ -7013,7 +7543,8 @@
         <v>144.5</v>
       </c>
       <c r="C470">
-        <v>-0.20718232044200091</v>
+        <f t="shared" si="7"/>
+        <v>0.1386001386001201</v>
       </c>
       <c r="D470">
         <v>3.06</v>
@@ -7027,7 +7558,8 @@
         <v>144.80000000000001</v>
       </c>
       <c r="C471">
-        <v>-0.13793103448275221</v>
+        <f t="shared" si="7"/>
+        <v>0.20761245674740803</v>
       </c>
       <c r="D471">
         <v>3.03</v>
@@ -7041,7 +7573,8 @@
         <v>145</v>
       </c>
       <c r="C472">
-        <v>-0.41208791208791062</v>
+        <f t="shared" si="7"/>
+        <v>0.13812154696131174</v>
       </c>
       <c r="D472">
         <v>3.09</v>
@@ -7055,7 +7588,8 @@
         <v>145.6</v>
       </c>
       <c r="C473">
-        <v>-0.2739726027397249</v>
+        <f t="shared" si="7"/>
+        <v>0.41379310344826781</v>
       </c>
       <c r="D473">
         <v>2.99</v>
@@ -7069,7 +7603,8 @@
         <v>146</v>
       </c>
       <c r="C474">
-        <v>-0.20505809979495249</v>
+        <f t="shared" si="7"/>
+        <v>0.27472527472527375</v>
       </c>
       <c r="D474">
         <v>3.02</v>
@@ -7083,7 +7618,8 @@
         <v>146.30000000000001</v>
       </c>
       <c r="C475">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.205479452054802</v>
       </c>
       <c r="D475">
         <v>2.96</v>
@@ -7097,7 +7633,8 @@
         <v>146.30000000000001</v>
       </c>
       <c r="C476">
-        <v>-0.27266530334013611</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D476">
         <v>3.05</v>
@@ -7111,7 +7648,8 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C477">
-        <v>-0.27192386131883461</v>
+        <f t="shared" si="7"/>
+        <v>0.27341079972658111</v>
       </c>
       <c r="D477">
         <v>3.25</v>
@@ -7125,7 +7663,8 @@
         <v>147.1</v>
       </c>
       <c r="C478">
-        <v>-6.7934782608691791E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.27266530334015826</v>
       </c>
       <c r="D478">
         <v>3.34</v>
@@ -7139,7 +7678,8 @@
         <v>147.19999999999999</v>
       </c>
       <c r="C479">
-        <v>-0.2033898305084825</v>
+        <f t="shared" si="7"/>
+        <v>6.7980965329694776E-2</v>
       </c>
       <c r="D479">
         <v>3.56</v>
@@ -7153,7 +7693,8 @@
         <v>147.5</v>
       </c>
       <c r="C480">
-        <v>-0.27045300878972828</v>
+        <f t="shared" si="7"/>
+        <v>0.20380434782609758</v>
       </c>
       <c r="D480">
         <v>4.01</v>
@@ -7167,7 +7708,8 @@
         <v>147.9</v>
       </c>
       <c r="C481">
-        <v>-0.3369272237196741</v>
+        <f t="shared" si="7"/>
+        <v>0.27118644067796183</v>
       </c>
       <c r="D481">
         <v>4.25</v>
@@ -7181,7 +7723,8 @@
         <v>148.4</v>
       </c>
       <c r="C482">
-        <v>-0.40268456375838202</v>
+        <f t="shared" si="7"/>
+        <v>0.33806626098715764</v>
       </c>
       <c r="D482">
         <v>4.26</v>
@@ -7195,7 +7738,8 @@
         <v>149</v>
       </c>
       <c r="C483">
-        <v>-0.20093770931012281</v>
+        <f t="shared" si="7"/>
+        <v>0.40431266846361336</v>
       </c>
       <c r="D483">
         <v>4.47</v>
@@ -7209,7 +7753,8 @@
         <v>149.30000000000001</v>
       </c>
       <c r="C484">
-        <v>-6.6934404283802706E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.20134228187920211</v>
       </c>
       <c r="D484">
         <v>4.7300000000000004</v>
@@ -7223,7 +7768,8 @@
         <v>149.4</v>
       </c>
       <c r="C485">
-        <v>-0.26702269692924219</v>
+        <f t="shared" si="7"/>
+        <v>6.6979236436703893E-2</v>
       </c>
       <c r="D485">
         <v>4.76</v>
@@ -7237,7 +7783,8 @@
         <v>149.80000000000001</v>
       </c>
       <c r="C486">
-        <v>-0.19986675549632521</v>
+        <f t="shared" si="7"/>
+        <v>0.26773761713521083</v>
       </c>
       <c r="D486">
         <v>5.29</v>
@@ -7251,7 +7798,8 @@
         <v>150.1</v>
       </c>
       <c r="C487">
-        <v>-0.26578073089701387</v>
+        <f t="shared" si="7"/>
+        <v>0.20026702269690944</v>
       </c>
       <c r="D487">
         <v>5.45</v>
@@ -7265,7 +7813,8 @@
         <v>150.5</v>
       </c>
       <c r="C488">
-        <v>-0.26507620941020882</v>
+        <f t="shared" si="7"/>
+        <v>0.26648900732844094</v>
       </c>
       <c r="D488">
         <v>5.53</v>
@@ -7279,7 +7828,8 @@
         <v>150.9</v>
       </c>
       <c r="C489">
-        <v>-0.19841269841268661</v>
+        <f t="shared" si="7"/>
+        <v>0.26578073089700283</v>
       </c>
       <c r="D489">
         <v>5.92</v>
@@ -7293,7 +7843,8 @@
         <v>151.19999999999999</v>
       </c>
       <c r="C490">
-        <v>-0.39525691699606741</v>
+        <f t="shared" si="7"/>
+        <v>0.19880715705764551</v>
       </c>
       <c r="D490">
         <v>5.98</v>
@@ -7307,7 +7858,8 @@
         <v>151.80000000000001</v>
       </c>
       <c r="C491">
-        <v>-0.19723865877711019</v>
+        <f t="shared" si="7"/>
+        <v>0.39682539682541762</v>
       </c>
       <c r="D491">
         <v>6.05</v>
@@ -7321,7 +7873,8 @@
         <v>152.1</v>
       </c>
       <c r="C492">
-        <v>-0.19685039370079821</v>
+        <f t="shared" si="7"/>
+        <v>0.19762845849802257</v>
       </c>
       <c r="D492">
         <v>6.01</v>
@@ -7335,7 +7888,8 @@
         <v>152.4</v>
       </c>
       <c r="C493">
-        <v>-0.13106159895149849</v>
+        <f t="shared" si="7"/>
+        <v>0.19723865877712132</v>
       </c>
       <c r="D493">
         <v>6</v>
@@ -7349,7 +7903,8 @@
         <v>152.6</v>
       </c>
       <c r="C494">
-        <v>-0.19620667102682179</v>
+        <f t="shared" si="7"/>
+        <v>0.1312335958005173</v>
       </c>
       <c r="D494">
         <v>5.85</v>
@@ -7363,7 +7918,8 @@
         <v>152.9</v>
       </c>
       <c r="C495">
-        <v>-0.13063357282820931</v>
+        <f t="shared" si="7"/>
+        <v>0.19659239842726439</v>
       </c>
       <c r="D495">
         <v>5.74</v>
@@ -7377,7 +7933,8 @@
         <v>153.1</v>
       </c>
       <c r="C496">
-        <v>-0.26058631921824782</v>
+        <f t="shared" si="7"/>
+        <v>0.13080444735120711</v>
       </c>
       <c r="D496">
         <v>5.8</v>
@@ -7391,7 +7948,8 @@
         <v>153.5</v>
       </c>
       <c r="C497">
-        <v>-0.13012361743656159</v>
+        <f t="shared" si="7"/>
+        <v>0.26126714565644082</v>
       </c>
       <c r="D497">
         <v>5.76</v>
@@ -7405,7 +7963,8 @@
         <v>153.69999999999999</v>
       </c>
       <c r="C498">
-        <v>-0.1299545159194393</v>
+        <f t="shared" si="7"/>
+        <v>0.13029315960910726</v>
       </c>
       <c r="D498">
         <v>5.8</v>
@@ -7419,7 +7978,8 @@
         <v>153.9</v>
       </c>
       <c r="C499">
-        <v>-0.51712992889462184</v>
+        <f t="shared" si="7"/>
+        <v>0.13012361743658385</v>
       </c>
       <c r="D499">
         <v>5.6</v>
@@ -7433,7 +7993,8 @@
         <v>154.69999999999999</v>
       </c>
       <c r="C500">
-        <v>-0.1935483870967869</v>
+        <f t="shared" si="7"/>
+        <v>0.51981806367771277</v>
       </c>
       <c r="D500">
         <v>5.56</v>
@@ -7447,7 +8008,8 @@
         <v>155</v>
       </c>
       <c r="C501">
-        <v>-0.3215434083601254</v>
+        <f t="shared" si="7"/>
+        <v>0.19392372333548735</v>
       </c>
       <c r="D501">
         <v>5.22</v>
@@ -7461,7 +8023,8 @@
         <v>155.5</v>
       </c>
       <c r="C502">
-        <v>-0.38436899423446302</v>
+        <f t="shared" si="7"/>
+        <v>0.3225806451612856</v>
       </c>
       <c r="D502">
         <v>5.31</v>
@@ -7475,7 +8038,8 @@
         <v>156.1</v>
       </c>
       <c r="C503">
-        <v>-0.19181585677749971</v>
+        <f t="shared" si="7"/>
+        <v>0.38585209003214604</v>
       </c>
       <c r="D503">
         <v>5.22</v>
@@ -7489,7 +8053,8 @@
         <v>156.4</v>
       </c>
       <c r="C504">
-        <v>-0.1914486279514849</v>
+        <f t="shared" si="7"/>
+        <v>0.19218449711724261</v>
       </c>
       <c r="D504">
         <v>5.24</v>
@@ -7503,7 +8068,8 @@
         <v>156.69999999999999</v>
       </c>
       <c r="C505">
-        <v>-0.19108280254778179</v>
+        <f t="shared" si="7"/>
+        <v>0.19181585677747748</v>
       </c>
       <c r="D505">
         <v>5.27</v>
@@ -7517,7 +8083,8 @@
         <v>157</v>
       </c>
       <c r="C506">
-        <v>-0.12722646310431299</v>
+        <f t="shared" si="7"/>
+        <v>0.19144862795150708</v>
       </c>
       <c r="D506">
         <v>5.4</v>
@@ -7531,7 +8098,8 @@
         <v>157.19999999999999</v>
       </c>
       <c r="C507">
-        <v>-0.31705770450222159</v>
+        <f t="shared" si="7"/>
+        <v>0.12738853503184711</v>
       </c>
       <c r="D507">
         <v>5.22</v>
@@ -7545,7 +8113,8 @@
         <v>157.69999999999999</v>
       </c>
       <c r="C508">
-        <v>-0.3160556257901348</v>
+        <f t="shared" si="7"/>
+        <v>0.31806615776082126</v>
       </c>
       <c r="D508">
         <v>5.3</v>
@@ -7559,7 +8128,8 @@
         <v>158.19999999999999</v>
       </c>
       <c r="C509">
-        <v>-0.3150598613736566</v>
+        <f t="shared" si="7"/>
+        <v>0.31705770450221049</v>
       </c>
       <c r="D509">
         <v>5.24</v>
@@ -7573,7 +8143,8 @@
         <v>158.69999999999999</v>
       </c>
       <c r="C510">
-        <v>-0.25141420490257799</v>
+        <f t="shared" si="7"/>
+        <v>0.3160556257901348</v>
       </c>
       <c r="D510">
         <v>5.31</v>
@@ -7587,7 +8158,8 @@
         <v>159.1</v>
       </c>
       <c r="C511">
-        <v>-0.188205771643668</v>
+        <f t="shared" si="7"/>
+        <v>0.2520478890989386</v>
       </c>
       <c r="D511">
         <v>5.29</v>
@@ -7601,7 +8173,8 @@
         <v>159.4</v>
       </c>
       <c r="C512">
-        <v>-0.1878522229179613</v>
+        <f t="shared" si="7"/>
+        <v>0.18856065367693908</v>
       </c>
       <c r="D512">
         <v>5.25</v>
@@ -7615,7 +8188,8 @@
         <v>159.69999999999999</v>
       </c>
       <c r="C513">
-        <v>-6.257822277848657E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.18820577164364583</v>
       </c>
       <c r="D513">
         <v>5.19</v>
@@ -7629,7 +8203,8 @@
         <v>159.80000000000001</v>
       </c>
       <c r="C514">
-        <v>-6.2539086929325194E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.2617407639331546E-2</v>
       </c>
       <c r="D514">
         <v>5.39</v>
@@ -7643,7 +8218,8 @@
         <v>159.9</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.2578222778464365E-2</v>
       </c>
       <c r="D515">
         <v>5.51</v>
@@ -7657,7 +8233,8 @@
         <v>159.9</v>
       </c>
       <c r="C516">
-        <v>-0.18726591760298561</v>
+        <f t="shared" ref="C516:C579" si="8">(B516/B515-1)*100</f>
+        <v>0</v>
       </c>
       <c r="D516">
         <v>5.5</v>
@@ -7671,7 +8248,8 @@
         <v>160.19999999999999</v>
       </c>
       <c r="C517">
-        <v>-0.1246882793017545</v>
+        <f t="shared" si="8"/>
+        <v>0.18761726078797558</v>
       </c>
       <c r="D517">
         <v>5.56</v>
@@ -7685,7 +8263,8 @@
         <v>160.4</v>
       </c>
       <c r="C518">
-        <v>-0.24875621890547711</v>
+        <f t="shared" si="8"/>
+        <v>0.12484394506866447</v>
       </c>
       <c r="D518">
         <v>5.52</v>
@@ -7699,7 +8278,8 @@
         <v>160.80000000000001</v>
       </c>
       <c r="C519">
-        <v>-0.24813895781636841</v>
+        <f t="shared" si="8"/>
+        <v>0.24937655860348684</v>
       </c>
       <c r="D519">
         <v>5.54</v>
@@ -7713,7 +8293,8 @@
         <v>161.19999999999999</v>
       </c>
       <c r="C520">
-        <v>-0.1857585139318996</v>
+        <f t="shared" si="8"/>
+        <v>0.24875621890545485</v>
       </c>
       <c r="D520">
         <v>5.54</v>
@@ -7727,7 +8308,8 @@
         <v>161.5</v>
       </c>
       <c r="C521">
-        <v>-0.1236858379715433</v>
+        <f t="shared" si="8"/>
+        <v>0.18610421836229296</v>
       </c>
       <c r="D521">
         <v>5.5</v>
@@ -7741,7 +8323,8 @@
         <v>161.69999999999999</v>
       </c>
       <c r="C522">
-        <v>-6.1804697156997428E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12383900928791824</v>
       </c>
       <c r="D522">
         <v>5.52</v>
@@ -7755,7 +8338,8 @@
         <v>161.80000000000001</v>
       </c>
       <c r="C523">
-        <v>-0.1234567901234551</v>
+        <f t="shared" si="8"/>
+        <v>6.1842918985788309E-2</v>
       </c>
       <c r="D523">
         <v>5.5</v>
@@ -7769,7 +8353,8 @@
         <v>162</v>
       </c>
       <c r="C524">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.12360939431395046</v>
       </c>
       <c r="D524">
         <v>5.56</v>
@@ -7783,6 +8368,7 @@
         <v>162</v>
       </c>
       <c r="C525">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D525">
@@ -7797,7 +8383,8 @@
         <v>162</v>
       </c>
       <c r="C526">
-        <v>-0.1233045622688</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D526">
         <v>5.49</v>
@@ -7811,7 +8398,8 @@
         <v>162.19999999999999</v>
       </c>
       <c r="C527">
-        <v>-0.24600246002460799</v>
+        <f t="shared" si="8"/>
+        <v>0.12345679012344402</v>
       </c>
       <c r="D527">
         <v>5.45</v>
@@ -7825,7 +8413,8 @@
         <v>162.6</v>
       </c>
       <c r="C528">
-        <v>-0.1228501228501377</v>
+        <f t="shared" si="8"/>
+        <v>0.24660912453762229</v>
       </c>
       <c r="D528">
         <v>5.49</v>
@@ -7839,7 +8428,8 @@
         <v>162.80000000000001</v>
       </c>
       <c r="C529">
-        <v>-0.2450980392156743</v>
+        <f t="shared" si="8"/>
+        <v>0.12300123001232066</v>
       </c>
       <c r="D529">
         <v>5.56</v>
@@ -7853,7 +8443,8 @@
         <v>163.19999999999999</v>
       </c>
       <c r="C530">
-        <v>-0.1223990208078396</v>
+        <f t="shared" si="8"/>
+        <v>0.24570024570023108</v>
       </c>
       <c r="D530">
         <v>5.54</v>
@@ -7867,7 +8458,8 @@
         <v>163.4</v>
       </c>
       <c r="C531">
-        <v>-6.1162079510701517E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1225490196078427</v>
       </c>
       <c r="D531">
         <v>5.55</v>
@@ -7881,7 +8473,8 @@
         <v>163.5</v>
       </c>
       <c r="C532">
-        <v>-0.2440512507626669</v>
+        <f t="shared" si="8"/>
+        <v>6.1199510403908697E-2</v>
       </c>
       <c r="D532">
         <v>5.51</v>
@@ -7895,7 +8488,8 @@
         <v>163.9</v>
       </c>
       <c r="C533">
-        <v>-0.12187690432662319</v>
+        <f t="shared" si="8"/>
+        <v>0.24464831804280607</v>
       </c>
       <c r="D533">
         <v>5.07</v>
@@ -7909,7 +8503,8 @@
         <v>164.1</v>
       </c>
       <c r="C534">
-        <v>-0.18248175182482559</v>
+        <f t="shared" si="8"/>
+        <v>0.12202562538132788</v>
       </c>
       <c r="D534">
         <v>4.83</v>
@@ -7923,7 +8518,8 @@
         <v>164.4</v>
       </c>
       <c r="C535">
-        <v>-0.1821493624772241</v>
+        <f t="shared" si="8"/>
+        <v>0.18281535648996261</v>
       </c>
       <c r="D535">
         <v>4.68</v>
@@ -7937,7 +8533,8 @@
         <v>164.7</v>
       </c>
       <c r="C536">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.18248175182480342</v>
       </c>
       <c r="D536">
         <v>4.63</v>
@@ -7951,7 +8548,8 @@
         <v>164.7</v>
       </c>
       <c r="C537">
-        <v>-6.0679611650493737E-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D537">
         <v>4.76</v>
@@ -7965,7 +8563,8 @@
         <v>164.8</v>
       </c>
       <c r="C538">
-        <v>-0.66305003013863439</v>
+        <f t="shared" si="8"/>
+        <v>6.0716454159082112E-2</v>
       </c>
       <c r="D538">
         <v>4.8099999999999996</v>
@@ -7979,7 +8578,8 @@
         <v>165.9</v>
       </c>
       <c r="C539">
-        <v>-6.0240963855417988E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.66747572815533118</v>
       </c>
       <c r="D539">
         <v>4.74</v>
@@ -7993,7 +8593,8 @@
         <v>166</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6.027727546713546E-2</v>
       </c>
       <c r="D540">
         <v>4.74</v>
@@ -8007,7 +8608,8 @@
         <v>166</v>
       </c>
       <c r="C541">
-        <v>-0.41991601679662871</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D541">
         <v>4.76</v>
@@ -8021,7 +8623,8 @@
         <v>166.7</v>
       </c>
       <c r="C542">
-        <v>-0.23937761819270431</v>
+        <f t="shared" si="8"/>
+        <v>0.42168674698794817</v>
       </c>
       <c r="D542">
         <v>4.99</v>
@@ -8035,7 +8638,8 @@
         <v>167.1</v>
       </c>
       <c r="C543">
-        <v>-0.41716328963051769</v>
+        <f t="shared" si="8"/>
+        <v>0.23995200959807672</v>
       </c>
       <c r="D543">
         <v>5.07</v>
@@ -8049,7 +8653,8 @@
         <v>167.8</v>
       </c>
       <c r="C544">
-        <v>-0.17846519928612639</v>
+        <f t="shared" si="8"/>
+        <v>0.41891083183722699</v>
       </c>
       <c r="D544">
         <v>5.22</v>
@@ -8063,7 +8668,8 @@
         <v>168.1</v>
       </c>
       <c r="C545">
-        <v>-0.17814726840855721</v>
+        <f t="shared" si="8"/>
+        <v>0.17878426698449967</v>
       </c>
       <c r="D545">
         <v>5.2</v>
@@ -8077,7 +8683,8 @@
         <v>168.4</v>
       </c>
       <c r="C546">
-        <v>-0.23696682464455779</v>
+        <f t="shared" si="8"/>
+        <v>0.17846519928614857</v>
       </c>
       <c r="D546">
         <v>5.42</v>
@@ -8091,7 +8698,8 @@
         <v>168.8</v>
       </c>
       <c r="C547">
-        <v>-0.29533372711163519</v>
+        <f t="shared" si="8"/>
+        <v>0.23752969121140222</v>
       </c>
       <c r="D547">
         <v>5.3</v>
@@ -8105,7 +8713,8 @@
         <v>169.3</v>
       </c>
       <c r="C548">
-        <v>-0.41176470588234482</v>
+        <f t="shared" si="8"/>
+        <v>0.2962085308056972</v>
       </c>
       <c r="D548">
         <v>5.45</v>
@@ -8119,7 +8728,8 @@
         <v>170</v>
       </c>
       <c r="C549">
-        <v>-0.58479532163743242</v>
+        <f t="shared" si="8"/>
+        <v>0.41346721795627595</v>
       </c>
       <c r="D549">
         <v>5.73</v>
@@ -8133,7 +8743,8 @@
         <v>171</v>
       </c>
       <c r="C550">
-        <v>5.8513750731425951E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.58823529411764497</v>
       </c>
       <c r="D550">
         <v>5.85</v>
@@ -8147,7 +8758,8 @@
         <v>170.9</v>
       </c>
       <c r="C551">
-        <v>-0.17523364485980689</v>
+        <f t="shared" si="8"/>
+        <v>-5.847953216373547E-2</v>
       </c>
       <c r="D551">
         <v>6.02</v>
@@ -8161,7 +8773,8 @@
         <v>171.2</v>
       </c>
       <c r="C552">
-        <v>-0.5807200929152101</v>
+        <f t="shared" si="8"/>
+        <v>0.17554125219425565</v>
       </c>
       <c r="D552">
         <v>6.27</v>
@@ -8175,7 +8788,8 @@
         <v>172.2</v>
       </c>
       <c r="C553">
-        <v>-0.28951939779965352</v>
+        <f t="shared" si="8"/>
+        <v>0.58411214953271173</v>
       </c>
       <c r="D553">
         <v>6.53</v>
@@ -8189,7 +8803,8 @@
         <v>172.7</v>
       </c>
       <c r="C554">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.29036004645761615</v>
       </c>
       <c r="D554">
         <v>6.54</v>
@@ -8203,7 +8818,8 @@
         <v>172.7</v>
       </c>
       <c r="C555">
-        <v>-0.51843317972350977</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D555">
         <v>6.5</v>
@@ -8217,7 +8833,8 @@
         <v>173.6</v>
       </c>
       <c r="C556">
-        <v>-0.1725129384703927</v>
+        <f t="shared" si="8"/>
+        <v>0.52113491603937856</v>
       </c>
       <c r="D556">
         <v>6.52</v>
@@ -8231,7 +8848,8 @@
         <v>173.9</v>
       </c>
       <c r="C557">
-        <v>-0.17221584385762601</v>
+        <f t="shared" si="8"/>
+        <v>0.17281105990785139</v>
       </c>
       <c r="D557">
         <v>6.51</v>
@@ -8245,7 +8863,8 @@
         <v>174.2</v>
       </c>
       <c r="C558">
-        <v>-0.22909507445589841</v>
+        <f t="shared" si="8"/>
+        <v>0.17251293847038163</v>
       </c>
       <c r="D558">
         <v>6.51</v>
@@ -8259,7 +8878,8 @@
         <v>174.6</v>
       </c>
       <c r="C559">
-        <v>-0.56947608200456079</v>
+        <f t="shared" si="8"/>
+        <v>0.22962112514350874</v>
       </c>
       <c r="D559">
         <v>6.4</v>
@@ -8273,7 +8893,8 @@
         <v>175.6</v>
       </c>
       <c r="C560">
-        <v>-0.22727272727273151</v>
+        <f t="shared" si="8"/>
+        <v>0.57273768613974596</v>
       </c>
       <c r="D560">
         <v>5.98</v>
@@ -8287,7 +8908,8 @@
         <v>176</v>
       </c>
       <c r="C561">
-        <v>-5.6785917092561089E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.2277904328018332</v>
       </c>
       <c r="D561">
         <v>5.49</v>
@@ -8301,7 +8923,8 @@
         <v>176.1</v>
       </c>
       <c r="C562">
-        <v>-0.17006802721089009</v>
+        <f t="shared" si="8"/>
+        <v>5.6818181818174551E-2</v>
       </c>
       <c r="D562">
         <v>5.31</v>
@@ -8315,7 +8938,8 @@
         <v>176.4</v>
       </c>
       <c r="C563">
-        <v>-0.50761421319797106</v>
+        <f t="shared" si="8"/>
+        <v>0.17035775127769437</v>
       </c>
       <c r="D563">
         <v>4.8</v>
@@ -8329,7 +8953,8 @@
         <v>177.3</v>
       </c>
       <c r="C564">
-        <v>-0.2250984805852396</v>
+        <f t="shared" si="8"/>
+        <v>0.51020408163264808</v>
       </c>
       <c r="D564">
         <v>4.21</v>
@@ -8343,7 +8968,8 @@
         <v>177.7</v>
       </c>
       <c r="C565">
-        <v>0.16910935738443381</v>
+        <f t="shared" si="8"/>
+        <v>0.22560631697685629</v>
       </c>
       <c r="D565">
         <v>3.97</v>
@@ -8357,7 +8983,8 @@
         <v>177.4</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-0.16882386043892694</v>
       </c>
       <c r="D566">
         <v>3.77</v>
@@ -8371,7 +8998,8 @@
         <v>177.4</v>
       </c>
       <c r="C567">
-        <v>-0.39303761931498432</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D567">
         <v>3.65</v>
@@ -8385,7 +9013,8 @@
         <v>178.1</v>
       </c>
       <c r="C568">
-        <v>0.28153153153154248</v>
+        <f t="shared" si="8"/>
+        <v>0.39458850056368622</v>
       </c>
       <c r="D568">
         <v>3.07</v>
@@ -8399,7 +9028,8 @@
         <v>177.6</v>
       </c>
       <c r="C569">
-        <v>5.6338028169000687E-2</v>
+        <f t="shared" si="8"/>
+        <v>-0.28074115665356336</v>
       </c>
       <c r="D569">
         <v>2.4900000000000002</v>
@@ -8413,7 +9043,8 @@
         <v>177.5</v>
       </c>
       <c r="C570">
-        <v>5.6369785794818661E-2</v>
+        <f t="shared" si="8"/>
+        <v>-5.6306306306308507E-2</v>
       </c>
       <c r="D570">
         <v>2.09</v>
@@ -8427,7 +9058,8 @@
         <v>177.4</v>
       </c>
       <c r="C571">
-        <v>-0.16882386043892689</v>
+        <f t="shared" si="8"/>
+        <v>-5.6338028169011789E-2</v>
       </c>
       <c r="D571">
         <v>1.82</v>
@@ -8441,7 +9073,8 @@
         <v>177.7</v>
       </c>
       <c r="C572">
-        <v>-0.16853932584269821</v>
+        <f t="shared" si="8"/>
+        <v>0.16910935738443378</v>
       </c>
       <c r="D572">
         <v>1.73</v>
@@ -8455,7 +9088,8 @@
         <v>178</v>
       </c>
       <c r="C573">
-        <v>-0.28011204481792618</v>
+        <f t="shared" si="8"/>
+        <v>0.16882386043894915</v>
       </c>
       <c r="D573">
         <v>1.74</v>
@@ -8469,7 +9103,8 @@
         <v>178.5</v>
       </c>
       <c r="C574">
-        <v>-0.44617958728389029</v>
+        <f t="shared" si="8"/>
+        <v>0.28089887640450062</v>
       </c>
       <c r="D574">
         <v>1.73</v>
@@ -8483,7 +9118,8 @@
         <v>179.3</v>
       </c>
       <c r="C575">
-        <v>-0.1114206128133621</v>
+        <f t="shared" si="8"/>
+        <v>0.44817927170868188</v>
       </c>
       <c r="D575">
         <v>1.75</v>
@@ -8497,7 +9133,8 @@
         <v>179.5</v>
       </c>
       <c r="C576">
-        <v>-5.5679287305121512E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1115448968209698</v>
       </c>
       <c r="D576">
         <v>1.75</v>
@@ -8511,7 +9148,8 @@
         <v>179.6</v>
       </c>
       <c r="C577">
-        <v>-0.22222222222222371</v>
+        <f t="shared" si="8"/>
+        <v>5.5710306406675514E-2</v>
       </c>
       <c r="D577">
         <v>1.75</v>
@@ -8525,7 +9163,8 @@
         <v>180</v>
       </c>
       <c r="C578">
-        <v>-0.27700831024930478</v>
+        <f t="shared" si="8"/>
+        <v>0.22271714922048602</v>
       </c>
       <c r="D578">
         <v>1.73</v>
@@ -8539,7 +9178,8 @@
         <v>180.5</v>
       </c>
       <c r="C579">
-        <v>-0.1659292035398274</v>
+        <f t="shared" si="8"/>
+        <v>0.27777777777777679</v>
       </c>
       <c r="D579">
         <v>1.74</v>
@@ -8553,7 +9193,8 @@
         <v>180.8</v>
       </c>
       <c r="C580">
-        <v>-0.22075055187636969</v>
+        <f t="shared" ref="C580:C643" si="9">(B580/B579-1)*100</f>
+        <v>0.16620498614958734</v>
       </c>
       <c r="D580">
         <v>1.75</v>
@@ -8567,7 +9208,8 @@
         <v>181.2</v>
       </c>
       <c r="C581">
-        <v>-0.16528925619835319</v>
+        <f t="shared" si="9"/>
+        <v>0.22123893805308104</v>
       </c>
       <c r="D581">
         <v>1.75</v>
@@ -8581,7 +9223,8 @@
         <v>181.5</v>
       </c>
       <c r="C582">
-        <v>-0.16501650165017259</v>
+        <f t="shared" si="9"/>
+        <v>0.16556291390728006</v>
       </c>
       <c r="D582">
         <v>1.34</v>
@@ -8595,7 +9238,8 @@
         <v>181.8</v>
       </c>
       <c r="C583">
-        <v>-0.43811610076669449</v>
+        <f t="shared" si="9"/>
+        <v>0.16528925619836432</v>
       </c>
       <c r="D583">
         <v>1.24</v>
@@ -8609,7 +9253,8 @@
         <v>182.6</v>
       </c>
       <c r="C584">
-        <v>-0.54466230936819349</v>
+        <f t="shared" si="9"/>
+        <v>0.44004400440043057</v>
       </c>
       <c r="D584">
         <v>1.24</v>
@@ -8623,7 +9268,8 @@
         <v>183.6</v>
       </c>
       <c r="C585">
-        <v>-0.1631321370309968</v>
+        <f t="shared" si="9"/>
+        <v>0.54764512595837367</v>
       </c>
       <c r="D585">
         <v>1.26</v>
@@ -8637,7 +9283,8 @@
         <v>183.9</v>
       </c>
       <c r="C586">
-        <v>0.38209606986900901</v>
+        <f t="shared" si="9"/>
+        <v>0.16339869281045694</v>
       </c>
       <c r="D586">
         <v>1.25</v>
@@ -8651,7 +9298,8 @@
         <v>183.2</v>
       </c>
       <c r="C587">
-        <v>0.16402405686166691</v>
+        <f t="shared" si="9"/>
+        <v>-0.38064165307233333</v>
       </c>
       <c r="D587">
         <v>1.26</v>
@@ -8665,7 +9313,8 @@
         <v>182.9</v>
       </c>
       <c r="C588">
-        <v>-0.10922992900054269</v>
+        <f t="shared" si="9"/>
+        <v>-0.16375545851528006</v>
       </c>
       <c r="D588">
         <v>1.26</v>
@@ -8679,7 +9328,8 @@
         <v>183.1</v>
       </c>
       <c r="C589">
-        <v>-0.32661948829613152</v>
+        <f t="shared" si="9"/>
+        <v>0.10934937124111865</v>
       </c>
       <c r="D589">
         <v>1.22</v>
@@ -8693,7 +9343,8 @@
         <v>183.7</v>
       </c>
       <c r="C590">
-        <v>-0.43360433604336951</v>
+        <f t="shared" si="9"/>
+        <v>0.32768978700163931</v>
       </c>
       <c r="D590">
         <v>1.01</v>
@@ -8707,7 +9358,8 @@
         <v>184.5</v>
       </c>
       <c r="C591">
-        <v>-0.32414910858994389</v>
+        <f t="shared" si="9"/>
+        <v>0.4354926510615087</v>
       </c>
       <c r="D591">
         <v>1.03</v>
@@ -8721,7 +9373,8 @@
         <v>185.1</v>
       </c>
       <c r="C592">
-        <v>0.1081665765278572</v>
+        <f t="shared" si="9"/>
+        <v>0.32520325203251321</v>
       </c>
       <c r="D592">
         <v>1.01</v>
@@ -8735,7 +9388,8 @@
         <v>184.9</v>
       </c>
       <c r="C593">
-        <v>-5.4054054054053502E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.10804970286331095</v>
       </c>
       <c r="D593">
         <v>1.01</v>
@@ -8749,7 +9403,8 @@
         <v>185</v>
       </c>
       <c r="C594">
-        <v>-0.26954177897574588</v>
+        <f t="shared" si="9"/>
+        <v>5.4083288263928608E-2</v>
       </c>
       <c r="D594">
         <v>1</v>
@@ -8763,7 +9418,8 @@
         <v>185.5</v>
       </c>
       <c r="C595">
-        <v>-0.42941492216854732</v>
+        <f t="shared" si="9"/>
+        <v>0.27027027027026751</v>
       </c>
       <c r="D595">
         <v>0.98</v>
@@ -8777,7 +9433,8 @@
         <v>186.3</v>
       </c>
       <c r="C596">
-        <v>-0.21424745581144489</v>
+        <f t="shared" si="9"/>
+        <v>0.43126684636118906</v>
       </c>
       <c r="D596">
         <v>1</v>
@@ -8791,7 +9448,8 @@
         <v>186.7</v>
       </c>
       <c r="C597">
-        <v>-0.2137894174238375</v>
+        <f t="shared" si="9"/>
+        <v>0.21470746108425143</v>
       </c>
       <c r="D597">
         <v>1.01</v>
@@ -8805,7 +9463,8 @@
         <v>187.1</v>
       </c>
       <c r="C598">
-        <v>-0.16008537886873511</v>
+        <f t="shared" si="9"/>
+        <v>0.21424745581146709</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -8819,7 +9478,8 @@
         <v>187.4</v>
       </c>
       <c r="C599">
-        <v>-0.42507970244419768</v>
+        <f t="shared" si="9"/>
+        <v>0.16034206306787535</v>
       </c>
       <c r="D599">
         <v>1</v>
@@ -8833,7 +9493,8 @@
         <v>188.2</v>
       </c>
       <c r="C600">
-        <v>-0.37056643726840482</v>
+        <f t="shared" si="9"/>
+        <v>0.42689434364993062</v>
       </c>
       <c r="D600">
         <v>1</v>
@@ -8847,7 +9508,8 @@
         <v>188.9</v>
       </c>
       <c r="C601">
-        <v>-0.1057641459545122</v>
+        <f t="shared" si="9"/>
+        <v>0.37194473963868546</v>
       </c>
       <c r="D601">
         <v>1.03</v>
@@ -8861,7 +9523,8 @@
         <v>189.1</v>
       </c>
       <c r="C602">
-        <v>-5.2854122621559529E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.10587612493382359</v>
       </c>
       <c r="D602">
         <v>1.26</v>
@@ -8875,7 +9538,8 @@
         <v>189.2</v>
       </c>
       <c r="C603">
-        <v>-0.31612223393046041</v>
+        <f t="shared" si="9"/>
+        <v>5.2882072977267214E-2</v>
       </c>
       <c r="D603">
         <v>1.43</v>
@@ -8889,7 +9553,8 @@
         <v>189.8</v>
       </c>
       <c r="C604">
-        <v>-0.524109014675056</v>
+        <f t="shared" si="9"/>
+        <v>0.31712473572940159</v>
       </c>
       <c r="D604">
         <v>1.61</v>
@@ -8903,7 +9568,8 @@
         <v>190.8</v>
       </c>
       <c r="C605">
-        <v>-0.46948356807510189</v>
+        <f t="shared" si="9"/>
+        <v>0.52687038988408208</v>
       </c>
       <c r="D605">
         <v>1.76</v>
@@ -8917,7 +9583,8 @@
         <v>191.7</v>
       </c>
       <c r="C606">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.47169811320753041</v>
       </c>
       <c r="D606">
         <v>1.93</v>
@@ -8931,7 +9598,8 @@
         <v>191.7</v>
       </c>
       <c r="C607">
-        <v>5.2192066805845087E-2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D607">
         <v>2.16</v>
@@ -8945,7 +9613,8 @@
         <v>191.6</v>
       </c>
       <c r="C608">
-        <v>-0.41580041580042693</v>
+        <f t="shared" si="9"/>
+        <v>-5.2164840897228615E-2</v>
       </c>
       <c r="D608">
         <v>2.2799999999999998</v>
@@ -8959,7 +9628,8 @@
         <v>192.4</v>
       </c>
       <c r="C609">
-        <v>-0.36250647332987113</v>
+        <f t="shared" si="9"/>
+        <v>0.41753653444676075</v>
       </c>
       <c r="D609">
         <v>2.5</v>
@@ -8973,7 +9643,8 @@
         <v>193.1</v>
       </c>
       <c r="C610">
-        <v>-0.30975735673721688</v>
+        <f t="shared" si="9"/>
+        <v>0.36382536382535413</v>
       </c>
       <c r="D610">
         <v>2.63</v>
@@ -8987,7 +9658,8 @@
         <v>193.7</v>
       </c>
       <c r="C611">
-        <v>5.1652892561970809E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.31071983428274663</v>
       </c>
       <c r="D611">
         <v>2.79</v>
@@ -9001,6 +9673,7 @@
         <v>193.6</v>
       </c>
       <c r="C612">
+        <f t="shared" si="9"/>
         <v>-5.162622612286949E-2</v>
       </c>
       <c r="D612">
@@ -9015,7 +9688,8 @@
         <v>193.7</v>
       </c>
       <c r="C613">
-        <v>-0.61570035915855525</v>
+        <f t="shared" si="9"/>
+        <v>5.1652892561970809E-2</v>
       </c>
       <c r="D613">
         <v>3.04</v>
@@ -9029,7 +9703,8 @@
         <v>194.9</v>
       </c>
       <c r="C614">
-        <v>-0.61193268740438178</v>
+        <f t="shared" si="9"/>
+        <v>0.61951471347445608</v>
       </c>
       <c r="D614">
         <v>3.26</v>
@@ -9043,7 +9718,8 @@
         <v>196.1</v>
       </c>
       <c r="C615">
-        <v>-1.3581488933601671</v>
+        <f t="shared" si="9"/>
+        <v>0.61570035915854415</v>
       </c>
       <c r="D615">
         <v>3.5</v>
@@ -9057,7 +9733,8 @@
         <v>198.8</v>
       </c>
       <c r="C616">
-        <v>-0.15067805123052391</v>
+        <f t="shared" si="9"/>
+        <v>1.3768485466598701</v>
       </c>
       <c r="D616">
         <v>3.62</v>
@@ -9071,7 +9748,8 @@
         <v>199.1</v>
       </c>
       <c r="C617">
-        <v>0.50479555779909813</v>
+        <f t="shared" si="9"/>
+        <v>0.15090543259557165</v>
       </c>
       <c r="D617">
         <v>3.78</v>
@@ -9085,7 +9763,8 @@
         <v>198.1</v>
       </c>
       <c r="C618">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.50226017076845375</v>
       </c>
       <c r="D618">
         <v>4</v>
@@ -9099,7 +9778,8 @@
         <v>198.1</v>
       </c>
       <c r="C619">
-        <v>-0.60210737581536389</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D619">
         <v>4.16</v>
@@ -9113,7 +9793,8 @@
         <v>199.3</v>
       </c>
       <c r="C620">
-        <v>-5.015045135405849E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.60575466935892663</v>
       </c>
       <c r="D620">
         <v>4.29</v>
@@ -9127,7 +9808,8 @@
         <v>199.4</v>
       </c>
       <c r="C621">
-        <v>-0.15022533800700399</v>
+        <f t="shared" si="9"/>
+        <v>5.0175614651282174E-2</v>
       </c>
       <c r="D621">
         <v>4.49</v>
@@ -9141,7 +9823,8 @@
         <v>199.7</v>
       </c>
       <c r="C622">
-        <v>-0.49825610363727352</v>
+        <f t="shared" si="9"/>
+        <v>0.15045135406217547</v>
       </c>
       <c r="D622">
         <v>4.59</v>
@@ -9155,7 +9838,8 @@
         <v>200.7</v>
       </c>
       <c r="C623">
-        <v>-0.29806259314457678</v>
+        <f t="shared" si="9"/>
+        <v>0.50075112669003552</v>
       </c>
       <c r="D623">
         <v>4.79</v>
@@ -9169,7 +9853,8 @@
         <v>201.3</v>
       </c>
       <c r="C624">
-        <v>-0.2477700693756191</v>
+        <f t="shared" si="9"/>
+        <v>0.2989536621823774</v>
       </c>
       <c r="D624">
         <v>4.9400000000000004</v>
@@ -9183,7 +9868,8 @@
         <v>201.8</v>
       </c>
       <c r="C625">
-        <v>-0.54213898472152966</v>
+        <f t="shared" si="9"/>
+        <v>0.24838549428713996</v>
       </c>
       <c r="D625">
         <v>4.99</v>
@@ -9197,7 +9883,8 @@
         <v>202.9</v>
       </c>
       <c r="C626">
-        <v>-0.44160942100098799</v>
+        <f t="shared" si="9"/>
+        <v>0.54509415262635752</v>
       </c>
       <c r="D626">
         <v>5.24</v>
@@ -9211,7 +9898,8 @@
         <v>203.8</v>
       </c>
       <c r="C627">
-        <v>0.4930966469427922</v>
+        <f t="shared" si="9"/>
+        <v>0.44356826022671214</v>
       </c>
       <c r="D627">
         <v>5.25</v>
@@ -9225,7 +9913,8 @@
         <v>202.8</v>
       </c>
       <c r="C628">
-        <v>0.44576523031203408</v>
+        <f t="shared" si="9"/>
+        <v>-0.49067713444553851</v>
       </c>
       <c r="D628">
         <v>5.25</v>
@@ -9239,7 +9928,8 @@
         <v>201.9</v>
       </c>
       <c r="C629">
-        <v>-4.9504950495049549E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.44378698224852853</v>
       </c>
       <c r="D629">
         <v>5.25</v>
@@ -9253,7 +9943,8 @@
         <v>202</v>
       </c>
       <c r="C630">
-        <v>-0.54160512063022859</v>
+        <f t="shared" si="9"/>
+        <v>4.9529470034670453E-2</v>
       </c>
       <c r="D630">
         <v>5.25</v>
@@ -9267,7 +9958,8 @@
         <v>203.1</v>
       </c>
       <c r="C631">
-        <v>-0.16565324891736341</v>
+        <f t="shared" si="9"/>
+        <v>0.54455445544554504</v>
       </c>
       <c r="D631">
         <v>5.24</v>
@@ -9281,7 +9973,8 @@
         <v>203.43700000000001</v>
       </c>
       <c r="C632">
-        <v>-0.38633670541458048</v>
+        <f t="shared" si="9"/>
+        <v>0.1659281142294633</v>
       </c>
       <c r="D632">
         <v>5.25</v>
@@ -9295,7 +9988,8 @@
         <v>204.226</v>
       </c>
       <c r="C633">
-        <v>-0.51732200615720592</v>
+        <f t="shared" si="9"/>
+        <v>0.38783505458692691</v>
       </c>
       <c r="D633">
         <v>5.26</v>
@@ -9309,7 +10003,8 @@
         <v>205.28800000000001</v>
       </c>
       <c r="C634">
-        <v>-0.2991685445644543</v>
+        <f t="shared" si="9"/>
+        <v>0.52001214340975377</v>
       </c>
       <c r="D634">
         <v>5.26</v>
@@ -9323,7 +10018,8 @@
         <v>205.904</v>
       </c>
       <c r="C635">
-        <v>-0.41159826848201631</v>
+        <f t="shared" si="9"/>
+        <v>0.30006624839249429</v>
       </c>
       <c r="D635">
         <v>5.25</v>
@@ -9337,7 +10033,8 @@
         <v>206.755</v>
       </c>
       <c r="C636">
-        <v>-0.2311396778520991</v>
+        <f t="shared" si="9"/>
+        <v>0.41329940166290324</v>
       </c>
       <c r="D636">
         <v>5.25</v>
@@ -9351,7 +10048,8 @@
         <v>207.23400000000001</v>
       </c>
       <c r="C637">
-        <v>-0.1777430961980353</v>
+        <f t="shared" si="9"/>
+        <v>0.23167517109623503</v>
       </c>
       <c r="D637">
         <v>5.25</v>
@@ -9365,7 +10063,8 @@
         <v>207.60300000000001</v>
       </c>
       <c r="C638">
-        <v>-3.0818570114654609E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.17805958481715844</v>
       </c>
       <c r="D638">
         <v>5.26</v>
@@ -9379,7 +10078,8 @@
         <v>207.667</v>
       </c>
       <c r="C639">
-        <v>-0.42196723040849321</v>
+        <f t="shared" si="9"/>
+        <v>3.0828070885302594E-2</v>
       </c>
       <c r="D639">
         <v>5.0199999999999996</v>
@@ -9393,7 +10093,8 @@
         <v>208.547</v>
       </c>
       <c r="C640">
-        <v>-0.30737606960179459</v>
+        <f t="shared" si="9"/>
+        <v>0.42375533907650365</v>
       </c>
       <c r="D640">
         <v>4.9400000000000004</v>
@@ -9407,7 +10108,8 @@
         <v>209.19</v>
       </c>
       <c r="C641">
-        <v>-0.77976038020433069</v>
+        <f t="shared" si="9"/>
+        <v>0.30832378312801723</v>
       </c>
       <c r="D641">
         <v>4.76</v>
@@ -9421,7 +10123,8 @@
         <v>210.834</v>
       </c>
       <c r="C642">
-        <v>-0.28896403320012309</v>
+        <f t="shared" si="9"/>
+        <v>0.7858884267890387</v>
       </c>
       <c r="D642">
         <v>4.49</v>
@@ -9435,7 +10138,8 @@
         <v>211.44499999999999</v>
       </c>
       <c r="C643">
-        <v>-0.34358592475987049</v>
+        <f t="shared" si="9"/>
+        <v>0.28980145517325528</v>
       </c>
       <c r="D643">
         <v>4.24</v>
@@ -9449,7 +10153,8 @@
         <v>212.17400000000001</v>
       </c>
       <c r="C644">
-        <v>-0.24119950913784599</v>
+        <f t="shared" ref="C644:C707" si="10">(B644/B643-1)*100</f>
+        <v>0.34477050769703421</v>
       </c>
       <c r="D644">
         <v>3.94</v>
@@ -9463,7 +10168,8 @@
         <v>212.68700000000001</v>
       </c>
       <c r="C645">
-        <v>-0.35652711667478743</v>
+        <f t="shared" si="10"/>
+        <v>0.24178268779397882</v>
       </c>
       <c r="D645">
         <v>2.98</v>
@@ -9477,7 +10183,8 @@
         <v>213.44800000000001</v>
       </c>
       <c r="C646">
-        <v>-0.23090370287274231</v>
+        <f t="shared" si="10"/>
+        <v>0.3578027806118822</v>
       </c>
       <c r="D646">
         <v>2.61</v>
@@ -9491,7 +10198,8 @@
         <v>213.94200000000001</v>
       </c>
       <c r="C647">
-        <v>-0.58826809412289016</v>
+        <f t="shared" si="10"/>
+        <v>0.23143810202015391</v>
       </c>
       <c r="D647">
         <v>2.2799999999999998</v>
@@ -9505,7 +10213,8 @@
         <v>215.208</v>
       </c>
       <c r="C648">
-        <v>-1.03695801124789</v>
+        <f t="shared" si="10"/>
+        <v>0.59174916566171465</v>
       </c>
       <c r="D648">
         <v>1.98</v>
@@ -9519,7 +10228,8 @@
         <v>217.46299999999999</v>
       </c>
       <c r="C649">
-        <v>-0.70908061511487652</v>
+        <f t="shared" si="10"/>
+        <v>1.04782350098509</v>
       </c>
       <c r="D649">
         <v>2</v>
@@ -9533,7 +10243,8 @@
         <v>219.01599999999999</v>
       </c>
       <c r="C650">
-        <v>0.14906945905162061</v>
+        <f t="shared" si="10"/>
+        <v>0.71414447515210089</v>
       </c>
       <c r="D650">
         <v>2.0099999999999998</v>
@@ -9547,7 +10258,8 @@
         <v>218.69</v>
       </c>
       <c r="C651">
-        <v>-8.5436112519821084E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.14884757278006422</v>
       </c>
       <c r="D651">
         <v>2</v>
@@ -9561,7 +10273,8 @@
         <v>218.87700000000001</v>
       </c>
       <c r="C652">
-        <v>0.86730108988686272</v>
+        <f t="shared" si="10"/>
+        <v>8.550916822900323E-2</v>
       </c>
       <c r="D652">
         <v>1.81</v>
@@ -9575,7 +10288,8 @@
         <v>216.995</v>
       </c>
       <c r="C653">
-        <v>1.8024611429348969</v>
+        <f t="shared" si="10"/>
+        <v>-0.85984365648286154</v>
       </c>
       <c r="D653">
         <v>0.97</v>
@@ -9589,7 +10303,8 @@
         <v>213.15299999999999</v>
       </c>
       <c r="C654">
-        <v>0.83018760820821047</v>
+        <f t="shared" si="10"/>
+        <v>-1.7705477084725474</v>
       </c>
       <c r="D654">
         <v>0.39</v>
@@ -9603,7 +10318,8 @@
         <v>211.398</v>
       </c>
       <c r="C655">
-        <v>-0.25243827058550877</v>
+        <f t="shared" si="10"/>
+        <v>-0.82335223994032258</v>
       </c>
       <c r="D655">
         <v>0.16</v>
@@ -9617,7 +10333,8 @@
         <v>211.93299999999999</v>
       </c>
       <c r="C656">
-        <v>-0.36294398345126933</v>
+        <f t="shared" si="10"/>
+        <v>0.25307713412614508</v>
       </c>
       <c r="D656">
         <v>0.15</v>
@@ -9631,7 +10348,8 @@
         <v>212.70500000000001</v>
       </c>
       <c r="C657">
-        <v>9.882585472600347E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.36426606521873239</v>
       </c>
       <c r="D657">
         <v>0.22</v>
@@ -9645,7 +10363,8 @@
         <v>212.495</v>
       </c>
       <c r="C658">
-        <v>-0.10060693247582191</v>
+        <f t="shared" si="10"/>
+        <v>-9.8728285653848502E-2</v>
       </c>
       <c r="D658">
         <v>0.18</v>
@@ -9659,7 +10378,8 @@
         <v>212.709</v>
       </c>
       <c r="C659">
-        <v>-0.14693318061044239</v>
+        <f t="shared" si="10"/>
+        <v>0.10070825195886979</v>
       </c>
       <c r="D659">
         <v>0.15</v>
@@ -9673,7 +10393,8 @@
         <v>213.02199999999999</v>
       </c>
       <c r="C660">
-        <v>-0.82312956841565921</v>
+        <f t="shared" si="10"/>
+        <v>0.14714939189219844</v>
       </c>
       <c r="D660">
         <v>0.18</v>
@@ -9687,7 +10408,8 @@
         <v>214.79</v>
       </c>
       <c r="C661">
-        <v>2.9805426450457691E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.82996122466223454</v>
       </c>
       <c r="D661">
         <v>0.21</v>
@@ -9701,7 +10423,8 @@
         <v>214.726</v>
       </c>
       <c r="C662">
-        <v>-0.33372786558053541</v>
+        <f t="shared" si="10"/>
+        <v>-2.9796545463012247E-2</v>
       </c>
       <c r="D662">
         <v>0.16</v>
@@ -9715,7 +10438,8 @@
         <v>215.44499999999999</v>
       </c>
       <c r="C663">
-        <v>-0.1927166092995036</v>
+        <f t="shared" si="10"/>
+        <v>0.33484533777929926</v>
       </c>
       <c r="D663">
         <v>0.16</v>
@@ -9729,7 +10453,8 @@
         <v>215.86099999999999</v>
       </c>
       <c r="C664">
-        <v>-0.29929471754061021</v>
+        <f t="shared" si="10"/>
+        <v>0.19308872334005134</v>
       </c>
       <c r="D664">
         <v>0.15</v>
@@ -9743,7 +10468,8 @@
         <v>216.50899999999999</v>
       </c>
       <c r="C665">
-        <v>-0.33374149534604047</v>
+        <f t="shared" si="10"/>
+        <v>0.3001931798703783</v>
       </c>
       <c r="D665">
         <v>0.12</v>
@@ -9757,7 +10483,8 @@
         <v>217.23400000000001</v>
       </c>
       <c r="C666">
-        <v>-5.1990595683404361E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.33485905897676638</v>
       </c>
       <c r="D666">
         <v>0.12</v>
@@ -9771,7 +10498,8 @@
         <v>217.34700000000001</v>
       </c>
       <c r="C667">
-        <v>-6.4831163098644229E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.2017639964274665E-2</v>
       </c>
       <c r="D667">
         <v>0.12</v>
@@ -9785,7 +10513,8 @@
         <v>217.488</v>
       </c>
       <c r="C668">
-        <v>9.526833915527444E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.4873221162464745E-2</v>
       </c>
       <c r="D668">
         <v>0.11</v>
@@ -9799,7 +10528,8 @@
         <v>217.28100000000001</v>
       </c>
       <c r="C669">
-        <v>-3.3125836772440742E-2</v>
+        <f t="shared" si="10"/>
+        <v>-9.5177664974621656E-2</v>
       </c>
       <c r="D669">
         <v>0.13</v>
@@ -9813,7 +10543,8 @@
         <v>217.35300000000001</v>
       </c>
       <c r="C670">
-        <v>-2.2998762666559539E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.3136813619227823E-2</v>
       </c>
       <c r="D670">
         <v>0.16</v>
@@ -9827,7 +10558,8 @@
         <v>217.40299999999999</v>
       </c>
       <c r="C671">
-        <v>5.2004233973024228E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.3004053314190642E-2</v>
       </c>
       <c r="D671">
         <v>0.2</v>
@@ -9841,7 +10573,8 @@
         <v>217.29</v>
       </c>
       <c r="C672">
-        <v>4.1897062141171837E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.1977203626440982E-2</v>
       </c>
       <c r="D672">
         <v>0.2</v>
@@ -9855,7 +10588,8 @@
         <v>217.19900000000001</v>
       </c>
       <c r="C673">
-        <v>-0.18657659520689979</v>
+        <f t="shared" si="10"/>
+        <v>-4.1879515854381655E-2</v>
       </c>
       <c r="D673">
         <v>0.18</v>
@@ -9869,7 +10603,8 @@
         <v>217.60499999999999</v>
       </c>
       <c r="C674">
-        <v>-0.14592310127889971</v>
+        <f t="shared" si="10"/>
+        <v>0.18692535416828804</v>
       </c>
       <c r="D674">
         <v>0.18</v>
@@ -9883,7 +10618,8 @@
         <v>217.923</v>
       </c>
       <c r="C675">
-        <v>-0.1612644599702229</v>
+        <f t="shared" si="10"/>
+        <v>0.14613634796996067</v>
       </c>
       <c r="D675">
         <v>0.19</v>
@@ -9897,7 +10633,8 @@
         <v>218.27500000000001</v>
       </c>
       <c r="C676">
-        <v>-0.34697651060332507</v>
+        <f t="shared" si="10"/>
+        <v>0.16152494229613179</v>
       </c>
       <c r="D676">
         <v>0.19</v>
@@ -9911,7 +10648,8 @@
         <v>219.035</v>
       </c>
       <c r="C677">
-        <v>-0.25274374971537839</v>
+        <f t="shared" si="10"/>
+        <v>0.34818462948116302</v>
       </c>
       <c r="D677">
         <v>0.19</v>
@@ -9925,7 +10663,8 @@
         <v>219.59</v>
       </c>
       <c r="C678">
-        <v>-0.40005080010160338</v>
+        <f t="shared" si="10"/>
+        <v>0.25338416234848005</v>
       </c>
       <c r="D678">
         <v>0.19</v>
@@ -9939,7 +10678,8 @@
         <v>220.47200000000001</v>
       </c>
       <c r="C679">
-        <v>-0.32325588755216522</v>
+        <f t="shared" si="10"/>
+        <v>0.40165763468282822</v>
       </c>
       <c r="D679">
         <v>0.18</v>
@@ -9953,7 +10693,8 @@
         <v>221.18700000000001</v>
       </c>
       <c r="C680">
-        <v>-0.32041748911660889</v>
+        <f t="shared" si="10"/>
+        <v>0.32430422003701942</v>
       </c>
       <c r="D680">
         <v>0.17</v>
@@ -9967,7 +10708,8 @@
         <v>221.898</v>
       </c>
       <c r="C681">
-        <v>-0.51469203662024565</v>
+        <f t="shared" si="10"/>
+        <v>0.32144746300641902</v>
       </c>
       <c r="D681">
         <v>0.16</v>
@@ -9981,7 +10723,8 @@
         <v>223.04599999999999</v>
       </c>
       <c r="C682">
-        <v>-0.46721673590874868</v>
+        <f t="shared" si="10"/>
+        <v>0.51735482068338001</v>
       </c>
       <c r="D682">
         <v>0.14000000000000001</v>
@@ -9995,7 +10738,8 @@
         <v>224.09299999999999</v>
       </c>
       <c r="C683">
-        <v>-0.31716235331797898</v>
+        <f t="shared" si="10"/>
+        <v>0.46940989750992035</v>
       </c>
       <c r="D683">
         <v>0.1</v>
@@ -10009,7 +10753,8 @@
         <v>224.80600000000001</v>
       </c>
       <c r="C684">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.31817147345076791</v>
       </c>
       <c r="D684">
         <v>0.09</v>
@@ -10023,7 +10768,8 @@
         <v>224.80600000000001</v>
       </c>
       <c r="C685">
-        <v>-0.26131901772443727</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="D685">
         <v>0.09</v>
@@ -10037,7 +10783,8 @@
         <v>225.39500000000001</v>
       </c>
       <c r="C686">
-        <v>-0.31445428250466151</v>
+        <f t="shared" si="10"/>
+        <v>0.26200368317570444</v>
       </c>
       <c r="D686">
         <v>7.0000000000000007E-2</v>
@@ -10051,7 +10798,8 @@
         <v>226.10599999999999</v>
       </c>
       <c r="C687">
-        <v>-0.21668424559901919</v>
+        <f t="shared" si="10"/>
+        <v>0.31544621664187922</v>
       </c>
       <c r="D687">
         <v>0.1</v>
@@ -10065,7 +10813,8 @@
         <v>226.59700000000001</v>
       </c>
       <c r="C688">
-        <v>-6.7475192943766693E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.21715478580843772</v>
       </c>
       <c r="D688">
         <v>0.08</v>
@@ -10079,7 +10828,8 @@
         <v>226.75</v>
       </c>
       <c r="C689">
-        <v>-0.18444418032390611</v>
+        <f t="shared" si="10"/>
+        <v>6.7520752701932807E-2</v>
       </c>
       <c r="D689">
         <v>7.0000000000000007E-2</v>
@@ -10093,7 +10843,8 @@
         <v>227.16900000000001</v>
       </c>
       <c r="C690">
-        <v>-2.3765199825720451E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.18478500551268873</v>
       </c>
       <c r="D690">
         <v>0.08</v>
@@ -10107,7 +10858,8 @@
         <v>227.22300000000001</v>
       </c>
       <c r="C691">
-        <v>-0.27167949719542062</v>
+        <f t="shared" si="10"/>
+        <v>2.3770849015480877E-2</v>
       </c>
       <c r="D691">
         <v>7.0000000000000007E-2</v>
@@ -10121,7 +10873,8 @@
         <v>227.84200000000001</v>
       </c>
       <c r="C692">
-        <v>-0.21328871934795929</v>
+        <f t="shared" si="10"/>
+        <v>0.27241960540966836</v>
       </c>
       <c r="D692">
         <v>0.08</v>
@@ -10135,7 +10888,8 @@
         <v>228.32900000000001</v>
       </c>
       <c r="C693">
-        <v>-0.20890969244821139</v>
+        <f t="shared" si="10"/>
+        <v>0.21374461249461518</v>
       </c>
       <c r="D693">
         <v>0.1</v>
@@ -10149,7 +10903,8 @@
         <v>228.80699999999999</v>
       </c>
       <c r="C694">
-        <v>-0.16580347052844721</v>
+        <f t="shared" si="10"/>
+        <v>0.20934703870292282</v>
       </c>
       <c r="D694">
         <v>0.13</v>
@@ -10163,7 +10918,8 @@
         <v>229.18700000000001</v>
       </c>
       <c r="C695">
-        <v>0.20724663661444431</v>
+        <f t="shared" si="10"/>
+        <v>0.16607883500068255</v>
       </c>
       <c r="D695">
         <v>0.14000000000000001</v>
@@ -10177,7 +10933,8 @@
         <v>228.71299999999999</v>
       </c>
       <c r="C696">
-        <v>8.2704661217203324E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.20681801323810811</v>
       </c>
       <c r="D696">
         <v>0.16</v>
@@ -10191,7 +10948,8 @@
         <v>228.524</v>
       </c>
       <c r="C697">
-        <v>-2.8872654096856461E-2</v>
+        <f t="shared" si="10"/>
+        <v>-8.2636317131068449E-2</v>
       </c>
       <c r="D697">
         <v>0.16</v>
@@ -10205,7 +10963,8 @@
         <v>228.59</v>
       </c>
       <c r="C698">
-        <v>-0.57759723031689525</v>
+        <f t="shared" si="10"/>
+        <v>2.8880992806001871E-2</v>
       </c>
       <c r="D698">
         <v>0.16</v>
@@ -10219,7 +10978,8 @@
         <v>229.91800000000001</v>
       </c>
       <c r="C699">
-        <v>-0.47486093976580879</v>
+        <f t="shared" si="10"/>
+        <v>0.58095279758518803</v>
       </c>
       <c r="D699">
         <v>0.13</v>
@@ -10233,7 +10993,8 @@
         <v>231.01499999999999</v>
       </c>
       <c r="C700">
-        <v>-0.26895414396602702</v>
+        <f t="shared" si="10"/>
+        <v>0.47712662775423187</v>
       </c>
       <c r="D700">
         <v>0.14000000000000001</v>
@@ -10247,7 +11008,8 @@
         <v>231.63800000000001</v>
       </c>
       <c r="C701">
-        <v>0.16821694364084211</v>
+        <f t="shared" si="10"/>
+        <v>0.26967945804385884</v>
       </c>
       <c r="D701">
         <v>0.16</v>
@@ -10261,7 +11023,8 @@
         <v>231.249</v>
       </c>
       <c r="C702">
-        <v>1.210962672075766E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.16793444944266378</v>
       </c>
       <c r="D702">
         <v>0.16</v>
@@ -10275,7 +11038,8 @@
         <v>231.221</v>
       </c>
       <c r="C703">
-        <v>-0.19768731736583561</v>
+        <f t="shared" si="10"/>
+        <v>-1.2108160467716456E-2</v>
       </c>
       <c r="D703">
         <v>0.16</v>
@@ -10289,7 +11053,8 @@
         <v>231.679</v>
       </c>
       <c r="C704">
-        <v>-0.54006018794782173</v>
+        <f t="shared" si="10"/>
+        <v>0.19807889421807889</v>
       </c>
       <c r="D704">
         <v>0.14000000000000001</v>
@@ -10303,7 +11068,8 @@
         <v>232.93700000000001</v>
       </c>
       <c r="C705">
-        <v>0.28198482878569742</v>
+        <f t="shared" si="10"/>
+        <v>0.54299267521009664</v>
       </c>
       <c r="D705">
         <v>0.15</v>
@@ -10317,7 +11083,8 @@
         <v>232.28200000000001</v>
       </c>
       <c r="C706">
-        <v>0.20923480459196231</v>
+        <f t="shared" si="10"/>
+        <v>-0.28119191025899326</v>
       </c>
       <c r="D706">
         <v>0.14000000000000001</v>
@@ -10331,7 +11098,8 @@
         <v>231.797</v>
       </c>
       <c r="C707">
-        <v>-4.1398403574066663E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.20879792665812191</v>
       </c>
       <c r="D707">
         <v>0.15</v>
@@ -10345,7 +11113,8 @@
         <v>231.893</v>
       </c>
       <c r="C708">
-        <v>-0.2374755318462429</v>
+        <f t="shared" ref="C708:C771" si="11">(B708/B707-1)*100</f>
+        <v>4.1415548950163306E-2</v>
       </c>
       <c r="D708">
         <v>0.11</v>
@@ -10359,7 +11128,8 @@
         <v>232.44499999999999</v>
       </c>
       <c r="C709">
-        <v>-0.19536281665951671</v>
+        <f t="shared" si="11"/>
+        <v>0.23804082055085551</v>
       </c>
       <c r="D709">
         <v>0.09</v>
@@ -10373,7 +11143,8 @@
         <v>232.9</v>
       </c>
       <c r="C710">
-        <v>-0.23816050990336229</v>
+        <f t="shared" si="11"/>
+        <v>0.19574523005443378</v>
       </c>
       <c r="D710">
         <v>0.09</v>
@@ -10387,7 +11158,8 @@
         <v>233.45599999999999</v>
       </c>
       <c r="C711">
-        <v>-3.7680265817152669E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.23872906826962748</v>
       </c>
       <c r="D711">
         <v>0.08</v>
@@ -10401,7 +11173,8 @@
         <v>233.54400000000001</v>
       </c>
       <c r="C712">
-        <v>-5.3494472951054473E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.7694469193350066E-2</v>
       </c>
       <c r="D712">
         <v>0.08</v>
@@ -10415,7 +11188,8 @@
         <v>233.66900000000001</v>
       </c>
       <c r="C713">
-        <v>-0.18410935497650269</v>
+        <f t="shared" si="11"/>
+        <v>5.3523104853914205E-2</v>
       </c>
       <c r="D713">
         <v>0.09</v>
@@ -10429,7 +11203,8 @@
         <v>234.1</v>
       </c>
       <c r="C714">
-        <v>-0.26371959662404582</v>
+        <f t="shared" si="11"/>
+        <v>0.18444894273523804</v>
       </c>
       <c r="D714">
         <v>0.08</v>
@@ -10443,7 +11218,8 @@
         <v>234.71899999999999</v>
       </c>
       <c r="C715">
-        <v>-0.24183128761348091</v>
+        <f t="shared" si="11"/>
+        <v>0.26441691584793148</v>
       </c>
       <c r="D715">
         <v>0.09</v>
@@ -10457,7 +11233,8 @@
         <v>235.28800000000001</v>
       </c>
       <c r="C716">
-        <v>-0.10995682390350089</v>
+        <f t="shared" si="11"/>
+        <v>0.24241752904536895</v>
       </c>
       <c r="D716">
         <v>7.0000000000000007E-2</v>
@@ -10471,7 +11248,8 @@
         <v>235.547</v>
       </c>
       <c r="C717">
-        <v>-0.20378938092090459</v>
+        <f t="shared" si="11"/>
+        <v>0.11007786202441583</v>
       </c>
       <c r="D717">
         <v>7.0000000000000007E-2</v>
@@ -10485,7 +11263,8 @@
         <v>236.02799999999999</v>
       </c>
       <c r="C718">
-        <v>-0.18607168834683391</v>
+        <f t="shared" si="11"/>
+        <v>0.20420553010651599</v>
       </c>
       <c r="D718">
         <v>0.08</v>
@@ -10499,7 +11278,8 @@
         <v>236.46799999999999</v>
       </c>
       <c r="C719">
-        <v>-0.1899391350593915</v>
+        <f t="shared" si="11"/>
+        <v>0.18641856050976013</v>
       </c>
       <c r="D719">
         <v>0.09</v>
@@ -10513,7 +11293,8 @@
         <v>236.91800000000001</v>
       </c>
       <c r="C720">
-        <v>-0.13193891186227269</v>
+        <f t="shared" si="11"/>
+        <v>0.19030059035471947</v>
       </c>
       <c r="D720">
         <v>0.09</v>
@@ -10527,7 +11308,8 @@
         <v>237.23099999999999</v>
       </c>
       <c r="C721">
-        <v>-0.1124219993431486</v>
+        <f t="shared" si="11"/>
+        <v>0.1321132206079767</v>
       </c>
       <c r="D721">
         <v>0.1</v>
@@ -10541,7 +11323,8 @@
         <v>237.49799999999999</v>
       </c>
       <c r="C722">
-        <v>1.6002695190753261E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11254852864928111</v>
       </c>
       <c r="D722">
         <v>0.09</v>
@@ -10555,7 +11338,8 @@
         <v>237.46</v>
       </c>
       <c r="C723">
-        <v>-7.1585879895752491E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.6000134737970129E-2</v>
       </c>
       <c r="D723">
         <v>0.09</v>
@@ -10569,7 +11353,8 @@
         <v>237.477</v>
       </c>
       <c r="C724">
-        <v>1.9795308090797551E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.1591004800808378E-3</v>
       </c>
       <c r="D724">
         <v>0.09</v>
@@ -10583,7 +11368,8 @@
         <v>237.43</v>
       </c>
       <c r="C725">
-        <v>0.1886211247220215</v>
+        <f t="shared" si="11"/>
+        <v>-1.9791390324119806E-2</v>
       </c>
       <c r="D725">
         <v>0.09</v>
@@ -10597,7 +11383,8 @@
         <v>236.983</v>
       </c>
       <c r="C726">
-        <v>0.30941537002862057</v>
+        <f t="shared" si="11"/>
+        <v>-0.18826601524659647</v>
       </c>
       <c r="D726">
         <v>0.09</v>
@@ -10611,7 +11398,8 @@
         <v>236.25200000000001</v>
       </c>
       <c r="C727">
-        <v>0.64111575440792823</v>
+        <f t="shared" si="11"/>
+        <v>-0.30846094445592387</v>
       </c>
       <c r="D727">
         <v>0.12</v>
@@ -10625,7 +11413,8 @@
         <v>234.74700000000001</v>
       </c>
       <c r="C728">
-        <v>-0.25282355040748827</v>
+        <f t="shared" si="11"/>
+        <v>-0.63703164417655556</v>
       </c>
       <c r="D728">
         <v>0.11</v>
@@ -10639,7 +11428,8 @@
         <v>235.34200000000001</v>
       </c>
       <c r="C729">
-        <v>-0.26867139031087062</v>
+        <f t="shared" si="11"/>
+        <v>0.25346436802173855</v>
       </c>
       <c r="D729">
         <v>0.11</v>
@@ -10653,7 +11443,8 @@
         <v>235.976</v>
       </c>
       <c r="C730">
-        <v>-0.10413932656568869</v>
+        <f t="shared" si="11"/>
+        <v>0.26939517808124425</v>
       </c>
       <c r="D730">
         <v>0.11</v>
@@ -10667,7 +11458,8 @@
         <v>236.22200000000001</v>
       </c>
       <c r="C731">
-        <v>-0.32869059624220931</v>
+        <f t="shared" si="11"/>
+        <v>0.10424788961589382</v>
       </c>
       <c r="D731">
         <v>0.12</v>
@@ -10681,7 +11473,8 @@
         <v>237.001</v>
       </c>
       <c r="C732">
-        <v>-0.2760280572421614</v>
+        <f t="shared" si="11"/>
+        <v>0.32977453412468272</v>
       </c>
       <c r="D732">
         <v>0.12</v>
@@ -10695,7 +11488,8 @@
         <v>237.65700000000001</v>
       </c>
       <c r="C733">
-        <v>-0.15838073552516541</v>
+        <f t="shared" si="11"/>
+        <v>0.27679208104607333</v>
       </c>
       <c r="D733">
         <v>0.13</v>
@@ -10709,7 +11503,8 @@
         <v>238.03399999999999</v>
       </c>
       <c r="C734">
-        <v>4.2010981671225522E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.15863197801873063</v>
       </c>
       <c r="D734">
         <v>0.13</v>
@@ -10723,7 +11518,8 @@
         <v>238.03299999999999</v>
       </c>
       <c r="C735">
-        <v>0.2252650548636215</v>
+        <f t="shared" si="11"/>
+        <v>-4.2010805179071298E-4</v>
       </c>
       <c r="D735">
         <v>0.14000000000000001</v>
@@ -10737,7 +11533,8 @@
         <v>237.49799999999999</v>
       </c>
       <c r="C736">
-        <v>-9.8850390984850378E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.22475875193775918</v>
       </c>
       <c r="D736">
         <v>0.14000000000000001</v>
@@ -10751,7 +11548,8 @@
         <v>237.733</v>
       </c>
       <c r="C737">
-        <v>-0.1193192082918459</v>
+        <f t="shared" si="11"/>
+        <v>9.8948201669069036E-2</v>
       </c>
       <c r="D737">
         <v>0.12</v>
@@ -10765,7 +11563,8 @@
         <v>238.017</v>
       </c>
       <c r="C738">
-        <v>0.1076711487586257</v>
+        <f t="shared" si="11"/>
+        <v>0.11946174910508756</v>
       </c>
       <c r="D738">
         <v>0.12</v>
@@ -10779,7 +11578,8 @@
         <v>237.761</v>
       </c>
       <c r="C739">
-        <v>4.5865382997001269E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.10755534268560574</v>
       </c>
       <c r="D739">
         <v>0.24</v>
@@ -10793,7 +11593,8 @@
         <v>237.65199999999999</v>
       </c>
       <c r="C740">
-        <v>0.13314457140929381</v>
+        <f t="shared" si="11"/>
+        <v>-4.5844356307389589E-2</v>
       </c>
       <c r="D740">
         <v>0.34</v>
@@ -10807,7 +11608,8 @@
         <v>237.33600000000001</v>
       </c>
       <c r="C741">
-        <v>-0.31250000000000439</v>
+        <f t="shared" si="11"/>
+        <v>-0.13296753235823022</v>
       </c>
       <c r="D741">
         <v>0.38</v>
@@ -10821,7 +11623,8 @@
         <v>238.08</v>
       </c>
       <c r="C742">
-        <v>-0.38160273147217483</v>
+        <f t="shared" si="11"/>
+        <v>0.31347962382444194</v>
       </c>
       <c r="D742">
         <v>0.36</v>
@@ -10835,7 +11638,8 @@
         <v>238.99199999999999</v>
       </c>
       <c r="C743">
-        <v>-0.23585201016876889</v>
+        <f t="shared" si="11"/>
+        <v>0.38306451612901693</v>
       </c>
       <c r="D743">
         <v>0.37</v>
@@ -10849,7 +11653,8 @@
         <v>239.55699999999999</v>
       </c>
       <c r="C744">
-        <v>-0.27682726811033559</v>
+        <f t="shared" si="11"/>
+        <v>0.23640958693178504</v>
       </c>
       <c r="D744">
         <v>0.37</v>
@@ -10863,7 +11668,8 @@
         <v>240.22200000000001</v>
       </c>
       <c r="C745">
-        <v>5.0395458577856538E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.27759572878272021</v>
       </c>
       <c r="D745">
         <v>0.38</v>
@@ -10877,7 +11683,8 @@
         <v>240.101</v>
       </c>
       <c r="C746">
-        <v>-0.18458084765843319</v>
+        <f t="shared" si="11"/>
+        <v>-5.0370074347894089E-2</v>
       </c>
       <c r="D746">
         <v>0.39</v>
@@ -10891,7 +11698,8 @@
         <v>240.54499999999999</v>
       </c>
       <c r="C747">
-        <v>-0.26163465684810872</v>
+        <f t="shared" si="11"/>
+        <v>0.18492217858316895</v>
       </c>
       <c r="D747">
         <v>0.4</v>
@@ -10905,7 +11713,8 @@
         <v>241.17599999999999</v>
       </c>
       <c r="C748">
-        <v>-0.23372121402659429</v>
+        <f t="shared" si="11"/>
+        <v>0.26232097944252075</v>
       </c>
       <c r="D748">
         <v>0.4</v>
@@ -10919,7 +11728,8 @@
         <v>241.74100000000001</v>
       </c>
       <c r="C749">
-        <v>-0.1177559435763031</v>
+        <f t="shared" si="11"/>
+        <v>0.23426874979268764</v>
       </c>
       <c r="D749">
         <v>0.4</v>
@@ -10933,7 +11743,8 @@
         <v>242.02600000000001</v>
       </c>
       <c r="C750">
-        <v>-0.25181649954458818</v>
+        <f t="shared" si="11"/>
+        <v>0.11789477167711837</v>
       </c>
       <c r="D750">
         <v>0.41</v>
@@ -10947,7 +11758,8 @@
         <v>242.637</v>
       </c>
       <c r="C751">
-        <v>-0.40267960495529159</v>
+        <f t="shared" si="11"/>
+        <v>0.25245221587761879</v>
       </c>
       <c r="D751">
         <v>0.54</v>
@@ -10961,7 +11773,8 @@
         <v>243.61799999999999</v>
       </c>
       <c r="C752">
-        <v>-0.15901248329959211</v>
+        <f t="shared" si="11"/>
+        <v>0.40430766948156283</v>
       </c>
       <c r="D752">
         <v>0.65</v>
@@ -10975,7 +11788,8 @@
         <v>244.006</v>
       </c>
       <c r="C753">
-        <v>4.6742000557631343E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.15926573570097524</v>
       </c>
       <c r="D753">
         <v>0.66</v>
@@ -10989,7 +11803,8 @@
         <v>243.892</v>
       </c>
       <c r="C754">
-        <v>-0.1232631566015496</v>
+        <f t="shared" si="11"/>
+        <v>-4.6720162618951733E-2</v>
       </c>
       <c r="D754">
         <v>0.79</v>
@@ -11003,7 +11818,8 @@
         <v>244.19300000000001</v>
       </c>
       <c r="C755">
-        <v>7.7457746594333798E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.12341528217407749</v>
       </c>
       <c r="D755">
         <v>0.9</v>
@@ -11017,7 +11833,8 @@
         <v>244.00399999999999</v>
       </c>
       <c r="C756">
-        <v>-6.5120431842669024E-2</v>
+        <f t="shared" si="11"/>
+        <v>-7.7397796005629349E-2</v>
       </c>
       <c r="D756">
         <v>0.91</v>
@@ -11031,7 +11848,8 @@
         <v>244.16300000000001</v>
       </c>
       <c r="C757">
-        <v>-3.2754265219470113E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.5162866182522095E-2</v>
       </c>
       <c r="D757">
         <v>1.04</v>
@@ -11045,7 +11863,8 @@
         <v>244.24299999999999</v>
       </c>
       <c r="C758">
-        <v>-0.38338710269472109</v>
+        <f t="shared" si="11"/>
+        <v>3.2764997153544861E-2</v>
       </c>
       <c r="D758">
         <v>1.1499999999999999</v>
@@ -11059,7 +11878,8 @@
         <v>245.18299999999999</v>
       </c>
       <c r="C759">
-        <v>-0.5080447176740388</v>
+        <f t="shared" si="11"/>
+        <v>0.38486261632881824</v>
       </c>
       <c r="D759">
         <v>1.1599999999999999</v>
@@ -11073,7 +11893,8 @@
         <v>246.435</v>
       </c>
       <c r="C760">
-        <v>-7.7445200424930416E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.5106389920997767</v>
       </c>
       <c r="D760">
         <v>1.1499999999999999</v>
@@ -11087,7 +11908,8 @@
         <v>246.626</v>
       </c>
       <c r="C761">
-        <v>-0.26609081056598871</v>
+        <f t="shared" si="11"/>
+        <v>7.7505224501384085E-2</v>
       </c>
       <c r="D761">
         <v>1.1499999999999999</v>
@@ -11101,7 +11923,8 @@
         <v>247.28399999999999</v>
       </c>
       <c r="C762">
-        <v>-0.21024595952463529</v>
+        <f t="shared" si="11"/>
+        <v>0.26680074282516841</v>
       </c>
       <c r="D762">
         <v>1.1599999999999999</v>
@@ -11115,7 +11938,8 @@
         <v>247.80500000000001</v>
       </c>
       <c r="C763">
-        <v>-0.37709603888350651</v>
+        <f t="shared" si="11"/>
+        <v>0.21068892447551058</v>
       </c>
       <c r="D763">
         <v>1.3</v>
@@ -11129,7 +11953,8 @@
         <v>248.74299999999999</v>
       </c>
       <c r="C764">
-        <v>-0.27902613464614312</v>
+        <f t="shared" si="11"/>
+        <v>0.37852343576603165</v>
       </c>
       <c r="D764">
         <v>1.41</v>
@@ -11143,7 +11968,8 @@
         <v>249.43899999999999</v>
       </c>
       <c r="C765">
-        <v>-5.6895356617692183E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.27980686893700479</v>
       </c>
       <c r="D765">
         <v>1.42</v>
@@ -11157,7 +11983,8 @@
         <v>249.58099999999999</v>
       </c>
       <c r="C766">
-        <v>-0.2258680930336654</v>
+        <f t="shared" si="11"/>
+        <v>5.692774586170124E-2</v>
       </c>
       <c r="D766">
         <v>1.51</v>
@@ -11171,7 +11998,8 @@
         <v>250.14599999999999</v>
       </c>
       <c r="C767">
-        <v>-0.25241347959757959</v>
+        <f t="shared" si="11"/>
+        <v>0.22637941189433963</v>
       </c>
       <c r="D767">
         <v>1.69</v>
@@ -11185,7 +12013,8 @@
         <v>250.779</v>
       </c>
       <c r="C768">
-        <v>-0.1349962965617735</v>
+        <f t="shared" si="11"/>
+        <v>0.25305221750497875</v>
       </c>
       <c r="D768">
         <v>1.7</v>
@@ -11199,7 +12028,8 @@
         <v>251.11799999999999</v>
       </c>
       <c r="C769">
-        <v>-8.1568340342907941E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.13517878291244845</v>
       </c>
       <c r="D769">
         <v>1.82</v>
@@ -11213,7 +12043,8 @@
         <v>251.32300000000001</v>
       </c>
       <c r="C770">
-        <v>-0.1692161637186218</v>
+        <f t="shared" si="11"/>
+        <v>8.1634928599316758E-2</v>
       </c>
       <c r="D770">
         <v>1.91</v>
@@ -11227,7 +12058,8 @@
         <v>251.749</v>
       </c>
       <c r="C771">
-        <v>-0.194260205598662</v>
+        <f t="shared" si="11"/>
+        <v>0.1695029901759737</v>
       </c>
       <c r="D771">
         <v>1.91</v>
@@ -11241,7 +12073,8 @@
         <v>252.239</v>
       </c>
       <c r="C772">
-        <v>-0.24637944807839321</v>
+        <f t="shared" ref="C772:C822" si="12">(B772/B771-1)*100</f>
+        <v>0.19463831038057933</v>
       </c>
       <c r="D772">
         <v>1.95</v>
@@ -11255,7 +12088,8 @@
         <v>252.86199999999999</v>
       </c>
       <c r="C773">
-        <v>8.113766885540219E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.24698797568971642</v>
       </c>
       <c r="D773">
         <v>2.19</v>
@@ -11269,7 +12103,8 @@
         <v>252.65700000000001</v>
       </c>
       <c r="C774">
-        <v>4.1971720563371839E-2</v>
+        <f t="shared" si="12"/>
+        <v>-8.1071889014550091E-2</v>
       </c>
       <c r="D774">
         <v>2.2000000000000002</v>
@@ -11283,7 +12118,8 @@
         <v>252.55099999999999</v>
       </c>
       <c r="C775">
-        <v>3.2083019764717058E-2</v>
+        <f t="shared" si="12"/>
+        <v>-4.1954111700848173E-2</v>
       </c>
       <c r="D775">
         <v>2.27</v>
@@ -11297,7 +12133,8 @@
         <v>252.47</v>
       </c>
       <c r="C776">
-        <v>-0.26270567088707558</v>
+        <f t="shared" si="12"/>
+        <v>-3.2072729864462968E-2</v>
       </c>
       <c r="D776">
         <v>2.4</v>
@@ -11311,7 +12148,8 @@
         <v>253.13499999999999</v>
       </c>
       <c r="C777">
-        <v>-0.44755046741101762</v>
+        <f t="shared" si="12"/>
+        <v>0.26339763140175165</v>
       </c>
       <c r="D777">
         <v>2.4</v>
@@ -11325,7 +12163,8 @@
         <v>254.273</v>
       </c>
       <c r="C778">
-        <v>-0.34879665155215228</v>
+        <f t="shared" si="12"/>
+        <v>0.44956248642029628</v>
       </c>
       <c r="D778">
         <v>2.41</v>
@@ -11339,7 +12178,8 @@
         <v>255.16300000000001</v>
       </c>
       <c r="C779">
-        <v>-6.3448545970812287E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.35001750087504391</v>
       </c>
       <c r="D779">
         <v>2.42</v>
@@ -11353,7 +12193,8 @@
         <v>255.32499999999999</v>
       </c>
       <c r="C780">
-        <v>-1.4097689153791389E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.348882870947925E-2</v>
       </c>
       <c r="D780">
         <v>2.39</v>
@@ -11367,7 +12208,8 @@
         <v>255.36099999999999</v>
       </c>
       <c r="C781">
-        <v>-0.2106291520125092</v>
+        <f t="shared" si="12"/>
+        <v>1.4099676882395329E-2</v>
       </c>
       <c r="D781">
         <v>2.38</v>
@@ -11381,7 +12223,8 @@
         <v>255.9</v>
       </c>
       <c r="C782">
-        <v>-0.1089082243275086</v>
+        <f t="shared" si="12"/>
+        <v>0.21107373483031378</v>
       </c>
       <c r="D782">
         <v>2.4</v>
@@ -11395,7 +12238,8 @@
         <v>256.17899999999997</v>
       </c>
       <c r="C783">
-        <v>-0.16251227610719621</v>
+        <f t="shared" si="12"/>
+        <v>0.10902696365766573</v>
       </c>
       <c r="D783">
         <v>2.13</v>
@@ -11409,7 +12253,8 @@
         <v>256.596</v>
       </c>
       <c r="C784">
-        <v>-0.27554847360137252</v>
+        <f t="shared" si="12"/>
+        <v>0.16277680840350861</v>
       </c>
       <c r="D784">
         <v>2.04</v>
@@ -11423,7 +12268,8 @@
         <v>257.30500000000001</v>
       </c>
       <c r="C785">
-        <v>-0.18736325973280901</v>
+        <f t="shared" si="12"/>
+        <v>0.27630984115107893</v>
       </c>
       <c r="D785">
         <v>1.83</v>
@@ -11437,7 +12283,8 @@
         <v>257.78800000000001</v>
       </c>
       <c r="C786">
-        <v>-0.18392104172876289</v>
+        <f t="shared" si="12"/>
+        <v>0.18771496861700321</v>
       </c>
       <c r="D786">
         <v>1.55</v>
@@ -11451,7 +12298,8 @@
         <v>258.26299999999998</v>
       </c>
       <c r="C787">
-        <v>-0.16197493447555061</v>
+        <f t="shared" si="12"/>
+        <v>0.18425993451982592</v>
       </c>
       <c r="D787">
         <v>1.55</v>
@@ -11465,7 +12313,8 @@
         <v>258.68200000000002</v>
       </c>
       <c r="C788">
-        <v>-0.1254792341519706</v>
+        <f t="shared" si="12"/>
+        <v>0.16223771891445971</v>
       </c>
       <c r="D788">
         <v>1.55</v>
@@ -11479,7 +12328,8 @@
         <v>259.00700000000001</v>
       </c>
       <c r="C789">
-        <v>0.3261480061201194</v>
+        <f t="shared" si="12"/>
+        <v>0.12563688234974446</v>
       </c>
       <c r="D789">
         <v>1.58</v>
@@ -11493,7 +12343,8 @@
         <v>258.16500000000002</v>
       </c>
       <c r="C790">
-        <v>0.80868743508244467</v>
+        <f t="shared" si="12"/>
+        <v>-0.32508773894140974</v>
       </c>
       <c r="D790">
         <v>0.65</v>
@@ -11507,7 +12358,8 @@
         <v>256.09399999999999</v>
       </c>
       <c r="C791">
-        <v>5.8606570187236251E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.80220014331920941</v>
       </c>
       <c r="D791">
         <v>0.05</v>
@@ -11521,7 +12373,8 @@
         <v>255.94399999999999</v>
       </c>
       <c r="C792">
-        <v>-0.49491285568216142</v>
+        <f t="shared" si="12"/>
+        <v>-5.857224300452879E-2</v>
       </c>
       <c r="D792">
         <v>0.05</v>
@@ -11535,7 +12388,8 @@
         <v>257.21699999999998</v>
       </c>
       <c r="C793">
-        <v>-0.51287406736985064</v>
+        <f t="shared" si="12"/>
+        <v>0.49737442565560563</v>
       </c>
       <c r="D793">
         <v>0.08</v>
@@ -11549,7 +12403,8 @@
         <v>258.54300000000001</v>
       </c>
       <c r="C794">
-        <v>-0.39949148624700559</v>
+        <f t="shared" si="12"/>
+        <v>0.51551802563594151</v>
       </c>
       <c r="D794">
         <v>0.09</v>
@@ -11563,7 +12418,8 @@
         <v>259.58</v>
       </c>
       <c r="C795">
-        <v>-0.23444406010992849</v>
+        <f t="shared" si="12"/>
+        <v>0.40109382191741982</v>
       </c>
       <c r="D795">
         <v>0.1</v>
@@ -11577,7 +12433,8 @@
         <v>260.19</v>
       </c>
       <c r="C796">
-        <v>-6.2223451327425572E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.23499499191002027</v>
       </c>
       <c r="D796">
         <v>0.09</v>
@@ -11591,7 +12448,8 @@
         <v>260.35199999999998</v>
       </c>
       <c r="C797">
-        <v>-0.1415306016776641</v>
+        <f t="shared" si="12"/>
+        <v>6.2262193012796452E-2</v>
       </c>
       <c r="D797">
         <v>0.09</v>
@@ -11605,7 +12463,8 @@
         <v>260.721</v>
       </c>
       <c r="C798">
-        <v>-0.32229205854017451</v>
+        <f t="shared" si="12"/>
+        <v>0.14173119469027551</v>
       </c>
       <c r="D798">
         <v>0.09</v>
@@ -11619,7 +12478,8 @@
         <v>261.56400000000002</v>
       </c>
       <c r="C799">
-        <v>-0.24256292906177371</v>
+        <f t="shared" si="12"/>
+        <v>0.32333413879204187</v>
       </c>
       <c r="D799">
         <v>0.09</v>
@@ -11633,7 +12493,8 @@
         <v>262.2</v>
       </c>
       <c r="C800">
-        <v>-0.43516894124080441</v>
+        <f t="shared" si="12"/>
+        <v>0.24315272743953287</v>
       </c>
       <c r="D800">
         <v>0.09</v>
@@ -11647,7 +12508,8 @@
         <v>263.346</v>
       </c>
       <c r="C801">
-        <v>-0.63464992378164942</v>
+        <f t="shared" si="12"/>
+        <v>0.43707093821510057</v>
       </c>
       <c r="D801">
         <v>0.08</v>
@@ -11661,7 +12523,8 @@
         <v>265.02800000000002</v>
       </c>
       <c r="C802">
-        <v>-0.63698088307518885</v>
+        <f t="shared" si="12"/>
+        <v>0.63870345477052837</v>
       </c>
       <c r="D802">
         <v>7.0000000000000007E-2</v>
@@ -11675,7 +12538,8 @@
         <v>266.72699999999998</v>
       </c>
       <c r="C803">
-        <v>-0.69694972803324706</v>
+        <f t="shared" si="12"/>
+        <v>0.64106434037156657</v>
       </c>
       <c r="D803">
         <v>7.0000000000000007E-2</v>
@@ -11689,7 +12553,8 @@
         <v>268.59899999999999</v>
       </c>
       <c r="C804">
-        <v>-0.86951707848166304</v>
+        <f t="shared" si="12"/>
+        <v>0.70184120842660125</v>
       </c>
       <c r="D804">
         <v>0.06</v>
@@ -11703,7 +12568,8 @@
         <v>270.95499999999998</v>
       </c>
       <c r="C805">
-        <v>-0.45153278664434859</v>
+        <f t="shared" si="12"/>
+        <v>0.87714399532388132</v>
       </c>
       <c r="D805">
         <v>0.08</v>
@@ -11717,7 +12583,8 @@
         <v>272.18400000000003</v>
       </c>
       <c r="C806">
-        <v>-0.33248868513173768</v>
+        <f t="shared" si="12"/>
+        <v>0.45358085290916339</v>
       </c>
       <c r="D806">
         <v>0.1</v>
@@ -11731,7 +12598,8 @@
         <v>273.09199999999998</v>
       </c>
       <c r="C807">
-        <v>-0.40916948077049931</v>
+        <f t="shared" si="12"/>
+        <v>0.33359786027098437</v>
       </c>
       <c r="D807">
         <v>0.09</v>
@@ -11745,7 +12613,8 @@
         <v>274.214</v>
       </c>
       <c r="C808">
-        <v>-0.85903322607469024</v>
+        <f t="shared" si="12"/>
+        <v>0.41085055585663444</v>
       </c>
       <c r="D808">
         <v>0.08</v>
@@ -11759,7 +12628,8 @@
         <v>276.58999999999997</v>
       </c>
       <c r="C809">
-        <v>-0.6943746319886368</v>
+        <f t="shared" si="12"/>
+        <v>0.86647654751397241</v>
       </c>
       <c r="D809">
         <v>0.08</v>
@@ -11773,7 +12643,8 @@
         <v>278.524</v>
       </c>
       <c r="C810">
-        <v>-0.5718855086639496</v>
+        <f t="shared" si="12"/>
+        <v>0.69922990708268795</v>
       </c>
       <c r="D810">
         <v>0.08</v>
@@ -11787,7 +12658,8 @@
         <v>280.12599999999998</v>
       </c>
       <c r="C811">
-        <v>-0.64093242011400431</v>
+        <f t="shared" si="12"/>
+        <v>0.57517485028220072</v>
       </c>
       <c r="D811">
         <v>0.08</v>
@@ -11801,7 +12673,8 @@
         <v>281.93299999999999</v>
       </c>
       <c r="C812">
-        <v>-0.79139424734854247</v>
+        <f t="shared" si="12"/>
+        <v>0.64506686276890601</v>
       </c>
       <c r="D812">
         <v>0.08</v>
@@ -11815,7 +12688,8 @@
         <v>284.18200000000002</v>
       </c>
       <c r="C813">
-        <v>-1.2255481251824849</v>
+        <f t="shared" si="12"/>
+        <v>0.79770725668866227</v>
       </c>
       <c r="D813">
         <v>0.08</v>
@@ -11829,7 +12703,8 @@
         <v>287.70800000000003</v>
       </c>
       <c r="C814">
-        <v>-0.33083561107588588</v>
+        <f t="shared" si="12"/>
+        <v>1.2407541645846676</v>
       </c>
       <c r="D814">
         <v>0.2</v>
@@ -11843,7 +12718,8 @@
         <v>288.66300000000001</v>
       </c>
       <c r="C815">
-        <v>-0.96440848926490075</v>
+        <f t="shared" si="12"/>
+        <v>0.33193376617959292</v>
       </c>
       <c r="D815">
         <v>0.33</v>
@@ -11857,7 +12733,8 @@
         <v>291.47399999999999</v>
       </c>
       <c r="C816">
-        <v>-1.3049897063603819</v>
+        <f t="shared" si="12"/>
+        <v>0.97379989815111756</v>
       </c>
       <c r="D816">
         <v>0.77</v>
@@ -11871,7 +12748,8 @@
         <v>295.32799999999997</v>
       </c>
       <c r="C817">
-        <v>1.9304300117495291E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.3222448657513208</v>
       </c>
       <c r="D817">
         <v>1.21</v>
@@ -11885,7 +12763,8 @@
         <v>295.27100000000002</v>
       </c>
       <c r="C818">
-        <v>-0.1180569650226615</v>
+        <f t="shared" si="12"/>
+        <v>-1.9300574276726046E-2</v>
       </c>
       <c r="D818">
         <v>1.68</v>
@@ -11899,7 +12778,8 @@
         <v>295.62</v>
       </c>
       <c r="C819">
-        <v>-0.38448448414718511</v>
+        <f t="shared" si="12"/>
+        <v>0.1181965042283073</v>
       </c>
       <c r="D819">
         <v>2.33</v>
@@ -11913,7 +12793,8 @@
         <v>296.76100000000002</v>
       </c>
       <c r="C820">
-        <v>-0.43648636860786899</v>
+        <f t="shared" si="12"/>
+        <v>0.3859684730397106</v>
       </c>
       <c r="D820">
         <v>2.56</v>
@@ -11927,7 +12808,8 @@
         <v>298.06200000000001</v>
       </c>
       <c r="C821">
-        <v>-9.6196065681464216E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.4383999245183734</v>
       </c>
       <c r="D821">
         <v>3.08</v>
@@ -11941,7 +12823,8 @@
         <v>298.34899999999999</v>
       </c>
       <c r="C822">
-        <v>7.95003220266155E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.6288691614487831E-2</v>
       </c>
       <c r="D822">
         <v>3.78</v>
@@ -11954,8 +12837,270 @@
       <c r="B823">
         <v>298.11200000000002</v>
       </c>
+      <c r="C823">
+        <f>(B823/B822-1)*100</f>
+        <v>-7.943716922127475E-2</v>
+      </c>
       <c r="D823">
         <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A829" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B829">
+        <f>AVERAGE(B2:B823)</f>
+        <v>126.6145510948905</v>
+      </c>
+      <c r="C829">
+        <f>AVERAGE(C2:C823)</f>
+        <v>0.29408185893915939</v>
+      </c>
+      <c r="D829">
+        <f>AVERAGE(D2:D823)</f>
+        <v>4.5954987834549881</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B830">
+        <f>MEDIAN(B2:B823)</f>
+        <v>119.7</v>
+      </c>
+      <c r="C830">
+        <f>MEDIAN(C2:C823)</f>
+        <v>0.25125628140703071</v>
+      </c>
+      <c r="D830">
+        <f>MEDIAN(D2:D823)</f>
+        <v>4.1099999999999994</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B831">
+        <f>MODE(B2:B823)</f>
+        <v>29.84</v>
+      </c>
+      <c r="C831">
+        <f>MODE(C2:C823)</f>
+        <v>0</v>
+      </c>
+      <c r="D831">
+        <f>MODE(D2:D823)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A833" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B833">
+        <f>B843-B839</f>
+        <v>271.63900000000001</v>
+      </c>
+      <c r="C833">
+        <f t="shared" ref="C833:D833" si="13">C843-C839</f>
+        <v>3.5805024596037627</v>
+      </c>
+      <c r="D833">
+        <f t="shared" si="13"/>
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B834">
+        <f>_xlfn.STDEV.S(B2:B823)</f>
+        <v>80.98958912374377</v>
+      </c>
+      <c r="C834">
+        <f t="shared" ref="C834:D834" si="14">_xlfn.STDEV.S(C2:C823)</f>
+        <v>0.31485190730328677</v>
+      </c>
+      <c r="D834">
+        <f>_xlfn.STDEV.S(D2:D823)</f>
+        <v>3.6180045350258219</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B835">
+        <f>_xlfn.VAR.S(B2:B823)</f>
+        <v>6559.3135464328352</v>
+      </c>
+      <c r="C835">
+        <f t="shared" ref="C835:D835" si="15">_xlfn.VAR.S(C2:C823)</f>
+        <v>9.9131723532517479E-2</v>
+      </c>
+      <c r="D835">
+        <f t="shared" si="15"/>
+        <v>13.089956815467414</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A836" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B836">
+        <f>B834/B829*100</f>
+        <v>63.965467178449828</v>
+      </c>
+      <c r="C836">
+        <f t="shared" ref="C836:D836" si="16">C834/C829*100</f>
+        <v>107.06267582742134</v>
+      </c>
+      <c r="D836">
+        <f t="shared" si="16"/>
+        <v>78.729311126174068</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A837" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B837">
+        <f>B842-B840</f>
+        <v>157.9</v>
+      </c>
+      <c r="C837">
+        <f t="shared" ref="C837:D837" si="17">C842-C840</f>
+        <v>0.32117080684375132</v>
+      </c>
+      <c r="D837">
+        <f t="shared" si="17"/>
+        <v>4.5325000000000006</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A838"/>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A839" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B839">
+        <f>MIN(B2:B823)</f>
+        <v>26.71</v>
+      </c>
+      <c r="C839">
+        <f>MIN(C2:C823)</f>
+        <v>-1.7705477084725474</v>
+      </c>
+      <c r="D839">
+        <f>MIN(D2:D823)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A840" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B840">
+        <f>QUARTILE(B2:B823,1)</f>
+        <v>40.725000000000001</v>
+      </c>
+      <c r="C840">
+        <f t="shared" ref="C840:D840" si="18">QUARTILE(C2:C823,1)</f>
+        <v>0.1181965042283073</v>
+      </c>
+      <c r="D840">
+        <f t="shared" si="18"/>
+        <v>1.7524999999999999</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A841" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B841">
+        <f>QUARTILE(B2:B823,2)</f>
+        <v>119.7</v>
+      </c>
+      <c r="C841">
+        <f t="shared" ref="C841:D841" si="19">QUARTILE(C2:C823,2)</f>
+        <v>0.25125628140703071</v>
+      </c>
+      <c r="D841">
+        <f t="shared" si="19"/>
+        <v>4.1099999999999994</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A842" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B842">
+        <f>QUARTILE(B2:B823,3)</f>
+        <v>198.625</v>
+      </c>
+      <c r="C842">
+        <f t="shared" ref="C842:D842" si="20">QUARTILE(C2:C823,3)</f>
+        <v>0.43936731107205862</v>
+      </c>
+      <c r="D842">
+        <f t="shared" si="20"/>
+        <v>6.2850000000000001</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A843" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B843">
+        <f>MAX(B2:B823)</f>
+        <v>298.34899999999999</v>
+      </c>
+      <c r="C843">
+        <f>MAX(C2:C823)</f>
+        <v>1.8099547511312153</v>
+      </c>
+      <c r="D843">
+        <f>MAX(D2:D823)</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A845" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B845">
+        <f>B842+1.5*B837</f>
+        <v>435.47500000000002</v>
+      </c>
+      <c r="C845">
+        <f t="shared" ref="C845:D845" si="21">C842+1.5*C837</f>
+        <v>0.9211235213376856</v>
+      </c>
+      <c r="D845">
+        <f t="shared" si="21"/>
+        <v>13.083750000000002</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A846" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B846">
+        <f>B840-1.5*B837</f>
+        <v>-196.12500000000003</v>
+      </c>
+      <c r="C846">
+        <f t="shared" ref="C846:D846" si="22">C840-1.5*C837</f>
+        <v>-0.36355970603731969</v>
+      </c>
+      <c r="D846">
+        <f t="shared" si="22"/>
+        <v>-5.0462500000000006</v>
       </c>
     </row>
   </sheetData>

--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k/Desktop/UNIVERSITY/YEAR 2/STAT 205/STAT-205/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcanuto/Documents/Courses/STAT205/Project 1/STAT-205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE242EC-4D56-8B47-9EE1-62CF8A4056BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E08AB-7F62-AB4B-8D39-F5C348147EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Visualization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,6 +169,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3287A6-68A0-7DA6-BF88-C134F98AC364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="228600"/>
+          <a:ext cx="7772400" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B3CB6C-3C21-7EA5-E09E-AB7B5A658225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="254000"/>
+          <a:ext cx="7772400" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
@@ -12922,7 +13028,7 @@
         <v>80.98958912374377</v>
       </c>
       <c r="C834">
-        <f t="shared" ref="C834:D834" si="14">_xlfn.STDEV.S(C2:C823)</f>
+        <f t="shared" ref="C834" si="14">_xlfn.STDEV.S(C2:C823)</f>
         <v>0.31485190730328677</v>
       </c>
       <c r="D834">
@@ -13106,4 +13212,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D612F-7FAE-7C43-B70F-D1D3CA32EEB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>